--- a/spModle.xlsx
+++ b/spModle.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive\桌面\NEW_folder\PI_SP\PI_SP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS_Workstation\Desktop\excelize_json_practice\excelize_json_practice\PI_SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377542CA-DDCA-457D-AEF9-7A6345807234}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0457C9ED-42C4-4F63-BDF8-56F1D33C7933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="150" windowWidth="25305" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1630,6 +1643,7 @@
       <b/>
       <sz val="14"/>
       <name val="Quattrocento Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -3874,8 +3888,8 @@
   </sheetPr>
   <dimension ref="A1:AZ993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W33" workbookViewId="0">
-      <selection activeCell="AR45" sqref="AR45"/>
+    <sheetView tabSelected="1" topLeftCell="H33" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:X43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -3913,19 +3927,20 @@
     <col min="34" max="34" width="2.375" customWidth="1"/>
     <col min="35" max="35" width="3.25" customWidth="1"/>
     <col min="36" max="36" width="2.375" customWidth="1"/>
-    <col min="37" max="37" width="8" customWidth="1"/>
+    <col min="37" max="37" width="9.375" customWidth="1"/>
     <col min="38" max="38" width="6.75" customWidth="1"/>
     <col min="39" max="39" width="5.625" customWidth="1"/>
     <col min="40" max="40" width="6.75" customWidth="1"/>
     <col min="41" max="41" width="2.5" customWidth="1"/>
-    <col min="42" max="42" width="4.75" customWidth="1"/>
-    <col min="43" max="45" width="2.5" customWidth="1"/>
+    <col min="42" max="42" width="7.875" customWidth="1"/>
+    <col min="43" max="44" width="5.25" customWidth="1"/>
+    <col min="45" max="45" width="4.125" customWidth="1"/>
     <col min="46" max="46" width="6.75" customWidth="1"/>
-    <col min="47" max="47" width="5.75" customWidth="1"/>
+    <col min="47" max="47" width="8.25" customWidth="1"/>
     <col min="48" max="48" width="8.5" customWidth="1"/>
     <col min="49" max="49" width="4.875" customWidth="1"/>
     <col min="50" max="50" width="5.75" customWidth="1"/>
-    <col min="51" max="51" width="2.375" customWidth="1"/>
+    <col min="51" max="51" width="3.625" customWidth="1"/>
     <col min="52" max="52" width="7" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4102,9 +4117,9 @@
         <v>3</v>
       </c>
       <c r="D4" s="211"/>
-      <c r="E4" s="256" t="e">
+      <c r="E4" s="256">
         <f>T24-I24-S27-S28-S29-S30-H29-H30</f>
-        <v>#REF!</v>
+        <v>-10100</v>
       </c>
       <c r="F4" s="210"/>
       <c r="G4" s="210"/>
@@ -4167,7 +4182,7 @@
       <c r="D5" s="211"/>
       <c r="E5" s="258" t="e">
         <f>E4/T24</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F5" s="210"/>
       <c r="G5" s="210"/>
@@ -5670,9 +5685,9 @@
         <v>10000</v>
       </c>
       <c r="R28" s="246"/>
-      <c r="S28" s="302" t="e">
+      <c r="S28" s="302">
         <f>F58</f>
-        <v>#REF!</v>
+        <v>10000</v>
       </c>
       <c r="T28" s="230"/>
       <c r="U28" s="230"/>
@@ -5734,9 +5749,9 @@
       <c r="P29" s="230"/>
       <c r="Q29" s="230"/>
       <c r="R29" s="203"/>
-      <c r="S29" s="302" t="e">
+      <c r="S29" s="302">
         <f>E46</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="T29" s="230"/>
       <c r="U29" s="230"/>
@@ -6383,7 +6398,7 @@
       </c>
       <c r="P37" s="79" t="e">
         <f t="shared" ref="P37:P40" si="4">$T$52</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q37" s="80" t="e">
         <f t="shared" ref="Q37:Q40" si="5">G37-K37-M37-N37-O37-P37-L37</f>
@@ -6430,46 +6445,16 @@
       <c r="AM37" s="62"/>
       <c r="AN37" s="62"/>
       <c r="AO37" s="64"/>
-      <c r="AP37" s="88">
-        <f t="shared" ref="AP37:AP40" si="8">IF(F37=1,AB37,"0")</f>
-        <v>0</v>
-      </c>
-      <c r="AQ37" s="62" t="str">
-        <f t="shared" ref="AQ37:AQ40" si="9">IF(F37=2,AB37,"0")</f>
-        <v>0</v>
-      </c>
-      <c r="AR37" s="62" t="str">
-        <f t="shared" ref="AR37:AR40" si="10">IF(F37=3,AB37,"0")</f>
-        <v>0</v>
-      </c>
-      <c r="AS37" s="62" t="str">
-        <f t="shared" ref="AS37:AS40" si="11">IF(F37=4,AB37,"0")</f>
-        <v>0</v>
-      </c>
-      <c r="AT37" s="64" t="str">
-        <f t="shared" ref="AT37:AT40" si="12">IF(F37=5,AB37,"0")</f>
-        <v>0</v>
-      </c>
-      <c r="AU37" s="88">
-        <f t="shared" ref="AU37:AU40" si="13">IF(E37=1,Z37,"0")</f>
-        <v>0</v>
-      </c>
-      <c r="AV37" s="62" t="str">
-        <f t="shared" ref="AV37:AV40" si="14">IF(E37=2,Z37,"0")</f>
-        <v>0</v>
-      </c>
-      <c r="AW37" s="62" t="str">
-        <f t="shared" ref="AW37:AW40" si="15">IF(E37=3,Z37,"0")</f>
-        <v>0</v>
-      </c>
-      <c r="AX37" s="62" t="str">
-        <f t="shared" ref="AX37:AX40" si="16">IF(E37=4,Z37,"0")</f>
-        <v>0</v>
-      </c>
-      <c r="AY37" s="64" t="str">
-        <f t="shared" ref="AY37:AY40" si="17">IF(E37=5,Z37,"0")</f>
-        <v>0</v>
-      </c>
+      <c r="AP37" s="88"/>
+      <c r="AQ37" s="62"/>
+      <c r="AR37" s="62"/>
+      <c r="AS37" s="62"/>
+      <c r="AT37" s="64"/>
+      <c r="AU37" s="88"/>
+      <c r="AV37" s="62"/>
+      <c r="AW37" s="62"/>
+      <c r="AX37" s="62"/>
+      <c r="AY37" s="64"/>
       <c r="AZ37" s="67"/>
     </row>
     <row r="38" spans="1:52" ht="18" customHeight="1">
@@ -6527,7 +6512,7 @@
       </c>
       <c r="P38" s="79" t="e">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q38" s="80" t="e">
         <f t="shared" si="5"/>
@@ -6574,46 +6559,16 @@
       <c r="AM38" s="62"/>
       <c r="AN38" s="62"/>
       <c r="AO38" s="64"/>
-      <c r="AP38" s="88">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AQ38" s="62" t="str">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AR38" s="62" t="str">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AS38" s="62" t="str">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AT38" s="64" t="str">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AU38" s="88">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV38" s="62" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AW38" s="62" t="str">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AX38" s="62" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AY38" s="64" t="str">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
+      <c r="AP38" s="88"/>
+      <c r="AQ38" s="62"/>
+      <c r="AR38" s="62"/>
+      <c r="AS38" s="62"/>
+      <c r="AT38" s="64"/>
+      <c r="AU38" s="88"/>
+      <c r="AV38" s="62"/>
+      <c r="AW38" s="62"/>
+      <c r="AX38" s="62"/>
+      <c r="AY38" s="64"/>
       <c r="AZ38" s="67"/>
     </row>
     <row r="39" spans="1:52" ht="18" customHeight="1">
@@ -6671,7 +6626,7 @@
       </c>
       <c r="P39" s="79" t="e">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q39" s="80" t="e">
         <f t="shared" si="5"/>
@@ -6718,46 +6673,16 @@
       <c r="AM39" s="62"/>
       <c r="AN39" s="62"/>
       <c r="AO39" s="64"/>
-      <c r="AP39" s="88">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AQ39" s="62" t="str">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AR39" s="62" t="str">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AS39" s="62" t="str">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AT39" s="64" t="str">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AU39" s="88">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV39" s="62" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AW39" s="62" t="str">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AX39" s="62" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AY39" s="64" t="str">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
+      <c r="AP39" s="88"/>
+      <c r="AQ39" s="62"/>
+      <c r="AR39" s="62"/>
+      <c r="AS39" s="62"/>
+      <c r="AT39" s="64"/>
+      <c r="AU39" s="88"/>
+      <c r="AV39" s="62"/>
+      <c r="AW39" s="62"/>
+      <c r="AX39" s="62"/>
+      <c r="AY39" s="64"/>
       <c r="AZ39" s="67"/>
     </row>
     <row r="40" spans="1:52" ht="18" customHeight="1">
@@ -6815,7 +6740,7 @@
       </c>
       <c r="P40" s="79" t="e">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q40" s="80" t="e">
         <f t="shared" si="5"/>
@@ -6862,46 +6787,16 @@
       <c r="AM40" s="62"/>
       <c r="AN40" s="62"/>
       <c r="AO40" s="64"/>
-      <c r="AP40" s="88">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AQ40" s="62" t="str">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AR40" s="62" t="str">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AS40" s="62" t="str">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AT40" s="64" t="str">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AU40" s="88">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AV40" s="62" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AW40" s="62" t="str">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AX40" s="62" t="str">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AY40" s="64" t="str">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
+      <c r="AP40" s="88"/>
+      <c r="AQ40" s="62"/>
+      <c r="AR40" s="62"/>
+      <c r="AS40" s="62"/>
+      <c r="AT40" s="64"/>
+      <c r="AU40" s="88"/>
+      <c r="AV40" s="62"/>
+      <c r="AW40" s="62"/>
+      <c r="AX40" s="62"/>
+      <c r="AY40" s="64"/>
       <c r="AZ40" s="67"/>
     </row>
     <row r="41" spans="1:52" ht="18" customHeight="1">
@@ -6993,83 +6888,83 @@
       <c r="AD42" s="98"/>
       <c r="AE42" s="96"/>
       <c r="AF42" s="189">
-        <f t="shared" ref="AF42:AY42" si="18">SUM(AF36:AF41)</f>
+        <f t="shared" ref="AF42:AY42" si="8">SUM(AF36:AF41)</f>
         <v>0</v>
       </c>
       <c r="AG42" s="189">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH42" s="189">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI42" s="189">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ42" s="189">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK42" s="190">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL42" s="190">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM42" s="190">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN42" s="190">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO42" s="190">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP42" s="190">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AQ42" s="190">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AR42" s="190">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AS42" s="190">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AT42" s="190">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU42" s="191">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AV42" s="191">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW42" s="191">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AX42" s="191">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AY42" s="99">
-        <f t="shared" si="18"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AZ42" s="100" t="s">
@@ -7206,10 +7101,7 @@
         <v>1</v>
       </c>
       <c r="P45" s="100"/>
-      <c r="Q45" s="124" t="e">
-        <f>SUM(R36:R41)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="Q45" s="124"/>
       <c r="R45" s="125" t="s">
         <v>95</v>
       </c>
@@ -7226,15 +7118,15 @@
       <c r="X45" s="100"/>
       <c r="Y45" s="100"/>
       <c r="Z45" s="129">
-        <f t="shared" ref="Z45:AB45" si="19">SUM(Z36:Z41)</f>
+        <f t="shared" ref="Z45:AB45" si="9">SUM(Z36:Z41)</f>
         <v>0</v>
       </c>
       <c r="AA45" s="129">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AB45" s="129">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC45" s="130">
@@ -7242,11 +7134,11 @@
         <v>0</v>
       </c>
       <c r="AD45" s="131">
-        <f t="shared" ref="AD45:AE45" si="20">SUM(AD36:AD41)</f>
+        <f t="shared" ref="AD45:AE45" si="10">SUM(AD36:AD41)</f>
         <v>0</v>
       </c>
       <c r="AE45" s="129">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AF45" s="116"/>
@@ -7278,9 +7170,9 @@
       <c r="D46" s="134" t="s">
         <v>101</v>
       </c>
-      <c r="E46" s="227" t="e">
+      <c r="E46" s="227">
         <f>M37*Q45/1000</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F46" s="224"/>
       <c r="G46" s="224"/>
@@ -7546,9 +7438,9 @@
         <v>0</v>
       </c>
       <c r="G50" s="203"/>
-      <c r="H50" s="164" t="e">
+      <c r="H50" s="164">
         <f>5620+(380*Q45/1000)</f>
-        <v>#REF!</v>
+        <v>5620</v>
       </c>
       <c r="I50" s="165"/>
       <c r="J50" s="232" t="s">
@@ -7562,7 +7454,7 @@
         <v>100</v>
       </c>
       <c r="N50" s="164">
-        <f t="shared" ref="N50:N55" si="21">M50*$T$55</f>
+        <f t="shared" ref="N50:N55" si="11">M50*$T$55</f>
         <v>2800</v>
       </c>
       <c r="O50" s="1"/>
@@ -7572,9 +7464,9 @@
       </c>
       <c r="R50" s="230"/>
       <c r="S50" s="203"/>
-      <c r="T50" s="278" t="e">
+      <c r="T50" s="278">
         <f>F57+M57</f>
-        <v>#REF!</v>
+        <v>282800</v>
       </c>
       <c r="U50" s="203"/>
       <c r="V50" s="1"/>
@@ -7621,9 +7513,9 @@
         <v>0</v>
       </c>
       <c r="G51" s="203"/>
-      <c r="H51" s="164" t="e">
+      <c r="H51" s="164">
         <f>F51*(Q45/1000)*$T$55</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="I51" s="165"/>
       <c r="J51" s="233"/>
@@ -7636,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="N51" s="164">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O51" s="170" t="s">
@@ -7648,9 +7540,9 @@
       </c>
       <c r="R51" s="230"/>
       <c r="S51" s="203"/>
-      <c r="T51" s="278" t="e">
+      <c r="T51" s="278">
         <f>Q45</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="U51" s="203"/>
       <c r="V51" s="172"/>
@@ -7711,7 +7603,7 @@
         <v>0</v>
       </c>
       <c r="N52" s="164">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O52" s="1"/>
@@ -7723,7 +7615,7 @@
       <c r="S52" s="203"/>
       <c r="T52" s="312" t="e">
         <f>$T$50/$T$51*1000/$T$55</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="U52" s="203"/>
       <c r="V52" s="172"/>
@@ -7787,7 +7679,7 @@
         <v>0</v>
       </c>
       <c r="N53" s="164">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O53" s="174" t="s">
@@ -7857,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="N54" s="164">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O54" s="1"/>
@@ -7912,7 +7804,7 @@
       </c>
       <c r="G55" s="203"/>
       <c r="H55" s="164">
-        <f t="shared" ref="H55:H56" si="22">F55*$O$46*$T$55</f>
+        <f t="shared" ref="H55:H56" si="12">F55*$O$46*$T$55</f>
         <v>280000</v>
       </c>
       <c r="I55" s="165"/>
@@ -7926,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="N55" s="164">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O55" s="1"/>
@@ -7985,7 +7877,7 @@
       </c>
       <c r="G56" s="203"/>
       <c r="H56" s="164">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I56" s="165"/>
@@ -8045,9 +7937,9 @@
         <v>130</v>
       </c>
       <c r="E57" s="203"/>
-      <c r="F57" s="229" t="e">
+      <c r="F57" s="229">
         <f>SUM(H51:H56)+IF(F50=1,H50,0)</f>
-        <v>#REF!</v>
+        <v>280000</v>
       </c>
       <c r="G57" s="230"/>
       <c r="H57" s="203"/>
@@ -8107,9 +7999,9 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="231" t="e">
+      <c r="F58" s="231">
         <f>F57/T55</f>
-        <v>#REF!</v>
+        <v>10000</v>
       </c>
       <c r="G58" s="230"/>
       <c r="H58" s="203"/>

--- a/spModle.xlsx
+++ b/spModle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS_Workstation\Desktop\excelize_json_practice\excelize_json_practice\PI_SP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\OneDrive\桌面\NEW_folder\pi_sp\PI_SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0457C9ED-42C4-4F63-BDF8-56F1D33C7933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9737B2AA-A357-48EE-AFFE-64C1ACF1E9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP" sheetId="2" r:id="rId1"/>
@@ -3888,59 +3888,59 @@
   </sheetPr>
   <dimension ref="A1:AZ993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H33" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:X43"/>
+    <sheetView tabSelected="1" topLeftCell="J17" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:X25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="6.5" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="4.875" customWidth="1"/>
-    <col min="6" max="6" width="4.625" customWidth="1"/>
-    <col min="7" max="7" width="6.875" customWidth="1"/>
-    <col min="8" max="8" width="6.5" customWidth="1"/>
-    <col min="9" max="9" width="7.25" customWidth="1"/>
-    <col min="10" max="10" width="5.5" customWidth="1"/>
-    <col min="11" max="11" width="10.25" customWidth="1"/>
-    <col min="12" max="12" width="12.375" customWidth="1"/>
-    <col min="13" max="13" width="7.625" customWidth="1"/>
-    <col min="14" max="15" width="7.375" customWidth="1"/>
-    <col min="16" max="16" width="7.125" customWidth="1"/>
-    <col min="17" max="17" width="7.875" customWidth="1"/>
-    <col min="18" max="18" width="5.375" customWidth="1"/>
-    <col min="19" max="19" width="9.75" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" customWidth="1"/>
+    <col min="10" max="10" width="5.44140625" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" customWidth="1"/>
+    <col min="14" max="15" width="7.33203125" customWidth="1"/>
+    <col min="16" max="16" width="7.109375" customWidth="1"/>
+    <col min="17" max="17" width="7.88671875" customWidth="1"/>
+    <col min="18" max="18" width="5.33203125" customWidth="1"/>
+    <col min="19" max="19" width="9.77734375" customWidth="1"/>
     <col min="20" max="20" width="11" customWidth="1"/>
-    <col min="21" max="21" width="6.125" customWidth="1"/>
-    <col min="22" max="22" width="5.875" customWidth="1"/>
-    <col min="23" max="23" width="5.625" customWidth="1"/>
-    <col min="24" max="24" width="5.5" customWidth="1"/>
-    <col min="25" max="25" width="5.375" customWidth="1"/>
-    <col min="26" max="26" width="10.625" customWidth="1"/>
-    <col min="27" max="27" width="9.25" customWidth="1"/>
-    <col min="28" max="28" width="8.5" customWidth="1"/>
-    <col min="29" max="29" width="10.375" customWidth="1"/>
+    <col min="21" max="21" width="6.109375" customWidth="1"/>
+    <col min="22" max="22" width="5.88671875" customWidth="1"/>
+    <col min="23" max="23" width="5.6640625" customWidth="1"/>
+    <col min="24" max="24" width="5.44140625" customWidth="1"/>
+    <col min="25" max="25" width="5.33203125" customWidth="1"/>
+    <col min="26" max="26" width="10.6640625" customWidth="1"/>
+    <col min="27" max="27" width="9.21875" customWidth="1"/>
+    <col min="28" max="28" width="8.44140625" customWidth="1"/>
+    <col min="29" max="29" width="10.33203125" customWidth="1"/>
     <col min="30" max="31" width="7" customWidth="1"/>
-    <col min="32" max="33" width="3.625" customWidth="1"/>
-    <col min="34" max="34" width="2.375" customWidth="1"/>
-    <col min="35" max="35" width="3.25" customWidth="1"/>
-    <col min="36" max="36" width="2.375" customWidth="1"/>
-    <col min="37" max="37" width="9.375" customWidth="1"/>
-    <col min="38" max="38" width="6.75" customWidth="1"/>
-    <col min="39" max="39" width="5.625" customWidth="1"/>
-    <col min="40" max="40" width="6.75" customWidth="1"/>
-    <col min="41" max="41" width="2.5" customWidth="1"/>
-    <col min="42" max="42" width="7.875" customWidth="1"/>
-    <col min="43" max="44" width="5.25" customWidth="1"/>
-    <col min="45" max="45" width="4.125" customWidth="1"/>
-    <col min="46" max="46" width="6.75" customWidth="1"/>
-    <col min="47" max="47" width="8.25" customWidth="1"/>
-    <col min="48" max="48" width="8.5" customWidth="1"/>
-    <col min="49" max="49" width="4.875" customWidth="1"/>
-    <col min="50" max="50" width="5.75" customWidth="1"/>
-    <col min="51" max="51" width="3.625" customWidth="1"/>
+    <col min="32" max="33" width="3.6640625" customWidth="1"/>
+    <col min="34" max="34" width="2.33203125" customWidth="1"/>
+    <col min="35" max="35" width="3.21875" customWidth="1"/>
+    <col min="36" max="36" width="2.33203125" customWidth="1"/>
+    <col min="37" max="37" width="9.33203125" customWidth="1"/>
+    <col min="38" max="38" width="6.77734375" customWidth="1"/>
+    <col min="39" max="39" width="5.6640625" customWidth="1"/>
+    <col min="40" max="40" width="6.77734375" customWidth="1"/>
+    <col min="41" max="41" width="2.44140625" customWidth="1"/>
+    <col min="42" max="42" width="7.88671875" customWidth="1"/>
+    <col min="43" max="44" width="5.21875" customWidth="1"/>
+    <col min="45" max="45" width="4.109375" customWidth="1"/>
+    <col min="46" max="46" width="6.77734375" customWidth="1"/>
+    <col min="47" max="47" width="8.21875" customWidth="1"/>
+    <col min="48" max="48" width="8.44140625" customWidth="1"/>
+    <col min="49" max="49" width="4.88671875" customWidth="1"/>
+    <col min="50" max="50" width="5.77734375" customWidth="1"/>
+    <col min="51" max="51" width="3.6640625" customWidth="1"/>
     <col min="52" max="52" width="7" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4056,7 +4056,7 @@
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
     </row>
-    <row r="3" spans="1:52" ht="16.5">
+    <row r="3" spans="1:52" ht="16.2">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
@@ -5043,16 +5043,10 @@
         <v>34</v>
       </c>
       <c r="D19" s="203"/>
-      <c r="E19" s="243">
-        <f>AF42</f>
-        <v>0</v>
-      </c>
+      <c r="E19" s="243"/>
       <c r="F19" s="230"/>
       <c r="G19" s="203"/>
-      <c r="H19" s="245">
-        <f>AK42+AP42</f>
-        <v>0</v>
-      </c>
+      <c r="H19" s="245"/>
       <c r="I19" s="230"/>
       <c r="J19" s="230"/>
       <c r="K19" s="230"/>
@@ -5066,16 +5060,10 @@
         <v>萬裕隆/430</v>
       </c>
       <c r="O19" s="203"/>
-      <c r="P19" s="243">
-        <f t="shared" ref="P19:P23" si="0">E19</f>
-        <v>0</v>
-      </c>
+      <c r="P19" s="243"/>
       <c r="Q19" s="230"/>
       <c r="R19" s="203"/>
-      <c r="S19" s="245">
-        <f>AU42</f>
-        <v>0</v>
-      </c>
+      <c r="S19" s="245"/>
       <c r="T19" s="230"/>
       <c r="U19" s="230"/>
       <c r="V19" s="230"/>
@@ -5117,16 +5105,10 @@
       <c r="B20" s="203"/>
       <c r="C20" s="244"/>
       <c r="D20" s="203"/>
-      <c r="E20" s="243">
-        <f>AG42</f>
-        <v>0</v>
-      </c>
+      <c r="E20" s="243"/>
       <c r="F20" s="230"/>
       <c r="G20" s="203"/>
-      <c r="H20" s="247">
-        <f>AL42+AQ42</f>
-        <v>0</v>
-      </c>
+      <c r="H20" s="247"/>
       <c r="I20" s="230"/>
       <c r="J20" s="230"/>
       <c r="K20" s="230"/>
@@ -5135,20 +5117,14 @@
         <v>2</v>
       </c>
       <c r="N20" s="242">
-        <f t="shared" ref="N20:N23" si="1">B20</f>
+        <f>C20</f>
         <v>0</v>
       </c>
       <c r="O20" s="203"/>
-      <c r="P20" s="243">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="P20" s="243"/>
       <c r="Q20" s="230"/>
       <c r="R20" s="203"/>
-      <c r="S20" s="245">
-        <f>AV42</f>
-        <v>0</v>
-      </c>
+      <c r="S20" s="245"/>
       <c r="T20" s="230"/>
       <c r="U20" s="230"/>
       <c r="V20" s="230"/>
@@ -5190,16 +5166,10 @@
       <c r="B21" s="203"/>
       <c r="C21" s="244"/>
       <c r="D21" s="203"/>
-      <c r="E21" s="243">
-        <f>AH42</f>
-        <v>0</v>
-      </c>
+      <c r="E21" s="243"/>
       <c r="F21" s="230"/>
       <c r="G21" s="203"/>
-      <c r="H21" s="247">
-        <f>AM42+AR42</f>
-        <v>0</v>
-      </c>
+      <c r="H21" s="247"/>
       <c r="I21" s="230"/>
       <c r="J21" s="230"/>
       <c r="K21" s="230"/>
@@ -5208,20 +5178,14 @@
         <v>3</v>
       </c>
       <c r="N21" s="242">
-        <f t="shared" si="1"/>
+        <f>C21</f>
         <v>0</v>
       </c>
       <c r="O21" s="203"/>
-      <c r="P21" s="243">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="P21" s="243"/>
       <c r="Q21" s="230"/>
       <c r="R21" s="203"/>
-      <c r="S21" s="245">
-        <f>AW42</f>
-        <v>0</v>
-      </c>
+      <c r="S21" s="245"/>
       <c r="T21" s="230"/>
       <c r="U21" s="230"/>
       <c r="V21" s="230"/>
@@ -5263,16 +5227,10 @@
       <c r="B22" s="203"/>
       <c r="C22" s="244"/>
       <c r="D22" s="203"/>
-      <c r="E22" s="243">
-        <f>AI42</f>
-        <v>0</v>
-      </c>
+      <c r="E22" s="243"/>
       <c r="F22" s="230"/>
       <c r="G22" s="203"/>
-      <c r="H22" s="247">
-        <f>AN42+AS42</f>
-        <v>0</v>
-      </c>
+      <c r="H22" s="247"/>
       <c r="I22" s="230"/>
       <c r="J22" s="230"/>
       <c r="K22" s="230"/>
@@ -5281,20 +5239,14 @@
         <v>4</v>
       </c>
       <c r="N22" s="242">
-        <f t="shared" si="1"/>
+        <f>C22</f>
         <v>0</v>
       </c>
       <c r="O22" s="203"/>
-      <c r="P22" s="243">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="P22" s="243"/>
       <c r="Q22" s="230"/>
       <c r="R22" s="203"/>
-      <c r="S22" s="245">
-        <f>AX42</f>
-        <v>0</v>
-      </c>
+      <c r="S22" s="245"/>
       <c r="T22" s="230"/>
       <c r="U22" s="230"/>
       <c r="V22" s="230"/>
@@ -5336,16 +5288,10 @@
       <c r="B23" s="203"/>
       <c r="C23" s="244"/>
       <c r="D23" s="203"/>
-      <c r="E23" s="243">
-        <f>AJ42</f>
-        <v>0</v>
-      </c>
+      <c r="E23" s="243"/>
       <c r="F23" s="230"/>
       <c r="G23" s="203"/>
-      <c r="H23" s="247">
-        <f>AO42+AT42</f>
-        <v>0</v>
-      </c>
+      <c r="H23" s="247"/>
       <c r="I23" s="230"/>
       <c r="J23" s="230"/>
       <c r="K23" s="230"/>
@@ -5354,20 +5300,14 @@
         <v>5</v>
       </c>
       <c r="N23" s="242">
-        <f t="shared" si="1"/>
+        <f>C23</f>
         <v>0</v>
       </c>
       <c r="O23" s="203"/>
-      <c r="P23" s="243">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="P23" s="243"/>
       <c r="Q23" s="230"/>
       <c r="R23" s="203"/>
-      <c r="S23" s="245">
-        <f>AY42</f>
-        <v>0</v>
-      </c>
+      <c r="S23" s="245"/>
       <c r="T23" s="230"/>
       <c r="U23" s="230"/>
       <c r="V23" s="230"/>
@@ -5409,19 +5349,13 @@
       <c r="B24" s="208"/>
       <c r="C24" s="208"/>
       <c r="D24" s="198"/>
-      <c r="E24" s="207">
-        <f>SUM(E19:G23)</f>
-        <v>0</v>
-      </c>
+      <c r="E24" s="207"/>
       <c r="F24" s="208"/>
       <c r="G24" s="198"/>
       <c r="H24" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="248">
-        <f>SUM(H19:L23)</f>
-        <v>0</v>
-      </c>
+      <c r="I24" s="248"/>
       <c r="J24" s="208"/>
       <c r="K24" s="208"/>
       <c r="L24" s="249"/>
@@ -5430,19 +5364,13 @@
       </c>
       <c r="N24" s="208"/>
       <c r="O24" s="198"/>
-      <c r="P24" s="207">
-        <f>SUM(P19:R23)</f>
-        <v>0</v>
-      </c>
+      <c r="P24" s="207"/>
       <c r="Q24" s="208"/>
       <c r="R24" s="198"/>
       <c r="S24" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="T24" s="295">
-        <f>SUM(S19:W23)</f>
-        <v>0</v>
-      </c>
+      <c r="T24" s="295"/>
       <c r="U24" s="208"/>
       <c r="V24" s="208"/>
       <c r="W24" s="208"/>
@@ -6380,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="76">
-        <f t="shared" ref="K37:K40" si="2">H37+I37+J37</f>
+        <f t="shared" ref="K37:K40" si="0">H37+I37+J37</f>
         <v>1600</v>
       </c>
       <c r="L37" s="77">
@@ -6393,15 +6321,15 @@
         <v>0</v>
       </c>
       <c r="O37" s="79">
-        <f t="shared" ref="O37:O40" si="3">U37+V37+W37+X37</f>
+        <f t="shared" ref="O37:O40" si="1">U37+V37+W37+X37</f>
         <v>85</v>
       </c>
       <c r="P37" s="79" t="e">
-        <f t="shared" ref="P37:P40" si="4">$T$52</f>
+        <f t="shared" ref="P37:P40" si="2">$T$52</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q37" s="80" t="e">
-        <f t="shared" ref="Q37:Q40" si="5">G37-K37-M37-N37-O37-P37-L37</f>
+        <f t="shared" ref="Q37:Q40" si="3">G37-K37-M37-N37-O37-P37-L37</f>
         <v>#REF!</v>
       </c>
       <c r="R37" s="222" t="e">
@@ -6410,7 +6338,7 @@
       </c>
       <c r="S37" s="201"/>
       <c r="T37" s="81" t="e">
-        <f t="shared" ref="T37:T40" si="6">Q37*R37/1000*$T$55</f>
+        <f t="shared" ref="T37:T40" si="4">Q37*R37/1000*$T$55</f>
         <v>#REF!</v>
       </c>
       <c r="U37" s="74">
@@ -6426,7 +6354,7 @@
         <v>40</v>
       </c>
       <c r="Y37" s="83">
-        <f t="shared" ref="Y37:Y40" si="7">(K37+O37)-J37</f>
+        <f t="shared" ref="Y37:Y40" si="5">(K37+O37)-J37</f>
         <v>1685</v>
       </c>
       <c r="Z37" s="84"/>
@@ -6494,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1600</v>
       </c>
       <c r="L38" s="77">
@@ -6507,15 +6435,15 @@
         <v>0</v>
       </c>
       <c r="O38" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="P38" s="79" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q38" s="80" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="R38" s="222" t="e">
@@ -6524,7 +6452,7 @@
       </c>
       <c r="S38" s="201"/>
       <c r="T38" s="81" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="U38" s="74">
@@ -6540,7 +6468,7 @@
         <v>55</v>
       </c>
       <c r="Y38" s="83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1700</v>
       </c>
       <c r="Z38" s="84"/>
@@ -6608,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1720</v>
       </c>
       <c r="L39" s="77">
@@ -6621,15 +6549,15 @@
         <v>0</v>
       </c>
       <c r="O39" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="P39" s="79" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q39" s="80" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="R39" s="222" t="e">
@@ -6638,7 +6566,7 @@
       </c>
       <c r="S39" s="201"/>
       <c r="T39" s="81" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="U39" s="74">
@@ -6654,7 +6582,7 @@
         <v>60</v>
       </c>
       <c r="Y39" s="83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1780</v>
       </c>
       <c r="Z39" s="84"/>
@@ -6722,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1605</v>
       </c>
       <c r="L40" s="77">
@@ -6735,15 +6663,15 @@
         <v>0</v>
       </c>
       <c r="O40" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="P40" s="79" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q40" s="80" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="R40" s="222" t="e">
@@ -6752,7 +6680,7 @@
       </c>
       <c r="S40" s="201"/>
       <c r="T40" s="81" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="U40" s="74">
@@ -6768,7 +6696,7 @@
         <v>40</v>
       </c>
       <c r="Y40" s="83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1745</v>
       </c>
       <c r="Z40" s="84"/>
@@ -6887,86 +6815,26 @@
       <c r="AC42" s="97"/>
       <c r="AD42" s="98"/>
       <c r="AE42" s="96"/>
-      <c r="AF42" s="189">
-        <f t="shared" ref="AF42:AY42" si="8">SUM(AF36:AF41)</f>
-        <v>0</v>
-      </c>
-      <c r="AG42" s="189">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AH42" s="189">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI42" s="189">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="189">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK42" s="190">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AL42" s="190">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM42" s="190">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AN42" s="190">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AO42" s="190">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AP42" s="190">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AQ42" s="190">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AR42" s="190">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AS42" s="190">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AT42" s="190">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AU42" s="191">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AV42" s="191">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AW42" s="191">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AX42" s="191">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AY42" s="99">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="AF42" s="189"/>
+      <c r="AG42" s="189"/>
+      <c r="AH42" s="189"/>
+      <c r="AI42" s="189"/>
+      <c r="AJ42" s="189"/>
+      <c r="AK42" s="190"/>
+      <c r="AL42" s="190"/>
+      <c r="AM42" s="190"/>
+      <c r="AN42" s="190"/>
+      <c r="AO42" s="190"/>
+      <c r="AP42" s="190"/>
+      <c r="AQ42" s="190"/>
+      <c r="AR42" s="190"/>
+      <c r="AS42" s="190"/>
+      <c r="AT42" s="190"/>
+      <c r="AU42" s="191"/>
+      <c r="AV42" s="191"/>
+      <c r="AW42" s="191"/>
+      <c r="AX42" s="191"/>
+      <c r="AY42" s="99"/>
       <c r="AZ42" s="100" t="s">
         <v>98</v>
       </c>
@@ -7117,30 +6985,12 @@
       <c r="W45" s="128"/>
       <c r="X45" s="100"/>
       <c r="Y45" s="100"/>
-      <c r="Z45" s="129">
-        <f t="shared" ref="Z45:AB45" si="9">SUM(Z36:Z41)</f>
-        <v>0</v>
-      </c>
-      <c r="AA45" s="129">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AB45" s="129">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC45" s="130">
-        <f>SUM(AC36:AC41,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD45" s="131">
-        <f t="shared" ref="AD45:AE45" si="10">SUM(AD36:AD41)</f>
-        <v>0</v>
-      </c>
-      <c r="AE45" s="129">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="Z45" s="129"/>
+      <c r="AA45" s="129"/>
+      <c r="AB45" s="129"/>
+      <c r="AC45" s="130"/>
+      <c r="AD45" s="131"/>
+      <c r="AE45" s="129"/>
       <c r="AF45" s="116"/>
       <c r="AG45" s="118"/>
       <c r="AH45" s="118"/>
@@ -7454,7 +7304,7 @@
         <v>100</v>
       </c>
       <c r="N50" s="164">
-        <f t="shared" ref="N50:N55" si="11">M50*$T$55</f>
+        <f t="shared" ref="N50:N55" si="6">M50*$T$55</f>
         <v>2800</v>
       </c>
       <c r="O50" s="1"/>
@@ -7528,7 +7378,7 @@
         <v>0</v>
       </c>
       <c r="N51" s="164">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O51" s="170" t="s">
@@ -7603,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="N52" s="164">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O52" s="1"/>
@@ -7679,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="N53" s="164">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O53" s="174" t="s">
@@ -7749,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="N54" s="164">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O54" s="1"/>
@@ -7804,7 +7654,7 @@
       </c>
       <c r="G55" s="203"/>
       <c r="H55" s="164">
-        <f t="shared" ref="H55:H56" si="12">F55*$O$46*$T$55</f>
+        <f t="shared" ref="H55:H56" si="7">F55*$O$46*$T$55</f>
         <v>280000</v>
       </c>
       <c r="I55" s="165"/>
@@ -7818,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="N55" s="164">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O55" s="1"/>
@@ -7877,7 +7727,7 @@
       </c>
       <c r="G56" s="203"/>
       <c r="H56" s="164">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I56" s="165"/>

--- a/spModle.xlsx
+++ b/spModle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\OneDrive\桌面\NEW_folder\pi_sp\PI_SP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS_Workstation\Desktop\excelize_json_practice\excelize_json_practice\PI_SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9737B2AA-A357-48EE-AFFE-64C1ACF1E9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0869E12F-65F6-41CD-BFD0-E919AA94F7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP" sheetId="2" r:id="rId1"/>
@@ -854,39 +854,6 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t>相關成本費用</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>進貨成本</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>銷貨成本</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
       <t>鋼捲成本</t>
     </r>
     <r>
@@ -964,9 +931,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 運保費</t>
-  </si>
-  <si>
-    <t>*每櫃</t>
   </si>
   <si>
     <r>
@@ -1243,9 +1207,6 @@
     <t>T/T匯款費用</t>
   </si>
   <si>
-    <t>合計出口&amp;銀行費用</t>
-  </si>
-  <si>
     <t>出散貨(每噸)海運費</t>
   </si>
   <si>
@@ -1351,6 +1312,52 @@
   </si>
   <si>
     <t>TTL:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>合計出口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體-ExtB"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>銀行費用</t>
+    </r>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>相關成本費用</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>進貨成本</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷貨成本</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>*每櫃</t>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2567,7 +2574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="320">
+  <cellXfs count="322">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3195,7 +3202,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3204,7 +3211,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3213,7 +3220,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3354,6 +3361,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3400,9 +3410,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="189" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="57" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="57" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="190" fontId="55" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3888,59 +3901,59 @@
   </sheetPr>
   <dimension ref="A1:AZ993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J17" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:X25"/>
+    <sheetView tabSelected="1" topLeftCell="P31" workbookViewId="0">
+      <selection activeCell="AU47" sqref="AU47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="4.88671875" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" customWidth="1"/>
-    <col min="8" max="8" width="6.44140625" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" customWidth="1"/>
-    <col min="10" max="10" width="5.44140625" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" customWidth="1"/>
-    <col min="14" max="15" width="7.33203125" customWidth="1"/>
-    <col min="16" max="16" width="7.109375" customWidth="1"/>
-    <col min="17" max="17" width="7.88671875" customWidth="1"/>
-    <col min="18" max="18" width="5.33203125" customWidth="1"/>
-    <col min="19" max="19" width="9.77734375" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="6.5" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="4.875" customWidth="1"/>
+    <col min="6" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="7" width="6.875" customWidth="1"/>
+    <col min="8" max="8" width="6.5" customWidth="1"/>
+    <col min="9" max="9" width="7.25" customWidth="1"/>
+    <col min="10" max="10" width="5.5" customWidth="1"/>
+    <col min="11" max="11" width="10.25" customWidth="1"/>
+    <col min="12" max="12" width="12.375" customWidth="1"/>
+    <col min="13" max="13" width="7.625" customWidth="1"/>
+    <col min="14" max="15" width="7.375" customWidth="1"/>
+    <col min="16" max="16" width="7.125" customWidth="1"/>
+    <col min="17" max="17" width="7.875" customWidth="1"/>
+    <col min="18" max="18" width="5.375" customWidth="1"/>
+    <col min="19" max="19" width="9.75" customWidth="1"/>
     <col min="20" max="20" width="11" customWidth="1"/>
-    <col min="21" max="21" width="6.109375" customWidth="1"/>
-    <col min="22" max="22" width="5.88671875" customWidth="1"/>
-    <col min="23" max="23" width="5.6640625" customWidth="1"/>
-    <col min="24" max="24" width="5.44140625" customWidth="1"/>
-    <col min="25" max="25" width="5.33203125" customWidth="1"/>
-    <col min="26" max="26" width="10.6640625" customWidth="1"/>
-    <col min="27" max="27" width="9.21875" customWidth="1"/>
-    <col min="28" max="28" width="8.44140625" customWidth="1"/>
-    <col min="29" max="29" width="10.33203125" customWidth="1"/>
+    <col min="21" max="21" width="6.125" customWidth="1"/>
+    <col min="22" max="22" width="5.875" customWidth="1"/>
+    <col min="23" max="23" width="5.625" customWidth="1"/>
+    <col min="24" max="24" width="5.5" customWidth="1"/>
+    <col min="25" max="25" width="5.375" customWidth="1"/>
+    <col min="26" max="26" width="10.625" customWidth="1"/>
+    <col min="27" max="27" width="9.25" customWidth="1"/>
+    <col min="28" max="28" width="8.5" customWidth="1"/>
+    <col min="29" max="29" width="10.375" customWidth="1"/>
     <col min="30" max="31" width="7" customWidth="1"/>
-    <col min="32" max="33" width="3.6640625" customWidth="1"/>
-    <col min="34" max="34" width="2.33203125" customWidth="1"/>
-    <col min="35" max="35" width="3.21875" customWidth="1"/>
-    <col min="36" max="36" width="2.33203125" customWidth="1"/>
-    <col min="37" max="37" width="9.33203125" customWidth="1"/>
-    <col min="38" max="38" width="6.77734375" customWidth="1"/>
-    <col min="39" max="39" width="5.6640625" customWidth="1"/>
-    <col min="40" max="40" width="6.77734375" customWidth="1"/>
-    <col min="41" max="41" width="2.44140625" customWidth="1"/>
-    <col min="42" max="42" width="7.88671875" customWidth="1"/>
-    <col min="43" max="44" width="5.21875" customWidth="1"/>
-    <col min="45" max="45" width="4.109375" customWidth="1"/>
-    <col min="46" max="46" width="6.77734375" customWidth="1"/>
-    <col min="47" max="47" width="8.21875" customWidth="1"/>
-    <col min="48" max="48" width="8.44140625" customWidth="1"/>
-    <col min="49" max="49" width="4.88671875" customWidth="1"/>
-    <col min="50" max="50" width="5.77734375" customWidth="1"/>
-    <col min="51" max="51" width="3.6640625" customWidth="1"/>
+    <col min="32" max="33" width="3.625" customWidth="1"/>
+    <col min="34" max="34" width="2.375" customWidth="1"/>
+    <col min="35" max="35" width="3.25" customWidth="1"/>
+    <col min="36" max="36" width="2.375" customWidth="1"/>
+    <col min="37" max="37" width="9.375" customWidth="1"/>
+    <col min="38" max="38" width="6.75" customWidth="1"/>
+    <col min="39" max="39" width="5.625" customWidth="1"/>
+    <col min="40" max="40" width="6.75" customWidth="1"/>
+    <col min="41" max="41" width="2.5" customWidth="1"/>
+    <col min="42" max="42" width="7.875" customWidth="1"/>
+    <col min="43" max="44" width="5.25" customWidth="1"/>
+    <col min="45" max="45" width="4.125" customWidth="1"/>
+    <col min="46" max="46" width="6.75" customWidth="1"/>
+    <col min="47" max="47" width="8.25" customWidth="1"/>
+    <col min="48" max="48" width="8.5" customWidth="1"/>
+    <col min="49" max="49" width="6.375" customWidth="1"/>
+    <col min="50" max="50" width="5.75" customWidth="1"/>
+    <col min="51" max="51" width="3.625" customWidth="1"/>
     <col min="52" max="52" width="7" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4056,7 +4069,7 @@
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
     </row>
-    <row r="3" spans="1:52" ht="16.2">
+    <row r="3" spans="1:52" ht="16.5">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
@@ -4117,10 +4130,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="211"/>
-      <c r="E4" s="256">
-        <f>T24-I24-S27-S28-S29-S30-H29-H30</f>
-        <v>-10100</v>
-      </c>
+      <c r="E4" s="256"/>
       <c r="F4" s="210"/>
       <c r="G4" s="210"/>
       <c r="H4" s="210"/>
@@ -4180,10 +4190,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="211"/>
-      <c r="E5" s="258" t="e">
-        <f>E4/T24</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E5" s="258"/>
       <c r="F5" s="210"/>
       <c r="G5" s="210"/>
       <c r="H5" s="210"/>
@@ -4194,7 +4201,7 @@
       <c r="M5" s="16"/>
       <c r="N5" s="13"/>
       <c r="O5" s="16"/>
-      <c r="P5" s="262" t="s">
+      <c r="P5" s="263" t="s">
         <v>7</v>
       </c>
       <c r="Q5" s="208"/>
@@ -4300,38 +4307,38 @@
       </c>
       <c r="D7" s="211"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="215" t="s">
+      <c r="F7" s="262" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="211"/>
       <c r="H7" s="19"/>
-      <c r="I7" s="215" t="s">
+      <c r="I7" s="262" t="s">
         <v>12</v>
       </c>
       <c r="J7" s="210"/>
       <c r="K7" s="185"/>
       <c r="L7" s="186"/>
-      <c r="M7" s="263" t="s">
+      <c r="M7" s="264" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="264"/>
-      <c r="O7" s="265"/>
-      <c r="P7" s="269" t="e">
+      <c r="N7" s="265"/>
+      <c r="O7" s="266"/>
+      <c r="P7" s="270" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q7" s="264"/>
-      <c r="R7" s="265"/>
-      <c r="S7" s="272" t="s">
+      <c r="Q7" s="265"/>
+      <c r="R7" s="266"/>
+      <c r="S7" s="273" t="s">
         <v>14</v>
       </c>
-      <c r="T7" s="273" t="s">
+      <c r="T7" s="274" t="s">
         <v>15</v>
       </c>
-      <c r="U7" s="264"/>
-      <c r="V7" s="264"/>
-      <c r="W7" s="264"/>
-      <c r="X7" s="274"/>
+      <c r="U7" s="265"/>
+      <c r="V7" s="265"/>
+      <c r="W7" s="265"/>
+      <c r="X7" s="275"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
@@ -4375,25 +4382,25 @@
       </c>
       <c r="F8" s="196"/>
       <c r="G8" s="193"/>
-      <c r="H8" s="280" t="s">
+      <c r="H8" s="282" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="220"/>
       <c r="J8" s="220"/>
       <c r="K8" s="220"/>
-      <c r="L8" s="276"/>
-      <c r="M8" s="266"/>
+      <c r="L8" s="277"/>
+      <c r="M8" s="267"/>
       <c r="N8" s="237"/>
-      <c r="O8" s="267"/>
-      <c r="P8" s="270"/>
+      <c r="O8" s="268"/>
+      <c r="P8" s="271"/>
       <c r="Q8" s="237"/>
-      <c r="R8" s="267"/>
+      <c r="R8" s="268"/>
       <c r="S8" s="233"/>
-      <c r="T8" s="270"/>
+      <c r="T8" s="271"/>
       <c r="U8" s="237"/>
       <c r="V8" s="237"/>
       <c r="W8" s="237"/>
-      <c r="X8" s="275"/>
+      <c r="X8" s="276"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
@@ -4444,18 +4451,18 @@
       <c r="J9" s="208"/>
       <c r="K9" s="208"/>
       <c r="L9" s="249"/>
-      <c r="M9" s="268"/>
+      <c r="M9" s="269"/>
       <c r="N9" s="220"/>
       <c r="O9" s="201"/>
-      <c r="P9" s="271"/>
+      <c r="P9" s="272"/>
       <c r="Q9" s="220"/>
       <c r="R9" s="201"/>
       <c r="S9" s="234"/>
-      <c r="T9" s="271"/>
+      <c r="T9" s="272"/>
       <c r="U9" s="220"/>
       <c r="V9" s="220"/>
       <c r="W9" s="220"/>
-      <c r="X9" s="276"/>
+      <c r="X9" s="277"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
@@ -4502,28 +4509,28 @@
       <c r="J10" s="196"/>
       <c r="K10" s="196"/>
       <c r="L10" s="218"/>
-      <c r="M10" s="281" t="s">
+      <c r="M10" s="283" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="282"/>
-      <c r="O10" s="283"/>
-      <c r="P10" s="284" t="e">
+      <c r="N10" s="284"/>
+      <c r="O10" s="285"/>
+      <c r="P10" s="286" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q10" s="282"/>
-      <c r="R10" s="283"/>
-      <c r="S10" s="285" t="s">
+      <c r="Q10" s="284"/>
+      <c r="R10" s="285"/>
+      <c r="S10" s="287" t="s">
         <v>26</v>
       </c>
-      <c r="T10" s="286" t="e">
+      <c r="T10" s="288" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="U10" s="282"/>
-      <c r="V10" s="282"/>
-      <c r="W10" s="282"/>
-      <c r="X10" s="287"/>
+      <c r="U10" s="284"/>
+      <c r="V10" s="284"/>
+      <c r="W10" s="284"/>
+      <c r="X10" s="289"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
@@ -4570,18 +4577,18 @@
       <c r="J11" s="208"/>
       <c r="K11" s="208"/>
       <c r="L11" s="249"/>
-      <c r="M11" s="266"/>
+      <c r="M11" s="267"/>
       <c r="N11" s="237"/>
-      <c r="O11" s="267"/>
-      <c r="P11" s="270"/>
+      <c r="O11" s="268"/>
+      <c r="P11" s="271"/>
       <c r="Q11" s="237"/>
-      <c r="R11" s="267"/>
+      <c r="R11" s="268"/>
       <c r="S11" s="233"/>
-      <c r="T11" s="270"/>
+      <c r="T11" s="271"/>
       <c r="U11" s="237"/>
       <c r="V11" s="237"/>
       <c r="W11" s="237"/>
-      <c r="X11" s="275"/>
+      <c r="X11" s="276"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
@@ -4628,18 +4635,18 @@
       <c r="J12" s="196"/>
       <c r="K12" s="196"/>
       <c r="L12" s="218"/>
-      <c r="M12" s="266"/>
+      <c r="M12" s="267"/>
       <c r="N12" s="237"/>
-      <c r="O12" s="267"/>
-      <c r="P12" s="270"/>
+      <c r="O12" s="268"/>
+      <c r="P12" s="271"/>
       <c r="Q12" s="237"/>
-      <c r="R12" s="267"/>
+      <c r="R12" s="268"/>
       <c r="S12" s="233"/>
-      <c r="T12" s="270"/>
+      <c r="T12" s="271"/>
       <c r="U12" s="237"/>
       <c r="V12" s="237"/>
       <c r="W12" s="237"/>
-      <c r="X12" s="275"/>
+      <c r="X12" s="276"/>
       <c r="Y12" s="20"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
@@ -4686,18 +4693,18 @@
       <c r="J13" s="208"/>
       <c r="K13" s="208"/>
       <c r="L13" s="249"/>
-      <c r="M13" s="268"/>
+      <c r="M13" s="269"/>
       <c r="N13" s="220"/>
       <c r="O13" s="201"/>
-      <c r="P13" s="271"/>
+      <c r="P13" s="272"/>
       <c r="Q13" s="220"/>
       <c r="R13" s="201"/>
       <c r="S13" s="234"/>
-      <c r="T13" s="271"/>
+      <c r="T13" s="272"/>
       <c r="U13" s="220"/>
       <c r="V13" s="220"/>
       <c r="W13" s="220"/>
-      <c r="X13" s="276"/>
+      <c r="X13" s="277"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
@@ -4744,27 +4751,27 @@
       <c r="J14" s="196"/>
       <c r="K14" s="196"/>
       <c r="L14" s="218"/>
-      <c r="M14" s="281" t="s">
+      <c r="M14" s="283" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="282"/>
-      <c r="O14" s="283"/>
-      <c r="P14" s="284" t="e">
+      <c r="N14" s="284"/>
+      <c r="O14" s="285"/>
+      <c r="P14" s="286" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q14" s="282"/>
-      <c r="R14" s="283"/>
-      <c r="S14" s="292" t="s">
+      <c r="Q14" s="284"/>
+      <c r="R14" s="285"/>
+      <c r="S14" s="294" t="s">
         <v>22</v>
       </c>
-      <c r="T14" s="294" t="s">
+      <c r="T14" s="296" t="s">
         <v>29</v>
       </c>
-      <c r="U14" s="282"/>
-      <c r="V14" s="282"/>
-      <c r="W14" s="282"/>
-      <c r="X14" s="287"/>
+      <c r="U14" s="284"/>
+      <c r="V14" s="284"/>
+      <c r="W14" s="284"/>
+      <c r="X14" s="289"/>
       <c r="Y14" s="22"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
@@ -4811,18 +4818,18 @@
       <c r="J15" s="208"/>
       <c r="K15" s="208"/>
       <c r="L15" s="249"/>
-      <c r="M15" s="266"/>
+      <c r="M15" s="267"/>
       <c r="N15" s="237"/>
-      <c r="O15" s="267"/>
-      <c r="P15" s="270"/>
+      <c r="O15" s="268"/>
+      <c r="P15" s="271"/>
       <c r="Q15" s="237"/>
-      <c r="R15" s="267"/>
+      <c r="R15" s="268"/>
       <c r="S15" s="233"/>
-      <c r="T15" s="270"/>
+      <c r="T15" s="271"/>
       <c r="U15" s="237"/>
       <c r="V15" s="237"/>
       <c r="W15" s="237"/>
-      <c r="X15" s="275"/>
+      <c r="X15" s="276"/>
       <c r="Y15" s="22"/>
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
@@ -4869,18 +4876,18 @@
       <c r="J16" s="196"/>
       <c r="K16" s="196"/>
       <c r="L16" s="218"/>
-      <c r="M16" s="266"/>
+      <c r="M16" s="267"/>
       <c r="N16" s="237"/>
-      <c r="O16" s="267"/>
-      <c r="P16" s="270"/>
+      <c r="O16" s="268"/>
+      <c r="P16" s="271"/>
       <c r="Q16" s="237"/>
-      <c r="R16" s="267"/>
+      <c r="R16" s="268"/>
       <c r="S16" s="233"/>
-      <c r="T16" s="270"/>
+      <c r="T16" s="271"/>
       <c r="U16" s="237"/>
       <c r="V16" s="237"/>
       <c r="W16" s="237"/>
-      <c r="X16" s="275"/>
+      <c r="X16" s="276"/>
       <c r="Y16" s="22"/>
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
@@ -4927,14 +4934,14 @@
       <c r="J17" s="208"/>
       <c r="K17" s="208"/>
       <c r="L17" s="249"/>
-      <c r="M17" s="289"/>
+      <c r="M17" s="291"/>
       <c r="N17" s="213"/>
-      <c r="O17" s="290"/>
-      <c r="P17" s="291"/>
+      <c r="O17" s="292"/>
+      <c r="P17" s="293"/>
       <c r="Q17" s="213"/>
-      <c r="R17" s="290"/>
-      <c r="S17" s="293"/>
-      <c r="T17" s="291"/>
+      <c r="R17" s="292"/>
+      <c r="S17" s="295"/>
+      <c r="T17" s="293"/>
       <c r="U17" s="213"/>
       <c r="V17" s="213"/>
       <c r="W17" s="213"/>
@@ -5370,7 +5377,7 @@
       <c r="S24" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="T24" s="295"/>
+      <c r="T24" s="297"/>
       <c r="U24" s="208"/>
       <c r="V24" s="208"/>
       <c r="W24" s="208"/>
@@ -5406,7 +5413,7 @@
     </row>
     <row r="25" spans="1:52" ht="27" customHeight="1">
       <c r="A25" s="209" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="B25" s="210"/>
       <c r="C25" s="210"/>
@@ -5462,7 +5469,7 @@
     </row>
     <row r="26" spans="1:52" ht="27" customHeight="1">
       <c r="A26" s="212" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="B26" s="213"/>
       <c r="C26" s="213"/>
@@ -5476,7 +5483,7 @@
       <c r="K26" s="213"/>
       <c r="L26" s="214"/>
       <c r="M26" s="215" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="N26" s="210"/>
       <c r="O26" s="210"/>
@@ -5520,7 +5527,7 @@
     </row>
     <row r="27" spans="1:52" ht="27" customHeight="1">
       <c r="A27" s="216" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B27" s="196"/>
       <c r="C27" s="196"/>
@@ -5528,26 +5535,20 @@
       <c r="E27" s="196"/>
       <c r="F27" s="196"/>
       <c r="G27" s="193"/>
-      <c r="H27" s="217">
-        <f>V49</f>
-        <v>0</v>
-      </c>
+      <c r="H27" s="217"/>
       <c r="I27" s="196"/>
       <c r="J27" s="196"/>
       <c r="K27" s="196"/>
       <c r="L27" s="218"/>
       <c r="M27" s="219" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N27" s="220"/>
       <c r="O27" s="220"/>
       <c r="P27" s="220"/>
       <c r="Q27" s="220"/>
       <c r="R27" s="201"/>
-      <c r="S27" s="221">
-        <f>SUM(M50:M55)</f>
-        <v>100</v>
-      </c>
+      <c r="S27" s="221"/>
       <c r="T27" s="196"/>
       <c r="U27" s="196"/>
       <c r="V27" s="196"/>
@@ -5584,7 +5585,7 @@
     </row>
     <row r="28" spans="1:52" ht="27" customHeight="1">
       <c r="A28" s="238" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B28" s="230"/>
       <c r="C28" s="230"/>
@@ -5592,31 +5593,22 @@
       <c r="E28" s="230"/>
       <c r="F28" s="230"/>
       <c r="G28" s="203"/>
-      <c r="H28" s="245">
-        <f>AB45</f>
-        <v>0</v>
-      </c>
+      <c r="H28" s="245"/>
       <c r="I28" s="230"/>
       <c r="J28" s="230"/>
       <c r="K28" s="230"/>
       <c r="L28" s="246"/>
-      <c r="M28" s="303" t="s">
-        <v>43</v>
+      <c r="M28" s="305" t="s">
+        <v>40</v>
       </c>
       <c r="N28" s="230"/>
       <c r="O28" s="230"/>
       <c r="P28" s="28" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
-      <c r="Q28" s="304">
-        <f>F55</f>
-        <v>10000</v>
-      </c>
+      <c r="Q28" s="306"/>
       <c r="R28" s="246"/>
-      <c r="S28" s="302">
-        <f>F58</f>
-        <v>10000</v>
-      </c>
+      <c r="S28" s="304"/>
       <c r="T28" s="230"/>
       <c r="U28" s="230"/>
       <c r="V28" s="230"/>
@@ -5653,7 +5645,7 @@
     </row>
     <row r="29" spans="1:52" ht="27" customHeight="1">
       <c r="A29" s="238" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B29" s="230"/>
       <c r="C29" s="230"/>
@@ -5661,26 +5653,20 @@
       <c r="E29" s="230"/>
       <c r="F29" s="230"/>
       <c r="G29" s="203"/>
-      <c r="H29" s="245">
-        <f>AD45</f>
-        <v>0</v>
-      </c>
+      <c r="H29" s="245"/>
       <c r="I29" s="230"/>
       <c r="J29" s="230"/>
       <c r="K29" s="230"/>
       <c r="L29" s="246"/>
       <c r="M29" s="238" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N29" s="230"/>
       <c r="O29" s="230"/>
       <c r="P29" s="230"/>
       <c r="Q29" s="230"/>
       <c r="R29" s="203"/>
-      <c r="S29" s="302">
-        <f>E46</f>
-        <v>0</v>
-      </c>
+      <c r="S29" s="304"/>
       <c r="T29" s="230"/>
       <c r="U29" s="230"/>
       <c r="V29" s="230"/>
@@ -5717,7 +5703,7 @@
     </row>
     <row r="30" spans="1:52" ht="27" customHeight="1">
       <c r="A30" s="250" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B30" s="208"/>
       <c r="C30" s="208"/>
@@ -5725,23 +5711,20 @@
       <c r="E30" s="208"/>
       <c r="F30" s="208"/>
       <c r="G30" s="198"/>
-      <c r="H30" s="306"/>
+      <c r="H30" s="308"/>
       <c r="I30" s="208"/>
       <c r="J30" s="208"/>
       <c r="K30" s="208"/>
       <c r="L30" s="249"/>
-      <c r="M30" s="262" t="s">
-        <v>48</v>
+      <c r="M30" s="263" t="s">
+        <v>44</v>
       </c>
       <c r="N30" s="208"/>
       <c r="O30" s="208"/>
       <c r="P30" s="208"/>
       <c r="Q30" s="208"/>
       <c r="R30" s="208"/>
-      <c r="S30" s="307">
-        <f>AE45</f>
-        <v>0</v>
-      </c>
+      <c r="S30" s="309"/>
       <c r="T30" s="208"/>
       <c r="U30" s="208"/>
       <c r="V30" s="208"/>
@@ -5778,7 +5761,7 @@
     </row>
     <row r="31" spans="1:52" ht="26.25" customHeight="1">
       <c r="A31" s="31" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -5800,14 +5783,11 @@
       <c r="S31" s="32"/>
       <c r="T31" s="32"/>
       <c r="U31" s="33"/>
-      <c r="V31" s="308" t="s">
-        <v>50</v>
+      <c r="V31" s="310" t="s">
+        <v>46</v>
       </c>
       <c r="W31" s="211"/>
-      <c r="X31" s="19">
-        <f>T55</f>
-        <v>28</v>
-      </c>
+      <c r="X31" s="19"/>
       <c r="Y31" s="34"/>
       <c r="Z31" s="8"/>
       <c r="AA31" s="8"/>
@@ -5838,14 +5818,14 @@
       <c r="AZ31" s="1"/>
     </row>
     <row r="32" spans="1:52" ht="16.5" customHeight="1">
-      <c r="A32" s="309" t="s">
-        <v>51</v>
+      <c r="A32" s="311" t="s">
+        <v>47</v>
       </c>
       <c r="B32" s="237"/>
       <c r="C32" s="237"/>
       <c r="D32" s="237"/>
-      <c r="E32" s="310" t="s">
-        <v>52</v>
+      <c r="E32" s="312" t="s">
+        <v>48</v>
       </c>
       <c r="F32" s="237"/>
       <c r="G32" s="237"/>
@@ -5853,23 +5833,23 @@
       <c r="I32" s="237"/>
       <c r="J32" s="237"/>
       <c r="K32" s="237"/>
-      <c r="L32" s="267"/>
-      <c r="M32" s="310" t="s">
-        <v>53</v>
+      <c r="L32" s="268"/>
+      <c r="M32" s="312" t="s">
+        <v>49</v>
       </c>
       <c r="N32" s="237"/>
       <c r="O32" s="237"/>
       <c r="P32" s="237"/>
       <c r="Q32" s="237"/>
       <c r="R32" s="224"/>
-      <c r="S32" s="311" t="s">
-        <v>54</v>
+      <c r="S32" s="313" t="s">
+        <v>50</v>
       </c>
-      <c r="T32" s="264"/>
-      <c r="U32" s="264"/>
-      <c r="V32" s="264"/>
-      <c r="W32" s="264"/>
-      <c r="X32" s="274"/>
+      <c r="T32" s="265"/>
+      <c r="U32" s="265"/>
+      <c r="V32" s="265"/>
+      <c r="W32" s="265"/>
+      <c r="X32" s="275"/>
       <c r="Y32" s="14"/>
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
@@ -5912,14 +5892,14 @@
       <c r="J33" s="210"/>
       <c r="K33" s="210"/>
       <c r="L33" s="211"/>
-      <c r="M33" s="288"/>
+      <c r="M33" s="290"/>
       <c r="N33" s="210"/>
       <c r="O33" s="210"/>
       <c r="P33" s="210"/>
       <c r="Q33" s="210"/>
       <c r="R33" s="211"/>
-      <c r="S33" s="288" t="s">
-        <v>55</v>
+      <c r="S33" s="290" t="s">
+        <v>51</v>
       </c>
       <c r="T33" s="210"/>
       <c r="U33" s="210"/>
@@ -5987,127 +5967,127 @@
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
-      <c r="AF34" s="305" t="s">
+      <c r="AF34" s="307" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG34" s="265"/>
+      <c r="AH34" s="265"/>
+      <c r="AI34" s="265"/>
+      <c r="AJ34" s="275"/>
+      <c r="AK34" s="307" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL34" s="265"/>
+      <c r="AM34" s="265"/>
+      <c r="AN34" s="265"/>
+      <c r="AO34" s="275"/>
+      <c r="AP34" s="307" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ34" s="265"/>
+      <c r="AR34" s="265"/>
+      <c r="AS34" s="265"/>
+      <c r="AT34" s="275"/>
+      <c r="AU34" s="307" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV34" s="265"/>
+      <c r="AW34" s="265"/>
+      <c r="AX34" s="265"/>
+      <c r="AY34" s="275"/>
+      <c r="AZ34" s="1"/>
+    </row>
+    <row r="35" spans="1:52" ht="38.25" customHeight="1">
+      <c r="A35" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="AG34" s="264"/>
-      <c r="AH34" s="264"/>
-      <c r="AI34" s="264"/>
-      <c r="AJ34" s="274"/>
-      <c r="AK34" s="305" t="s">
+      <c r="B35" s="39" t="s">
         <v>57</v>
-      </c>
-      <c r="AL34" s="264"/>
-      <c r="AM34" s="264"/>
-      <c r="AN34" s="264"/>
-      <c r="AO34" s="274"/>
-      <c r="AP34" s="305" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ34" s="264"/>
-      <c r="AR34" s="264"/>
-      <c r="AS34" s="264"/>
-      <c r="AT34" s="274"/>
-      <c r="AU34" s="305" t="s">
-        <v>59</v>
-      </c>
-      <c r="AV34" s="264"/>
-      <c r="AW34" s="264"/>
-      <c r="AX34" s="264"/>
-      <c r="AY34" s="274"/>
-      <c r="AZ34" s="1"/>
-    </row>
-    <row r="35" spans="1:52" ht="38.25" customHeight="1">
-      <c r="A35" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="39" t="s">
-        <v>61</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>0</v>
       </c>
       <c r="D35" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="E35" s="41" t="s">
+      <c r="I35" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="41" t="s">
+      <c r="J35" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="G35" s="42" t="s">
+      <c r="K35" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="H35" s="42" t="s">
+      <c r="L35" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="I35" s="43" t="s">
+      <c r="M35" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="J35" s="44" t="s">
+      <c r="N35" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="K35" s="45" t="s">
+      <c r="O35" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="L35" s="44" t="s">
+      <c r="P35" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="M35" s="46" t="s">
+      <c r="Q35" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="N35" s="46" t="s">
+      <c r="R35" s="315" t="s">
         <v>72</v>
       </c>
-      <c r="O35" s="47" t="s">
+      <c r="S35" s="266"/>
+      <c r="T35" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="P35" s="47" t="s">
+      <c r="U35" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="Q35" s="47" t="s">
+      <c r="V35" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="R35" s="313" t="s">
+      <c r="W35" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="S35" s="265"/>
-      <c r="T35" s="45" t="s">
+      <c r="X35" s="187" t="s">
         <v>77</v>
       </c>
-      <c r="U35" s="48" t="s">
+      <c r="Y35" s="188" t="s">
         <v>78</v>
       </c>
-      <c r="V35" s="46" t="s">
+      <c r="Z35" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="W35" s="49" t="s">
+      <c r="AA35" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="X35" s="187" t="s">
+      <c r="AB35" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="Y35" s="188" t="s">
+      <c r="AC35" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="Z35" s="50" t="s">
+      <c r="AD35" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="AA35" s="50" t="s">
+      <c r="AE35" s="50" t="s">
         <v>84</v>
-      </c>
-      <c r="AB35" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC35" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD35" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE35" s="50" t="s">
-        <v>88</v>
       </c>
       <c r="AF35" s="52">
         <v>1</v>
@@ -6173,74 +6153,74 @@
     </row>
     <row r="36" spans="1:52" ht="18" customHeight="1">
       <c r="A36" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="56" t="s">
+      <c r="F36" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="F36" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="G36" s="58" t="s">
-        <v>94</v>
-      </c>
       <c r="H36" s="58" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I36" s="58" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J36" s="58" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K36" s="58" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L36" s="59" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M36" s="58" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N36" s="58" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O36" s="58" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="P36" s="58" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q36" s="58" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
-      <c r="R36" s="314" t="s">
-        <v>95</v>
+      <c r="R36" s="316" t="s">
+        <v>91</v>
       </c>
       <c r="S36" s="193"/>
       <c r="T36" s="60" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="U36" s="58" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="V36" s="58" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="W36" s="58" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="X36" s="61" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Y36" s="62"/>
       <c r="Z36" s="62"/>
@@ -6272,32 +6252,17 @@
       <c r="AZ36" s="67"/>
     </row>
     <row r="37" spans="1:52" ht="18" customHeight="1">
-      <c r="A37" s="68" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B37" s="69" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C37" s="70" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D37" s="71" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="A37" s="68"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="71"/>
       <c r="E37" s="72">
         <v>1</v>
       </c>
       <c r="F37" s="72">
         <v>1</v>
       </c>
-      <c r="G37" s="73" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G37" s="73"/>
       <c r="H37" s="74">
         <v>1600</v>
       </c>
@@ -6324,23 +6289,14 @@
         <f t="shared" ref="O37:O40" si="1">U37+V37+W37+X37</f>
         <v>85</v>
       </c>
-      <c r="P37" s="79" t="e">
-        <f t="shared" ref="P37:P40" si="2">$T$52</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q37" s="80" t="e">
-        <f t="shared" ref="Q37:Q40" si="3">G37-K37-M37-N37-O37-P37-L37</f>
-        <v>#REF!</v>
-      </c>
+      <c r="P37" s="79"/>
+      <c r="Q37" s="80"/>
       <c r="R37" s="222" t="e">
         <f>#REF!*1000</f>
         <v>#REF!</v>
       </c>
       <c r="S37" s="201"/>
-      <c r="T37" s="81" t="e">
-        <f t="shared" ref="T37:T40" si="4">Q37*R37/1000*$T$55</f>
-        <v>#REF!</v>
-      </c>
+      <c r="T37" s="81"/>
       <c r="U37" s="74">
         <v>0</v>
       </c>
@@ -6354,7 +6310,7 @@
         <v>40</v>
       </c>
       <c r="Y37" s="83">
-        <f t="shared" ref="Y37:Y40" si="5">(K37+O37)-J37</f>
+        <f t="shared" ref="Y37:Y40" si="2">(K37+O37)-J37</f>
         <v>1685</v>
       </c>
       <c r="Z37" s="84"/>
@@ -6386,32 +6342,17 @@
       <c r="AZ37" s="67"/>
     </row>
     <row r="38" spans="1:52" ht="18" customHeight="1">
-      <c r="A38" s="68" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B38" s="69" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C38" s="70" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D38" s="71" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="A38" s="68"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="71"/>
       <c r="E38" s="72">
         <v>1</v>
       </c>
       <c r="F38" s="72">
         <v>1</v>
       </c>
-      <c r="G38" s="73" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G38" s="73"/>
       <c r="H38" s="74">
         <v>1600</v>
       </c>
@@ -6438,23 +6379,14 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="P38" s="79" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q38" s="80" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
+      <c r="P38" s="79"/>
+      <c r="Q38" s="80"/>
       <c r="R38" s="222" t="e">
         <f>#REF!*1000</f>
         <v>#REF!</v>
       </c>
       <c r="S38" s="201"/>
-      <c r="T38" s="81" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
+      <c r="T38" s="81"/>
       <c r="U38" s="74">
         <v>0</v>
       </c>
@@ -6468,7 +6400,7 @@
         <v>55</v>
       </c>
       <c r="Y38" s="83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1700</v>
       </c>
       <c r="Z38" s="84"/>
@@ -6500,32 +6432,17 @@
       <c r="AZ38" s="67"/>
     </row>
     <row r="39" spans="1:52" ht="18" customHeight="1">
-      <c r="A39" s="68" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B39" s="69" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C39" s="70" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D39" s="71" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="A39" s="68"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="71"/>
       <c r="E39" s="72">
         <v>1</v>
       </c>
       <c r="F39" s="72">
         <v>1</v>
       </c>
-      <c r="G39" s="73" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G39" s="73"/>
       <c r="H39" s="74">
         <v>1720</v>
       </c>
@@ -6552,23 +6469,14 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="P39" s="79" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q39" s="80" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
+      <c r="P39" s="79"/>
+      <c r="Q39" s="80"/>
       <c r="R39" s="222" t="e">
         <f>#REF!*1000</f>
         <v>#REF!</v>
       </c>
       <c r="S39" s="201"/>
-      <c r="T39" s="81" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
+      <c r="T39" s="81"/>
       <c r="U39" s="74">
         <v>0</v>
       </c>
@@ -6582,7 +6490,7 @@
         <v>60</v>
       </c>
       <c r="Y39" s="83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1780</v>
       </c>
       <c r="Z39" s="84"/>
@@ -6614,32 +6522,17 @@
       <c r="AZ39" s="67"/>
     </row>
     <row r="40" spans="1:52" ht="18" customHeight="1">
-      <c r="A40" s="68" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B40" s="69" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C40" s="70" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D40" s="71" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="A40" s="68"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="71"/>
       <c r="E40" s="72">
         <v>1</v>
       </c>
       <c r="F40" s="72">
         <v>1</v>
       </c>
-      <c r="G40" s="73" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G40" s="73"/>
       <c r="H40" s="74">
         <v>1605</v>
       </c>
@@ -6666,23 +6559,14 @@
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="P40" s="79" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q40" s="80" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
+      <c r="P40" s="79"/>
+      <c r="Q40" s="80"/>
       <c r="R40" s="222" t="e">
         <f>#REF!*1000</f>
         <v>#REF!</v>
       </c>
       <c r="S40" s="201"/>
-      <c r="T40" s="81" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
+      <c r="T40" s="81"/>
       <c r="U40" s="74">
         <v>0</v>
       </c>
@@ -6696,7 +6580,7 @@
         <v>40</v>
       </c>
       <c r="Y40" s="83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1745</v>
       </c>
       <c r="Z40" s="84"/>
@@ -6783,7 +6667,7 @@
     </row>
     <row r="42" spans="1:52" ht="21" customHeight="1">
       <c r="A42" s="223" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B42" s="224"/>
       <c r="C42" s="224"/>
@@ -6836,12 +6720,12 @@
       <c r="AX42" s="191"/>
       <c r="AY42" s="99"/>
       <c r="AZ42" s="100" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:52" ht="21" customHeight="1">
       <c r="A43" s="225" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B43" s="224"/>
       <c r="C43" s="224"/>
@@ -6964,22 +6848,16 @@
       <c r="L45" s="122"/>
       <c r="M45" s="100"/>
       <c r="N45" s="100"/>
-      <c r="O45" s="123">
-        <f>SUM(O46:O48)</f>
-        <v>1</v>
-      </c>
+      <c r="O45" s="123"/>
       <c r="P45" s="100"/>
       <c r="Q45" s="124"/>
       <c r="R45" s="125" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
-      <c r="S45" s="226" t="e">
-        <f>ROUND(SUM(T36:T41),0)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="S45" s="226"/>
       <c r="T45" s="218"/>
       <c r="U45" s="126" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="V45" s="127"/>
       <c r="W45" s="128"/>
@@ -7018,12 +6896,9 @@
       <c r="B46" s="133"/>
       <c r="C46" s="119"/>
       <c r="D46" s="134" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
-      <c r="E46" s="227">
-        <f>M37*Q45/1000</f>
-        <v>0</v>
-      </c>
+      <c r="E46" s="227"/>
       <c r="F46" s="224"/>
       <c r="G46" s="224"/>
       <c r="H46" s="224"/>
@@ -7031,13 +6906,13 @@
       <c r="J46" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="K46" s="315" t="s">
-        <v>102</v>
+      <c r="K46" s="317" t="s">
+        <v>98</v>
       </c>
       <c r="L46" s="203"/>
       <c r="M46" s="137"/>
       <c r="N46" s="138" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O46" s="139">
         <v>1</v>
@@ -7045,13 +6920,10 @@
       <c r="P46" s="100"/>
       <c r="Q46" s="140"/>
       <c r="R46" s="141"/>
-      <c r="S46" s="318" t="e">
-        <f>$S$45/$T$55</f>
-        <v>#REF!</v>
-      </c>
+      <c r="S46" s="320"/>
       <c r="T46" s="246"/>
       <c r="U46" s="142" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="V46" s="143"/>
       <c r="W46" s="144"/>
@@ -7090,24 +6962,21 @@
       <c r="B47" s="133"/>
       <c r="C47" s="119"/>
       <c r="D47" s="134" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
-      <c r="E47" s="227">
-        <f>Z45</f>
-        <v>0</v>
-      </c>
+      <c r="E47" s="227"/>
       <c r="F47" s="224"/>
       <c r="G47" s="224"/>
       <c r="H47" s="224"/>
       <c r="I47" s="100"/>
       <c r="J47" s="136"/>
-      <c r="K47" s="316" t="s">
-        <v>106</v>
+      <c r="K47" s="318" t="s">
+        <v>102</v>
       </c>
-      <c r="L47" s="267"/>
+      <c r="L47" s="268"/>
       <c r="M47" s="137"/>
       <c r="N47" s="138" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O47" s="139">
         <v>0</v>
@@ -7115,13 +6984,10 @@
       <c r="P47" s="147"/>
       <c r="Q47" s="100"/>
       <c r="R47" s="100"/>
-      <c r="S47" s="319" t="e">
-        <f>S45/(Z45*$T$55)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="S47" s="321"/>
       <c r="T47" s="249"/>
       <c r="U47" s="148" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="V47" s="149"/>
       <c r="W47" s="150"/>
@@ -7166,13 +7032,13 @@
       <c r="H48" s="152"/>
       <c r="I48" s="100"/>
       <c r="J48" s="153"/>
-      <c r="K48" s="315" t="s">
-        <v>106</v>
+      <c r="K48" s="317" t="s">
+        <v>102</v>
       </c>
       <c r="L48" s="203"/>
       <c r="M48" s="154"/>
       <c r="N48" s="155" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O48" s="156">
         <v>0</v>
@@ -7237,13 +7103,10 @@
       <c r="S49" s="237"/>
       <c r="T49" s="160"/>
       <c r="U49" s="161" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
-      <c r="V49" s="277">
-        <f>AA45</f>
-        <v>0</v>
-      </c>
-      <c r="W49" s="237"/>
+      <c r="V49" s="278"/>
+      <c r="W49" s="278"/>
       <c r="X49" s="162"/>
       <c r="Y49" s="162"/>
       <c r="Z49" s="162"/>
@@ -7278,47 +7141,38 @@
       <c r="A50" s="2"/>
       <c r="B50" s="5"/>
       <c r="C50" s="232" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D50" s="204" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E50" s="203"/>
       <c r="F50" s="235">
         <v>0</v>
       </c>
       <c r="G50" s="203"/>
-      <c r="H50" s="164">
-        <f>5620+(380*Q45/1000)</f>
-        <v>5620</v>
-      </c>
+      <c r="H50" s="164"/>
       <c r="I50" s="165"/>
       <c r="J50" s="232" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
-      <c r="K50" s="317" t="s">
-        <v>113</v>
+      <c r="K50" s="319" t="s">
+        <v>109</v>
       </c>
       <c r="L50" s="203"/>
       <c r="M50" s="166">
         <v>100</v>
       </c>
-      <c r="N50" s="164">
-        <f t="shared" ref="N50:N55" si="6">M50*$T$55</f>
-        <v>2800</v>
-      </c>
+      <c r="N50" s="164"/>
       <c r="O50" s="1"/>
       <c r="P50" s="165"/>
       <c r="Q50" s="241" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="R50" s="230"/>
       <c r="S50" s="203"/>
-      <c r="T50" s="278">
-        <f>F57+M57</f>
-        <v>282800</v>
-      </c>
-      <c r="U50" s="203"/>
+      <c r="T50" s="279"/>
+      <c r="U50" s="280"/>
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
       <c r="X50" s="8"/>
@@ -7356,20 +7210,17 @@
       <c r="B51" s="5"/>
       <c r="C51" s="233"/>
       <c r="D51" s="204" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E51" s="203"/>
       <c r="F51" s="202">
         <v>0</v>
       </c>
       <c r="G51" s="203"/>
-      <c r="H51" s="164">
-        <f>F51*(Q45/1000)*$T$55</f>
-        <v>0</v>
-      </c>
+      <c r="H51" s="164"/>
       <c r="I51" s="165"/>
       <c r="J51" s="233"/>
-      <c r="K51" s="279">
+      <c r="K51" s="281">
         <v>30</v>
       </c>
       <c r="L51" s="203"/>
@@ -7377,23 +7228,17 @@
         <f>I24*K51/360*0.045</f>
         <v>0</v>
       </c>
-      <c r="N51" s="164">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="N51" s="164"/>
       <c r="O51" s="170" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="P51" s="171"/>
       <c r="Q51" s="241" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R51" s="230"/>
       <c r="S51" s="203"/>
-      <c r="T51" s="278">
-        <f>Q45</f>
-        <v>0</v>
-      </c>
+      <c r="T51" s="279"/>
       <c r="U51" s="203"/>
       <c r="V51" s="172"/>
       <c r="W51" s="1"/>
@@ -7432,41 +7277,32 @@
       <c r="B52" s="5"/>
       <c r="C52" s="233"/>
       <c r="D52" s="204" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E52" s="203"/>
       <c r="F52" s="202">
         <v>0</v>
       </c>
       <c r="G52" s="203"/>
-      <c r="H52" s="164">
-        <f>F52*$O$47*$T$55</f>
-        <v>0</v>
-      </c>
+      <c r="H52" s="164"/>
       <c r="I52" s="165"/>
       <c r="J52" s="233"/>
       <c r="K52" s="240" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L52" s="203"/>
       <c r="M52" s="166">
         <v>0</v>
       </c>
-      <c r="N52" s="164">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="N52" s="164"/>
       <c r="O52" s="1"/>
       <c r="P52" s="171"/>
       <c r="Q52" s="241" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R52" s="230"/>
       <c r="S52" s="203"/>
-      <c r="T52" s="312" t="e">
-        <f>$T$50/$T$51*1000/$T$55</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="T52" s="314"/>
       <c r="U52" s="203"/>
       <c r="V52" s="172"/>
       <c r="W52" s="1"/>
@@ -7505,7 +7341,7 @@
       <c r="B53" s="5"/>
       <c r="C53" s="233"/>
       <c r="D53" s="163" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E53" s="173">
         <v>0</v>
@@ -7515,25 +7351,19 @@
         <v>0</v>
       </c>
       <c r="G53" s="203"/>
-      <c r="H53" s="164">
-        <f>F53*$T$55</f>
-        <v>0</v>
-      </c>
+      <c r="H53" s="164"/>
       <c r="I53" s="165"/>
       <c r="J53" s="233"/>
       <c r="K53" s="240" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L53" s="203"/>
       <c r="M53" s="166">
         <v>0</v>
       </c>
-      <c r="N53" s="164">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="N53" s="164"/>
       <c r="O53" s="174" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="P53" s="171"/>
       <c r="Q53" s="1"/>
@@ -7578,30 +7408,24 @@
       <c r="B54" s="5"/>
       <c r="C54" s="233"/>
       <c r="D54" s="204" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E54" s="203"/>
       <c r="F54" s="202">
         <v>0</v>
       </c>
       <c r="G54" s="203"/>
-      <c r="H54" s="164">
-        <f>F54*$O$48*$T$55</f>
-        <v>0</v>
-      </c>
+      <c r="H54" s="164"/>
       <c r="I54" s="165"/>
       <c r="J54" s="233"/>
-      <c r="K54" s="296" t="s">
-        <v>125</v>
+      <c r="K54" s="298" t="s">
+        <v>120</v>
       </c>
       <c r="L54" s="203"/>
       <c r="M54" s="166">
         <v>0</v>
       </c>
-      <c r="N54" s="164">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="N54" s="164"/>
       <c r="O54" s="1"/>
       <c r="P54" s="171"/>
       <c r="Q54" s="1"/>
@@ -7646,39 +7470,33 @@
       <c r="B55" s="5"/>
       <c r="C55" s="233"/>
       <c r="D55" s="204" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E55" s="203"/>
       <c r="F55" s="202">
         <v>10000</v>
       </c>
       <c r="G55" s="203"/>
-      <c r="H55" s="164">
-        <f t="shared" ref="H55:H56" si="7">F55*$O$46*$T$55</f>
-        <v>280000</v>
-      </c>
+      <c r="H55" s="164"/>
       <c r="I55" s="165"/>
       <c r="J55" s="233"/>
-      <c r="K55" s="297" t="s">
-        <v>127</v>
+      <c r="K55" s="299" t="s">
+        <v>122</v>
       </c>
       <c r="L55" s="203"/>
       <c r="M55" s="166">
         <f>E47*K56*M56/360</f>
         <v>0</v>
       </c>
-      <c r="N55" s="164">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="N55" s="164"/>
       <c r="O55" s="1"/>
       <c r="P55" s="171"/>
-      <c r="Q55" s="298" t="s">
-        <v>128</v>
+      <c r="Q55" s="300" t="s">
+        <v>123</v>
       </c>
       <c r="R55" s="230"/>
       <c r="S55" s="203"/>
-      <c r="T55" s="299">
+      <c r="T55" s="301">
         <v>28</v>
       </c>
       <c r="U55" s="203"/>
@@ -7719,24 +7537,21 @@
       <c r="B56" s="5"/>
       <c r="C56" s="233"/>
       <c r="D56" s="204" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E56" s="203"/>
       <c r="F56" s="202">
         <v>0</v>
       </c>
       <c r="G56" s="203"/>
-      <c r="H56" s="164">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="H56" s="164"/>
       <c r="I56" s="165"/>
       <c r="J56" s="233"/>
-      <c r="K56" s="300">
+      <c r="K56" s="302">
         <v>30</v>
       </c>
       <c r="L56" s="203"/>
-      <c r="M56" s="301">
+      <c r="M56" s="303">
         <v>0</v>
       </c>
       <c r="N56" s="203"/>
@@ -7784,25 +7599,19 @@
       <c r="B57" s="5"/>
       <c r="C57" s="234"/>
       <c r="D57" s="228" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E57" s="203"/>
-      <c r="F57" s="229">
-        <f>SUM(H51:H56)+IF(F50=1,H50,0)</f>
-        <v>280000</v>
-      </c>
+      <c r="F57" s="229"/>
       <c r="G57" s="230"/>
       <c r="H57" s="203"/>
       <c r="I57" s="178"/>
       <c r="J57" s="234"/>
       <c r="K57" s="228" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="L57" s="203"/>
-      <c r="M57" s="229">
-        <f>SUM(N50:N55)</f>
-        <v>2800</v>
-      </c>
+      <c r="M57" s="229"/>
       <c r="N57" s="203"/>
       <c r="O57" s="178"/>
       <c r="P57" s="179"/>
@@ -7849,10 +7658,7 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="231">
-        <f>F57/T55</f>
-        <v>10000</v>
-      </c>
+      <c r="F58" s="231"/>
       <c r="G58" s="230"/>
       <c r="H58" s="203"/>
       <c r="I58" s="1"/>

--- a/spModle.xlsx
+++ b/spModle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS_Workstation\Desktop\excelize_json_practice\excelize_json_practice\PI_SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0869E12F-65F6-41CD-BFD0-E919AA94F7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63119B8-B949-4ADB-9396-F1ABD34E15AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3901,8 +3901,8 @@
   </sheetPr>
   <dimension ref="A1:AZ993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P31" workbookViewId="0">
-      <selection activeCell="AU47" sqref="AU47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30:X30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -6256,63 +6256,33 @@
       <c r="B37" s="69"/>
       <c r="C37" s="70"/>
       <c r="D37" s="71"/>
-      <c r="E37" s="72">
-        <v>1</v>
-      </c>
-      <c r="F37" s="72">
-        <v>1</v>
-      </c>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
       <c r="G37" s="73"/>
-      <c r="H37" s="74">
-        <v>1600</v>
-      </c>
-      <c r="I37" s="74">
+      <c r="H37" s="74"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="76">
+        <f t="shared" ref="K37:K40" si="0">H37+I37+J37</f>
         <v>0</v>
       </c>
-      <c r="J37" s="75">
+      <c r="L37" s="77"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="79">
+        <f>U37+V37+W37+X37</f>
         <v>0</v>
-      </c>
-      <c r="K37" s="76">
-        <f t="shared" ref="K37:K40" si="0">H37+I37+J37</f>
-        <v>1600</v>
-      </c>
-      <c r="L37" s="77">
-        <v>0</v>
-      </c>
-      <c r="M37" s="72">
-        <v>0</v>
-      </c>
-      <c r="N37" s="78">
-        <v>0</v>
-      </c>
-      <c r="O37" s="79">
-        <f t="shared" ref="O37:O40" si="1">U37+V37+W37+X37</f>
-        <v>85</v>
       </c>
       <c r="P37" s="79"/>
       <c r="Q37" s="80"/>
-      <c r="R37" s="222" t="e">
-        <f>#REF!*1000</f>
-        <v>#REF!</v>
-      </c>
+      <c r="R37" s="222"/>
       <c r="S37" s="201"/>
       <c r="T37" s="81"/>
-      <c r="U37" s="74">
-        <v>0</v>
-      </c>
-      <c r="V37" s="74">
-        <v>0</v>
-      </c>
-      <c r="W37" s="74">
-        <v>45</v>
-      </c>
-      <c r="X37" s="82">
-        <v>40</v>
-      </c>
-      <c r="Y37" s="83">
-        <f t="shared" ref="Y37:Y40" si="2">(K37+O37)-J37</f>
-        <v>1685</v>
-      </c>
+      <c r="U37" s="74"/>
+      <c r="V37" s="74"/>
+      <c r="W37" s="74"/>
+      <c r="X37" s="82"/>
+      <c r="Y37" s="83"/>
       <c r="Z37" s="84"/>
       <c r="AA37" s="84"/>
       <c r="AB37" s="84"/>
@@ -6346,63 +6316,33 @@
       <c r="B38" s="69"/>
       <c r="C38" s="70"/>
       <c r="D38" s="71"/>
-      <c r="E38" s="72">
-        <v>1</v>
-      </c>
-      <c r="F38" s="72">
-        <v>1</v>
-      </c>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
       <c r="G38" s="73"/>
-      <c r="H38" s="74">
-        <v>1600</v>
-      </c>
-      <c r="I38" s="74">
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="76">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J38" s="75">
+      <c r="L38" s="77"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="78"/>
+      <c r="O38" s="79">
+        <f t="shared" ref="O38:O40" si="1">U38+V38+W38+X38</f>
         <v>0</v>
-      </c>
-      <c r="K38" s="76">
-        <f t="shared" si="0"/>
-        <v>1600</v>
-      </c>
-      <c r="L38" s="77">
-        <v>0</v>
-      </c>
-      <c r="M38" s="72">
-        <v>0</v>
-      </c>
-      <c r="N38" s="78">
-        <v>0</v>
-      </c>
-      <c r="O38" s="79">
-        <f t="shared" si="1"/>
-        <v>100</v>
       </c>
       <c r="P38" s="79"/>
       <c r="Q38" s="80"/>
-      <c r="R38" s="222" t="e">
-        <f>#REF!*1000</f>
-        <v>#REF!</v>
-      </c>
+      <c r="R38" s="222"/>
       <c r="S38" s="201"/>
       <c r="T38" s="81"/>
-      <c r="U38" s="74">
-        <v>0</v>
-      </c>
-      <c r="V38" s="74">
-        <v>0</v>
-      </c>
-      <c r="W38" s="74">
-        <v>45</v>
-      </c>
-      <c r="X38" s="82">
-        <v>55</v>
-      </c>
-      <c r="Y38" s="83">
-        <f t="shared" si="2"/>
-        <v>1700</v>
-      </c>
+      <c r="U38" s="74"/>
+      <c r="V38" s="74"/>
+      <c r="W38" s="74"/>
+      <c r="X38" s="82"/>
+      <c r="Y38" s="83"/>
       <c r="Z38" s="84"/>
       <c r="AA38" s="84"/>
       <c r="AB38" s="84"/>
@@ -6436,63 +6376,33 @@
       <c r="B39" s="69"/>
       <c r="C39" s="70"/>
       <c r="D39" s="71"/>
-      <c r="E39" s="72">
-        <v>1</v>
-      </c>
-      <c r="F39" s="72">
-        <v>1</v>
-      </c>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
       <c r="G39" s="73"/>
-      <c r="H39" s="74">
-        <v>1720</v>
-      </c>
-      <c r="I39" s="74">
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="76">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J39" s="75">
-        <v>0</v>
-      </c>
-      <c r="K39" s="76">
-        <f t="shared" si="0"/>
-        <v>1720</v>
-      </c>
-      <c r="L39" s="77">
-        <v>0</v>
-      </c>
-      <c r="M39" s="72">
-        <v>0</v>
-      </c>
-      <c r="N39" s="78">
-        <v>0</v>
-      </c>
+      <c r="L39" s="77"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="78"/>
       <c r="O39" s="79">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="P39" s="79"/>
       <c r="Q39" s="80"/>
-      <c r="R39" s="222" t="e">
-        <f>#REF!*1000</f>
-        <v>#REF!</v>
-      </c>
+      <c r="R39" s="222"/>
       <c r="S39" s="201"/>
       <c r="T39" s="81"/>
-      <c r="U39" s="74">
-        <v>0</v>
-      </c>
-      <c r="V39" s="74">
-        <v>0</v>
-      </c>
-      <c r="W39" s="74">
-        <v>0</v>
-      </c>
-      <c r="X39" s="82">
-        <v>60</v>
-      </c>
-      <c r="Y39" s="83">
-        <f t="shared" si="2"/>
-        <v>1780</v>
-      </c>
+      <c r="U39" s="74"/>
+      <c r="V39" s="74"/>
+      <c r="W39" s="74"/>
+      <c r="X39" s="82"/>
+      <c r="Y39" s="83"/>
       <c r="Z39" s="84"/>
       <c r="AA39" s="84"/>
       <c r="AB39" s="84"/>
@@ -6526,63 +6436,33 @@
       <c r="B40" s="69"/>
       <c r="C40" s="70"/>
       <c r="D40" s="71"/>
-      <c r="E40" s="72">
-        <v>1</v>
-      </c>
-      <c r="F40" s="72">
-        <v>1</v>
-      </c>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
       <c r="G40" s="73"/>
-      <c r="H40" s="74">
-        <v>1605</v>
-      </c>
-      <c r="I40" s="74">
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="76">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J40" s="75">
-        <v>0</v>
-      </c>
-      <c r="K40" s="76">
-        <f t="shared" si="0"/>
-        <v>1605</v>
-      </c>
-      <c r="L40" s="77">
-        <v>0</v>
-      </c>
-      <c r="M40" s="72">
-        <v>0</v>
-      </c>
-      <c r="N40" s="78">
-        <v>0</v>
-      </c>
+      <c r="L40" s="77"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="78"/>
       <c r="O40" s="79">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="P40" s="79"/>
       <c r="Q40" s="80"/>
-      <c r="R40" s="222" t="e">
-        <f>#REF!*1000</f>
-        <v>#REF!</v>
-      </c>
+      <c r="R40" s="222"/>
       <c r="S40" s="201"/>
       <c r="T40" s="81"/>
-      <c r="U40" s="74">
-        <v>0</v>
-      </c>
-      <c r="V40" s="74">
-        <v>45</v>
-      </c>
-      <c r="W40" s="74">
-        <v>55</v>
-      </c>
-      <c r="X40" s="82">
-        <v>40</v>
-      </c>
-      <c r="Y40" s="83">
-        <f t="shared" si="2"/>
-        <v>1745</v>
-      </c>
+      <c r="U40" s="74"/>
+      <c r="V40" s="74"/>
+      <c r="W40" s="74"/>
+      <c r="X40" s="82"/>
+      <c r="Y40" s="83"/>
       <c r="Z40" s="84"/>
       <c r="AA40" s="84"/>
       <c r="AB40" s="84"/>
@@ -58394,7 +58274,7 @@
     <mergeCell ref="E8:G8"/>
   </mergeCells>
   <phoneticPr fontId="73" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="選擇銀行" sqref="S4 Y4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"華銀,一銀,上海銀,板信,彰化銀,兆豐"</formula1>
     </dataValidation>

--- a/spModle.xlsx
+++ b/spModle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS_Workstation\Desktop\excelize_json_practice\excelize_json_practice\PI_SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63119B8-B949-4ADB-9396-F1ABD34E15AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85F3A5C-0A22-437F-8639-923374984AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1062,9 +1062,6 @@
 成本</t>
   </si>
   <si>
-    <t>鋼捲        成本</t>
-  </si>
-  <si>
     <t>FOB
 費用</t>
   </si>
@@ -1073,9 +1070,6 @@
   </si>
   <si>
     <t>餘料        損失</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 加工費    總計</t>
   </si>
   <si>
     <t xml:space="preserve"> 出口     費用</t>
@@ -1359,6 +1353,67 @@
     <t>*每櫃</t>
     <phoneticPr fontId="73" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鋼捲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>成本</t>
+    </r>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>加工費</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft jhenhei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總計</t>
+    </r>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1385,7 +1440,7 @@
     <numFmt numFmtId="192" formatCode="&quot;用&quot;#,##0&quot;天利息利率&quot;"/>
     <numFmt numFmtId="193" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="75">
+  <fonts count="78">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1812,6 +1867,23 @@
       <name val="PMingLiu"/>
       <family val="1"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Microsoft jhenhei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Microsoft jhenhei"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -2574,7 +2646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="322">
+  <cellXfs count="323">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3151,11 +3223,104 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="76" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="57" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="26" fontId="23" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="51" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3166,98 +3331,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="26" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="26" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="23" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="44" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3265,14 +3352,92 @@
     <xf numFmtId="185" fontId="63" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="191" fontId="55" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="61" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="55" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="193" fontId="2" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="56" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="57" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="57" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="55" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="63" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3280,59 +3445,47 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="56" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="26" fontId="13" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3364,35 +3517,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3400,145 +3532,88 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="57" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="57" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="55" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="13" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="44" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="63" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="26" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="13" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="191" fontId="55" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="61" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="26" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="55" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="193" fontId="2" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="23" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="57" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="26" fontId="23" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="51" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3901,8 +3976,8 @@
   </sheetPr>
   <dimension ref="A1:AZ993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30:X30"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="S33" sqref="S33:X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -3958,32 +4033,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="27" customHeight="1">
-      <c r="A1" s="253" t="s">
+      <c r="A1" s="280" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="224"/>
-      <c r="C1" s="224"/>
-      <c r="D1" s="224"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="224"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224"/>
-      <c r="J1" s="224"/>
-      <c r="K1" s="224"/>
-      <c r="L1" s="224"/>
-      <c r="M1" s="224"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="224"/>
-      <c r="P1" s="224"/>
-      <c r="Q1" s="224"/>
-      <c r="R1" s="224"/>
-      <c r="S1" s="224"/>
-      <c r="T1" s="224"/>
-      <c r="U1" s="224"/>
-      <c r="V1" s="224"/>
-      <c r="W1" s="224"/>
-      <c r="X1" s="224"/>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="223"/>
+      <c r="K1" s="223"/>
+      <c r="L1" s="223"/>
+      <c r="M1" s="223"/>
+      <c r="N1" s="223"/>
+      <c r="O1" s="223"/>
+      <c r="P1" s="223"/>
+      <c r="Q1" s="223"/>
+      <c r="R1" s="223"/>
+      <c r="S1" s="223"/>
+      <c r="T1" s="223"/>
+      <c r="U1" s="223"/>
+      <c r="V1" s="223"/>
+      <c r="W1" s="223"/>
+      <c r="X1" s="223"/>
       <c r="Y1" s="7"/>
       <c r="Z1" s="8"/>
       <c r="AA1" s="8"/>
@@ -4014,32 +4089,32 @@
       <c r="AZ1" s="1"/>
     </row>
     <row r="2" spans="1:52" ht="29.25" customHeight="1">
-      <c r="A2" s="254" t="s">
+      <c r="A2" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="237"/>
-      <c r="I2" s="237"/>
-      <c r="J2" s="237"/>
-      <c r="K2" s="237"/>
-      <c r="L2" s="237"/>
-      <c r="M2" s="237"/>
-      <c r="N2" s="237"/>
-      <c r="O2" s="237"/>
-      <c r="P2" s="237"/>
-      <c r="Q2" s="237"/>
-      <c r="R2" s="237"/>
-      <c r="S2" s="237"/>
-      <c r="T2" s="237"/>
-      <c r="U2" s="237"/>
-      <c r="V2" s="237"/>
-      <c r="W2" s="237"/>
-      <c r="X2" s="237"/>
+      <c r="B2" s="221"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="221"/>
+      <c r="O2" s="221"/>
+      <c r="P2" s="221"/>
+      <c r="Q2" s="221"/>
+      <c r="R2" s="221"/>
+      <c r="S2" s="221"/>
+      <c r="T2" s="221"/>
+      <c r="U2" s="221"/>
+      <c r="V2" s="221"/>
+      <c r="W2" s="221"/>
+      <c r="X2" s="221"/>
       <c r="Y2" s="9"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
@@ -4126,33 +4201,33 @@
     <row r="4" spans="1:52" ht="18.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="255" t="s">
+      <c r="C4" s="282" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="211"/>
-      <c r="E4" s="256"/>
-      <c r="F4" s="210"/>
-      <c r="G4" s="210"/>
-      <c r="H4" s="210"/>
-      <c r="I4" s="211"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="283"/>
+      <c r="F4" s="270"/>
+      <c r="G4" s="270"/>
+      <c r="H4" s="270"/>
+      <c r="I4" s="219"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
       <c r="N4" s="13"/>
       <c r="O4" s="16"/>
-      <c r="P4" s="216" t="s">
+      <c r="P4" s="290" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="196"/>
-      <c r="R4" s="193"/>
-      <c r="S4" s="257" t="s">
+      <c r="Q4" s="227"/>
+      <c r="R4" s="198"/>
+      <c r="S4" s="284" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="210"/>
-      <c r="U4" s="210"/>
-      <c r="V4" s="210"/>
-      <c r="W4" s="211"/>
+      <c r="T4" s="270"/>
+      <c r="U4" s="270"/>
+      <c r="V4" s="270"/>
+      <c r="W4" s="219"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="17"/>
       <c r="Z4" s="8"/>
@@ -4186,33 +4261,33 @@
     <row r="5" spans="1:52" ht="18.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="260" t="s">
+      <c r="C5" s="287" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="211"/>
-      <c r="E5" s="258"/>
-      <c r="F5" s="210"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="210"/>
-      <c r="I5" s="211"/>
+      <c r="D5" s="219"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="270"/>
+      <c r="G5" s="270"/>
+      <c r="H5" s="270"/>
+      <c r="I5" s="219"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
       <c r="N5" s="13"/>
       <c r="O5" s="16"/>
-      <c r="P5" s="263" t="s">
+      <c r="P5" s="216" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="208"/>
-      <c r="R5" s="198"/>
-      <c r="S5" s="259" t="s">
+      <c r="Q5" s="213"/>
+      <c r="R5" s="214"/>
+      <c r="S5" s="286" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="210"/>
-      <c r="U5" s="210"/>
-      <c r="V5" s="210"/>
-      <c r="W5" s="211"/>
+      <c r="T5" s="270"/>
+      <c r="U5" s="270"/>
+      <c r="V5" s="270"/>
+      <c r="W5" s="219"/>
       <c r="X5" s="8"/>
       <c r="Y5" s="14"/>
       <c r="Z5" s="8"/>
@@ -4302,43 +4377,43 @@
       <c r="B7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="261" t="s">
+      <c r="C7" s="288" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="211"/>
+      <c r="D7" s="219"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="262" t="s">
+      <c r="F7" s="289" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="211"/>
+      <c r="G7" s="219"/>
       <c r="H7" s="19"/>
-      <c r="I7" s="262" t="s">
+      <c r="I7" s="289" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="210"/>
+      <c r="J7" s="270"/>
       <c r="K7" s="185"/>
       <c r="L7" s="186"/>
-      <c r="M7" s="264" t="s">
+      <c r="M7" s="291" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="265"/>
-      <c r="O7" s="266"/>
-      <c r="P7" s="270" t="e">
+      <c r="N7" s="210"/>
+      <c r="O7" s="196"/>
+      <c r="P7" s="292" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q7" s="265"/>
-      <c r="R7" s="266"/>
-      <c r="S7" s="273" t="s">
+      <c r="Q7" s="210"/>
+      <c r="R7" s="196"/>
+      <c r="S7" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="T7" s="274" t="s">
+      <c r="T7" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="U7" s="265"/>
-      <c r="V7" s="265"/>
-      <c r="W7" s="265"/>
-      <c r="X7" s="275"/>
+      <c r="U7" s="210"/>
+      <c r="V7" s="210"/>
+      <c r="W7" s="210"/>
+      <c r="X7" s="211"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
@@ -4369,38 +4444,38 @@
       <c r="AZ7" s="1"/>
     </row>
     <row r="8" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A8" s="192" t="s">
+      <c r="A8" s="295" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="193"/>
-      <c r="C8" s="200" t="s">
+      <c r="B8" s="198"/>
+      <c r="C8" s="322" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="201"/>
-      <c r="E8" s="195" t="s">
+      <c r="D8" s="200"/>
+      <c r="E8" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="196"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="282" t="s">
+      <c r="F8" s="227"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="251" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="220"/>
-      <c r="J8" s="220"/>
-      <c r="K8" s="220"/>
-      <c r="L8" s="277"/>
-      <c r="M8" s="267"/>
-      <c r="N8" s="237"/>
-      <c r="O8" s="268"/>
-      <c r="P8" s="271"/>
-      <c r="Q8" s="237"/>
-      <c r="R8" s="268"/>
-      <c r="S8" s="233"/>
-      <c r="T8" s="271"/>
-      <c r="U8" s="237"/>
-      <c r="V8" s="237"/>
-      <c r="W8" s="237"/>
-      <c r="X8" s="276"/>
+      <c r="I8" s="252"/>
+      <c r="J8" s="252"/>
+      <c r="K8" s="252"/>
+      <c r="L8" s="253"/>
+      <c r="M8" s="258"/>
+      <c r="N8" s="221"/>
+      <c r="O8" s="203"/>
+      <c r="P8" s="261"/>
+      <c r="Q8" s="221"/>
+      <c r="R8" s="203"/>
+      <c r="S8" s="264"/>
+      <c r="T8" s="261"/>
+      <c r="U8" s="221"/>
+      <c r="V8" s="221"/>
+      <c r="W8" s="221"/>
+      <c r="X8" s="268"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
@@ -4431,38 +4506,38 @@
       <c r="AZ8" s="1"/>
     </row>
     <row r="9" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A9" s="199" t="s">
+      <c r="A9" s="296" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="198"/>
-      <c r="C9" s="251" t="s">
+      <c r="B9" s="214"/>
+      <c r="C9" s="254" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="198"/>
+      <c r="D9" s="214"/>
       <c r="E9" s="21" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
-      <c r="H9" s="251" t="s">
+      <c r="H9" s="254" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="208"/>
-      <c r="J9" s="208"/>
-      <c r="K9" s="208"/>
-      <c r="L9" s="249"/>
-      <c r="M9" s="269"/>
-      <c r="N9" s="220"/>
-      <c r="O9" s="201"/>
-      <c r="P9" s="272"/>
-      <c r="Q9" s="220"/>
-      <c r="R9" s="201"/>
-      <c r="S9" s="234"/>
-      <c r="T9" s="272"/>
-      <c r="U9" s="220"/>
-      <c r="V9" s="220"/>
-      <c r="W9" s="220"/>
-      <c r="X9" s="277"/>
+      <c r="I9" s="213"/>
+      <c r="J9" s="213"/>
+      <c r="K9" s="213"/>
+      <c r="L9" s="208"/>
+      <c r="M9" s="259"/>
+      <c r="N9" s="252"/>
+      <c r="O9" s="200"/>
+      <c r="P9" s="262"/>
+      <c r="Q9" s="252"/>
+      <c r="R9" s="200"/>
+      <c r="S9" s="265"/>
+      <c r="T9" s="262"/>
+      <c r="U9" s="252"/>
+      <c r="V9" s="252"/>
+      <c r="W9" s="252"/>
+      <c r="X9" s="253"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
@@ -4493,44 +4568,41 @@
       <c r="AZ9" s="1"/>
     </row>
     <row r="10" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A10" s="192" t="s">
+      <c r="A10" s="295" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="193"/>
-      <c r="C10" s="194"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="195" t="s">
+      <c r="B10" s="198"/>
+      <c r="C10" s="225"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="196"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="252"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="196"/>
-      <c r="K10" s="196"/>
-      <c r="L10" s="218"/>
-      <c r="M10" s="283" t="s">
+      <c r="F10" s="227"/>
+      <c r="G10" s="198"/>
+      <c r="H10" s="228"/>
+      <c r="I10" s="227"/>
+      <c r="J10" s="227"/>
+      <c r="K10" s="227"/>
+      <c r="L10" s="229"/>
+      <c r="M10" s="255" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="284"/>
-      <c r="O10" s="285"/>
-      <c r="P10" s="286" t="e">
+      <c r="N10" s="256"/>
+      <c r="O10" s="257"/>
+      <c r="P10" s="260" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q10" s="284"/>
-      <c r="R10" s="285"/>
-      <c r="S10" s="287" t="s">
+      <c r="Q10" s="256"/>
+      <c r="R10" s="257"/>
+      <c r="S10" s="263" t="s">
         <v>26</v>
       </c>
-      <c r="T10" s="288" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U10" s="284"/>
-      <c r="V10" s="284"/>
-      <c r="W10" s="284"/>
-      <c r="X10" s="289"/>
+      <c r="T10" s="266"/>
+      <c r="U10" s="256"/>
+      <c r="V10" s="256"/>
+      <c r="W10" s="256"/>
+      <c r="X10" s="267"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
@@ -4561,34 +4633,34 @@
       <c r="AZ10" s="1"/>
     </row>
     <row r="11" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A11" s="199" t="s">
+      <c r="A11" s="296" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="198"/>
-      <c r="C11" s="197"/>
-      <c r="D11" s="198"/>
+      <c r="B11" s="214"/>
+      <c r="C11" s="305"/>
+      <c r="D11" s="214"/>
       <c r="E11" s="21" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
-      <c r="H11" s="251"/>
-      <c r="I11" s="208"/>
-      <c r="J11" s="208"/>
-      <c r="K11" s="208"/>
-      <c r="L11" s="249"/>
-      <c r="M11" s="267"/>
-      <c r="N11" s="237"/>
-      <c r="O11" s="268"/>
-      <c r="P11" s="271"/>
-      <c r="Q11" s="237"/>
-      <c r="R11" s="268"/>
-      <c r="S11" s="233"/>
-      <c r="T11" s="271"/>
-      <c r="U11" s="237"/>
-      <c r="V11" s="237"/>
-      <c r="W11" s="237"/>
-      <c r="X11" s="276"/>
+      <c r="H11" s="254"/>
+      <c r="I11" s="213"/>
+      <c r="J11" s="213"/>
+      <c r="K11" s="213"/>
+      <c r="L11" s="208"/>
+      <c r="M11" s="258"/>
+      <c r="N11" s="221"/>
+      <c r="O11" s="203"/>
+      <c r="P11" s="261"/>
+      <c r="Q11" s="221"/>
+      <c r="R11" s="203"/>
+      <c r="S11" s="264"/>
+      <c r="T11" s="261"/>
+      <c r="U11" s="221"/>
+      <c r="V11" s="221"/>
+      <c r="W11" s="221"/>
+      <c r="X11" s="268"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
@@ -4619,34 +4691,34 @@
       <c r="AZ11" s="1"/>
     </row>
     <row r="12" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A12" s="192" t="s">
+      <c r="A12" s="295" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="193"/>
-      <c r="C12" s="194"/>
-      <c r="D12" s="193"/>
-      <c r="E12" s="195" t="s">
+      <c r="B12" s="198"/>
+      <c r="C12" s="225"/>
+      <c r="D12" s="198"/>
+      <c r="E12" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="196"/>
-      <c r="G12" s="193"/>
-      <c r="H12" s="252"/>
-      <c r="I12" s="196"/>
-      <c r="J12" s="196"/>
-      <c r="K12" s="196"/>
-      <c r="L12" s="218"/>
-      <c r="M12" s="267"/>
-      <c r="N12" s="237"/>
-      <c r="O12" s="268"/>
-      <c r="P12" s="271"/>
-      <c r="Q12" s="237"/>
-      <c r="R12" s="268"/>
-      <c r="S12" s="233"/>
-      <c r="T12" s="271"/>
-      <c r="U12" s="237"/>
-      <c r="V12" s="237"/>
-      <c r="W12" s="237"/>
-      <c r="X12" s="276"/>
+      <c r="F12" s="227"/>
+      <c r="G12" s="198"/>
+      <c r="H12" s="228"/>
+      <c r="I12" s="227"/>
+      <c r="J12" s="227"/>
+      <c r="K12" s="227"/>
+      <c r="L12" s="229"/>
+      <c r="M12" s="258"/>
+      <c r="N12" s="221"/>
+      <c r="O12" s="203"/>
+      <c r="P12" s="261"/>
+      <c r="Q12" s="221"/>
+      <c r="R12" s="203"/>
+      <c r="S12" s="264"/>
+      <c r="T12" s="261"/>
+      <c r="U12" s="221"/>
+      <c r="V12" s="221"/>
+      <c r="W12" s="221"/>
+      <c r="X12" s="268"/>
       <c r="Y12" s="20"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
@@ -4677,34 +4749,34 @@
       <c r="AZ12" s="1"/>
     </row>
     <row r="13" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A13" s="199" t="s">
+      <c r="A13" s="296" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="198"/>
-      <c r="C13" s="197"/>
-      <c r="D13" s="198"/>
+      <c r="B13" s="214"/>
+      <c r="C13" s="305"/>
+      <c r="D13" s="214"/>
       <c r="E13" s="21" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
-      <c r="H13" s="251"/>
-      <c r="I13" s="208"/>
-      <c r="J13" s="208"/>
-      <c r="K13" s="208"/>
-      <c r="L13" s="249"/>
-      <c r="M13" s="269"/>
-      <c r="N13" s="220"/>
-      <c r="O13" s="201"/>
-      <c r="P13" s="272"/>
-      <c r="Q13" s="220"/>
-      <c r="R13" s="201"/>
-      <c r="S13" s="234"/>
-      <c r="T13" s="272"/>
-      <c r="U13" s="220"/>
-      <c r="V13" s="220"/>
-      <c r="W13" s="220"/>
-      <c r="X13" s="277"/>
+      <c r="H13" s="254"/>
+      <c r="I13" s="213"/>
+      <c r="J13" s="213"/>
+      <c r="K13" s="213"/>
+      <c r="L13" s="208"/>
+      <c r="M13" s="259"/>
+      <c r="N13" s="252"/>
+      <c r="O13" s="200"/>
+      <c r="P13" s="262"/>
+      <c r="Q13" s="252"/>
+      <c r="R13" s="200"/>
+      <c r="S13" s="265"/>
+      <c r="T13" s="262"/>
+      <c r="U13" s="252"/>
+      <c r="V13" s="252"/>
+      <c r="W13" s="252"/>
+      <c r="X13" s="253"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
@@ -4735,43 +4807,43 @@
       <c r="AZ13" s="1"/>
     </row>
     <row r="14" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A14" s="192" t="s">
+      <c r="A14" s="295" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="193"/>
-      <c r="C14" s="194"/>
-      <c r="D14" s="193"/>
-      <c r="E14" s="195" t="s">
+      <c r="B14" s="198"/>
+      <c r="C14" s="225"/>
+      <c r="D14" s="198"/>
+      <c r="E14" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="196"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="252"/>
-      <c r="I14" s="196"/>
-      <c r="J14" s="196"/>
-      <c r="K14" s="196"/>
-      <c r="L14" s="218"/>
-      <c r="M14" s="283" t="s">
+      <c r="F14" s="227"/>
+      <c r="G14" s="198"/>
+      <c r="H14" s="228"/>
+      <c r="I14" s="227"/>
+      <c r="J14" s="227"/>
+      <c r="K14" s="227"/>
+      <c r="L14" s="229"/>
+      <c r="M14" s="255" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="284"/>
-      <c r="O14" s="285"/>
-      <c r="P14" s="286" t="e">
+      <c r="N14" s="256"/>
+      <c r="O14" s="257"/>
+      <c r="P14" s="260" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q14" s="284"/>
-      <c r="R14" s="285"/>
-      <c r="S14" s="294" t="s">
+      <c r="Q14" s="256"/>
+      <c r="R14" s="257"/>
+      <c r="S14" s="276" t="s">
         <v>22</v>
       </c>
-      <c r="T14" s="296" t="s">
+      <c r="T14" s="278" t="s">
         <v>29</v>
       </c>
-      <c r="U14" s="284"/>
-      <c r="V14" s="284"/>
-      <c r="W14" s="284"/>
-      <c r="X14" s="289"/>
+      <c r="U14" s="256"/>
+      <c r="V14" s="256"/>
+      <c r="W14" s="256"/>
+      <c r="X14" s="267"/>
       <c r="Y14" s="22"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
@@ -4802,34 +4874,34 @@
       <c r="AZ14" s="1"/>
     </row>
     <row r="15" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A15" s="199" t="s">
+      <c r="A15" s="296" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="198"/>
-      <c r="C15" s="197"/>
-      <c r="D15" s="198"/>
+      <c r="B15" s="214"/>
+      <c r="C15" s="305"/>
+      <c r="D15" s="214"/>
       <c r="E15" s="21" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
-      <c r="H15" s="251"/>
-      <c r="I15" s="208"/>
-      <c r="J15" s="208"/>
-      <c r="K15" s="208"/>
-      <c r="L15" s="249"/>
-      <c r="M15" s="267"/>
-      <c r="N15" s="237"/>
-      <c r="O15" s="268"/>
-      <c r="P15" s="271"/>
-      <c r="Q15" s="237"/>
-      <c r="R15" s="268"/>
-      <c r="S15" s="233"/>
-      <c r="T15" s="271"/>
-      <c r="U15" s="237"/>
-      <c r="V15" s="237"/>
-      <c r="W15" s="237"/>
-      <c r="X15" s="276"/>
+      <c r="H15" s="254"/>
+      <c r="I15" s="213"/>
+      <c r="J15" s="213"/>
+      <c r="K15" s="213"/>
+      <c r="L15" s="208"/>
+      <c r="M15" s="258"/>
+      <c r="N15" s="221"/>
+      <c r="O15" s="203"/>
+      <c r="P15" s="261"/>
+      <c r="Q15" s="221"/>
+      <c r="R15" s="203"/>
+      <c r="S15" s="264"/>
+      <c r="T15" s="261"/>
+      <c r="U15" s="221"/>
+      <c r="V15" s="221"/>
+      <c r="W15" s="221"/>
+      <c r="X15" s="268"/>
       <c r="Y15" s="22"/>
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
@@ -4860,34 +4932,34 @@
       <c r="AZ15" s="1"/>
     </row>
     <row r="16" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A16" s="192" t="s">
+      <c r="A16" s="295" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="193"/>
-      <c r="C16" s="194"/>
-      <c r="D16" s="193"/>
-      <c r="E16" s="195" t="s">
+      <c r="B16" s="198"/>
+      <c r="C16" s="225"/>
+      <c r="D16" s="198"/>
+      <c r="E16" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="196"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="252"/>
-      <c r="I16" s="196"/>
-      <c r="J16" s="196"/>
-      <c r="K16" s="196"/>
-      <c r="L16" s="218"/>
-      <c r="M16" s="267"/>
-      <c r="N16" s="237"/>
-      <c r="O16" s="268"/>
-      <c r="P16" s="271"/>
-      <c r="Q16" s="237"/>
-      <c r="R16" s="268"/>
-      <c r="S16" s="233"/>
-      <c r="T16" s="271"/>
-      <c r="U16" s="237"/>
-      <c r="V16" s="237"/>
-      <c r="W16" s="237"/>
-      <c r="X16" s="276"/>
+      <c r="F16" s="227"/>
+      <c r="G16" s="198"/>
+      <c r="H16" s="228"/>
+      <c r="I16" s="227"/>
+      <c r="J16" s="227"/>
+      <c r="K16" s="227"/>
+      <c r="L16" s="229"/>
+      <c r="M16" s="258"/>
+      <c r="N16" s="221"/>
+      <c r="O16" s="203"/>
+      <c r="P16" s="261"/>
+      <c r="Q16" s="221"/>
+      <c r="R16" s="203"/>
+      <c r="S16" s="264"/>
+      <c r="T16" s="261"/>
+      <c r="U16" s="221"/>
+      <c r="V16" s="221"/>
+      <c r="W16" s="221"/>
+      <c r="X16" s="268"/>
       <c r="Y16" s="22"/>
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
@@ -4918,34 +4990,34 @@
       <c r="AZ16" s="1"/>
     </row>
     <row r="17" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A17" s="199" t="s">
+      <c r="A17" s="296" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="198"/>
-      <c r="C17" s="197"/>
-      <c r="D17" s="198"/>
+      <c r="B17" s="214"/>
+      <c r="C17" s="305"/>
+      <c r="D17" s="214"/>
       <c r="E17" s="21" t="s">
         <v>22</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
-      <c r="H17" s="251"/>
-      <c r="I17" s="208"/>
-      <c r="J17" s="208"/>
-      <c r="K17" s="208"/>
-      <c r="L17" s="249"/>
-      <c r="M17" s="291"/>
-      <c r="N17" s="213"/>
-      <c r="O17" s="292"/>
-      <c r="P17" s="293"/>
-      <c r="Q17" s="213"/>
-      <c r="R17" s="292"/>
-      <c r="S17" s="295"/>
-      <c r="T17" s="293"/>
-      <c r="U17" s="213"/>
-      <c r="V17" s="213"/>
-      <c r="W17" s="213"/>
-      <c r="X17" s="214"/>
+      <c r="H17" s="254"/>
+      <c r="I17" s="213"/>
+      <c r="J17" s="213"/>
+      <c r="K17" s="213"/>
+      <c r="L17" s="208"/>
+      <c r="M17" s="272"/>
+      <c r="N17" s="273"/>
+      <c r="O17" s="274"/>
+      <c r="P17" s="275"/>
+      <c r="Q17" s="273"/>
+      <c r="R17" s="274"/>
+      <c r="S17" s="277"/>
+      <c r="T17" s="275"/>
+      <c r="U17" s="273"/>
+      <c r="V17" s="273"/>
+      <c r="W17" s="273"/>
+      <c r="X17" s="279"/>
       <c r="Y17" s="22"/>
       <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
@@ -4976,42 +5048,42 @@
       <c r="AZ17" s="1"/>
     </row>
     <row r="18" spans="1:52" ht="18.75" customHeight="1">
-      <c r="A18" s="205" t="s">
+      <c r="A18" s="299" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="196"/>
-      <c r="C18" s="196"/>
-      <c r="D18" s="193"/>
-      <c r="E18" s="206" t="s">
+      <c r="B18" s="227"/>
+      <c r="C18" s="227"/>
+      <c r="D18" s="198"/>
+      <c r="E18" s="297" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="196"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="206" t="s">
+      <c r="F18" s="227"/>
+      <c r="G18" s="198"/>
+      <c r="H18" s="297" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="196"/>
-      <c r="J18" s="196"/>
-      <c r="K18" s="196"/>
-      <c r="L18" s="218"/>
-      <c r="M18" s="205" t="s">
+      <c r="I18" s="227"/>
+      <c r="J18" s="227"/>
+      <c r="K18" s="227"/>
+      <c r="L18" s="229"/>
+      <c r="M18" s="299" t="s">
         <v>31</v>
       </c>
-      <c r="N18" s="196"/>
-      <c r="O18" s="193"/>
-      <c r="P18" s="206" t="s">
+      <c r="N18" s="227"/>
+      <c r="O18" s="198"/>
+      <c r="P18" s="297" t="s">
         <v>32</v>
       </c>
-      <c r="Q18" s="196"/>
-      <c r="R18" s="193"/>
-      <c r="S18" s="206" t="s">
+      <c r="Q18" s="227"/>
+      <c r="R18" s="198"/>
+      <c r="S18" s="297" t="s">
         <v>33</v>
       </c>
-      <c r="T18" s="196"/>
-      <c r="U18" s="196"/>
-      <c r="V18" s="196"/>
-      <c r="W18" s="196"/>
-      <c r="X18" s="218"/>
+      <c r="T18" s="227"/>
+      <c r="U18" s="227"/>
+      <c r="V18" s="227"/>
+      <c r="W18" s="227"/>
+      <c r="X18" s="229"/>
       <c r="Y18" s="14"/>
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
@@ -5042,40 +5114,40 @@
       <c r="AZ18" s="1"/>
     </row>
     <row r="19" spans="1:52" ht="22.5" customHeight="1">
-      <c r="A19" s="238">
+      <c r="A19" s="242">
         <v>1</v>
       </c>
-      <c r="B19" s="203"/>
-      <c r="C19" s="244" t="s">
+      <c r="B19" s="194"/>
+      <c r="C19" s="303" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="203"/>
-      <c r="E19" s="243"/>
-      <c r="F19" s="230"/>
-      <c r="G19" s="203"/>
-      <c r="H19" s="245"/>
-      <c r="I19" s="230"/>
-      <c r="J19" s="230"/>
-      <c r="K19" s="230"/>
-      <c r="L19" s="246"/>
+      <c r="D19" s="194"/>
+      <c r="E19" s="304"/>
+      <c r="F19" s="231"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="230"/>
+      <c r="I19" s="231"/>
+      <c r="J19" s="231"/>
+      <c r="K19" s="231"/>
+      <c r="L19" s="206"/>
       <c r="M19" s="23">
         <f>A19</f>
         <v>1</v>
       </c>
-      <c r="N19" s="242" t="str">
+      <c r="N19" s="298" t="str">
         <f>C19</f>
         <v>萬裕隆/430</v>
       </c>
-      <c r="O19" s="203"/>
-      <c r="P19" s="243"/>
-      <c r="Q19" s="230"/>
-      <c r="R19" s="203"/>
-      <c r="S19" s="245"/>
-      <c r="T19" s="230"/>
-      <c r="U19" s="230"/>
-      <c r="V19" s="230"/>
-      <c r="W19" s="230"/>
-      <c r="X19" s="246"/>
+      <c r="O19" s="194"/>
+      <c r="P19" s="304"/>
+      <c r="Q19" s="231"/>
+      <c r="R19" s="194"/>
+      <c r="S19" s="230"/>
+      <c r="T19" s="231"/>
+      <c r="U19" s="231"/>
+      <c r="V19" s="231"/>
+      <c r="W19" s="231"/>
+      <c r="X19" s="206"/>
       <c r="Y19" s="24"/>
       <c r="Z19" s="8"/>
       <c r="AA19" s="8"/>
@@ -5106,37 +5178,37 @@
       <c r="AZ19" s="1"/>
     </row>
     <row r="20" spans="1:52" ht="22.5" customHeight="1">
-      <c r="A20" s="238">
+      <c r="A20" s="242">
         <v>2</v>
       </c>
-      <c r="B20" s="203"/>
-      <c r="C20" s="244"/>
-      <c r="D20" s="203"/>
-      <c r="E20" s="243"/>
-      <c r="F20" s="230"/>
-      <c r="G20" s="203"/>
-      <c r="H20" s="247"/>
-      <c r="I20" s="230"/>
-      <c r="J20" s="230"/>
-      <c r="K20" s="230"/>
-      <c r="L20" s="246"/>
+      <c r="B20" s="194"/>
+      <c r="C20" s="303"/>
+      <c r="D20" s="194"/>
+      <c r="E20" s="304"/>
+      <c r="F20" s="231"/>
+      <c r="G20" s="194"/>
+      <c r="H20" s="300"/>
+      <c r="I20" s="231"/>
+      <c r="J20" s="231"/>
+      <c r="K20" s="231"/>
+      <c r="L20" s="206"/>
       <c r="M20" s="23">
         <v>2</v>
       </c>
-      <c r="N20" s="242">
+      <c r="N20" s="298">
         <f>C20</f>
         <v>0</v>
       </c>
-      <c r="O20" s="203"/>
-      <c r="P20" s="243"/>
-      <c r="Q20" s="230"/>
-      <c r="R20" s="203"/>
-      <c r="S20" s="245"/>
-      <c r="T20" s="230"/>
-      <c r="U20" s="230"/>
-      <c r="V20" s="230"/>
-      <c r="W20" s="230"/>
-      <c r="X20" s="246"/>
+      <c r="O20" s="194"/>
+      <c r="P20" s="304"/>
+      <c r="Q20" s="231"/>
+      <c r="R20" s="194"/>
+      <c r="S20" s="230"/>
+      <c r="T20" s="231"/>
+      <c r="U20" s="231"/>
+      <c r="V20" s="231"/>
+      <c r="W20" s="231"/>
+      <c r="X20" s="206"/>
       <c r="Y20" s="24"/>
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
@@ -5167,37 +5239,37 @@
       <c r="AZ20" s="1"/>
     </row>
     <row r="21" spans="1:52" ht="22.5" customHeight="1">
-      <c r="A21" s="238">
+      <c r="A21" s="242">
         <v>3</v>
       </c>
-      <c r="B21" s="203"/>
-      <c r="C21" s="244"/>
-      <c r="D21" s="203"/>
-      <c r="E21" s="243"/>
-      <c r="F21" s="230"/>
-      <c r="G21" s="203"/>
-      <c r="H21" s="247"/>
-      <c r="I21" s="230"/>
-      <c r="J21" s="230"/>
-      <c r="K21" s="230"/>
-      <c r="L21" s="246"/>
+      <c r="B21" s="194"/>
+      <c r="C21" s="303"/>
+      <c r="D21" s="194"/>
+      <c r="E21" s="304"/>
+      <c r="F21" s="231"/>
+      <c r="G21" s="194"/>
+      <c r="H21" s="300"/>
+      <c r="I21" s="231"/>
+      <c r="J21" s="231"/>
+      <c r="K21" s="231"/>
+      <c r="L21" s="206"/>
       <c r="M21" s="23">
         <v>3</v>
       </c>
-      <c r="N21" s="242">
+      <c r="N21" s="298">
         <f>C21</f>
         <v>0</v>
       </c>
-      <c r="O21" s="203"/>
-      <c r="P21" s="243"/>
-      <c r="Q21" s="230"/>
-      <c r="R21" s="203"/>
-      <c r="S21" s="245"/>
-      <c r="T21" s="230"/>
-      <c r="U21" s="230"/>
-      <c r="V21" s="230"/>
-      <c r="W21" s="230"/>
-      <c r="X21" s="246"/>
+      <c r="O21" s="194"/>
+      <c r="P21" s="304"/>
+      <c r="Q21" s="231"/>
+      <c r="R21" s="194"/>
+      <c r="S21" s="230"/>
+      <c r="T21" s="231"/>
+      <c r="U21" s="231"/>
+      <c r="V21" s="231"/>
+      <c r="W21" s="231"/>
+      <c r="X21" s="206"/>
       <c r="Y21" s="24"/>
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
@@ -5228,37 +5300,37 @@
       <c r="AZ21" s="1"/>
     </row>
     <row r="22" spans="1:52" ht="22.5" customHeight="1">
-      <c r="A22" s="238">
+      <c r="A22" s="242">
         <v>4</v>
       </c>
-      <c r="B22" s="203"/>
-      <c r="C22" s="244"/>
-      <c r="D22" s="203"/>
-      <c r="E22" s="243"/>
-      <c r="F22" s="230"/>
-      <c r="G22" s="203"/>
-      <c r="H22" s="247"/>
-      <c r="I22" s="230"/>
-      <c r="J22" s="230"/>
-      <c r="K22" s="230"/>
-      <c r="L22" s="246"/>
+      <c r="B22" s="194"/>
+      <c r="C22" s="303"/>
+      <c r="D22" s="194"/>
+      <c r="E22" s="304"/>
+      <c r="F22" s="231"/>
+      <c r="G22" s="194"/>
+      <c r="H22" s="300"/>
+      <c r="I22" s="231"/>
+      <c r="J22" s="231"/>
+      <c r="K22" s="231"/>
+      <c r="L22" s="206"/>
       <c r="M22" s="23">
         <v>4</v>
       </c>
-      <c r="N22" s="242">
+      <c r="N22" s="298">
         <f>C22</f>
         <v>0</v>
       </c>
-      <c r="O22" s="203"/>
-      <c r="P22" s="243"/>
-      <c r="Q22" s="230"/>
-      <c r="R22" s="203"/>
-      <c r="S22" s="245"/>
-      <c r="T22" s="230"/>
-      <c r="U22" s="230"/>
-      <c r="V22" s="230"/>
-      <c r="W22" s="230"/>
-      <c r="X22" s="246"/>
+      <c r="O22" s="194"/>
+      <c r="P22" s="304"/>
+      <c r="Q22" s="231"/>
+      <c r="R22" s="194"/>
+      <c r="S22" s="230"/>
+      <c r="T22" s="231"/>
+      <c r="U22" s="231"/>
+      <c r="V22" s="231"/>
+      <c r="W22" s="231"/>
+      <c r="X22" s="206"/>
       <c r="Y22" s="24"/>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
@@ -5289,37 +5361,37 @@
       <c r="AZ22" s="1"/>
     </row>
     <row r="23" spans="1:52" ht="22.5" customHeight="1">
-      <c r="A23" s="238">
+      <c r="A23" s="242">
         <v>5</v>
       </c>
-      <c r="B23" s="203"/>
-      <c r="C23" s="244"/>
-      <c r="D23" s="203"/>
-      <c r="E23" s="243"/>
-      <c r="F23" s="230"/>
-      <c r="G23" s="203"/>
-      <c r="H23" s="247"/>
-      <c r="I23" s="230"/>
-      <c r="J23" s="230"/>
-      <c r="K23" s="230"/>
-      <c r="L23" s="246"/>
+      <c r="B23" s="194"/>
+      <c r="C23" s="303"/>
+      <c r="D23" s="194"/>
+      <c r="E23" s="304"/>
+      <c r="F23" s="231"/>
+      <c r="G23" s="194"/>
+      <c r="H23" s="300"/>
+      <c r="I23" s="231"/>
+      <c r="J23" s="231"/>
+      <c r="K23" s="231"/>
+      <c r="L23" s="206"/>
       <c r="M23" s="23">
         <v>5</v>
       </c>
-      <c r="N23" s="242">
+      <c r="N23" s="298">
         <f>C23</f>
         <v>0</v>
       </c>
-      <c r="O23" s="203"/>
-      <c r="P23" s="243"/>
-      <c r="Q23" s="230"/>
-      <c r="R23" s="203"/>
-      <c r="S23" s="245"/>
-      <c r="T23" s="230"/>
-      <c r="U23" s="230"/>
-      <c r="V23" s="230"/>
-      <c r="W23" s="230"/>
-      <c r="X23" s="246"/>
+      <c r="O23" s="194"/>
+      <c r="P23" s="304"/>
+      <c r="Q23" s="231"/>
+      <c r="R23" s="194"/>
+      <c r="S23" s="230"/>
+      <c r="T23" s="231"/>
+      <c r="U23" s="231"/>
+      <c r="V23" s="231"/>
+      <c r="W23" s="231"/>
+      <c r="X23" s="206"/>
       <c r="Y23" s="24"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
@@ -5350,38 +5422,38 @@
       <c r="AZ23" s="1"/>
     </row>
     <row r="24" spans="1:52" ht="22.5" customHeight="1">
-      <c r="A24" s="250" t="s">
+      <c r="A24" s="212" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="208"/>
-      <c r="C24" s="208"/>
-      <c r="D24" s="198"/>
-      <c r="E24" s="207"/>
-      <c r="F24" s="208"/>
-      <c r="G24" s="198"/>
+      <c r="B24" s="213"/>
+      <c r="C24" s="213"/>
+      <c r="D24" s="214"/>
+      <c r="E24" s="302"/>
+      <c r="F24" s="213"/>
+      <c r="G24" s="214"/>
       <c r="H24" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="248"/>
-      <c r="J24" s="208"/>
-      <c r="K24" s="208"/>
-      <c r="L24" s="249"/>
-      <c r="M24" s="250" t="s">
+      <c r="I24" s="301"/>
+      <c r="J24" s="213"/>
+      <c r="K24" s="213"/>
+      <c r="L24" s="208"/>
+      <c r="M24" s="212" t="s">
         <v>35</v>
       </c>
-      <c r="N24" s="208"/>
-      <c r="O24" s="198"/>
-      <c r="P24" s="207"/>
-      <c r="Q24" s="208"/>
-      <c r="R24" s="198"/>
+      <c r="N24" s="213"/>
+      <c r="O24" s="214"/>
+      <c r="P24" s="302"/>
+      <c r="Q24" s="213"/>
+      <c r="R24" s="214"/>
       <c r="S24" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="T24" s="297"/>
-      <c r="U24" s="208"/>
-      <c r="V24" s="208"/>
-      <c r="W24" s="208"/>
-      <c r="X24" s="249"/>
+      <c r="T24" s="232"/>
+      <c r="U24" s="213"/>
+      <c r="V24" s="213"/>
+      <c r="W24" s="213"/>
+      <c r="X24" s="208"/>
       <c r="Y24" s="27"/>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
@@ -5412,32 +5484,32 @@
       <c r="AZ24" s="1"/>
     </row>
     <row r="25" spans="1:52" ht="27" customHeight="1">
-      <c r="A25" s="209" t="s">
-        <v>127</v>
+      <c r="A25" s="313" t="s">
+        <v>125</v>
       </c>
-      <c r="B25" s="210"/>
-      <c r="C25" s="210"/>
-      <c r="D25" s="210"/>
-      <c r="E25" s="210"/>
-      <c r="F25" s="210"/>
-      <c r="G25" s="210"/>
-      <c r="H25" s="210"/>
-      <c r="I25" s="210"/>
-      <c r="J25" s="210"/>
-      <c r="K25" s="210"/>
-      <c r="L25" s="210"/>
-      <c r="M25" s="210"/>
-      <c r="N25" s="210"/>
-      <c r="O25" s="210"/>
-      <c r="P25" s="210"/>
-      <c r="Q25" s="210"/>
-      <c r="R25" s="210"/>
-      <c r="S25" s="210"/>
-      <c r="T25" s="210"/>
-      <c r="U25" s="210"/>
-      <c r="V25" s="210"/>
-      <c r="W25" s="210"/>
-      <c r="X25" s="211"/>
+      <c r="B25" s="270"/>
+      <c r="C25" s="270"/>
+      <c r="D25" s="270"/>
+      <c r="E25" s="270"/>
+      <c r="F25" s="270"/>
+      <c r="G25" s="270"/>
+      <c r="H25" s="270"/>
+      <c r="I25" s="270"/>
+      <c r="J25" s="270"/>
+      <c r="K25" s="270"/>
+      <c r="L25" s="270"/>
+      <c r="M25" s="270"/>
+      <c r="N25" s="270"/>
+      <c r="O25" s="270"/>
+      <c r="P25" s="270"/>
+      <c r="Q25" s="270"/>
+      <c r="R25" s="270"/>
+      <c r="S25" s="270"/>
+      <c r="T25" s="270"/>
+      <c r="U25" s="270"/>
+      <c r="V25" s="270"/>
+      <c r="W25" s="270"/>
+      <c r="X25" s="219"/>
       <c r="Y25" s="14"/>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
@@ -5468,34 +5540,34 @@
       <c r="AZ25" s="1"/>
     </row>
     <row r="26" spans="1:52" ht="27" customHeight="1">
-      <c r="A26" s="212" t="s">
-        <v>128</v>
+      <c r="A26" s="314" t="s">
+        <v>126</v>
       </c>
-      <c r="B26" s="213"/>
-      <c r="C26" s="213"/>
-      <c r="D26" s="213"/>
-      <c r="E26" s="213"/>
-      <c r="F26" s="213"/>
-      <c r="G26" s="213"/>
-      <c r="H26" s="213"/>
-      <c r="I26" s="213"/>
-      <c r="J26" s="213"/>
-      <c r="K26" s="213"/>
-      <c r="L26" s="214"/>
-      <c r="M26" s="215" t="s">
-        <v>129</v>
+      <c r="B26" s="273"/>
+      <c r="C26" s="273"/>
+      <c r="D26" s="273"/>
+      <c r="E26" s="273"/>
+      <c r="F26" s="273"/>
+      <c r="G26" s="273"/>
+      <c r="H26" s="273"/>
+      <c r="I26" s="273"/>
+      <c r="J26" s="273"/>
+      <c r="K26" s="273"/>
+      <c r="L26" s="279"/>
+      <c r="M26" s="315" t="s">
+        <v>127</v>
       </c>
-      <c r="N26" s="210"/>
-      <c r="O26" s="210"/>
-      <c r="P26" s="210"/>
-      <c r="Q26" s="210"/>
-      <c r="R26" s="210"/>
-      <c r="S26" s="210"/>
-      <c r="T26" s="210"/>
-      <c r="U26" s="210"/>
-      <c r="V26" s="210"/>
-      <c r="W26" s="210"/>
-      <c r="X26" s="211"/>
+      <c r="N26" s="270"/>
+      <c r="O26" s="270"/>
+      <c r="P26" s="270"/>
+      <c r="Q26" s="270"/>
+      <c r="R26" s="270"/>
+      <c r="S26" s="270"/>
+      <c r="T26" s="270"/>
+      <c r="U26" s="270"/>
+      <c r="V26" s="270"/>
+      <c r="W26" s="270"/>
+      <c r="X26" s="219"/>
       <c r="Y26" s="14"/>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
@@ -5526,34 +5598,34 @@
       <c r="AZ26" s="1"/>
     </row>
     <row r="27" spans="1:52" ht="27" customHeight="1">
-      <c r="A27" s="216" t="s">
+      <c r="A27" s="290" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="196"/>
-      <c r="C27" s="196"/>
-      <c r="D27" s="196"/>
-      <c r="E27" s="196"/>
-      <c r="F27" s="196"/>
-      <c r="G27" s="193"/>
-      <c r="H27" s="217"/>
-      <c r="I27" s="196"/>
-      <c r="J27" s="196"/>
-      <c r="K27" s="196"/>
-      <c r="L27" s="218"/>
-      <c r="M27" s="219" t="s">
+      <c r="B27" s="227"/>
+      <c r="C27" s="227"/>
+      <c r="D27" s="227"/>
+      <c r="E27" s="227"/>
+      <c r="F27" s="227"/>
+      <c r="G27" s="198"/>
+      <c r="H27" s="316"/>
+      <c r="I27" s="227"/>
+      <c r="J27" s="227"/>
+      <c r="K27" s="227"/>
+      <c r="L27" s="229"/>
+      <c r="M27" s="317" t="s">
         <v>38</v>
       </c>
-      <c r="N27" s="220"/>
-      <c r="O27" s="220"/>
-      <c r="P27" s="220"/>
-      <c r="Q27" s="220"/>
-      <c r="R27" s="201"/>
-      <c r="S27" s="221"/>
-      <c r="T27" s="196"/>
-      <c r="U27" s="196"/>
-      <c r="V27" s="196"/>
-      <c r="W27" s="196"/>
-      <c r="X27" s="218"/>
+      <c r="N27" s="252"/>
+      <c r="O27" s="252"/>
+      <c r="P27" s="252"/>
+      <c r="Q27" s="252"/>
+      <c r="R27" s="200"/>
+      <c r="S27" s="318"/>
+      <c r="T27" s="227"/>
+      <c r="U27" s="227"/>
+      <c r="V27" s="227"/>
+      <c r="W27" s="227"/>
+      <c r="X27" s="229"/>
       <c r="Y27" s="24"/>
       <c r="Z27" s="8"/>
       <c r="AA27" s="8"/>
@@ -5584,36 +5656,36 @@
       <c r="AZ27" s="1"/>
     </row>
     <row r="28" spans="1:52" ht="27" customHeight="1">
-      <c r="A28" s="238" t="s">
+      <c r="A28" s="242" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="230"/>
-      <c r="C28" s="230"/>
-      <c r="D28" s="230"/>
-      <c r="E28" s="230"/>
-      <c r="F28" s="230"/>
-      <c r="G28" s="203"/>
-      <c r="H28" s="245"/>
-      <c r="I28" s="230"/>
-      <c r="J28" s="230"/>
-      <c r="K28" s="230"/>
-      <c r="L28" s="246"/>
-      <c r="M28" s="305" t="s">
+      <c r="B28" s="231"/>
+      <c r="C28" s="231"/>
+      <c r="D28" s="231"/>
+      <c r="E28" s="231"/>
+      <c r="F28" s="231"/>
+      <c r="G28" s="194"/>
+      <c r="H28" s="230"/>
+      <c r="I28" s="231"/>
+      <c r="J28" s="231"/>
+      <c r="K28" s="231"/>
+      <c r="L28" s="206"/>
+      <c r="M28" s="244" t="s">
         <v>40</v>
       </c>
-      <c r="N28" s="230"/>
-      <c r="O28" s="230"/>
+      <c r="N28" s="231"/>
+      <c r="O28" s="231"/>
       <c r="P28" s="28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
-      <c r="Q28" s="306"/>
-      <c r="R28" s="246"/>
-      <c r="S28" s="304"/>
-      <c r="T28" s="230"/>
-      <c r="U28" s="230"/>
-      <c r="V28" s="230"/>
-      <c r="W28" s="230"/>
-      <c r="X28" s="246"/>
+      <c r="Q28" s="245"/>
+      <c r="R28" s="206"/>
+      <c r="S28" s="243"/>
+      <c r="T28" s="231"/>
+      <c r="U28" s="231"/>
+      <c r="V28" s="231"/>
+      <c r="W28" s="231"/>
+      <c r="X28" s="206"/>
       <c r="Y28" s="29"/>
       <c r="Z28" s="8"/>
       <c r="AA28" s="8"/>
@@ -5644,34 +5716,34 @@
       <c r="AZ28" s="1"/>
     </row>
     <row r="29" spans="1:52" ht="27" customHeight="1">
-      <c r="A29" s="238" t="s">
+      <c r="A29" s="242" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="230"/>
-      <c r="C29" s="230"/>
-      <c r="D29" s="230"/>
-      <c r="E29" s="230"/>
-      <c r="F29" s="230"/>
-      <c r="G29" s="203"/>
-      <c r="H29" s="245"/>
-      <c r="I29" s="230"/>
-      <c r="J29" s="230"/>
-      <c r="K29" s="230"/>
-      <c r="L29" s="246"/>
-      <c r="M29" s="238" t="s">
+      <c r="B29" s="231"/>
+      <c r="C29" s="231"/>
+      <c r="D29" s="231"/>
+      <c r="E29" s="231"/>
+      <c r="F29" s="231"/>
+      <c r="G29" s="194"/>
+      <c r="H29" s="230"/>
+      <c r="I29" s="231"/>
+      <c r="J29" s="231"/>
+      <c r="K29" s="231"/>
+      <c r="L29" s="206"/>
+      <c r="M29" s="242" t="s">
         <v>42</v>
       </c>
-      <c r="N29" s="230"/>
-      <c r="O29" s="230"/>
-      <c r="P29" s="230"/>
-      <c r="Q29" s="230"/>
-      <c r="R29" s="203"/>
-      <c r="S29" s="304"/>
-      <c r="T29" s="230"/>
-      <c r="U29" s="230"/>
-      <c r="V29" s="230"/>
-      <c r="W29" s="230"/>
-      <c r="X29" s="246"/>
+      <c r="N29" s="231"/>
+      <c r="O29" s="231"/>
+      <c r="P29" s="231"/>
+      <c r="Q29" s="231"/>
+      <c r="R29" s="194"/>
+      <c r="S29" s="243"/>
+      <c r="T29" s="231"/>
+      <c r="U29" s="231"/>
+      <c r="V29" s="231"/>
+      <c r="W29" s="231"/>
+      <c r="X29" s="206"/>
       <c r="Y29" s="30"/>
       <c r="Z29" s="8"/>
       <c r="AA29" s="8"/>
@@ -5702,34 +5774,34 @@
       <c r="AZ29" s="1"/>
     </row>
     <row r="30" spans="1:52" ht="27" customHeight="1">
-      <c r="A30" s="250" t="s">
+      <c r="A30" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="208"/>
-      <c r="C30" s="208"/>
-      <c r="D30" s="208"/>
-      <c r="E30" s="208"/>
-      <c r="F30" s="208"/>
-      <c r="G30" s="198"/>
-      <c r="H30" s="308"/>
-      <c r="I30" s="208"/>
-      <c r="J30" s="208"/>
-      <c r="K30" s="208"/>
-      <c r="L30" s="249"/>
-      <c r="M30" s="263" t="s">
+      <c r="B30" s="213"/>
+      <c r="C30" s="213"/>
+      <c r="D30" s="213"/>
+      <c r="E30" s="213"/>
+      <c r="F30" s="213"/>
+      <c r="G30" s="214"/>
+      <c r="H30" s="215"/>
+      <c r="I30" s="213"/>
+      <c r="J30" s="213"/>
+      <c r="K30" s="213"/>
+      <c r="L30" s="208"/>
+      <c r="M30" s="216" t="s">
         <v>44</v>
       </c>
-      <c r="N30" s="208"/>
-      <c r="O30" s="208"/>
-      <c r="P30" s="208"/>
-      <c r="Q30" s="208"/>
-      <c r="R30" s="208"/>
-      <c r="S30" s="309"/>
-      <c r="T30" s="208"/>
-      <c r="U30" s="208"/>
-      <c r="V30" s="208"/>
-      <c r="W30" s="208"/>
-      <c r="X30" s="249"/>
+      <c r="N30" s="213"/>
+      <c r="O30" s="213"/>
+      <c r="P30" s="213"/>
+      <c r="Q30" s="213"/>
+      <c r="R30" s="213"/>
+      <c r="S30" s="217"/>
+      <c r="T30" s="213"/>
+      <c r="U30" s="213"/>
+      <c r="V30" s="213"/>
+      <c r="W30" s="213"/>
+      <c r="X30" s="208"/>
       <c r="Y30" s="30"/>
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
@@ -5783,10 +5855,10 @@
       <c r="S31" s="32"/>
       <c r="T31" s="32"/>
       <c r="U31" s="33"/>
-      <c r="V31" s="310" t="s">
+      <c r="V31" s="218" t="s">
         <v>46</v>
       </c>
-      <c r="W31" s="211"/>
+      <c r="W31" s="219"/>
       <c r="X31" s="19"/>
       <c r="Y31" s="34"/>
       <c r="Z31" s="8"/>
@@ -5818,38 +5890,38 @@
       <c r="AZ31" s="1"/>
     </row>
     <row r="32" spans="1:52" ht="16.5" customHeight="1">
-      <c r="A32" s="311" t="s">
+      <c r="A32" s="220" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="237"/>
-      <c r="C32" s="237"/>
-      <c r="D32" s="237"/>
-      <c r="E32" s="312" t="s">
+      <c r="B32" s="221"/>
+      <c r="C32" s="221"/>
+      <c r="D32" s="221"/>
+      <c r="E32" s="222" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="237"/>
-      <c r="G32" s="237"/>
-      <c r="H32" s="237"/>
-      <c r="I32" s="237"/>
-      <c r="J32" s="237"/>
-      <c r="K32" s="237"/>
-      <c r="L32" s="268"/>
-      <c r="M32" s="312" t="s">
+      <c r="F32" s="221"/>
+      <c r="G32" s="221"/>
+      <c r="H32" s="221"/>
+      <c r="I32" s="221"/>
+      <c r="J32" s="221"/>
+      <c r="K32" s="221"/>
+      <c r="L32" s="203"/>
+      <c r="M32" s="222" t="s">
         <v>49</v>
       </c>
-      <c r="N32" s="237"/>
-      <c r="O32" s="237"/>
-      <c r="P32" s="237"/>
-      <c r="Q32" s="237"/>
-      <c r="R32" s="224"/>
-      <c r="S32" s="313" t="s">
+      <c r="N32" s="221"/>
+      <c r="O32" s="221"/>
+      <c r="P32" s="221"/>
+      <c r="Q32" s="221"/>
+      <c r="R32" s="223"/>
+      <c r="S32" s="224" t="s">
         <v>50</v>
       </c>
-      <c r="T32" s="265"/>
-      <c r="U32" s="265"/>
-      <c r="V32" s="265"/>
-      <c r="W32" s="265"/>
-      <c r="X32" s="275"/>
+      <c r="T32" s="210"/>
+      <c r="U32" s="210"/>
+      <c r="V32" s="210"/>
+      <c r="W32" s="210"/>
+      <c r="X32" s="211"/>
       <c r="Y32" s="14"/>
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
@@ -5880,32 +5952,32 @@
       <c r="AZ32" s="1"/>
     </row>
     <row r="33" spans="1:52" ht="67.5" customHeight="1">
-      <c r="A33" s="239"/>
-      <c r="B33" s="210"/>
-      <c r="C33" s="210"/>
-      <c r="D33" s="211"/>
-      <c r="E33" s="239"/>
-      <c r="F33" s="210"/>
-      <c r="G33" s="210"/>
-      <c r="H33" s="210"/>
-      <c r="I33" s="210"/>
-      <c r="J33" s="210"/>
-      <c r="K33" s="210"/>
-      <c r="L33" s="211"/>
-      <c r="M33" s="290"/>
-      <c r="N33" s="210"/>
-      <c r="O33" s="210"/>
-      <c r="P33" s="210"/>
-      <c r="Q33" s="210"/>
-      <c r="R33" s="211"/>
-      <c r="S33" s="290" t="s">
+      <c r="A33" s="269"/>
+      <c r="B33" s="270"/>
+      <c r="C33" s="270"/>
+      <c r="D33" s="219"/>
+      <c r="E33" s="269"/>
+      <c r="F33" s="270"/>
+      <c r="G33" s="270"/>
+      <c r="H33" s="270"/>
+      <c r="I33" s="270"/>
+      <c r="J33" s="270"/>
+      <c r="K33" s="270"/>
+      <c r="L33" s="219"/>
+      <c r="M33" s="271"/>
+      <c r="N33" s="270"/>
+      <c r="O33" s="270"/>
+      <c r="P33" s="270"/>
+      <c r="Q33" s="270"/>
+      <c r="R33" s="219"/>
+      <c r="S33" s="271" t="s">
         <v>51</v>
       </c>
-      <c r="T33" s="210"/>
-      <c r="U33" s="210"/>
-      <c r="V33" s="210"/>
-      <c r="W33" s="210"/>
-      <c r="X33" s="211"/>
+      <c r="T33" s="270"/>
+      <c r="U33" s="270"/>
+      <c r="V33" s="270"/>
+      <c r="W33" s="270"/>
+      <c r="X33" s="219"/>
       <c r="Y33" s="35"/>
       <c r="Z33" s="36"/>
       <c r="AA33" s="36"/>
@@ -5967,34 +6039,34 @@
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
-      <c r="AF34" s="307" t="s">
+      <c r="AF34" s="209" t="s">
         <v>52</v>
       </c>
-      <c r="AG34" s="265"/>
-      <c r="AH34" s="265"/>
-      <c r="AI34" s="265"/>
-      <c r="AJ34" s="275"/>
-      <c r="AK34" s="307" t="s">
+      <c r="AG34" s="210"/>
+      <c r="AH34" s="210"/>
+      <c r="AI34" s="210"/>
+      <c r="AJ34" s="211"/>
+      <c r="AK34" s="209" t="s">
         <v>53</v>
       </c>
-      <c r="AL34" s="265"/>
-      <c r="AM34" s="265"/>
-      <c r="AN34" s="265"/>
-      <c r="AO34" s="275"/>
-      <c r="AP34" s="307" t="s">
+      <c r="AL34" s="210"/>
+      <c r="AM34" s="210"/>
+      <c r="AN34" s="210"/>
+      <c r="AO34" s="211"/>
+      <c r="AP34" s="209" t="s">
         <v>54</v>
       </c>
-      <c r="AQ34" s="265"/>
-      <c r="AR34" s="265"/>
-      <c r="AS34" s="265"/>
-      <c r="AT34" s="275"/>
-      <c r="AU34" s="307" t="s">
+      <c r="AQ34" s="210"/>
+      <c r="AR34" s="210"/>
+      <c r="AS34" s="210"/>
+      <c r="AT34" s="211"/>
+      <c r="AU34" s="209" t="s">
         <v>55</v>
       </c>
-      <c r="AV34" s="265"/>
-      <c r="AW34" s="265"/>
-      <c r="AX34" s="265"/>
-      <c r="AY34" s="275"/>
+      <c r="AV34" s="210"/>
+      <c r="AW34" s="210"/>
+      <c r="AX34" s="210"/>
+      <c r="AY34" s="211"/>
       <c r="AZ34" s="1"/>
     </row>
     <row r="35" spans="1:52" ht="38.25" customHeight="1">
@@ -6028,66 +6100,66 @@
       <c r="J35" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="K35" s="45" t="s">
+      <c r="K35" s="192" t="s">
+        <v>129</v>
+      </c>
+      <c r="L35" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="L35" s="44" t="s">
+      <c r="M35" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="M35" s="46" t="s">
+      <c r="N35" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="N35" s="46" t="s">
+      <c r="O35" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="P35" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="O35" s="47" t="s">
+      <c r="Q35" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="P35" s="47" t="s">
+      <c r="R35" s="195" t="s">
         <v>70</v>
       </c>
-      <c r="Q35" s="47" t="s">
+      <c r="S35" s="196"/>
+      <c r="T35" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="R35" s="315" t="s">
+      <c r="U35" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="S35" s="266"/>
-      <c r="T35" s="45" t="s">
+      <c r="V35" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="U35" s="48" t="s">
+      <c r="W35" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="V35" s="46" t="s">
+      <c r="X35" s="187" t="s">
         <v>75</v>
       </c>
-      <c r="W35" s="49" t="s">
+      <c r="Y35" s="188" t="s">
         <v>76</v>
       </c>
-      <c r="X35" s="187" t="s">
+      <c r="Z35" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="Y35" s="188" t="s">
+      <c r="AA35" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="Z35" s="50" t="s">
+      <c r="AB35" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="AA35" s="50" t="s">
+      <c r="AC35" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="AB35" s="50" t="s">
+      <c r="AD35" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="AC35" s="50" t="s">
+      <c r="AE35" s="50" t="s">
         <v>82</v>
-      </c>
-      <c r="AD35" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE35" s="50" t="s">
-        <v>84</v>
       </c>
       <c r="AF35" s="52">
         <v>1</v>
@@ -6153,74 +6225,74 @@
     </row>
     <row r="36" spans="1:52" ht="18" customHeight="1">
       <c r="A36" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="56" t="s">
+      <c r="D36" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="56" t="s">
+      <c r="E36" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="56" t="s">
+      <c r="F36" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="E36" s="57" t="s">
+      <c r="H36" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="I36" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="J36" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="K36" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="L36" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="M36" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="N36" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="O36" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="P36" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q36" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="R36" s="197" t="s">
         <v>89</v>
       </c>
-      <c r="F36" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="G36" s="58" t="s">
+      <c r="S36" s="198"/>
+      <c r="T36" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="H36" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="I36" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="J36" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="K36" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="L36" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="M36" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="N36" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="O36" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="P36" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q36" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="R36" s="316" t="s">
-        <v>91</v>
-      </c>
-      <c r="S36" s="193"/>
-      <c r="T36" s="60" t="s">
-        <v>92</v>
-      </c>
       <c r="U36" s="58" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="V36" s="58" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="W36" s="58" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="X36" s="61" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y36" s="62"/>
       <c r="Z36" s="62"/>
@@ -6262,21 +6334,15 @@
       <c r="H37" s="74"/>
       <c r="I37" s="74"/>
       <c r="J37" s="75"/>
-      <c r="K37" s="76">
-        <f t="shared" ref="K37:K40" si="0">H37+I37+J37</f>
-        <v>0</v>
-      </c>
+      <c r="K37" s="76"/>
       <c r="L37" s="77"/>
       <c r="M37" s="72"/>
       <c r="N37" s="78"/>
-      <c r="O37" s="79">
-        <f>U37+V37+W37+X37</f>
-        <v>0</v>
-      </c>
+      <c r="O37" s="79"/>
       <c r="P37" s="79"/>
       <c r="Q37" s="80"/>
-      <c r="R37" s="222"/>
-      <c r="S37" s="201"/>
+      <c r="R37" s="199"/>
+      <c r="S37" s="200"/>
       <c r="T37" s="81"/>
       <c r="U37" s="74"/>
       <c r="V37" s="74"/>
@@ -6322,21 +6388,15 @@
       <c r="H38" s="74"/>
       <c r="I38" s="74"/>
       <c r="J38" s="75"/>
-      <c r="K38" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K38" s="76"/>
       <c r="L38" s="77"/>
       <c r="M38" s="72"/>
       <c r="N38" s="78"/>
-      <c r="O38" s="79">
-        <f t="shared" ref="O38:O40" si="1">U38+V38+W38+X38</f>
-        <v>0</v>
-      </c>
+      <c r="O38" s="79"/>
       <c r="P38" s="79"/>
       <c r="Q38" s="80"/>
-      <c r="R38" s="222"/>
-      <c r="S38" s="201"/>
+      <c r="R38" s="199"/>
+      <c r="S38" s="200"/>
       <c r="T38" s="81"/>
       <c r="U38" s="74"/>
       <c r="V38" s="74"/>
@@ -6382,21 +6442,15 @@
       <c r="H39" s="74"/>
       <c r="I39" s="74"/>
       <c r="J39" s="75"/>
-      <c r="K39" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K39" s="76"/>
       <c r="L39" s="77"/>
       <c r="M39" s="72"/>
       <c r="N39" s="78"/>
-      <c r="O39" s="79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="O39" s="79"/>
       <c r="P39" s="79"/>
       <c r="Q39" s="80"/>
-      <c r="R39" s="222"/>
-      <c r="S39" s="201"/>
+      <c r="R39" s="199"/>
+      <c r="S39" s="200"/>
       <c r="T39" s="81"/>
       <c r="U39" s="74"/>
       <c r="V39" s="74"/>
@@ -6442,21 +6496,15 @@
       <c r="H40" s="74"/>
       <c r="I40" s="74"/>
       <c r="J40" s="75"/>
-      <c r="K40" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="K40" s="76"/>
       <c r="L40" s="77"/>
       <c r="M40" s="72"/>
       <c r="N40" s="78"/>
-      <c r="O40" s="79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="O40" s="79"/>
       <c r="P40" s="79"/>
       <c r="Q40" s="80"/>
-      <c r="R40" s="222"/>
-      <c r="S40" s="201"/>
+      <c r="R40" s="199"/>
+      <c r="S40" s="200"/>
       <c r="T40" s="81"/>
       <c r="U40" s="74"/>
       <c r="V40" s="74"/>
@@ -6546,32 +6594,32 @@
       <c r="AZ41" s="67"/>
     </row>
     <row r="42" spans="1:52" ht="21" customHeight="1">
-      <c r="A42" s="223" t="s">
-        <v>93</v>
+      <c r="A42" s="319" t="s">
+        <v>91</v>
       </c>
-      <c r="B42" s="224"/>
-      <c r="C42" s="224"/>
-      <c r="D42" s="224"/>
-      <c r="E42" s="224"/>
-      <c r="F42" s="224"/>
-      <c r="G42" s="224"/>
-      <c r="H42" s="224"/>
-      <c r="I42" s="224"/>
-      <c r="J42" s="224"/>
-      <c r="K42" s="224"/>
-      <c r="L42" s="224"/>
-      <c r="M42" s="224"/>
-      <c r="N42" s="224"/>
-      <c r="O42" s="224"/>
-      <c r="P42" s="224"/>
-      <c r="Q42" s="224"/>
-      <c r="R42" s="224"/>
-      <c r="S42" s="224"/>
-      <c r="T42" s="224"/>
-      <c r="U42" s="224"/>
-      <c r="V42" s="224"/>
-      <c r="W42" s="224"/>
-      <c r="X42" s="224"/>
+      <c r="B42" s="223"/>
+      <c r="C42" s="223"/>
+      <c r="D42" s="223"/>
+      <c r="E42" s="223"/>
+      <c r="F42" s="223"/>
+      <c r="G42" s="223"/>
+      <c r="H42" s="223"/>
+      <c r="I42" s="223"/>
+      <c r="J42" s="223"/>
+      <c r="K42" s="223"/>
+      <c r="L42" s="223"/>
+      <c r="M42" s="223"/>
+      <c r="N42" s="223"/>
+      <c r="O42" s="223"/>
+      <c r="P42" s="223"/>
+      <c r="Q42" s="223"/>
+      <c r="R42" s="223"/>
+      <c r="S42" s="223"/>
+      <c r="T42" s="223"/>
+      <c r="U42" s="223"/>
+      <c r="V42" s="223"/>
+      <c r="W42" s="223"/>
+      <c r="X42" s="223"/>
       <c r="Y42" s="95"/>
       <c r="Z42" s="96"/>
       <c r="AA42" s="96"/>
@@ -6600,36 +6648,36 @@
       <c r="AX42" s="191"/>
       <c r="AY42" s="99"/>
       <c r="AZ42" s="100" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:52" ht="21" customHeight="1">
-      <c r="A43" s="225" t="s">
-        <v>95</v>
+      <c r="A43" s="320" t="s">
+        <v>93</v>
       </c>
-      <c r="B43" s="224"/>
-      <c r="C43" s="224"/>
-      <c r="D43" s="224"/>
-      <c r="E43" s="224"/>
-      <c r="F43" s="224"/>
-      <c r="G43" s="224"/>
-      <c r="H43" s="224"/>
-      <c r="I43" s="224"/>
-      <c r="J43" s="224"/>
-      <c r="K43" s="224"/>
-      <c r="L43" s="224"/>
-      <c r="M43" s="224"/>
-      <c r="N43" s="224"/>
-      <c r="O43" s="224"/>
-      <c r="P43" s="224"/>
-      <c r="Q43" s="224"/>
-      <c r="R43" s="224"/>
-      <c r="S43" s="224"/>
-      <c r="T43" s="224"/>
-      <c r="U43" s="224"/>
-      <c r="V43" s="224"/>
-      <c r="W43" s="224"/>
-      <c r="X43" s="224"/>
+      <c r="B43" s="223"/>
+      <c r="C43" s="223"/>
+      <c r="D43" s="223"/>
+      <c r="E43" s="223"/>
+      <c r="F43" s="223"/>
+      <c r="G43" s="223"/>
+      <c r="H43" s="223"/>
+      <c r="I43" s="223"/>
+      <c r="J43" s="223"/>
+      <c r="K43" s="223"/>
+      <c r="L43" s="223"/>
+      <c r="M43" s="223"/>
+      <c r="N43" s="223"/>
+      <c r="O43" s="223"/>
+      <c r="P43" s="223"/>
+      <c r="Q43" s="223"/>
+      <c r="R43" s="223"/>
+      <c r="S43" s="223"/>
+      <c r="T43" s="223"/>
+      <c r="U43" s="223"/>
+      <c r="V43" s="223"/>
+      <c r="W43" s="223"/>
+      <c r="X43" s="223"/>
       <c r="Y43" s="101"/>
       <c r="Z43" s="96"/>
       <c r="AA43" s="96"/>
@@ -6732,12 +6780,12 @@
       <c r="P45" s="100"/>
       <c r="Q45" s="124"/>
       <c r="R45" s="125" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
-      <c r="S45" s="226"/>
-      <c r="T45" s="218"/>
+      <c r="S45" s="321"/>
+      <c r="T45" s="229"/>
       <c r="U45" s="126" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="V45" s="127"/>
       <c r="W45" s="128"/>
@@ -6776,23 +6824,23 @@
       <c r="B46" s="133"/>
       <c r="C46" s="119"/>
       <c r="D46" s="134" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
-      <c r="E46" s="227"/>
-      <c r="F46" s="224"/>
-      <c r="G46" s="224"/>
-      <c r="H46" s="224"/>
+      <c r="E46" s="308"/>
+      <c r="F46" s="223"/>
+      <c r="G46" s="223"/>
+      <c r="H46" s="223"/>
       <c r="I46" s="135"/>
       <c r="J46" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="K46" s="317" t="s">
-        <v>98</v>
+      <c r="K46" s="201" t="s">
+        <v>96</v>
       </c>
-      <c r="L46" s="203"/>
+      <c r="L46" s="194"/>
       <c r="M46" s="137"/>
       <c r="N46" s="138" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O46" s="139">
         <v>1</v>
@@ -6800,10 +6848,10 @@
       <c r="P46" s="100"/>
       <c r="Q46" s="140"/>
       <c r="R46" s="141"/>
-      <c r="S46" s="320"/>
-      <c r="T46" s="246"/>
+      <c r="S46" s="205"/>
+      <c r="T46" s="206"/>
       <c r="U46" s="142" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V46" s="143"/>
       <c r="W46" s="144"/>
@@ -6842,21 +6890,21 @@
       <c r="B47" s="133"/>
       <c r="C47" s="119"/>
       <c r="D47" s="134" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
-      <c r="E47" s="227"/>
-      <c r="F47" s="224"/>
-      <c r="G47" s="224"/>
-      <c r="H47" s="224"/>
+      <c r="E47" s="308"/>
+      <c r="F47" s="223"/>
+      <c r="G47" s="223"/>
+      <c r="H47" s="223"/>
       <c r="I47" s="100"/>
       <c r="J47" s="136"/>
-      <c r="K47" s="318" t="s">
-        <v>102</v>
+      <c r="K47" s="202" t="s">
+        <v>100</v>
       </c>
-      <c r="L47" s="268"/>
+      <c r="L47" s="203"/>
       <c r="M47" s="137"/>
       <c r="N47" s="138" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O47" s="139">
         <v>0</v>
@@ -6864,10 +6912,10 @@
       <c r="P47" s="147"/>
       <c r="Q47" s="100"/>
       <c r="R47" s="100"/>
-      <c r="S47" s="321"/>
-      <c r="T47" s="249"/>
+      <c r="S47" s="207"/>
+      <c r="T47" s="208"/>
       <c r="U47" s="148" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="V47" s="149"/>
       <c r="W47" s="150"/>
@@ -6912,13 +6960,13 @@
       <c r="H48" s="152"/>
       <c r="I48" s="100"/>
       <c r="J48" s="153"/>
-      <c r="K48" s="317" t="s">
-        <v>102</v>
+      <c r="K48" s="201" t="s">
+        <v>100</v>
       </c>
-      <c r="L48" s="203"/>
+      <c r="L48" s="194"/>
       <c r="M48" s="154"/>
       <c r="N48" s="155" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O48" s="156">
         <v>0</v>
@@ -6965,28 +7013,28 @@
       <c r="A49" s="158"/>
       <c r="B49" s="159"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="236"/>
-      <c r="E49" s="237"/>
-      <c r="F49" s="237"/>
-      <c r="G49" s="237"/>
-      <c r="H49" s="237"/>
-      <c r="I49" s="237"/>
-      <c r="J49" s="237"/>
-      <c r="K49" s="237"/>
-      <c r="L49" s="237"/>
-      <c r="M49" s="237"/>
-      <c r="N49" s="237"/>
-      <c r="O49" s="237"/>
-      <c r="P49" s="237"/>
-      <c r="Q49" s="237"/>
-      <c r="R49" s="237"/>
-      <c r="S49" s="237"/>
+      <c r="D49" s="309"/>
+      <c r="E49" s="221"/>
+      <c r="F49" s="221"/>
+      <c r="G49" s="221"/>
+      <c r="H49" s="221"/>
+      <c r="I49" s="221"/>
+      <c r="J49" s="221"/>
+      <c r="K49" s="221"/>
+      <c r="L49" s="221"/>
+      <c r="M49" s="221"/>
+      <c r="N49" s="221"/>
+      <c r="O49" s="221"/>
+      <c r="P49" s="221"/>
+      <c r="Q49" s="221"/>
+      <c r="R49" s="221"/>
+      <c r="S49" s="221"/>
       <c r="T49" s="160"/>
       <c r="U49" s="161" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
-      <c r="V49" s="278"/>
-      <c r="W49" s="278"/>
+      <c r="V49" s="246"/>
+      <c r="W49" s="246"/>
       <c r="X49" s="162"/>
       <c r="Y49" s="162"/>
       <c r="Z49" s="162"/>
@@ -7020,39 +7068,39 @@
     <row r="50" spans="1:52" ht="28.5" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="232" t="s">
+      <c r="C50" s="311" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="306" t="s">
+        <v>105</v>
+      </c>
+      <c r="E50" s="194"/>
+      <c r="F50" s="312">
+        <v>0</v>
+      </c>
+      <c r="G50" s="194"/>
+      <c r="H50" s="164"/>
+      <c r="I50" s="165"/>
+      <c r="J50" s="311" t="s">
         <v>106</v>
       </c>
-      <c r="D50" s="204" t="s">
+      <c r="K50" s="204" t="s">
         <v>107</v>
       </c>
-      <c r="E50" s="203"/>
-      <c r="F50" s="235">
-        <v>0</v>
-      </c>
-      <c r="G50" s="203"/>
-      <c r="H50" s="164"/>
-      <c r="I50" s="165"/>
-      <c r="J50" s="232" t="s">
-        <v>108</v>
-      </c>
-      <c r="K50" s="319" t="s">
-        <v>109</v>
-      </c>
-      <c r="L50" s="203"/>
+      <c r="L50" s="194"/>
       <c r="M50" s="166">
         <v>100</v>
       </c>
       <c r="N50" s="164"/>
       <c r="O50" s="1"/>
       <c r="P50" s="165"/>
-      <c r="Q50" s="241" t="s">
-        <v>126</v>
+      <c r="Q50" s="247" t="s">
+        <v>124</v>
       </c>
-      <c r="R50" s="230"/>
-      <c r="S50" s="203"/>
-      <c r="T50" s="279"/>
-      <c r="U50" s="280"/>
+      <c r="R50" s="231"/>
+      <c r="S50" s="194"/>
+      <c r="T50" s="248"/>
+      <c r="U50" s="249"/>
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
       <c r="X50" s="8"/>
@@ -7088,38 +7136,38 @@
     <row r="51" spans="1:52" ht="28.5" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="233"/>
-      <c r="D51" s="204" t="s">
-        <v>110</v>
+      <c r="C51" s="264"/>
+      <c r="D51" s="306" t="s">
+        <v>108</v>
       </c>
-      <c r="E51" s="203"/>
-      <c r="F51" s="202">
+      <c r="E51" s="194"/>
+      <c r="F51" s="307">
         <v>0</v>
       </c>
-      <c r="G51" s="203"/>
+      <c r="G51" s="194"/>
       <c r="H51" s="164"/>
       <c r="I51" s="165"/>
-      <c r="J51" s="233"/>
-      <c r="K51" s="281">
+      <c r="J51" s="264"/>
+      <c r="K51" s="250">
         <v>30</v>
       </c>
-      <c r="L51" s="203"/>
+      <c r="L51" s="194"/>
       <c r="M51" s="169">
         <f>I24*K51/360*0.045</f>
         <v>0</v>
       </c>
       <c r="N51" s="164"/>
       <c r="O51" s="170" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P51" s="171"/>
-      <c r="Q51" s="241" t="s">
-        <v>112</v>
+      <c r="Q51" s="247" t="s">
+        <v>110</v>
       </c>
-      <c r="R51" s="230"/>
-      <c r="S51" s="203"/>
-      <c r="T51" s="279"/>
-      <c r="U51" s="203"/>
+      <c r="R51" s="231"/>
+      <c r="S51" s="194"/>
+      <c r="T51" s="248"/>
+      <c r="U51" s="194"/>
       <c r="V51" s="172"/>
       <c r="W51" s="1"/>
       <c r="X51" s="8"/>
@@ -7155,35 +7203,35 @@
     <row r="52" spans="1:52" ht="28.5" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="5"/>
-      <c r="C52" s="233"/>
-      <c r="D52" s="204" t="s">
-        <v>113</v>
+      <c r="C52" s="264"/>
+      <c r="D52" s="306" t="s">
+        <v>111</v>
       </c>
-      <c r="E52" s="203"/>
-      <c r="F52" s="202">
+      <c r="E52" s="194"/>
+      <c r="F52" s="307">
         <v>0</v>
       </c>
-      <c r="G52" s="203"/>
+      <c r="G52" s="194"/>
       <c r="H52" s="164"/>
       <c r="I52" s="165"/>
-      <c r="J52" s="233"/>
-      <c r="K52" s="240" t="s">
-        <v>114</v>
+      <c r="J52" s="264"/>
+      <c r="K52" s="235" t="s">
+        <v>112</v>
       </c>
-      <c r="L52" s="203"/>
+      <c r="L52" s="194"/>
       <c r="M52" s="166">
         <v>0</v>
       </c>
       <c r="N52" s="164"/>
       <c r="O52" s="1"/>
       <c r="P52" s="171"/>
-      <c r="Q52" s="241" t="s">
-        <v>115</v>
+      <c r="Q52" s="247" t="s">
+        <v>113</v>
       </c>
-      <c r="R52" s="230"/>
-      <c r="S52" s="203"/>
-      <c r="T52" s="314"/>
-      <c r="U52" s="203"/>
+      <c r="R52" s="231"/>
+      <c r="S52" s="194"/>
+      <c r="T52" s="193"/>
+      <c r="U52" s="194"/>
       <c r="V52" s="172"/>
       <c r="W52" s="1"/>
       <c r="X52" s="8"/>
@@ -7219,31 +7267,31 @@
     <row r="53" spans="1:52" ht="28.5" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="5"/>
-      <c r="C53" s="233"/>
+      <c r="C53" s="264"/>
       <c r="D53" s="163" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E53" s="173">
         <v>0</v>
       </c>
-      <c r="F53" s="202">
+      <c r="F53" s="307">
         <f>E47*1.1*E53</f>
         <v>0</v>
       </c>
-      <c r="G53" s="203"/>
+      <c r="G53" s="194"/>
       <c r="H53" s="164"/>
       <c r="I53" s="165"/>
-      <c r="J53" s="233"/>
-      <c r="K53" s="240" t="s">
-        <v>117</v>
+      <c r="J53" s="264"/>
+      <c r="K53" s="235" t="s">
+        <v>115</v>
       </c>
-      <c r="L53" s="203"/>
+      <c r="L53" s="194"/>
       <c r="M53" s="166">
         <v>0</v>
       </c>
       <c r="N53" s="164"/>
       <c r="O53" s="174" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P53" s="171"/>
       <c r="Q53" s="1"/>
@@ -7286,22 +7334,22 @@
     <row r="54" spans="1:52" ht="28.5" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="5"/>
-      <c r="C54" s="233"/>
-      <c r="D54" s="204" t="s">
-        <v>119</v>
+      <c r="C54" s="264"/>
+      <c r="D54" s="306" t="s">
+        <v>117</v>
       </c>
-      <c r="E54" s="203"/>
-      <c r="F54" s="202">
+      <c r="E54" s="194"/>
+      <c r="F54" s="307">
         <v>0</v>
       </c>
-      <c r="G54" s="203"/>
+      <c r="G54" s="194"/>
       <c r="H54" s="164"/>
       <c r="I54" s="165"/>
-      <c r="J54" s="233"/>
-      <c r="K54" s="298" t="s">
-        <v>120</v>
+      <c r="J54" s="264"/>
+      <c r="K54" s="236" t="s">
+        <v>118</v>
       </c>
-      <c r="L54" s="203"/>
+      <c r="L54" s="194"/>
       <c r="M54" s="166">
         <v>0</v>
       </c>
@@ -7348,22 +7396,22 @@
     <row r="55" spans="1:52" ht="28.5" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="233"/>
-      <c r="D55" s="204" t="s">
-        <v>121</v>
+      <c r="C55" s="264"/>
+      <c r="D55" s="306" t="s">
+        <v>119</v>
       </c>
-      <c r="E55" s="203"/>
-      <c r="F55" s="202">
+      <c r="E55" s="194"/>
+      <c r="F55" s="307">
         <v>10000</v>
       </c>
-      <c r="G55" s="203"/>
+      <c r="G55" s="194"/>
       <c r="H55" s="164"/>
       <c r="I55" s="165"/>
-      <c r="J55" s="233"/>
-      <c r="K55" s="299" t="s">
-        <v>122</v>
+      <c r="J55" s="264"/>
+      <c r="K55" s="237" t="s">
+        <v>120</v>
       </c>
-      <c r="L55" s="203"/>
+      <c r="L55" s="194"/>
       <c r="M55" s="166">
         <f>E47*K56*M56/360</f>
         <v>0</v>
@@ -7371,15 +7419,15 @@
       <c r="N55" s="164"/>
       <c r="O55" s="1"/>
       <c r="P55" s="171"/>
-      <c r="Q55" s="300" t="s">
-        <v>123</v>
+      <c r="Q55" s="238" t="s">
+        <v>121</v>
       </c>
-      <c r="R55" s="230"/>
-      <c r="S55" s="203"/>
-      <c r="T55" s="301">
+      <c r="R55" s="231"/>
+      <c r="S55" s="194"/>
+      <c r="T55" s="239">
         <v>28</v>
       </c>
-      <c r="U55" s="203"/>
+      <c r="U55" s="194"/>
       <c r="V55" s="6"/>
       <c r="W55" s="1"/>
       <c r="X55" s="8"/>
@@ -7415,26 +7463,26 @@
     <row r="56" spans="1:52" ht="28.5" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="5"/>
-      <c r="C56" s="233"/>
-      <c r="D56" s="204" t="s">
-        <v>124</v>
+      <c r="C56" s="264"/>
+      <c r="D56" s="306" t="s">
+        <v>122</v>
       </c>
-      <c r="E56" s="203"/>
-      <c r="F56" s="202">
+      <c r="E56" s="194"/>
+      <c r="F56" s="307">
         <v>0</v>
       </c>
-      <c r="G56" s="203"/>
+      <c r="G56" s="194"/>
       <c r="H56" s="164"/>
       <c r="I56" s="165"/>
-      <c r="J56" s="233"/>
-      <c r="K56" s="302">
+      <c r="J56" s="264"/>
+      <c r="K56" s="240">
         <v>30</v>
       </c>
-      <c r="L56" s="203"/>
-      <c r="M56" s="303">
+      <c r="L56" s="194"/>
+      <c r="M56" s="241">
         <v>0</v>
       </c>
-      <c r="N56" s="203"/>
+      <c r="N56" s="194"/>
       <c r="O56" s="165"/>
       <c r="P56" s="171"/>
       <c r="Q56" s="175"/>
@@ -7477,22 +7525,22 @@
     <row r="57" spans="1:52" ht="28.5" customHeight="1">
       <c r="A57" s="177"/>
       <c r="B57" s="5"/>
-      <c r="C57" s="234"/>
-      <c r="D57" s="228" t="s">
-        <v>125</v>
+      <c r="C57" s="265"/>
+      <c r="D57" s="233" t="s">
+        <v>123</v>
       </c>
-      <c r="E57" s="203"/>
-      <c r="F57" s="229"/>
-      <c r="G57" s="230"/>
-      <c r="H57" s="203"/>
+      <c r="E57" s="194"/>
+      <c r="F57" s="234"/>
+      <c r="G57" s="231"/>
+      <c r="H57" s="194"/>
       <c r="I57" s="178"/>
-      <c r="J57" s="234"/>
-      <c r="K57" s="228" t="s">
-        <v>125</v>
+      <c r="J57" s="265"/>
+      <c r="K57" s="233" t="s">
+        <v>123</v>
       </c>
-      <c r="L57" s="203"/>
-      <c r="M57" s="229"/>
-      <c r="N57" s="203"/>
+      <c r="L57" s="194"/>
+      <c r="M57" s="234"/>
+      <c r="N57" s="194"/>
       <c r="O57" s="178"/>
       <c r="P57" s="179"/>
       <c r="Q57" s="180"/>
@@ -7538,9 +7586,9 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="231"/>
-      <c r="G58" s="230"/>
-      <c r="H58" s="203"/>
+      <c r="F58" s="310"/>
+      <c r="G58" s="231"/>
+      <c r="H58" s="194"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -58078,31 +58126,151 @@
     </row>
   </sheetData>
   <mergeCells count="194">
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="AF34:AJ34"/>
-    <mergeCell ref="AK34:AO34"/>
-    <mergeCell ref="AP34:AT34"/>
-    <mergeCell ref="AU34:AY34"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:X32"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="A25:X25"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="M26:X26"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:X27"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="A42:X42"/>
+    <mergeCell ref="A43:X43"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="C50:C57"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="J50:J57"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="D49:S49"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="S18:X18"/>
+    <mergeCell ref="S19:X19"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="S4:W4"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="M7:O9"/>
+    <mergeCell ref="P7:R9"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="T7:X9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="M10:O13"/>
+    <mergeCell ref="P10:R13"/>
+    <mergeCell ref="S10:S13"/>
+    <mergeCell ref="T10:X13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="E33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:X33"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="M14:O17"/>
+    <mergeCell ref="P14:R17"/>
+    <mergeCell ref="S14:S17"/>
+    <mergeCell ref="T14:X17"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="H14:L14"/>
@@ -58127,154 +58295,34 @@
     <mergeCell ref="M28:O28"/>
     <mergeCell ref="Q28:R28"/>
     <mergeCell ref="S28:X28"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="M10:O13"/>
-    <mergeCell ref="P10:R13"/>
-    <mergeCell ref="S10:S13"/>
-    <mergeCell ref="T10:X13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="E33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:X33"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="M14:O17"/>
-    <mergeCell ref="P14:R17"/>
-    <mergeCell ref="S14:S17"/>
-    <mergeCell ref="T14:X17"/>
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="A2:X2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="S4:W4"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="M7:O9"/>
-    <mergeCell ref="P7:R9"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="T7:X9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="S18:X18"/>
-    <mergeCell ref="S19:X19"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="D49:S49"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="Q52:S52"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="C50:C57"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="J50:J57"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="A25:X25"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="M26:X26"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:X27"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="A42:X42"/>
-    <mergeCell ref="A43:X43"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="AF34:AJ34"/>
+    <mergeCell ref="AK34:AO34"/>
+    <mergeCell ref="AP34:AT34"/>
+    <mergeCell ref="AU34:AY34"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:X32"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="S47:T47"/>
   </mergeCells>
   <phoneticPr fontId="73" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="選擇銀行" sqref="S4 Y4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"華銀,一銀,上海銀,板信,彰化銀,兆豐"</formula1>
     </dataValidation>

--- a/spModle.xlsx
+++ b/spModle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS_Workstation\Desktop\excelize_json_practice\excelize_json_practice\PI_SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85F3A5C-0A22-437F-8639-923374984AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A491E4-9DEF-4B5A-B33B-ED7355C19B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -571,7 +571,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="124">
   <si>
     <t>EDGE</t>
   </si>
@@ -621,9 +621,6 @@
   </si>
   <si>
     <t>交貨期</t>
-  </si>
-  <si>
-    <t>5月底</t>
   </si>
   <si>
     <t>V</t>
@@ -685,9 +682,6 @@
     </r>
   </si>
   <si>
-    <t>Buenaventura, 哥倫比亞</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -697,9 +691,6 @@
       </rPr>
       <t>(1)廠商:</t>
     </r>
-  </si>
-  <si>
-    <t>萬裕隆</t>
   </si>
   <si>
     <r>
@@ -713,27 +704,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>待下採購單後確認</t>
-    </r>
-  </si>
-  <si>
     <t>Sales Term:</t>
   </si>
   <si>
-    <t>FOB</t>
-  </si>
-  <si>
     <t>Payment Term:</t>
-  </si>
-  <si>
-    <t>100% T/T Before Shipment</t>
   </si>
   <si>
     <r>
@@ -789,9 +763,6 @@
       </rPr>
       <t>(4)廠商:</t>
     </r>
-  </si>
-  <si>
-    <t>10%訂金, 90% Against B/L</t>
   </si>
   <si>
     <r>
@@ -3226,101 +3197,11 @@
     <xf numFmtId="0" fontId="76" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="57" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="26" fontId="23" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="51" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3331,20 +3212,98 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="26" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="26" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="23" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="44" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3352,92 +3311,14 @@
     <xf numFmtId="185" fontId="63" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="191" fontId="55" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="61" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="63" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="55" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="193" fontId="2" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="56" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="57" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="57" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="55" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3445,47 +3326,59 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="56" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="26" fontId="13" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="13" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3517,14 +3410,35 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3532,88 +3446,145 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="57" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="57" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="55" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="26" fontId="13" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="13" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="191" fontId="55" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="61" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="55" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="193" fontId="2" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="44" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="63" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="57" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="26" fontId="23" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="26" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="23" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="51" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3976,8 +3947,8 @@
   </sheetPr>
   <dimension ref="A1:AZ993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33:X33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -4033,32 +4004,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="27" customHeight="1">
-      <c r="A1" s="280" t="s">
+      <c r="A1" s="254" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="223"/>
-      <c r="C1" s="223"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="223"/>
-      <c r="J1" s="223"/>
-      <c r="K1" s="223"/>
-      <c r="L1" s="223"/>
-      <c r="M1" s="223"/>
-      <c r="N1" s="223"/>
-      <c r="O1" s="223"/>
-      <c r="P1" s="223"/>
-      <c r="Q1" s="223"/>
-      <c r="R1" s="223"/>
-      <c r="S1" s="223"/>
-      <c r="T1" s="223"/>
-      <c r="U1" s="223"/>
-      <c r="V1" s="223"/>
-      <c r="W1" s="223"/>
-      <c r="X1" s="223"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="225"/>
+      <c r="L1" s="225"/>
+      <c r="M1" s="225"/>
+      <c r="N1" s="225"/>
+      <c r="O1" s="225"/>
+      <c r="P1" s="225"/>
+      <c r="Q1" s="225"/>
+      <c r="R1" s="225"/>
+      <c r="S1" s="225"/>
+      <c r="T1" s="225"/>
+      <c r="U1" s="225"/>
+      <c r="V1" s="225"/>
+      <c r="W1" s="225"/>
+      <c r="X1" s="225"/>
       <c r="Y1" s="7"/>
       <c r="Z1" s="8"/>
       <c r="AA1" s="8"/>
@@ -4089,32 +4060,32 @@
       <c r="AZ1" s="1"/>
     </row>
     <row r="2" spans="1:52" ht="29.25" customHeight="1">
-      <c r="A2" s="281" t="s">
+      <c r="A2" s="255" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="221"/>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="221"/>
-      <c r="O2" s="221"/>
-      <c r="P2" s="221"/>
-      <c r="Q2" s="221"/>
-      <c r="R2" s="221"/>
-      <c r="S2" s="221"/>
-      <c r="T2" s="221"/>
-      <c r="U2" s="221"/>
-      <c r="V2" s="221"/>
-      <c r="W2" s="221"/>
-      <c r="X2" s="221"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="238"/>
+      <c r="M2" s="238"/>
+      <c r="N2" s="238"/>
+      <c r="O2" s="238"/>
+      <c r="P2" s="238"/>
+      <c r="Q2" s="238"/>
+      <c r="R2" s="238"/>
+      <c r="S2" s="238"/>
+      <c r="T2" s="238"/>
+      <c r="U2" s="238"/>
+      <c r="V2" s="238"/>
+      <c r="W2" s="238"/>
+      <c r="X2" s="238"/>
       <c r="Y2" s="9"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
@@ -4201,33 +4172,33 @@
     <row r="4" spans="1:52" ht="18.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="282" t="s">
+      <c r="C4" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="219"/>
-      <c r="E4" s="283"/>
-      <c r="F4" s="270"/>
-      <c r="G4" s="270"/>
-      <c r="H4" s="270"/>
-      <c r="I4" s="219"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="257"/>
+      <c r="F4" s="211"/>
+      <c r="G4" s="211"/>
+      <c r="H4" s="211"/>
+      <c r="I4" s="212"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
       <c r="N4" s="13"/>
       <c r="O4" s="16"/>
-      <c r="P4" s="290" t="s">
+      <c r="P4" s="217" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="227"/>
-      <c r="R4" s="198"/>
-      <c r="S4" s="284" t="s">
+      <c r="Q4" s="197"/>
+      <c r="R4" s="194"/>
+      <c r="S4" s="258" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="270"/>
-      <c r="U4" s="270"/>
-      <c r="V4" s="270"/>
-      <c r="W4" s="219"/>
+      <c r="T4" s="211"/>
+      <c r="U4" s="211"/>
+      <c r="V4" s="211"/>
+      <c r="W4" s="212"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="17"/>
       <c r="Z4" s="8"/>
@@ -4261,33 +4232,31 @@
     <row r="5" spans="1:52" ht="18.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="287" t="s">
+      <c r="C5" s="261" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="219"/>
-      <c r="E5" s="285"/>
-      <c r="F5" s="270"/>
-      <c r="G5" s="270"/>
-      <c r="H5" s="270"/>
-      <c r="I5" s="219"/>
+      <c r="D5" s="212"/>
+      <c r="E5" s="259"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="212"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
       <c r="N5" s="13"/>
       <c r="O5" s="16"/>
-      <c r="P5" s="216" t="s">
+      <c r="P5" s="264" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="213"/>
-      <c r="R5" s="214"/>
-      <c r="S5" s="286" t="s">
-        <v>8</v>
-      </c>
-      <c r="T5" s="270"/>
-      <c r="U5" s="270"/>
-      <c r="V5" s="270"/>
-      <c r="W5" s="219"/>
+      <c r="Q5" s="209"/>
+      <c r="R5" s="199"/>
+      <c r="S5" s="260"/>
+      <c r="T5" s="211"/>
+      <c r="U5" s="211"/>
+      <c r="V5" s="211"/>
+      <c r="W5" s="212"/>
       <c r="X5" s="8"/>
       <c r="Y5" s="14"/>
       <c r="Z5" s="8"/>
@@ -4375,45 +4344,43 @@
     <row r="7" spans="1:52" ht="18.75" customHeight="1">
       <c r="A7" s="184"/>
       <c r="B7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="262" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="288" t="s">
+      <c r="D7" s="212"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="263" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="219"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="289" t="s">
+      <c r="G7" s="212"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="263" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="219"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="289" t="s">
+      <c r="J7" s="211"/>
+      <c r="K7" s="185"/>
+      <c r="L7" s="186"/>
+      <c r="M7" s="265" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="270"/>
-      <c r="K7" s="185"/>
-      <c r="L7" s="186"/>
-      <c r="M7" s="291" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" s="210"/>
-      <c r="O7" s="196"/>
-      <c r="P7" s="292" t="e">
+      <c r="N7" s="266"/>
+      <c r="O7" s="267"/>
+      <c r="P7" s="271" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q7" s="210"/>
-      <c r="R7" s="196"/>
-      <c r="S7" s="293" t="s">
-        <v>14</v>
+      <c r="Q7" s="266"/>
+      <c r="R7" s="267"/>
+      <c r="S7" s="274" t="s">
+        <v>13</v>
       </c>
-      <c r="T7" s="294" t="s">
-        <v>15</v>
-      </c>
-      <c r="U7" s="210"/>
-      <c r="V7" s="210"/>
-      <c r="W7" s="210"/>
-      <c r="X7" s="211"/>
+      <c r="T7" s="275"/>
+      <c r="U7" s="266"/>
+      <c r="V7" s="266"/>
+      <c r="W7" s="266"/>
+      <c r="X7" s="276"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
@@ -4444,38 +4411,34 @@
       <c r="AZ7" s="1"/>
     </row>
     <row r="8" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A8" s="295" t="s">
-        <v>16</v>
+      <c r="A8" s="193" t="s">
+        <v>14</v>
       </c>
-      <c r="B8" s="198"/>
-      <c r="C8" s="322" t="s">
-        <v>17</v>
+      <c r="B8" s="194"/>
+      <c r="C8" s="201"/>
+      <c r="D8" s="202"/>
+      <c r="E8" s="196" t="s">
+        <v>15</v>
       </c>
-      <c r="D8" s="200"/>
-      <c r="E8" s="226" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="227"/>
-      <c r="G8" s="198"/>
-      <c r="H8" s="251" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="252"/>
-      <c r="J8" s="252"/>
-      <c r="K8" s="252"/>
-      <c r="L8" s="253"/>
-      <c r="M8" s="258"/>
-      <c r="N8" s="221"/>
-      <c r="O8" s="203"/>
-      <c r="P8" s="261"/>
-      <c r="Q8" s="221"/>
-      <c r="R8" s="203"/>
-      <c r="S8" s="264"/>
-      <c r="T8" s="261"/>
-      <c r="U8" s="221"/>
-      <c r="V8" s="221"/>
-      <c r="W8" s="221"/>
-      <c r="X8" s="268"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="283"/>
+      <c r="I8" s="221"/>
+      <c r="J8" s="221"/>
+      <c r="K8" s="221"/>
+      <c r="L8" s="278"/>
+      <c r="M8" s="268"/>
+      <c r="N8" s="238"/>
+      <c r="O8" s="269"/>
+      <c r="P8" s="272"/>
+      <c r="Q8" s="238"/>
+      <c r="R8" s="269"/>
+      <c r="S8" s="234"/>
+      <c r="T8" s="272"/>
+      <c r="U8" s="238"/>
+      <c r="V8" s="238"/>
+      <c r="W8" s="238"/>
+      <c r="X8" s="277"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
@@ -4506,38 +4469,34 @@
       <c r="AZ8" s="1"/>
     </row>
     <row r="9" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A9" s="296" t="s">
-        <v>20</v>
+      <c r="A9" s="200" t="s">
+        <v>16</v>
       </c>
-      <c r="B9" s="214"/>
-      <c r="C9" s="254" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="214"/>
+      <c r="B9" s="199"/>
+      <c r="C9" s="252"/>
+      <c r="D9" s="199"/>
       <c r="E9" s="21" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
-      <c r="H9" s="254" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="213"/>
-      <c r="J9" s="213"/>
-      <c r="K9" s="213"/>
-      <c r="L9" s="208"/>
-      <c r="M9" s="259"/>
-      <c r="N9" s="252"/>
-      <c r="O9" s="200"/>
-      <c r="P9" s="262"/>
-      <c r="Q9" s="252"/>
-      <c r="R9" s="200"/>
-      <c r="S9" s="265"/>
-      <c r="T9" s="262"/>
-      <c r="U9" s="252"/>
-      <c r="V9" s="252"/>
-      <c r="W9" s="252"/>
-      <c r="X9" s="253"/>
+      <c r="H9" s="252"/>
+      <c r="I9" s="209"/>
+      <c r="J9" s="209"/>
+      <c r="K9" s="209"/>
+      <c r="L9" s="250"/>
+      <c r="M9" s="270"/>
+      <c r="N9" s="221"/>
+      <c r="O9" s="202"/>
+      <c r="P9" s="273"/>
+      <c r="Q9" s="221"/>
+      <c r="R9" s="202"/>
+      <c r="S9" s="235"/>
+      <c r="T9" s="273"/>
+      <c r="U9" s="221"/>
+      <c r="V9" s="221"/>
+      <c r="W9" s="221"/>
+      <c r="X9" s="278"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
@@ -4568,41 +4527,41 @@
       <c r="AZ9" s="1"/>
     </row>
     <row r="10" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A10" s="295" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="198"/>
-      <c r="C10" s="225"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="226" t="s">
+      <c r="A10" s="193" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="227"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="228"/>
-      <c r="I10" s="227"/>
-      <c r="J10" s="227"/>
-      <c r="K10" s="227"/>
-      <c r="L10" s="229"/>
-      <c r="M10" s="255" t="s">
-        <v>25</v>
+      <c r="B10" s="194"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="196" t="s">
+        <v>15</v>
       </c>
-      <c r="N10" s="256"/>
-      <c r="O10" s="257"/>
-      <c r="P10" s="260" t="e">
+      <c r="F10" s="197"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="253"/>
+      <c r="I10" s="197"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="197"/>
+      <c r="L10" s="219"/>
+      <c r="M10" s="284" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="285"/>
+      <c r="O10" s="286"/>
+      <c r="P10" s="287" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q10" s="256"/>
-      <c r="R10" s="257"/>
-      <c r="S10" s="263" t="s">
-        <v>26</v>
+      <c r="Q10" s="285"/>
+      <c r="R10" s="286"/>
+      <c r="S10" s="288" t="s">
+        <v>20</v>
       </c>
-      <c r="T10" s="266"/>
-      <c r="U10" s="256"/>
-      <c r="V10" s="256"/>
-      <c r="W10" s="256"/>
-      <c r="X10" s="267"/>
+      <c r="T10" s="289"/>
+      <c r="U10" s="285"/>
+      <c r="V10" s="285"/>
+      <c r="W10" s="285"/>
+      <c r="X10" s="290"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
@@ -4633,34 +4592,34 @@
       <c r="AZ10" s="1"/>
     </row>
     <row r="11" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A11" s="296" t="s">
-        <v>20</v>
+      <c r="A11" s="200" t="s">
+        <v>16</v>
       </c>
-      <c r="B11" s="214"/>
-      <c r="C11" s="305"/>
-      <c r="D11" s="214"/>
+      <c r="B11" s="199"/>
+      <c r="C11" s="198"/>
+      <c r="D11" s="199"/>
       <c r="E11" s="21" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
-      <c r="H11" s="254"/>
-      <c r="I11" s="213"/>
-      <c r="J11" s="213"/>
-      <c r="K11" s="213"/>
-      <c r="L11" s="208"/>
-      <c r="M11" s="258"/>
-      <c r="N11" s="221"/>
-      <c r="O11" s="203"/>
-      <c r="P11" s="261"/>
-      <c r="Q11" s="221"/>
-      <c r="R11" s="203"/>
-      <c r="S11" s="264"/>
-      <c r="T11" s="261"/>
-      <c r="U11" s="221"/>
-      <c r="V11" s="221"/>
-      <c r="W11" s="221"/>
-      <c r="X11" s="268"/>
+      <c r="H11" s="252"/>
+      <c r="I11" s="209"/>
+      <c r="J11" s="209"/>
+      <c r="K11" s="209"/>
+      <c r="L11" s="250"/>
+      <c r="M11" s="268"/>
+      <c r="N11" s="238"/>
+      <c r="O11" s="269"/>
+      <c r="P11" s="272"/>
+      <c r="Q11" s="238"/>
+      <c r="R11" s="269"/>
+      <c r="S11" s="234"/>
+      <c r="T11" s="272"/>
+      <c r="U11" s="238"/>
+      <c r="V11" s="238"/>
+      <c r="W11" s="238"/>
+      <c r="X11" s="277"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
@@ -4691,34 +4650,34 @@
       <c r="AZ11" s="1"/>
     </row>
     <row r="12" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A12" s="295" t="s">
-        <v>27</v>
+      <c r="A12" s="193" t="s">
+        <v>21</v>
       </c>
-      <c r="B12" s="198"/>
-      <c r="C12" s="225"/>
-      <c r="D12" s="198"/>
-      <c r="E12" s="226" t="s">
-        <v>18</v>
+      <c r="B12" s="194"/>
+      <c r="C12" s="195"/>
+      <c r="D12" s="194"/>
+      <c r="E12" s="196" t="s">
+        <v>15</v>
       </c>
-      <c r="F12" s="227"/>
-      <c r="G12" s="198"/>
-      <c r="H12" s="228"/>
-      <c r="I12" s="227"/>
-      <c r="J12" s="227"/>
-      <c r="K12" s="227"/>
-      <c r="L12" s="229"/>
-      <c r="M12" s="258"/>
-      <c r="N12" s="221"/>
-      <c r="O12" s="203"/>
-      <c r="P12" s="261"/>
-      <c r="Q12" s="221"/>
-      <c r="R12" s="203"/>
-      <c r="S12" s="264"/>
-      <c r="T12" s="261"/>
-      <c r="U12" s="221"/>
-      <c r="V12" s="221"/>
-      <c r="W12" s="221"/>
-      <c r="X12" s="268"/>
+      <c r="F12" s="197"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="253"/>
+      <c r="I12" s="197"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="197"/>
+      <c r="L12" s="219"/>
+      <c r="M12" s="268"/>
+      <c r="N12" s="238"/>
+      <c r="O12" s="269"/>
+      <c r="P12" s="272"/>
+      <c r="Q12" s="238"/>
+      <c r="R12" s="269"/>
+      <c r="S12" s="234"/>
+      <c r="T12" s="272"/>
+      <c r="U12" s="238"/>
+      <c r="V12" s="238"/>
+      <c r="W12" s="238"/>
+      <c r="X12" s="277"/>
       <c r="Y12" s="20"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
@@ -4749,34 +4708,34 @@
       <c r="AZ12" s="1"/>
     </row>
     <row r="13" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A13" s="296" t="s">
-        <v>20</v>
+      <c r="A13" s="200" t="s">
+        <v>16</v>
       </c>
-      <c r="B13" s="214"/>
-      <c r="C13" s="305"/>
-      <c r="D13" s="214"/>
+      <c r="B13" s="199"/>
+      <c r="C13" s="198"/>
+      <c r="D13" s="199"/>
       <c r="E13" s="21" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
-      <c r="H13" s="254"/>
-      <c r="I13" s="213"/>
-      <c r="J13" s="213"/>
-      <c r="K13" s="213"/>
-      <c r="L13" s="208"/>
-      <c r="M13" s="259"/>
-      <c r="N13" s="252"/>
-      <c r="O13" s="200"/>
-      <c r="P13" s="262"/>
-      <c r="Q13" s="252"/>
-      <c r="R13" s="200"/>
-      <c r="S13" s="265"/>
-      <c r="T13" s="262"/>
-      <c r="U13" s="252"/>
-      <c r="V13" s="252"/>
-      <c r="W13" s="252"/>
-      <c r="X13" s="253"/>
+      <c r="H13" s="252"/>
+      <c r="I13" s="209"/>
+      <c r="J13" s="209"/>
+      <c r="K13" s="209"/>
+      <c r="L13" s="250"/>
+      <c r="M13" s="270"/>
+      <c r="N13" s="221"/>
+      <c r="O13" s="202"/>
+      <c r="P13" s="273"/>
+      <c r="Q13" s="221"/>
+      <c r="R13" s="202"/>
+      <c r="S13" s="235"/>
+      <c r="T13" s="273"/>
+      <c r="U13" s="221"/>
+      <c r="V13" s="221"/>
+      <c r="W13" s="221"/>
+      <c r="X13" s="278"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
@@ -4807,43 +4766,41 @@
       <c r="AZ13" s="1"/>
     </row>
     <row r="14" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A14" s="295" t="s">
-        <v>28</v>
+      <c r="A14" s="193" t="s">
+        <v>22</v>
       </c>
-      <c r="B14" s="198"/>
-      <c r="C14" s="225"/>
-      <c r="D14" s="198"/>
-      <c r="E14" s="226" t="s">
-        <v>18</v>
+      <c r="B14" s="194"/>
+      <c r="C14" s="195"/>
+      <c r="D14" s="194"/>
+      <c r="E14" s="196" t="s">
+        <v>15</v>
       </c>
-      <c r="F14" s="227"/>
-      <c r="G14" s="198"/>
-      <c r="H14" s="228"/>
-      <c r="I14" s="227"/>
-      <c r="J14" s="227"/>
-      <c r="K14" s="227"/>
-      <c r="L14" s="229"/>
-      <c r="M14" s="255" t="s">
-        <v>20</v>
+      <c r="F14" s="197"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="253"/>
+      <c r="I14" s="197"/>
+      <c r="J14" s="197"/>
+      <c r="K14" s="197"/>
+      <c r="L14" s="219"/>
+      <c r="M14" s="284" t="s">
+        <v>16</v>
       </c>
-      <c r="N14" s="256"/>
-      <c r="O14" s="257"/>
-      <c r="P14" s="260" t="e">
+      <c r="N14" s="285"/>
+      <c r="O14" s="286"/>
+      <c r="P14" s="287" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q14" s="256"/>
-      <c r="R14" s="257"/>
-      <c r="S14" s="276" t="s">
-        <v>22</v>
+      <c r="Q14" s="285"/>
+      <c r="R14" s="286"/>
+      <c r="S14" s="295" t="s">
+        <v>17</v>
       </c>
-      <c r="T14" s="278" t="s">
-        <v>29</v>
-      </c>
-      <c r="U14" s="256"/>
-      <c r="V14" s="256"/>
-      <c r="W14" s="256"/>
-      <c r="X14" s="267"/>
+      <c r="T14" s="297"/>
+      <c r="U14" s="285"/>
+      <c r="V14" s="285"/>
+      <c r="W14" s="285"/>
+      <c r="X14" s="290"/>
       <c r="Y14" s="22"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
@@ -4874,34 +4831,34 @@
       <c r="AZ14" s="1"/>
     </row>
     <row r="15" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A15" s="296" t="s">
-        <v>20</v>
+      <c r="A15" s="200" t="s">
+        <v>16</v>
       </c>
-      <c r="B15" s="214"/>
-      <c r="C15" s="305"/>
-      <c r="D15" s="214"/>
+      <c r="B15" s="199"/>
+      <c r="C15" s="198"/>
+      <c r="D15" s="199"/>
       <c r="E15" s="21" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
-      <c r="H15" s="254"/>
-      <c r="I15" s="213"/>
-      <c r="J15" s="213"/>
-      <c r="K15" s="213"/>
-      <c r="L15" s="208"/>
-      <c r="M15" s="258"/>
-      <c r="N15" s="221"/>
-      <c r="O15" s="203"/>
-      <c r="P15" s="261"/>
-      <c r="Q15" s="221"/>
-      <c r="R15" s="203"/>
-      <c r="S15" s="264"/>
-      <c r="T15" s="261"/>
-      <c r="U15" s="221"/>
-      <c r="V15" s="221"/>
-      <c r="W15" s="221"/>
-      <c r="X15" s="268"/>
+      <c r="H15" s="252"/>
+      <c r="I15" s="209"/>
+      <c r="J15" s="209"/>
+      <c r="K15" s="209"/>
+      <c r="L15" s="250"/>
+      <c r="M15" s="268"/>
+      <c r="N15" s="238"/>
+      <c r="O15" s="269"/>
+      <c r="P15" s="272"/>
+      <c r="Q15" s="238"/>
+      <c r="R15" s="269"/>
+      <c r="S15" s="234"/>
+      <c r="T15" s="272"/>
+      <c r="U15" s="238"/>
+      <c r="V15" s="238"/>
+      <c r="W15" s="238"/>
+      <c r="X15" s="277"/>
       <c r="Y15" s="22"/>
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
@@ -4932,34 +4889,34 @@
       <c r="AZ15" s="1"/>
     </row>
     <row r="16" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A16" s="295" t="s">
-        <v>30</v>
+      <c r="A16" s="193" t="s">
+        <v>23</v>
       </c>
-      <c r="B16" s="198"/>
-      <c r="C16" s="225"/>
-      <c r="D16" s="198"/>
-      <c r="E16" s="226" t="s">
-        <v>18</v>
+      <c r="B16" s="194"/>
+      <c r="C16" s="195"/>
+      <c r="D16" s="194"/>
+      <c r="E16" s="196" t="s">
+        <v>15</v>
       </c>
-      <c r="F16" s="227"/>
-      <c r="G16" s="198"/>
-      <c r="H16" s="228"/>
-      <c r="I16" s="227"/>
-      <c r="J16" s="227"/>
-      <c r="K16" s="227"/>
-      <c r="L16" s="229"/>
-      <c r="M16" s="258"/>
-      <c r="N16" s="221"/>
-      <c r="O16" s="203"/>
-      <c r="P16" s="261"/>
-      <c r="Q16" s="221"/>
-      <c r="R16" s="203"/>
-      <c r="S16" s="264"/>
-      <c r="T16" s="261"/>
-      <c r="U16" s="221"/>
-      <c r="V16" s="221"/>
-      <c r="W16" s="221"/>
-      <c r="X16" s="268"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="253"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="197"/>
+      <c r="L16" s="219"/>
+      <c r="M16" s="268"/>
+      <c r="N16" s="238"/>
+      <c r="O16" s="269"/>
+      <c r="P16" s="272"/>
+      <c r="Q16" s="238"/>
+      <c r="R16" s="269"/>
+      <c r="S16" s="234"/>
+      <c r="T16" s="272"/>
+      <c r="U16" s="238"/>
+      <c r="V16" s="238"/>
+      <c r="W16" s="238"/>
+      <c r="X16" s="277"/>
       <c r="Y16" s="22"/>
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
@@ -4990,34 +4947,34 @@
       <c r="AZ16" s="1"/>
     </row>
     <row r="17" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A17" s="296" t="s">
-        <v>20</v>
+      <c r="A17" s="200" t="s">
+        <v>16</v>
       </c>
-      <c r="B17" s="214"/>
-      <c r="C17" s="305"/>
-      <c r="D17" s="214"/>
+      <c r="B17" s="199"/>
+      <c r="C17" s="198"/>
+      <c r="D17" s="199"/>
       <c r="E17" s="21" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
-      <c r="H17" s="254"/>
-      <c r="I17" s="213"/>
-      <c r="J17" s="213"/>
-      <c r="K17" s="213"/>
-      <c r="L17" s="208"/>
-      <c r="M17" s="272"/>
-      <c r="N17" s="273"/>
-      <c r="O17" s="274"/>
-      <c r="P17" s="275"/>
-      <c r="Q17" s="273"/>
-      <c r="R17" s="274"/>
-      <c r="S17" s="277"/>
-      <c r="T17" s="275"/>
-      <c r="U17" s="273"/>
-      <c r="V17" s="273"/>
-      <c r="W17" s="273"/>
-      <c r="X17" s="279"/>
+      <c r="H17" s="252"/>
+      <c r="I17" s="209"/>
+      <c r="J17" s="209"/>
+      <c r="K17" s="209"/>
+      <c r="L17" s="250"/>
+      <c r="M17" s="292"/>
+      <c r="N17" s="214"/>
+      <c r="O17" s="293"/>
+      <c r="P17" s="294"/>
+      <c r="Q17" s="214"/>
+      <c r="R17" s="293"/>
+      <c r="S17" s="296"/>
+      <c r="T17" s="294"/>
+      <c r="U17" s="214"/>
+      <c r="V17" s="214"/>
+      <c r="W17" s="214"/>
+      <c r="X17" s="215"/>
       <c r="Y17" s="22"/>
       <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
@@ -5048,42 +5005,42 @@
       <c r="AZ17" s="1"/>
     </row>
     <row r="18" spans="1:52" ht="18.75" customHeight="1">
-      <c r="A18" s="299" t="s">
-        <v>31</v>
+      <c r="A18" s="206" t="s">
+        <v>24</v>
       </c>
-      <c r="B18" s="227"/>
-      <c r="C18" s="227"/>
-      <c r="D18" s="198"/>
-      <c r="E18" s="297" t="s">
-        <v>32</v>
+      <c r="B18" s="197"/>
+      <c r="C18" s="197"/>
+      <c r="D18" s="194"/>
+      <c r="E18" s="207" t="s">
+        <v>25</v>
       </c>
-      <c r="F18" s="227"/>
-      <c r="G18" s="198"/>
-      <c r="H18" s="297" t="s">
-        <v>33</v>
+      <c r="F18" s="197"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="207" t="s">
+        <v>26</v>
       </c>
-      <c r="I18" s="227"/>
-      <c r="J18" s="227"/>
-      <c r="K18" s="227"/>
-      <c r="L18" s="229"/>
-      <c r="M18" s="299" t="s">
-        <v>31</v>
+      <c r="I18" s="197"/>
+      <c r="J18" s="197"/>
+      <c r="K18" s="197"/>
+      <c r="L18" s="219"/>
+      <c r="M18" s="206" t="s">
+        <v>24</v>
       </c>
-      <c r="N18" s="227"/>
-      <c r="O18" s="198"/>
-      <c r="P18" s="297" t="s">
-        <v>32</v>
+      <c r="N18" s="197"/>
+      <c r="O18" s="194"/>
+      <c r="P18" s="207" t="s">
+        <v>25</v>
       </c>
-      <c r="Q18" s="227"/>
-      <c r="R18" s="198"/>
-      <c r="S18" s="297" t="s">
-        <v>33</v>
+      <c r="Q18" s="197"/>
+      <c r="R18" s="194"/>
+      <c r="S18" s="207" t="s">
+        <v>26</v>
       </c>
-      <c r="T18" s="227"/>
-      <c r="U18" s="227"/>
-      <c r="V18" s="227"/>
-      <c r="W18" s="227"/>
-      <c r="X18" s="229"/>
+      <c r="T18" s="197"/>
+      <c r="U18" s="197"/>
+      <c r="V18" s="197"/>
+      <c r="W18" s="197"/>
+      <c r="X18" s="219"/>
       <c r="Y18" s="14"/>
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
@@ -5114,40 +5071,40 @@
       <c r="AZ18" s="1"/>
     </row>
     <row r="19" spans="1:52" ht="22.5" customHeight="1">
-      <c r="A19" s="242">
+      <c r="A19" s="239">
         <v>1</v>
       </c>
-      <c r="B19" s="194"/>
-      <c r="C19" s="303" t="s">
-        <v>34</v>
+      <c r="B19" s="204"/>
+      <c r="C19" s="245" t="s">
+        <v>27</v>
       </c>
-      <c r="D19" s="194"/>
-      <c r="E19" s="304"/>
+      <c r="D19" s="204"/>
+      <c r="E19" s="244"/>
       <c r="F19" s="231"/>
-      <c r="G19" s="194"/>
-      <c r="H19" s="230"/>
+      <c r="G19" s="204"/>
+      <c r="H19" s="246"/>
       <c r="I19" s="231"/>
       <c r="J19" s="231"/>
       <c r="K19" s="231"/>
-      <c r="L19" s="206"/>
+      <c r="L19" s="247"/>
       <c r="M19" s="23">
         <f>A19</f>
         <v>1</v>
       </c>
-      <c r="N19" s="298" t="str">
+      <c r="N19" s="243" t="str">
         <f>C19</f>
         <v>萬裕隆/430</v>
       </c>
-      <c r="O19" s="194"/>
-      <c r="P19" s="304"/>
+      <c r="O19" s="204"/>
+      <c r="P19" s="244"/>
       <c r="Q19" s="231"/>
-      <c r="R19" s="194"/>
-      <c r="S19" s="230"/>
+      <c r="R19" s="204"/>
+      <c r="S19" s="246"/>
       <c r="T19" s="231"/>
       <c r="U19" s="231"/>
       <c r="V19" s="231"/>
       <c r="W19" s="231"/>
-      <c r="X19" s="206"/>
+      <c r="X19" s="247"/>
       <c r="Y19" s="24"/>
       <c r="Z19" s="8"/>
       <c r="AA19" s="8"/>
@@ -5178,37 +5135,37 @@
       <c r="AZ19" s="1"/>
     </row>
     <row r="20" spans="1:52" ht="22.5" customHeight="1">
-      <c r="A20" s="242">
+      <c r="A20" s="239">
         <v>2</v>
       </c>
-      <c r="B20" s="194"/>
-      <c r="C20" s="303"/>
-      <c r="D20" s="194"/>
-      <c r="E20" s="304"/>
+      <c r="B20" s="204"/>
+      <c r="C20" s="245"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="244"/>
       <c r="F20" s="231"/>
-      <c r="G20" s="194"/>
-      <c r="H20" s="300"/>
+      <c r="G20" s="204"/>
+      <c r="H20" s="248"/>
       <c r="I20" s="231"/>
       <c r="J20" s="231"/>
       <c r="K20" s="231"/>
-      <c r="L20" s="206"/>
+      <c r="L20" s="247"/>
       <c r="M20" s="23">
         <v>2</v>
       </c>
-      <c r="N20" s="298">
+      <c r="N20" s="243">
         <f>C20</f>
         <v>0</v>
       </c>
-      <c r="O20" s="194"/>
-      <c r="P20" s="304"/>
+      <c r="O20" s="204"/>
+      <c r="P20" s="244"/>
       <c r="Q20" s="231"/>
-      <c r="R20" s="194"/>
-      <c r="S20" s="230"/>
+      <c r="R20" s="204"/>
+      <c r="S20" s="246"/>
       <c r="T20" s="231"/>
       <c r="U20" s="231"/>
       <c r="V20" s="231"/>
       <c r="W20" s="231"/>
-      <c r="X20" s="206"/>
+      <c r="X20" s="247"/>
       <c r="Y20" s="24"/>
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
@@ -5239,37 +5196,37 @@
       <c r="AZ20" s="1"/>
     </row>
     <row r="21" spans="1:52" ht="22.5" customHeight="1">
-      <c r="A21" s="242">
+      <c r="A21" s="239">
         <v>3</v>
       </c>
-      <c r="B21" s="194"/>
-      <c r="C21" s="303"/>
-      <c r="D21" s="194"/>
-      <c r="E21" s="304"/>
+      <c r="B21" s="204"/>
+      <c r="C21" s="245"/>
+      <c r="D21" s="204"/>
+      <c r="E21" s="244"/>
       <c r="F21" s="231"/>
-      <c r="G21" s="194"/>
-      <c r="H21" s="300"/>
+      <c r="G21" s="204"/>
+      <c r="H21" s="248"/>
       <c r="I21" s="231"/>
       <c r="J21" s="231"/>
       <c r="K21" s="231"/>
-      <c r="L21" s="206"/>
+      <c r="L21" s="247"/>
       <c r="M21" s="23">
         <v>3</v>
       </c>
-      <c r="N21" s="298">
+      <c r="N21" s="243">
         <f>C21</f>
         <v>0</v>
       </c>
-      <c r="O21" s="194"/>
-      <c r="P21" s="304"/>
+      <c r="O21" s="204"/>
+      <c r="P21" s="244"/>
       <c r="Q21" s="231"/>
-      <c r="R21" s="194"/>
-      <c r="S21" s="230"/>
+      <c r="R21" s="204"/>
+      <c r="S21" s="246"/>
       <c r="T21" s="231"/>
       <c r="U21" s="231"/>
       <c r="V21" s="231"/>
       <c r="W21" s="231"/>
-      <c r="X21" s="206"/>
+      <c r="X21" s="247"/>
       <c r="Y21" s="24"/>
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
@@ -5300,37 +5257,37 @@
       <c r="AZ21" s="1"/>
     </row>
     <row r="22" spans="1:52" ht="22.5" customHeight="1">
-      <c r="A22" s="242">
+      <c r="A22" s="239">
         <v>4</v>
       </c>
-      <c r="B22" s="194"/>
-      <c r="C22" s="303"/>
-      <c r="D22" s="194"/>
-      <c r="E22" s="304"/>
+      <c r="B22" s="204"/>
+      <c r="C22" s="245"/>
+      <c r="D22" s="204"/>
+      <c r="E22" s="244"/>
       <c r="F22" s="231"/>
-      <c r="G22" s="194"/>
-      <c r="H22" s="300"/>
+      <c r="G22" s="204"/>
+      <c r="H22" s="248"/>
       <c r="I22" s="231"/>
       <c r="J22" s="231"/>
       <c r="K22" s="231"/>
-      <c r="L22" s="206"/>
+      <c r="L22" s="247"/>
       <c r="M22" s="23">
         <v>4</v>
       </c>
-      <c r="N22" s="298">
+      <c r="N22" s="243">
         <f>C22</f>
         <v>0</v>
       </c>
-      <c r="O22" s="194"/>
-      <c r="P22" s="304"/>
+      <c r="O22" s="204"/>
+      <c r="P22" s="244"/>
       <c r="Q22" s="231"/>
-      <c r="R22" s="194"/>
-      <c r="S22" s="230"/>
+      <c r="R22" s="204"/>
+      <c r="S22" s="246"/>
       <c r="T22" s="231"/>
       <c r="U22" s="231"/>
       <c r="V22" s="231"/>
       <c r="W22" s="231"/>
-      <c r="X22" s="206"/>
+      <c r="X22" s="247"/>
       <c r="Y22" s="24"/>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
@@ -5361,37 +5318,37 @@
       <c r="AZ22" s="1"/>
     </row>
     <row r="23" spans="1:52" ht="22.5" customHeight="1">
-      <c r="A23" s="242">
+      <c r="A23" s="239">
         <v>5</v>
       </c>
-      <c r="B23" s="194"/>
-      <c r="C23" s="303"/>
-      <c r="D23" s="194"/>
-      <c r="E23" s="304"/>
+      <c r="B23" s="204"/>
+      <c r="C23" s="245"/>
+      <c r="D23" s="204"/>
+      <c r="E23" s="244"/>
       <c r="F23" s="231"/>
-      <c r="G23" s="194"/>
-      <c r="H23" s="300"/>
+      <c r="G23" s="204"/>
+      <c r="H23" s="248"/>
       <c r="I23" s="231"/>
       <c r="J23" s="231"/>
       <c r="K23" s="231"/>
-      <c r="L23" s="206"/>
+      <c r="L23" s="247"/>
       <c r="M23" s="23">
         <v>5</v>
       </c>
-      <c r="N23" s="298">
+      <c r="N23" s="243">
         <f>C23</f>
         <v>0</v>
       </c>
-      <c r="O23" s="194"/>
-      <c r="P23" s="304"/>
+      <c r="O23" s="204"/>
+      <c r="P23" s="244"/>
       <c r="Q23" s="231"/>
-      <c r="R23" s="194"/>
-      <c r="S23" s="230"/>
+      <c r="R23" s="204"/>
+      <c r="S23" s="246"/>
       <c r="T23" s="231"/>
       <c r="U23" s="231"/>
       <c r="V23" s="231"/>
       <c r="W23" s="231"/>
-      <c r="X23" s="206"/>
+      <c r="X23" s="247"/>
       <c r="Y23" s="24"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
@@ -5422,38 +5379,38 @@
       <c r="AZ23" s="1"/>
     </row>
     <row r="24" spans="1:52" ht="22.5" customHeight="1">
-      <c r="A24" s="212" t="s">
-        <v>35</v>
+      <c r="A24" s="251" t="s">
+        <v>28</v>
       </c>
-      <c r="B24" s="213"/>
-      <c r="C24" s="213"/>
-      <c r="D24" s="214"/>
-      <c r="E24" s="302"/>
-      <c r="F24" s="213"/>
-      <c r="G24" s="214"/>
+      <c r="B24" s="209"/>
+      <c r="C24" s="209"/>
+      <c r="D24" s="199"/>
+      <c r="E24" s="208"/>
+      <c r="F24" s="209"/>
+      <c r="G24" s="199"/>
       <c r="H24" s="25" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
-      <c r="I24" s="301"/>
-      <c r="J24" s="213"/>
-      <c r="K24" s="213"/>
-      <c r="L24" s="208"/>
-      <c r="M24" s="212" t="s">
-        <v>35</v>
+      <c r="I24" s="249"/>
+      <c r="J24" s="209"/>
+      <c r="K24" s="209"/>
+      <c r="L24" s="250"/>
+      <c r="M24" s="251" t="s">
+        <v>28</v>
       </c>
-      <c r="N24" s="213"/>
-      <c r="O24" s="214"/>
-      <c r="P24" s="302"/>
-      <c r="Q24" s="213"/>
-      <c r="R24" s="214"/>
+      <c r="N24" s="209"/>
+      <c r="O24" s="199"/>
+      <c r="P24" s="208"/>
+      <c r="Q24" s="209"/>
+      <c r="R24" s="199"/>
       <c r="S24" s="26" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
-      <c r="T24" s="232"/>
-      <c r="U24" s="213"/>
-      <c r="V24" s="213"/>
-      <c r="W24" s="213"/>
-      <c r="X24" s="208"/>
+      <c r="T24" s="298"/>
+      <c r="U24" s="209"/>
+      <c r="V24" s="209"/>
+      <c r="W24" s="209"/>
+      <c r="X24" s="250"/>
       <c r="Y24" s="27"/>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
@@ -5484,32 +5441,32 @@
       <c r="AZ24" s="1"/>
     </row>
     <row r="25" spans="1:52" ht="27" customHeight="1">
-      <c r="A25" s="313" t="s">
-        <v>125</v>
+      <c r="A25" s="210" t="s">
+        <v>118</v>
       </c>
-      <c r="B25" s="270"/>
-      <c r="C25" s="270"/>
-      <c r="D25" s="270"/>
-      <c r="E25" s="270"/>
-      <c r="F25" s="270"/>
-      <c r="G25" s="270"/>
-      <c r="H25" s="270"/>
-      <c r="I25" s="270"/>
-      <c r="J25" s="270"/>
-      <c r="K25" s="270"/>
-      <c r="L25" s="270"/>
-      <c r="M25" s="270"/>
-      <c r="N25" s="270"/>
-      <c r="O25" s="270"/>
-      <c r="P25" s="270"/>
-      <c r="Q25" s="270"/>
-      <c r="R25" s="270"/>
-      <c r="S25" s="270"/>
-      <c r="T25" s="270"/>
-      <c r="U25" s="270"/>
-      <c r="V25" s="270"/>
-      <c r="W25" s="270"/>
-      <c r="X25" s="219"/>
+      <c r="B25" s="211"/>
+      <c r="C25" s="211"/>
+      <c r="D25" s="211"/>
+      <c r="E25" s="211"/>
+      <c r="F25" s="211"/>
+      <c r="G25" s="211"/>
+      <c r="H25" s="211"/>
+      <c r="I25" s="211"/>
+      <c r="J25" s="211"/>
+      <c r="K25" s="211"/>
+      <c r="L25" s="211"/>
+      <c r="M25" s="211"/>
+      <c r="N25" s="211"/>
+      <c r="O25" s="211"/>
+      <c r="P25" s="211"/>
+      <c r="Q25" s="211"/>
+      <c r="R25" s="211"/>
+      <c r="S25" s="211"/>
+      <c r="T25" s="211"/>
+      <c r="U25" s="211"/>
+      <c r="V25" s="211"/>
+      <c r="W25" s="211"/>
+      <c r="X25" s="212"/>
       <c r="Y25" s="14"/>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
@@ -5540,34 +5497,34 @@
       <c r="AZ25" s="1"/>
     </row>
     <row r="26" spans="1:52" ht="27" customHeight="1">
-      <c r="A26" s="314" t="s">
-        <v>126</v>
+      <c r="A26" s="213" t="s">
+        <v>119</v>
       </c>
-      <c r="B26" s="273"/>
-      <c r="C26" s="273"/>
-      <c r="D26" s="273"/>
-      <c r="E26" s="273"/>
-      <c r="F26" s="273"/>
-      <c r="G26" s="273"/>
-      <c r="H26" s="273"/>
-      <c r="I26" s="273"/>
-      <c r="J26" s="273"/>
-      <c r="K26" s="273"/>
-      <c r="L26" s="279"/>
-      <c r="M26" s="315" t="s">
-        <v>127</v>
+      <c r="B26" s="214"/>
+      <c r="C26" s="214"/>
+      <c r="D26" s="214"/>
+      <c r="E26" s="214"/>
+      <c r="F26" s="214"/>
+      <c r="G26" s="214"/>
+      <c r="H26" s="214"/>
+      <c r="I26" s="214"/>
+      <c r="J26" s="214"/>
+      <c r="K26" s="214"/>
+      <c r="L26" s="215"/>
+      <c r="M26" s="216" t="s">
+        <v>120</v>
       </c>
-      <c r="N26" s="270"/>
-      <c r="O26" s="270"/>
-      <c r="P26" s="270"/>
-      <c r="Q26" s="270"/>
-      <c r="R26" s="270"/>
-      <c r="S26" s="270"/>
-      <c r="T26" s="270"/>
-      <c r="U26" s="270"/>
-      <c r="V26" s="270"/>
-      <c r="W26" s="270"/>
-      <c r="X26" s="219"/>
+      <c r="N26" s="211"/>
+      <c r="O26" s="211"/>
+      <c r="P26" s="211"/>
+      <c r="Q26" s="211"/>
+      <c r="R26" s="211"/>
+      <c r="S26" s="211"/>
+      <c r="T26" s="211"/>
+      <c r="U26" s="211"/>
+      <c r="V26" s="211"/>
+      <c r="W26" s="211"/>
+      <c r="X26" s="212"/>
       <c r="Y26" s="14"/>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
@@ -5598,34 +5555,34 @@
       <c r="AZ26" s="1"/>
     </row>
     <row r="27" spans="1:52" ht="27" customHeight="1">
-      <c r="A27" s="290" t="s">
-        <v>37</v>
+      <c r="A27" s="217" t="s">
+        <v>30</v>
       </c>
-      <c r="B27" s="227"/>
-      <c r="C27" s="227"/>
-      <c r="D27" s="227"/>
-      <c r="E27" s="227"/>
-      <c r="F27" s="227"/>
-      <c r="G27" s="198"/>
-      <c r="H27" s="316"/>
-      <c r="I27" s="227"/>
-      <c r="J27" s="227"/>
-      <c r="K27" s="227"/>
-      <c r="L27" s="229"/>
-      <c r="M27" s="317" t="s">
-        <v>38</v>
+      <c r="B27" s="197"/>
+      <c r="C27" s="197"/>
+      <c r="D27" s="197"/>
+      <c r="E27" s="197"/>
+      <c r="F27" s="197"/>
+      <c r="G27" s="194"/>
+      <c r="H27" s="218"/>
+      <c r="I27" s="197"/>
+      <c r="J27" s="197"/>
+      <c r="K27" s="197"/>
+      <c r="L27" s="219"/>
+      <c r="M27" s="220" t="s">
+        <v>31</v>
       </c>
-      <c r="N27" s="252"/>
-      <c r="O27" s="252"/>
-      <c r="P27" s="252"/>
-      <c r="Q27" s="252"/>
-      <c r="R27" s="200"/>
-      <c r="S27" s="318"/>
-      <c r="T27" s="227"/>
-      <c r="U27" s="227"/>
-      <c r="V27" s="227"/>
-      <c r="W27" s="227"/>
-      <c r="X27" s="229"/>
+      <c r="N27" s="221"/>
+      <c r="O27" s="221"/>
+      <c r="P27" s="221"/>
+      <c r="Q27" s="221"/>
+      <c r="R27" s="202"/>
+      <c r="S27" s="222"/>
+      <c r="T27" s="197"/>
+      <c r="U27" s="197"/>
+      <c r="V27" s="197"/>
+      <c r="W27" s="197"/>
+      <c r="X27" s="219"/>
       <c r="Y27" s="24"/>
       <c r="Z27" s="8"/>
       <c r="AA27" s="8"/>
@@ -5656,36 +5613,36 @@
       <c r="AZ27" s="1"/>
     </row>
     <row r="28" spans="1:52" ht="27" customHeight="1">
-      <c r="A28" s="242" t="s">
-        <v>39</v>
+      <c r="A28" s="239" t="s">
+        <v>32</v>
       </c>
       <c r="B28" s="231"/>
       <c r="C28" s="231"/>
       <c r="D28" s="231"/>
       <c r="E28" s="231"/>
       <c r="F28" s="231"/>
-      <c r="G28" s="194"/>
-      <c r="H28" s="230"/>
+      <c r="G28" s="204"/>
+      <c r="H28" s="246"/>
       <c r="I28" s="231"/>
       <c r="J28" s="231"/>
       <c r="K28" s="231"/>
-      <c r="L28" s="206"/>
-      <c r="M28" s="244" t="s">
-        <v>40</v>
+      <c r="L28" s="247"/>
+      <c r="M28" s="306" t="s">
+        <v>33</v>
       </c>
       <c r="N28" s="231"/>
       <c r="O28" s="231"/>
       <c r="P28" s="28" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
-      <c r="Q28" s="245"/>
-      <c r="R28" s="206"/>
-      <c r="S28" s="243"/>
+      <c r="Q28" s="307"/>
+      <c r="R28" s="247"/>
+      <c r="S28" s="305"/>
       <c r="T28" s="231"/>
       <c r="U28" s="231"/>
       <c r="V28" s="231"/>
       <c r="W28" s="231"/>
-      <c r="X28" s="206"/>
+      <c r="X28" s="247"/>
       <c r="Y28" s="29"/>
       <c r="Z28" s="8"/>
       <c r="AA28" s="8"/>
@@ -5716,34 +5673,34 @@
       <c r="AZ28" s="1"/>
     </row>
     <row r="29" spans="1:52" ht="27" customHeight="1">
-      <c r="A29" s="242" t="s">
-        <v>41</v>
+      <c r="A29" s="239" t="s">
+        <v>34</v>
       </c>
       <c r="B29" s="231"/>
       <c r="C29" s="231"/>
       <c r="D29" s="231"/>
       <c r="E29" s="231"/>
       <c r="F29" s="231"/>
-      <c r="G29" s="194"/>
-      <c r="H29" s="230"/>
+      <c r="G29" s="204"/>
+      <c r="H29" s="246"/>
       <c r="I29" s="231"/>
       <c r="J29" s="231"/>
       <c r="K29" s="231"/>
-      <c r="L29" s="206"/>
-      <c r="M29" s="242" t="s">
-        <v>42</v>
+      <c r="L29" s="247"/>
+      <c r="M29" s="239" t="s">
+        <v>35</v>
       </c>
       <c r="N29" s="231"/>
       <c r="O29" s="231"/>
       <c r="P29" s="231"/>
       <c r="Q29" s="231"/>
-      <c r="R29" s="194"/>
-      <c r="S29" s="243"/>
+      <c r="R29" s="204"/>
+      <c r="S29" s="305"/>
       <c r="T29" s="231"/>
       <c r="U29" s="231"/>
       <c r="V29" s="231"/>
       <c r="W29" s="231"/>
-      <c r="X29" s="206"/>
+      <c r="X29" s="247"/>
       <c r="Y29" s="30"/>
       <c r="Z29" s="8"/>
       <c r="AA29" s="8"/>
@@ -5774,34 +5731,34 @@
       <c r="AZ29" s="1"/>
     </row>
     <row r="30" spans="1:52" ht="27" customHeight="1">
-      <c r="A30" s="212" t="s">
-        <v>43</v>
+      <c r="A30" s="251" t="s">
+        <v>36</v>
       </c>
-      <c r="B30" s="213"/>
-      <c r="C30" s="213"/>
-      <c r="D30" s="213"/>
-      <c r="E30" s="213"/>
-      <c r="F30" s="213"/>
-      <c r="G30" s="214"/>
-      <c r="H30" s="215"/>
-      <c r="I30" s="213"/>
-      <c r="J30" s="213"/>
-      <c r="K30" s="213"/>
-      <c r="L30" s="208"/>
-      <c r="M30" s="216" t="s">
-        <v>44</v>
+      <c r="B30" s="209"/>
+      <c r="C30" s="209"/>
+      <c r="D30" s="209"/>
+      <c r="E30" s="209"/>
+      <c r="F30" s="209"/>
+      <c r="G30" s="199"/>
+      <c r="H30" s="309"/>
+      <c r="I30" s="209"/>
+      <c r="J30" s="209"/>
+      <c r="K30" s="209"/>
+      <c r="L30" s="250"/>
+      <c r="M30" s="264" t="s">
+        <v>37</v>
       </c>
-      <c r="N30" s="213"/>
-      <c r="O30" s="213"/>
-      <c r="P30" s="213"/>
-      <c r="Q30" s="213"/>
-      <c r="R30" s="213"/>
-      <c r="S30" s="217"/>
-      <c r="T30" s="213"/>
-      <c r="U30" s="213"/>
-      <c r="V30" s="213"/>
-      <c r="W30" s="213"/>
-      <c r="X30" s="208"/>
+      <c r="N30" s="209"/>
+      <c r="O30" s="209"/>
+      <c r="P30" s="209"/>
+      <c r="Q30" s="209"/>
+      <c r="R30" s="209"/>
+      <c r="S30" s="310"/>
+      <c r="T30" s="209"/>
+      <c r="U30" s="209"/>
+      <c r="V30" s="209"/>
+      <c r="W30" s="209"/>
+      <c r="X30" s="250"/>
       <c r="Y30" s="30"/>
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
@@ -5833,7 +5790,7 @@
     </row>
     <row r="31" spans="1:52" ht="26.25" customHeight="1">
       <c r="A31" s="31" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -5855,10 +5812,10 @@
       <c r="S31" s="32"/>
       <c r="T31" s="32"/>
       <c r="U31" s="33"/>
-      <c r="V31" s="218" t="s">
-        <v>46</v>
+      <c r="V31" s="311" t="s">
+        <v>39</v>
       </c>
-      <c r="W31" s="219"/>
+      <c r="W31" s="212"/>
       <c r="X31" s="19"/>
       <c r="Y31" s="34"/>
       <c r="Z31" s="8"/>
@@ -5890,38 +5847,38 @@
       <c r="AZ31" s="1"/>
     </row>
     <row r="32" spans="1:52" ht="16.5" customHeight="1">
-      <c r="A32" s="220" t="s">
-        <v>47</v>
+      <c r="A32" s="312" t="s">
+        <v>40</v>
       </c>
-      <c r="B32" s="221"/>
-      <c r="C32" s="221"/>
-      <c r="D32" s="221"/>
-      <c r="E32" s="222" t="s">
-        <v>48</v>
+      <c r="B32" s="238"/>
+      <c r="C32" s="238"/>
+      <c r="D32" s="238"/>
+      <c r="E32" s="313" t="s">
+        <v>41</v>
       </c>
-      <c r="F32" s="221"/>
-      <c r="G32" s="221"/>
-      <c r="H32" s="221"/>
-      <c r="I32" s="221"/>
-      <c r="J32" s="221"/>
-      <c r="K32" s="221"/>
-      <c r="L32" s="203"/>
-      <c r="M32" s="222" t="s">
-        <v>49</v>
+      <c r="F32" s="238"/>
+      <c r="G32" s="238"/>
+      <c r="H32" s="238"/>
+      <c r="I32" s="238"/>
+      <c r="J32" s="238"/>
+      <c r="K32" s="238"/>
+      <c r="L32" s="269"/>
+      <c r="M32" s="313" t="s">
+        <v>42</v>
       </c>
-      <c r="N32" s="221"/>
-      <c r="O32" s="221"/>
-      <c r="P32" s="221"/>
-      <c r="Q32" s="221"/>
-      <c r="R32" s="223"/>
-      <c r="S32" s="224" t="s">
-        <v>50</v>
+      <c r="N32" s="238"/>
+      <c r="O32" s="238"/>
+      <c r="P32" s="238"/>
+      <c r="Q32" s="238"/>
+      <c r="R32" s="225"/>
+      <c r="S32" s="314" t="s">
+        <v>43</v>
       </c>
-      <c r="T32" s="210"/>
-      <c r="U32" s="210"/>
-      <c r="V32" s="210"/>
-      <c r="W32" s="210"/>
-      <c r="X32" s="211"/>
+      <c r="T32" s="266"/>
+      <c r="U32" s="266"/>
+      <c r="V32" s="266"/>
+      <c r="W32" s="266"/>
+      <c r="X32" s="276"/>
       <c r="Y32" s="14"/>
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
@@ -5952,32 +5909,32 @@
       <c r="AZ32" s="1"/>
     </row>
     <row r="33" spans="1:52" ht="67.5" customHeight="1">
-      <c r="A33" s="269"/>
-      <c r="B33" s="270"/>
-      <c r="C33" s="270"/>
-      <c r="D33" s="219"/>
-      <c r="E33" s="269"/>
-      <c r="F33" s="270"/>
-      <c r="G33" s="270"/>
-      <c r="H33" s="270"/>
-      <c r="I33" s="270"/>
-      <c r="J33" s="270"/>
-      <c r="K33" s="270"/>
-      <c r="L33" s="219"/>
-      <c r="M33" s="271"/>
-      <c r="N33" s="270"/>
-      <c r="O33" s="270"/>
-      <c r="P33" s="270"/>
-      <c r="Q33" s="270"/>
-      <c r="R33" s="219"/>
-      <c r="S33" s="271" t="s">
-        <v>51</v>
+      <c r="A33" s="240"/>
+      <c r="B33" s="211"/>
+      <c r="C33" s="211"/>
+      <c r="D33" s="212"/>
+      <c r="E33" s="240"/>
+      <c r="F33" s="211"/>
+      <c r="G33" s="211"/>
+      <c r="H33" s="211"/>
+      <c r="I33" s="211"/>
+      <c r="J33" s="211"/>
+      <c r="K33" s="211"/>
+      <c r="L33" s="212"/>
+      <c r="M33" s="291"/>
+      <c r="N33" s="211"/>
+      <c r="O33" s="211"/>
+      <c r="P33" s="211"/>
+      <c r="Q33" s="211"/>
+      <c r="R33" s="212"/>
+      <c r="S33" s="291" t="s">
+        <v>44</v>
       </c>
-      <c r="T33" s="270"/>
-      <c r="U33" s="270"/>
-      <c r="V33" s="270"/>
-      <c r="W33" s="270"/>
-      <c r="X33" s="219"/>
+      <c r="T33" s="211"/>
+      <c r="U33" s="211"/>
+      <c r="V33" s="211"/>
+      <c r="W33" s="211"/>
+      <c r="X33" s="212"/>
       <c r="Y33" s="35"/>
       <c r="Z33" s="36"/>
       <c r="AA33" s="36"/>
@@ -6039,127 +5996,127 @@
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
-      <c r="AF34" s="209" t="s">
-        <v>52</v>
+      <c r="AF34" s="308" t="s">
+        <v>45</v>
       </c>
-      <c r="AG34" s="210"/>
-      <c r="AH34" s="210"/>
-      <c r="AI34" s="210"/>
-      <c r="AJ34" s="211"/>
-      <c r="AK34" s="209" t="s">
-        <v>53</v>
+      <c r="AG34" s="266"/>
+      <c r="AH34" s="266"/>
+      <c r="AI34" s="266"/>
+      <c r="AJ34" s="276"/>
+      <c r="AK34" s="308" t="s">
+        <v>46</v>
       </c>
-      <c r="AL34" s="210"/>
-      <c r="AM34" s="210"/>
-      <c r="AN34" s="210"/>
-      <c r="AO34" s="211"/>
-      <c r="AP34" s="209" t="s">
-        <v>54</v>
+      <c r="AL34" s="266"/>
+      <c r="AM34" s="266"/>
+      <c r="AN34" s="266"/>
+      <c r="AO34" s="276"/>
+      <c r="AP34" s="308" t="s">
+        <v>47</v>
       </c>
-      <c r="AQ34" s="210"/>
-      <c r="AR34" s="210"/>
-      <c r="AS34" s="210"/>
-      <c r="AT34" s="211"/>
-      <c r="AU34" s="209" t="s">
-        <v>55</v>
+      <c r="AQ34" s="266"/>
+      <c r="AR34" s="266"/>
+      <c r="AS34" s="266"/>
+      <c r="AT34" s="276"/>
+      <c r="AU34" s="308" t="s">
+        <v>48</v>
       </c>
-      <c r="AV34" s="210"/>
-      <c r="AW34" s="210"/>
-      <c r="AX34" s="210"/>
-      <c r="AY34" s="211"/>
+      <c r="AV34" s="266"/>
+      <c r="AW34" s="266"/>
+      <c r="AX34" s="266"/>
+      <c r="AY34" s="276"/>
       <c r="AZ34" s="1"/>
     </row>
     <row r="35" spans="1:52" ht="38.25" customHeight="1">
       <c r="A35" s="39" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>0</v>
       </c>
       <c r="D35" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="I35" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="J35" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="K35" s="192" t="s">
+        <v>122</v>
+      </c>
+      <c r="L35" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="41" t="s">
+      <c r="M35" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="41" t="s">
+      <c r="N35" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="G35" s="42" t="s">
+      <c r="O35" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="P35" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="H35" s="42" t="s">
+      <c r="Q35" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="I35" s="43" t="s">
+      <c r="R35" s="316" t="s">
         <v>63</v>
       </c>
-      <c r="J35" s="44" t="s">
+      <c r="S35" s="267"/>
+      <c r="T35" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="K35" s="192" t="s">
-        <v>129</v>
-      </c>
-      <c r="L35" s="44" t="s">
+      <c r="U35" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="M35" s="46" t="s">
+      <c r="V35" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="N35" s="46" t="s">
+      <c r="W35" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="O35" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="P35" s="47" t="s">
+      <c r="X35" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="Q35" s="47" t="s">
+      <c r="Y35" s="188" t="s">
         <v>69</v>
       </c>
-      <c r="R35" s="195" t="s">
+      <c r="Z35" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="S35" s="196"/>
-      <c r="T35" s="45" t="s">
+      <c r="AA35" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="U35" s="48" t="s">
+      <c r="AB35" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="V35" s="46" t="s">
+      <c r="AC35" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="W35" s="49" t="s">
+      <c r="AD35" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="X35" s="187" t="s">
+      <c r="AE35" s="50" t="s">
         <v>75</v>
-      </c>
-      <c r="Y35" s="188" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z35" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA35" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB35" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC35" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD35" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE35" s="50" t="s">
-        <v>82</v>
       </c>
       <c r="AF35" s="52">
         <v>1</v>
@@ -6225,74 +6182,74 @@
     </row>
     <row r="36" spans="1:52" ht="18" customHeight="1">
       <c r="A36" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="J36" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="K36" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="L36" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="M36" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="N36" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="O36" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="P36" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q36" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="R36" s="317" t="s">
+        <v>82</v>
+      </c>
+      <c r="S36" s="194"/>
+      <c r="T36" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="F36" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="G36" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="H36" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="I36" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="J36" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="K36" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="L36" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="M36" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="N36" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="O36" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="P36" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q36" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="R36" s="197" t="s">
-        <v>89</v>
-      </c>
-      <c r="S36" s="198"/>
-      <c r="T36" s="60" t="s">
-        <v>90</v>
-      </c>
       <c r="U36" s="58" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="V36" s="58" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="W36" s="58" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="X36" s="61" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Y36" s="62"/>
       <c r="Z36" s="62"/>
@@ -6341,8 +6298,8 @@
       <c r="O37" s="79"/>
       <c r="P37" s="79"/>
       <c r="Q37" s="80"/>
-      <c r="R37" s="199"/>
-      <c r="S37" s="200"/>
+      <c r="R37" s="223"/>
+      <c r="S37" s="202"/>
       <c r="T37" s="81"/>
       <c r="U37" s="74"/>
       <c r="V37" s="74"/>
@@ -6395,8 +6352,8 @@
       <c r="O38" s="79"/>
       <c r="P38" s="79"/>
       <c r="Q38" s="80"/>
-      <c r="R38" s="199"/>
-      <c r="S38" s="200"/>
+      <c r="R38" s="223"/>
+      <c r="S38" s="202"/>
       <c r="T38" s="81"/>
       <c r="U38" s="74"/>
       <c r="V38" s="74"/>
@@ -6449,8 +6406,8 @@
       <c r="O39" s="79"/>
       <c r="P39" s="79"/>
       <c r="Q39" s="80"/>
-      <c r="R39" s="199"/>
-      <c r="S39" s="200"/>
+      <c r="R39" s="223"/>
+      <c r="S39" s="202"/>
       <c r="T39" s="81"/>
       <c r="U39" s="74"/>
       <c r="V39" s="74"/>
@@ -6503,8 +6460,8 @@
       <c r="O40" s="79"/>
       <c r="P40" s="79"/>
       <c r="Q40" s="80"/>
-      <c r="R40" s="199"/>
-      <c r="S40" s="200"/>
+      <c r="R40" s="223"/>
+      <c r="S40" s="202"/>
       <c r="T40" s="81"/>
       <c r="U40" s="74"/>
       <c r="V40" s="74"/>
@@ -6594,32 +6551,32 @@
       <c r="AZ41" s="67"/>
     </row>
     <row r="42" spans="1:52" ht="21" customHeight="1">
-      <c r="A42" s="319" t="s">
-        <v>91</v>
+      <c r="A42" s="224" t="s">
+        <v>84</v>
       </c>
-      <c r="B42" s="223"/>
-      <c r="C42" s="223"/>
-      <c r="D42" s="223"/>
-      <c r="E42" s="223"/>
-      <c r="F42" s="223"/>
-      <c r="G42" s="223"/>
-      <c r="H42" s="223"/>
-      <c r="I42" s="223"/>
-      <c r="J42" s="223"/>
-      <c r="K42" s="223"/>
-      <c r="L42" s="223"/>
-      <c r="M42" s="223"/>
-      <c r="N42" s="223"/>
-      <c r="O42" s="223"/>
-      <c r="P42" s="223"/>
-      <c r="Q42" s="223"/>
-      <c r="R42" s="223"/>
-      <c r="S42" s="223"/>
-      <c r="T42" s="223"/>
-      <c r="U42" s="223"/>
-      <c r="V42" s="223"/>
-      <c r="W42" s="223"/>
-      <c r="X42" s="223"/>
+      <c r="B42" s="225"/>
+      <c r="C42" s="225"/>
+      <c r="D42" s="225"/>
+      <c r="E42" s="225"/>
+      <c r="F42" s="225"/>
+      <c r="G42" s="225"/>
+      <c r="H42" s="225"/>
+      <c r="I42" s="225"/>
+      <c r="J42" s="225"/>
+      <c r="K42" s="225"/>
+      <c r="L42" s="225"/>
+      <c r="M42" s="225"/>
+      <c r="N42" s="225"/>
+      <c r="O42" s="225"/>
+      <c r="P42" s="225"/>
+      <c r="Q42" s="225"/>
+      <c r="R42" s="225"/>
+      <c r="S42" s="225"/>
+      <c r="T42" s="225"/>
+      <c r="U42" s="225"/>
+      <c r="V42" s="225"/>
+      <c r="W42" s="225"/>
+      <c r="X42" s="225"/>
       <c r="Y42" s="95"/>
       <c r="Z42" s="96"/>
       <c r="AA42" s="96"/>
@@ -6648,36 +6605,36 @@
       <c r="AX42" s="191"/>
       <c r="AY42" s="99"/>
       <c r="AZ42" s="100" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:52" ht="21" customHeight="1">
-      <c r="A43" s="320" t="s">
-        <v>93</v>
+      <c r="A43" s="226" t="s">
+        <v>86</v>
       </c>
-      <c r="B43" s="223"/>
-      <c r="C43" s="223"/>
-      <c r="D43" s="223"/>
-      <c r="E43" s="223"/>
-      <c r="F43" s="223"/>
-      <c r="G43" s="223"/>
-      <c r="H43" s="223"/>
-      <c r="I43" s="223"/>
-      <c r="J43" s="223"/>
-      <c r="K43" s="223"/>
-      <c r="L43" s="223"/>
-      <c r="M43" s="223"/>
-      <c r="N43" s="223"/>
-      <c r="O43" s="223"/>
-      <c r="P43" s="223"/>
-      <c r="Q43" s="223"/>
-      <c r="R43" s="223"/>
-      <c r="S43" s="223"/>
-      <c r="T43" s="223"/>
-      <c r="U43" s="223"/>
-      <c r="V43" s="223"/>
-      <c r="W43" s="223"/>
-      <c r="X43" s="223"/>
+      <c r="B43" s="225"/>
+      <c r="C43" s="225"/>
+      <c r="D43" s="225"/>
+      <c r="E43" s="225"/>
+      <c r="F43" s="225"/>
+      <c r="G43" s="225"/>
+      <c r="H43" s="225"/>
+      <c r="I43" s="225"/>
+      <c r="J43" s="225"/>
+      <c r="K43" s="225"/>
+      <c r="L43" s="225"/>
+      <c r="M43" s="225"/>
+      <c r="N43" s="225"/>
+      <c r="O43" s="225"/>
+      <c r="P43" s="225"/>
+      <c r="Q43" s="225"/>
+      <c r="R43" s="225"/>
+      <c r="S43" s="225"/>
+      <c r="T43" s="225"/>
+      <c r="U43" s="225"/>
+      <c r="V43" s="225"/>
+      <c r="W43" s="225"/>
+      <c r="X43" s="225"/>
       <c r="Y43" s="101"/>
       <c r="Z43" s="96"/>
       <c r="AA43" s="96"/>
@@ -6780,12 +6737,12 @@
       <c r="P45" s="100"/>
       <c r="Q45" s="124"/>
       <c r="R45" s="125" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
-      <c r="S45" s="321"/>
-      <c r="T45" s="229"/>
+      <c r="S45" s="227"/>
+      <c r="T45" s="219"/>
       <c r="U45" s="126" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="V45" s="127"/>
       <c r="W45" s="128"/>
@@ -6824,34 +6781,32 @@
       <c r="B46" s="133"/>
       <c r="C46" s="119"/>
       <c r="D46" s="134" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
-      <c r="E46" s="308"/>
-      <c r="F46" s="223"/>
-      <c r="G46" s="223"/>
-      <c r="H46" s="223"/>
+      <c r="E46" s="228"/>
+      <c r="F46" s="225"/>
+      <c r="G46" s="225"/>
+      <c r="H46" s="225"/>
       <c r="I46" s="135"/>
       <c r="J46" s="136" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
-      <c r="K46" s="201" t="s">
-        <v>96</v>
+      <c r="K46" s="318" t="s">
+        <v>89</v>
       </c>
-      <c r="L46" s="194"/>
+      <c r="L46" s="204"/>
       <c r="M46" s="137"/>
       <c r="N46" s="138" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
-      <c r="O46" s="139">
-        <v>1</v>
-      </c>
+      <c r="O46" s="139"/>
       <c r="P46" s="100"/>
       <c r="Q46" s="140"/>
       <c r="R46" s="141"/>
-      <c r="S46" s="205"/>
-      <c r="T46" s="206"/>
+      <c r="S46" s="321"/>
+      <c r="T46" s="247"/>
       <c r="U46" s="142" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="V46" s="143"/>
       <c r="W46" s="144"/>
@@ -6890,32 +6845,30 @@
       <c r="B47" s="133"/>
       <c r="C47" s="119"/>
       <c r="D47" s="134" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
-      <c r="E47" s="308"/>
-      <c r="F47" s="223"/>
-      <c r="G47" s="223"/>
-      <c r="H47" s="223"/>
+      <c r="E47" s="228"/>
+      <c r="F47" s="225"/>
+      <c r="G47" s="225"/>
+      <c r="H47" s="225"/>
       <c r="I47" s="100"/>
       <c r="J47" s="136"/>
-      <c r="K47" s="202" t="s">
-        <v>100</v>
+      <c r="K47" s="319" t="s">
+        <v>93</v>
       </c>
-      <c r="L47" s="203"/>
+      <c r="L47" s="269"/>
       <c r="M47" s="137"/>
       <c r="N47" s="138" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
-      <c r="O47" s="139">
-        <v>0</v>
-      </c>
+      <c r="O47" s="139"/>
       <c r="P47" s="147"/>
       <c r="Q47" s="100"/>
       <c r="R47" s="100"/>
-      <c r="S47" s="207"/>
-      <c r="T47" s="208"/>
+      <c r="S47" s="322"/>
+      <c r="T47" s="250"/>
       <c r="U47" s="148" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="V47" s="149"/>
       <c r="W47" s="150"/>
@@ -6960,17 +6913,15 @@
       <c r="H48" s="152"/>
       <c r="I48" s="100"/>
       <c r="J48" s="153"/>
-      <c r="K48" s="201" t="s">
-        <v>100</v>
+      <c r="K48" s="318" t="s">
+        <v>93</v>
       </c>
-      <c r="L48" s="194"/>
+      <c r="L48" s="204"/>
       <c r="M48" s="154"/>
       <c r="N48" s="155" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
-      <c r="O48" s="156">
-        <v>0</v>
-      </c>
+      <c r="O48" s="156"/>
       <c r="P48" s="147"/>
       <c r="Q48" s="100"/>
       <c r="R48" s="100"/>
@@ -7013,28 +6964,28 @@
       <c r="A49" s="158"/>
       <c r="B49" s="159"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="309"/>
-      <c r="E49" s="221"/>
-      <c r="F49" s="221"/>
-      <c r="G49" s="221"/>
-      <c r="H49" s="221"/>
-      <c r="I49" s="221"/>
-      <c r="J49" s="221"/>
-      <c r="K49" s="221"/>
-      <c r="L49" s="221"/>
-      <c r="M49" s="221"/>
-      <c r="N49" s="221"/>
-      <c r="O49" s="221"/>
-      <c r="P49" s="221"/>
-      <c r="Q49" s="221"/>
-      <c r="R49" s="221"/>
-      <c r="S49" s="221"/>
+      <c r="D49" s="237"/>
+      <c r="E49" s="238"/>
+      <c r="F49" s="238"/>
+      <c r="G49" s="238"/>
+      <c r="H49" s="238"/>
+      <c r="I49" s="238"/>
+      <c r="J49" s="238"/>
+      <c r="K49" s="238"/>
+      <c r="L49" s="238"/>
+      <c r="M49" s="238"/>
+      <c r="N49" s="238"/>
+      <c r="O49" s="238"/>
+      <c r="P49" s="238"/>
+      <c r="Q49" s="238"/>
+      <c r="R49" s="238"/>
+      <c r="S49" s="238"/>
       <c r="T49" s="160"/>
       <c r="U49" s="161" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
-      <c r="V49" s="246"/>
-      <c r="W49" s="246"/>
+      <c r="V49" s="279"/>
+      <c r="W49" s="279"/>
       <c r="X49" s="162"/>
       <c r="Y49" s="162"/>
       <c r="Z49" s="162"/>
@@ -7068,39 +7019,35 @@
     <row r="50" spans="1:52" ht="28.5" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="311" t="s">
-        <v>104</v>
+      <c r="C50" s="233" t="s">
+        <v>97</v>
       </c>
-      <c r="D50" s="306" t="s">
-        <v>105</v>
+      <c r="D50" s="205" t="s">
+        <v>98</v>
       </c>
-      <c r="E50" s="194"/>
-      <c r="F50" s="312">
-        <v>0</v>
-      </c>
-      <c r="G50" s="194"/>
+      <c r="E50" s="204"/>
+      <c r="F50" s="236"/>
+      <c r="G50" s="204"/>
       <c r="H50" s="164"/>
       <c r="I50" s="165"/>
-      <c r="J50" s="311" t="s">
-        <v>106</v>
+      <c r="J50" s="233" t="s">
+        <v>99</v>
       </c>
-      <c r="K50" s="204" t="s">
-        <v>107</v>
-      </c>
-      <c r="L50" s="194"/>
-      <c r="M50" s="166">
+      <c r="K50" s="320" t="s">
         <v>100</v>
       </c>
+      <c r="L50" s="204"/>
+      <c r="M50" s="166"/>
       <c r="N50" s="164"/>
       <c r="O50" s="1"/>
       <c r="P50" s="165"/>
-      <c r="Q50" s="247" t="s">
-        <v>124</v>
+      <c r="Q50" s="242" t="s">
+        <v>117</v>
       </c>
       <c r="R50" s="231"/>
-      <c r="S50" s="194"/>
-      <c r="T50" s="248"/>
-      <c r="U50" s="249"/>
+      <c r="S50" s="204"/>
+      <c r="T50" s="280"/>
+      <c r="U50" s="281"/>
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
       <c r="X50" s="8"/>
@@ -7136,38 +7083,33 @@
     <row r="51" spans="1:52" ht="28.5" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="264"/>
-      <c r="D51" s="306" t="s">
-        <v>108</v>
+      <c r="C51" s="234"/>
+      <c r="D51" s="205" t="s">
+        <v>101</v>
       </c>
-      <c r="E51" s="194"/>
-      <c r="F51" s="307">
-        <v>0</v>
-      </c>
-      <c r="G51" s="194"/>
+      <c r="E51" s="204"/>
+      <c r="F51" s="203"/>
+      <c r="G51" s="204"/>
       <c r="H51" s="164"/>
       <c r="I51" s="165"/>
-      <c r="J51" s="264"/>
-      <c r="K51" s="250">
+      <c r="J51" s="234"/>
+      <c r="K51" s="282">
         <v>30</v>
       </c>
-      <c r="L51" s="194"/>
-      <c r="M51" s="169">
-        <f>I24*K51/360*0.045</f>
-        <v>0</v>
-      </c>
+      <c r="L51" s="204"/>
+      <c r="M51" s="169"/>
       <c r="N51" s="164"/>
       <c r="O51" s="170" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="P51" s="171"/>
-      <c r="Q51" s="247" t="s">
-        <v>110</v>
+      <c r="Q51" s="242" t="s">
+        <v>103</v>
       </c>
       <c r="R51" s="231"/>
-      <c r="S51" s="194"/>
-      <c r="T51" s="248"/>
-      <c r="U51" s="194"/>
+      <c r="S51" s="204"/>
+      <c r="T51" s="280"/>
+      <c r="U51" s="204"/>
       <c r="V51" s="172"/>
       <c r="W51" s="1"/>
       <c r="X51" s="8"/>
@@ -7203,35 +7145,31 @@
     <row r="52" spans="1:52" ht="28.5" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="5"/>
-      <c r="C52" s="264"/>
-      <c r="D52" s="306" t="s">
-        <v>111</v>
+      <c r="C52" s="234"/>
+      <c r="D52" s="205" t="s">
+        <v>104</v>
       </c>
-      <c r="E52" s="194"/>
-      <c r="F52" s="307">
-        <v>0</v>
-      </c>
-      <c r="G52" s="194"/>
+      <c r="E52" s="204"/>
+      <c r="F52" s="203"/>
+      <c r="G52" s="204"/>
       <c r="H52" s="164"/>
       <c r="I52" s="165"/>
-      <c r="J52" s="264"/>
-      <c r="K52" s="235" t="s">
-        <v>112</v>
+      <c r="J52" s="234"/>
+      <c r="K52" s="241" t="s">
+        <v>105</v>
       </c>
-      <c r="L52" s="194"/>
-      <c r="M52" s="166">
-        <v>0</v>
-      </c>
+      <c r="L52" s="204"/>
+      <c r="M52" s="166"/>
       <c r="N52" s="164"/>
       <c r="O52" s="1"/>
       <c r="P52" s="171"/>
-      <c r="Q52" s="247" t="s">
-        <v>113</v>
+      <c r="Q52" s="242" t="s">
+        <v>106</v>
       </c>
       <c r="R52" s="231"/>
-      <c r="S52" s="194"/>
-      <c r="T52" s="193"/>
-      <c r="U52" s="194"/>
+      <c r="S52" s="204"/>
+      <c r="T52" s="315"/>
+      <c r="U52" s="204"/>
       <c r="V52" s="172"/>
       <c r="W52" s="1"/>
       <c r="X52" s="8"/>
@@ -7267,31 +7205,24 @@
     <row r="53" spans="1:52" ht="28.5" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="5"/>
-      <c r="C53" s="264"/>
+      <c r="C53" s="234"/>
       <c r="D53" s="163" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
-      <c r="E53" s="173">
-        <v>0</v>
-      </c>
-      <c r="F53" s="307">
-        <f>E47*1.1*E53</f>
-        <v>0</v>
-      </c>
-      <c r="G53" s="194"/>
+      <c r="E53" s="173"/>
+      <c r="F53" s="203"/>
+      <c r="G53" s="204"/>
       <c r="H53" s="164"/>
       <c r="I53" s="165"/>
-      <c r="J53" s="264"/>
-      <c r="K53" s="235" t="s">
-        <v>115</v>
+      <c r="J53" s="234"/>
+      <c r="K53" s="241" t="s">
+        <v>108</v>
       </c>
-      <c r="L53" s="194"/>
-      <c r="M53" s="166">
-        <v>0</v>
-      </c>
+      <c r="L53" s="204"/>
+      <c r="M53" s="166"/>
       <c r="N53" s="164"/>
       <c r="O53" s="174" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="P53" s="171"/>
       <c r="Q53" s="1"/>
@@ -7334,25 +7265,21 @@
     <row r="54" spans="1:52" ht="28.5" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="5"/>
-      <c r="C54" s="264"/>
-      <c r="D54" s="306" t="s">
-        <v>117</v>
+      <c r="C54" s="234"/>
+      <c r="D54" s="205" t="s">
+        <v>110</v>
       </c>
-      <c r="E54" s="194"/>
-      <c r="F54" s="307">
-        <v>0</v>
-      </c>
-      <c r="G54" s="194"/>
+      <c r="E54" s="204"/>
+      <c r="F54" s="203"/>
+      <c r="G54" s="204"/>
       <c r="H54" s="164"/>
       <c r="I54" s="165"/>
-      <c r="J54" s="264"/>
-      <c r="K54" s="236" t="s">
-        <v>118</v>
+      <c r="J54" s="234"/>
+      <c r="K54" s="299" t="s">
+        <v>111</v>
       </c>
-      <c r="L54" s="194"/>
-      <c r="M54" s="166">
-        <v>0</v>
-      </c>
+      <c r="L54" s="204"/>
+      <c r="M54" s="166"/>
       <c r="N54" s="164"/>
       <c r="O54" s="1"/>
       <c r="P54" s="171"/>
@@ -7396,38 +7323,31 @@
     <row r="55" spans="1:52" ht="28.5" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="264"/>
-      <c r="D55" s="306" t="s">
-        <v>119</v>
+      <c r="C55" s="234"/>
+      <c r="D55" s="205" t="s">
+        <v>112</v>
       </c>
-      <c r="E55" s="194"/>
-      <c r="F55" s="307">
-        <v>10000</v>
-      </c>
-      <c r="G55" s="194"/>
+      <c r="E55" s="204"/>
+      <c r="F55" s="203"/>
+      <c r="G55" s="204"/>
       <c r="H55" s="164"/>
       <c r="I55" s="165"/>
-      <c r="J55" s="264"/>
-      <c r="K55" s="237" t="s">
-        <v>120</v>
+      <c r="J55" s="234"/>
+      <c r="K55" s="300" t="s">
+        <v>113</v>
       </c>
-      <c r="L55" s="194"/>
-      <c r="M55" s="166">
-        <f>E47*K56*M56/360</f>
-        <v>0</v>
-      </c>
+      <c r="L55" s="204"/>
+      <c r="M55" s="166"/>
       <c r="N55" s="164"/>
       <c r="O55" s="1"/>
       <c r="P55" s="171"/>
-      <c r="Q55" s="238" t="s">
-        <v>121</v>
+      <c r="Q55" s="301" t="s">
+        <v>114</v>
       </c>
       <c r="R55" s="231"/>
-      <c r="S55" s="194"/>
-      <c r="T55" s="239">
-        <v>28</v>
-      </c>
-      <c r="U55" s="194"/>
+      <c r="S55" s="204"/>
+      <c r="T55" s="302"/>
+      <c r="U55" s="204"/>
       <c r="V55" s="6"/>
       <c r="W55" s="1"/>
       <c r="X55" s="8"/>
@@ -7463,26 +7383,22 @@
     <row r="56" spans="1:52" ht="28.5" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="5"/>
-      <c r="C56" s="264"/>
-      <c r="D56" s="306" t="s">
-        <v>122</v>
+      <c r="C56" s="234"/>
+      <c r="D56" s="205" t="s">
+        <v>115</v>
       </c>
-      <c r="E56" s="194"/>
-      <c r="F56" s="307">
-        <v>0</v>
-      </c>
-      <c r="G56" s="194"/>
+      <c r="E56" s="204"/>
+      <c r="F56" s="203"/>
+      <c r="G56" s="204"/>
       <c r="H56" s="164"/>
       <c r="I56" s="165"/>
-      <c r="J56" s="264"/>
-      <c r="K56" s="240">
+      <c r="J56" s="234"/>
+      <c r="K56" s="303">
         <v>30</v>
       </c>
-      <c r="L56" s="194"/>
-      <c r="M56" s="241">
-        <v>0</v>
-      </c>
-      <c r="N56" s="194"/>
+      <c r="L56" s="204"/>
+      <c r="M56" s="304"/>
+      <c r="N56" s="204"/>
       <c r="O56" s="165"/>
       <c r="P56" s="171"/>
       <c r="Q56" s="175"/>
@@ -7525,22 +7441,22 @@
     <row r="57" spans="1:52" ht="28.5" customHeight="1">
       <c r="A57" s="177"/>
       <c r="B57" s="5"/>
-      <c r="C57" s="265"/>
-      <c r="D57" s="233" t="s">
-        <v>123</v>
+      <c r="C57" s="235"/>
+      <c r="D57" s="229" t="s">
+        <v>116</v>
       </c>
-      <c r="E57" s="194"/>
-      <c r="F57" s="234"/>
+      <c r="E57" s="204"/>
+      <c r="F57" s="230"/>
       <c r="G57" s="231"/>
-      <c r="H57" s="194"/>
+      <c r="H57" s="204"/>
       <c r="I57" s="178"/>
-      <c r="J57" s="265"/>
-      <c r="K57" s="233" t="s">
-        <v>123</v>
+      <c r="J57" s="235"/>
+      <c r="K57" s="229" t="s">
+        <v>116</v>
       </c>
-      <c r="L57" s="194"/>
-      <c r="M57" s="234"/>
-      <c r="N57" s="194"/>
+      <c r="L57" s="204"/>
+      <c r="M57" s="230"/>
+      <c r="N57" s="204"/>
       <c r="O57" s="178"/>
       <c r="P57" s="179"/>
       <c r="Q57" s="180"/>
@@ -7586,9 +7502,9 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="310"/>
+      <c r="F58" s="232"/>
       <c r="G58" s="231"/>
-      <c r="H58" s="194"/>
+      <c r="H58" s="204"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -58126,16 +58042,166 @@
     </row>
   </sheetData>
   <mergeCells count="194">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="AF34:AJ34"/>
+    <mergeCell ref="AK34:AO34"/>
+    <mergeCell ref="AP34:AT34"/>
+    <mergeCell ref="AU34:AY34"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:X32"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="S20:X20"/>
+    <mergeCell ref="S21:X21"/>
+    <mergeCell ref="S22:X22"/>
+    <mergeCell ref="S23:X23"/>
+    <mergeCell ref="T24:X24"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="Q55:S55"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:X29"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="M10:O13"/>
+    <mergeCell ref="P10:R13"/>
+    <mergeCell ref="S10:S13"/>
+    <mergeCell ref="T10:X13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="E33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:X33"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="M14:O17"/>
+    <mergeCell ref="P14:R17"/>
+    <mergeCell ref="S14:S17"/>
+    <mergeCell ref="T14:X17"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="S4:W4"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="M7:O9"/>
+    <mergeCell ref="P7:R9"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="T7:X9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="S18:X18"/>
+    <mergeCell ref="S19:X19"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="D49:S49"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="C50:C57"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="J50:J57"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="D52:E52"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="A14:B14"/>
@@ -58160,166 +58226,16 @@
     <mergeCell ref="A43:X43"/>
     <mergeCell ref="S45:T45"/>
     <mergeCell ref="E46:H46"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="C50:C57"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="J50:J57"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="D49:S49"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="Q52:S52"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="S18:X18"/>
-    <mergeCell ref="S19:X19"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="A2:X2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="S4:W4"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="M7:O9"/>
-    <mergeCell ref="P7:R9"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="T7:X9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="M10:O13"/>
-    <mergeCell ref="P10:R13"/>
-    <mergeCell ref="S10:S13"/>
-    <mergeCell ref="T10:X13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="E33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:X33"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="M14:O17"/>
-    <mergeCell ref="P14:R17"/>
-    <mergeCell ref="S14:S17"/>
-    <mergeCell ref="T14:X17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="S20:X20"/>
-    <mergeCell ref="S21:X21"/>
-    <mergeCell ref="S22:X22"/>
-    <mergeCell ref="S23:X23"/>
-    <mergeCell ref="T24:X24"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="Q55:S55"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:X29"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="AF34:AJ34"/>
-    <mergeCell ref="AK34:AO34"/>
-    <mergeCell ref="AP34:AT34"/>
-    <mergeCell ref="AU34:AY34"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:X32"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
   </mergeCells>
   <phoneticPr fontId="73" type="noConversion"/>
   <dataValidations count="2">

--- a/spModle.xlsx
+++ b/spModle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS_Workstation\Desktop\excelize_json_practice\excelize_json_practice\PI_SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A491E4-9DEF-4B5A-B33B-ED7355C19B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60646788-68E9-496B-BF02-AADC6622362D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP" sheetId="2" r:id="rId1"/>
@@ -2852,9 +2852,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="30" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="23" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3197,11 +3194,101 @@
     <xf numFmtId="0" fontId="76" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="4" fontId="57" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="26" fontId="23" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="51" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3212,98 +3299,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="26" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="26" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="23" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="44" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3311,14 +3320,92 @@
     <xf numFmtId="185" fontId="63" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="191" fontId="55" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="61" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="55" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="193" fontId="2" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="56" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="57" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="57" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="55" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="63" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3326,59 +3413,47 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="56" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="26" fontId="13" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3410,35 +3485,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3446,145 +3500,91 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="57" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="57" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="55" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="13" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="44" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="63" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="26" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="13" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="191" fontId="55" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="61" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="26" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="55" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="193" fontId="2" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="23" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="57" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="26" fontId="23" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="51" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3947,8 +3947,8 @@
   </sheetPr>
   <dimension ref="A1:AZ993"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:L13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35:S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -4004,32 +4004,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="27" customHeight="1">
-      <c r="A1" s="254" t="s">
+      <c r="A1" s="279" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="225"/>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="225"/>
-      <c r="H1" s="225"/>
-      <c r="I1" s="225"/>
-      <c r="J1" s="225"/>
-      <c r="K1" s="225"/>
-      <c r="L1" s="225"/>
-      <c r="M1" s="225"/>
-      <c r="N1" s="225"/>
-      <c r="O1" s="225"/>
-      <c r="P1" s="225"/>
-      <c r="Q1" s="225"/>
-      <c r="R1" s="225"/>
-      <c r="S1" s="225"/>
-      <c r="T1" s="225"/>
-      <c r="U1" s="225"/>
-      <c r="V1" s="225"/>
-      <c r="W1" s="225"/>
-      <c r="X1" s="225"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="222"/>
+      <c r="K1" s="222"/>
+      <c r="L1" s="222"/>
+      <c r="M1" s="222"/>
+      <c r="N1" s="222"/>
+      <c r="O1" s="222"/>
+      <c r="P1" s="222"/>
+      <c r="Q1" s="222"/>
+      <c r="R1" s="222"/>
+      <c r="S1" s="222"/>
+      <c r="T1" s="222"/>
+      <c r="U1" s="222"/>
+      <c r="V1" s="222"/>
+      <c r="W1" s="222"/>
+      <c r="X1" s="222"/>
       <c r="Y1" s="7"/>
       <c r="Z1" s="8"/>
       <c r="AA1" s="8"/>
@@ -4060,32 +4060,32 @@
       <c r="AZ1" s="1"/>
     </row>
     <row r="2" spans="1:52" ht="29.25" customHeight="1">
-      <c r="A2" s="255" t="s">
+      <c r="A2" s="280" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238"/>
-      <c r="H2" s="238"/>
-      <c r="I2" s="238"/>
-      <c r="J2" s="238"/>
-      <c r="K2" s="238"/>
-      <c r="L2" s="238"/>
-      <c r="M2" s="238"/>
-      <c r="N2" s="238"/>
-      <c r="O2" s="238"/>
-      <c r="P2" s="238"/>
-      <c r="Q2" s="238"/>
-      <c r="R2" s="238"/>
-      <c r="S2" s="238"/>
-      <c r="T2" s="238"/>
-      <c r="U2" s="238"/>
-      <c r="V2" s="238"/>
-      <c r="W2" s="238"/>
-      <c r="X2" s="238"/>
+      <c r="B2" s="220"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="220"/>
+      <c r="H2" s="220"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="220"/>
+      <c r="K2" s="220"/>
+      <c r="L2" s="220"/>
+      <c r="M2" s="220"/>
+      <c r="N2" s="220"/>
+      <c r="O2" s="220"/>
+      <c r="P2" s="220"/>
+      <c r="Q2" s="220"/>
+      <c r="R2" s="220"/>
+      <c r="S2" s="220"/>
+      <c r="T2" s="220"/>
+      <c r="U2" s="220"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="220"/>
+      <c r="X2" s="220"/>
       <c r="Y2" s="9"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
@@ -4172,33 +4172,33 @@
     <row r="4" spans="1:52" ht="18.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="256" t="s">
+      <c r="C4" s="281" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="212"/>
-      <c r="E4" s="257"/>
-      <c r="F4" s="211"/>
-      <c r="G4" s="211"/>
-      <c r="H4" s="211"/>
-      <c r="I4" s="212"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="282"/>
+      <c r="F4" s="269"/>
+      <c r="G4" s="269"/>
+      <c r="H4" s="269"/>
+      <c r="I4" s="218"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
       <c r="N4" s="13"/>
       <c r="O4" s="16"/>
-      <c r="P4" s="217" t="s">
+      <c r="P4" s="289" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="197"/>
-      <c r="R4" s="194"/>
-      <c r="S4" s="258" t="s">
+      <c r="Q4" s="226"/>
+      <c r="R4" s="197"/>
+      <c r="S4" s="283" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="211"/>
-      <c r="U4" s="211"/>
-      <c r="V4" s="211"/>
-      <c r="W4" s="212"/>
+      <c r="T4" s="269"/>
+      <c r="U4" s="269"/>
+      <c r="V4" s="269"/>
+      <c r="W4" s="218"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="17"/>
       <c r="Z4" s="8"/>
@@ -4232,31 +4232,31 @@
     <row r="5" spans="1:52" ht="18.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="261" t="s">
+      <c r="C5" s="286" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="212"/>
-      <c r="E5" s="259"/>
-      <c r="F5" s="211"/>
-      <c r="G5" s="211"/>
-      <c r="H5" s="211"/>
-      <c r="I5" s="212"/>
+      <c r="D5" s="218"/>
+      <c r="E5" s="284"/>
+      <c r="F5" s="269"/>
+      <c r="G5" s="269"/>
+      <c r="H5" s="269"/>
+      <c r="I5" s="218"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
       <c r="N5" s="13"/>
       <c r="O5" s="16"/>
-      <c r="P5" s="264" t="s">
+      <c r="P5" s="215" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="209"/>
-      <c r="R5" s="199"/>
-      <c r="S5" s="260"/>
-      <c r="T5" s="211"/>
-      <c r="U5" s="211"/>
-      <c r="V5" s="211"/>
-      <c r="W5" s="212"/>
+      <c r="Q5" s="212"/>
+      <c r="R5" s="213"/>
+      <c r="S5" s="285"/>
+      <c r="T5" s="269"/>
+      <c r="U5" s="269"/>
+      <c r="V5" s="269"/>
+      <c r="W5" s="218"/>
       <c r="X5" s="8"/>
       <c r="Y5" s="14"/>
       <c r="Z5" s="8"/>
@@ -4342,45 +4342,45 @@
       <c r="AZ6" s="1"/>
     </row>
     <row r="7" spans="1:52" ht="18.75" customHeight="1">
-      <c r="A7" s="184"/>
+      <c r="A7" s="183"/>
       <c r="B7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="262" t="s">
+      <c r="C7" s="287" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="212"/>
+      <c r="D7" s="218"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="263" t="s">
+      <c r="F7" s="288" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="212"/>
+      <c r="G7" s="218"/>
       <c r="H7" s="19"/>
-      <c r="I7" s="263" t="s">
+      <c r="I7" s="288" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="211"/>
-      <c r="K7" s="185"/>
-      <c r="L7" s="186"/>
-      <c r="M7" s="265" t="s">
+      <c r="J7" s="269"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="185"/>
+      <c r="M7" s="290" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="266"/>
-      <c r="O7" s="267"/>
-      <c r="P7" s="271" t="e">
+      <c r="N7" s="209"/>
+      <c r="O7" s="195"/>
+      <c r="P7" s="291" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q7" s="266"/>
-      <c r="R7" s="267"/>
-      <c r="S7" s="274" t="s">
+      <c r="Q7" s="209"/>
+      <c r="R7" s="195"/>
+      <c r="S7" s="292" t="s">
         <v>13</v>
       </c>
-      <c r="T7" s="275"/>
-      <c r="U7" s="266"/>
-      <c r="V7" s="266"/>
-      <c r="W7" s="266"/>
-      <c r="X7" s="276"/>
+      <c r="T7" s="293"/>
+      <c r="U7" s="209"/>
+      <c r="V7" s="209"/>
+      <c r="W7" s="209"/>
+      <c r="X7" s="210"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
@@ -4411,34 +4411,34 @@
       <c r="AZ7" s="1"/>
     </row>
     <row r="8" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A8" s="193" t="s">
+      <c r="A8" s="294" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="194"/>
-      <c r="C8" s="201"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="196" t="s">
+      <c r="B8" s="197"/>
+      <c r="C8" s="321"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="225" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="197"/>
-      <c r="G8" s="194"/>
-      <c r="H8" s="283"/>
-      <c r="I8" s="221"/>
-      <c r="J8" s="221"/>
-      <c r="K8" s="221"/>
-      <c r="L8" s="278"/>
-      <c r="M8" s="268"/>
-      <c r="N8" s="238"/>
-      <c r="O8" s="269"/>
-      <c r="P8" s="272"/>
-      <c r="Q8" s="238"/>
-      <c r="R8" s="269"/>
-      <c r="S8" s="234"/>
-      <c r="T8" s="272"/>
-      <c r="U8" s="238"/>
-      <c r="V8" s="238"/>
-      <c r="W8" s="238"/>
-      <c r="X8" s="277"/>
+      <c r="F8" s="226"/>
+      <c r="G8" s="197"/>
+      <c r="H8" s="250"/>
+      <c r="I8" s="251"/>
+      <c r="J8" s="251"/>
+      <c r="K8" s="251"/>
+      <c r="L8" s="252"/>
+      <c r="M8" s="257"/>
+      <c r="N8" s="220"/>
+      <c r="O8" s="202"/>
+      <c r="P8" s="260"/>
+      <c r="Q8" s="220"/>
+      <c r="R8" s="202"/>
+      <c r="S8" s="263"/>
+      <c r="T8" s="260"/>
+      <c r="U8" s="220"/>
+      <c r="V8" s="220"/>
+      <c r="W8" s="220"/>
+      <c r="X8" s="267"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
@@ -4469,34 +4469,34 @@
       <c r="AZ8" s="1"/>
     </row>
     <row r="9" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A9" s="200" t="s">
+      <c r="A9" s="295" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="199"/>
-      <c r="C9" s="252"/>
-      <c r="D9" s="199"/>
+      <c r="B9" s="213"/>
+      <c r="C9" s="253"/>
+      <c r="D9" s="213"/>
       <c r="E9" s="21" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
-      <c r="H9" s="252"/>
-      <c r="I9" s="209"/>
-      <c r="J9" s="209"/>
-      <c r="K9" s="209"/>
-      <c r="L9" s="250"/>
-      <c r="M9" s="270"/>
-      <c r="N9" s="221"/>
-      <c r="O9" s="202"/>
-      <c r="P9" s="273"/>
-      <c r="Q9" s="221"/>
-      <c r="R9" s="202"/>
-      <c r="S9" s="235"/>
-      <c r="T9" s="273"/>
-      <c r="U9" s="221"/>
-      <c r="V9" s="221"/>
-      <c r="W9" s="221"/>
-      <c r="X9" s="278"/>
+      <c r="H9" s="253"/>
+      <c r="I9" s="212"/>
+      <c r="J9" s="212"/>
+      <c r="K9" s="212"/>
+      <c r="L9" s="207"/>
+      <c r="M9" s="258"/>
+      <c r="N9" s="251"/>
+      <c r="O9" s="199"/>
+      <c r="P9" s="261"/>
+      <c r="Q9" s="251"/>
+      <c r="R9" s="199"/>
+      <c r="S9" s="264"/>
+      <c r="T9" s="261"/>
+      <c r="U9" s="251"/>
+      <c r="V9" s="251"/>
+      <c r="W9" s="251"/>
+      <c r="X9" s="252"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
@@ -4527,41 +4527,41 @@
       <c r="AZ9" s="1"/>
     </row>
     <row r="10" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A10" s="193" t="s">
+      <c r="A10" s="294" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="194"/>
-      <c r="C10" s="195"/>
-      <c r="D10" s="194"/>
-      <c r="E10" s="196" t="s">
+      <c r="B10" s="197"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="197"/>
+      <c r="E10" s="225" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="197"/>
-      <c r="G10" s="194"/>
-      <c r="H10" s="253"/>
-      <c r="I10" s="197"/>
-      <c r="J10" s="197"/>
-      <c r="K10" s="197"/>
-      <c r="L10" s="219"/>
-      <c r="M10" s="284" t="s">
+      <c r="F10" s="226"/>
+      <c r="G10" s="197"/>
+      <c r="H10" s="227"/>
+      <c r="I10" s="226"/>
+      <c r="J10" s="226"/>
+      <c r="K10" s="226"/>
+      <c r="L10" s="228"/>
+      <c r="M10" s="254" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="285"/>
-      <c r="O10" s="286"/>
-      <c r="P10" s="287" t="e">
+      <c r="N10" s="255"/>
+      <c r="O10" s="256"/>
+      <c r="P10" s="259" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q10" s="285"/>
-      <c r="R10" s="286"/>
-      <c r="S10" s="288" t="s">
+      <c r="Q10" s="255"/>
+      <c r="R10" s="256"/>
+      <c r="S10" s="262" t="s">
         <v>20</v>
       </c>
-      <c r="T10" s="289"/>
-      <c r="U10" s="285"/>
-      <c r="V10" s="285"/>
-      <c r="W10" s="285"/>
-      <c r="X10" s="290"/>
+      <c r="T10" s="265"/>
+      <c r="U10" s="255"/>
+      <c r="V10" s="255"/>
+      <c r="W10" s="255"/>
+      <c r="X10" s="266"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
@@ -4592,34 +4592,34 @@
       <c r="AZ10" s="1"/>
     </row>
     <row r="11" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A11" s="200" t="s">
+      <c r="A11" s="295" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="199"/>
-      <c r="C11" s="198"/>
-      <c r="D11" s="199"/>
+      <c r="B11" s="213"/>
+      <c r="C11" s="304"/>
+      <c r="D11" s="213"/>
       <c r="E11" s="21" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
-      <c r="H11" s="252"/>
-      <c r="I11" s="209"/>
-      <c r="J11" s="209"/>
-      <c r="K11" s="209"/>
-      <c r="L11" s="250"/>
-      <c r="M11" s="268"/>
-      <c r="N11" s="238"/>
-      <c r="O11" s="269"/>
-      <c r="P11" s="272"/>
-      <c r="Q11" s="238"/>
-      <c r="R11" s="269"/>
-      <c r="S11" s="234"/>
-      <c r="T11" s="272"/>
-      <c r="U11" s="238"/>
-      <c r="V11" s="238"/>
-      <c r="W11" s="238"/>
-      <c r="X11" s="277"/>
+      <c r="H11" s="253"/>
+      <c r="I11" s="212"/>
+      <c r="J11" s="212"/>
+      <c r="K11" s="212"/>
+      <c r="L11" s="207"/>
+      <c r="M11" s="257"/>
+      <c r="N11" s="220"/>
+      <c r="O11" s="202"/>
+      <c r="P11" s="260"/>
+      <c r="Q11" s="220"/>
+      <c r="R11" s="202"/>
+      <c r="S11" s="263"/>
+      <c r="T11" s="260"/>
+      <c r="U11" s="220"/>
+      <c r="V11" s="220"/>
+      <c r="W11" s="220"/>
+      <c r="X11" s="267"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
@@ -4650,34 +4650,34 @@
       <c r="AZ11" s="1"/>
     </row>
     <row r="12" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A12" s="193" t="s">
+      <c r="A12" s="294" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="194"/>
-      <c r="C12" s="195"/>
-      <c r="D12" s="194"/>
-      <c r="E12" s="196" t="s">
+      <c r="B12" s="197"/>
+      <c r="C12" s="224"/>
+      <c r="D12" s="197"/>
+      <c r="E12" s="225" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="197"/>
-      <c r="G12" s="194"/>
-      <c r="H12" s="253"/>
-      <c r="I12" s="197"/>
-      <c r="J12" s="197"/>
-      <c r="K12" s="197"/>
-      <c r="L12" s="219"/>
-      <c r="M12" s="268"/>
-      <c r="N12" s="238"/>
-      <c r="O12" s="269"/>
-      <c r="P12" s="272"/>
-      <c r="Q12" s="238"/>
-      <c r="R12" s="269"/>
-      <c r="S12" s="234"/>
-      <c r="T12" s="272"/>
-      <c r="U12" s="238"/>
-      <c r="V12" s="238"/>
-      <c r="W12" s="238"/>
-      <c r="X12" s="277"/>
+      <c r="F12" s="226"/>
+      <c r="G12" s="197"/>
+      <c r="H12" s="227"/>
+      <c r="I12" s="226"/>
+      <c r="J12" s="226"/>
+      <c r="K12" s="226"/>
+      <c r="L12" s="228"/>
+      <c r="M12" s="257"/>
+      <c r="N12" s="220"/>
+      <c r="O12" s="202"/>
+      <c r="P12" s="260"/>
+      <c r="Q12" s="220"/>
+      <c r="R12" s="202"/>
+      <c r="S12" s="263"/>
+      <c r="T12" s="260"/>
+      <c r="U12" s="220"/>
+      <c r="V12" s="220"/>
+      <c r="W12" s="220"/>
+      <c r="X12" s="267"/>
       <c r="Y12" s="20"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
@@ -4708,34 +4708,34 @@
       <c r="AZ12" s="1"/>
     </row>
     <row r="13" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A13" s="200" t="s">
+      <c r="A13" s="295" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="199"/>
-      <c r="C13" s="198"/>
-      <c r="D13" s="199"/>
+      <c r="B13" s="213"/>
+      <c r="C13" s="304"/>
+      <c r="D13" s="213"/>
       <c r="E13" s="21" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
-      <c r="H13" s="252"/>
-      <c r="I13" s="209"/>
-      <c r="J13" s="209"/>
-      <c r="K13" s="209"/>
-      <c r="L13" s="250"/>
-      <c r="M13" s="270"/>
-      <c r="N13" s="221"/>
-      <c r="O13" s="202"/>
-      <c r="P13" s="273"/>
-      <c r="Q13" s="221"/>
-      <c r="R13" s="202"/>
-      <c r="S13" s="235"/>
-      <c r="T13" s="273"/>
-      <c r="U13" s="221"/>
-      <c r="V13" s="221"/>
-      <c r="W13" s="221"/>
-      <c r="X13" s="278"/>
+      <c r="H13" s="253"/>
+      <c r="I13" s="212"/>
+      <c r="J13" s="212"/>
+      <c r="K13" s="212"/>
+      <c r="L13" s="207"/>
+      <c r="M13" s="258"/>
+      <c r="N13" s="251"/>
+      <c r="O13" s="199"/>
+      <c r="P13" s="261"/>
+      <c r="Q13" s="251"/>
+      <c r="R13" s="199"/>
+      <c r="S13" s="264"/>
+      <c r="T13" s="261"/>
+      <c r="U13" s="251"/>
+      <c r="V13" s="251"/>
+      <c r="W13" s="251"/>
+      <c r="X13" s="252"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
@@ -4766,41 +4766,41 @@
       <c r="AZ13" s="1"/>
     </row>
     <row r="14" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A14" s="193" t="s">
+      <c r="A14" s="294" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="194"/>
-      <c r="C14" s="195"/>
-      <c r="D14" s="194"/>
-      <c r="E14" s="196" t="s">
+      <c r="B14" s="197"/>
+      <c r="C14" s="224"/>
+      <c r="D14" s="197"/>
+      <c r="E14" s="225" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="197"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="253"/>
-      <c r="I14" s="197"/>
-      <c r="J14" s="197"/>
-      <c r="K14" s="197"/>
-      <c r="L14" s="219"/>
-      <c r="M14" s="284" t="s">
+      <c r="F14" s="226"/>
+      <c r="G14" s="197"/>
+      <c r="H14" s="227"/>
+      <c r="I14" s="226"/>
+      <c r="J14" s="226"/>
+      <c r="K14" s="226"/>
+      <c r="L14" s="228"/>
+      <c r="M14" s="254" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="285"/>
-      <c r="O14" s="286"/>
-      <c r="P14" s="287" t="e">
+      <c r="N14" s="255"/>
+      <c r="O14" s="256"/>
+      <c r="P14" s="259" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q14" s="285"/>
-      <c r="R14" s="286"/>
-      <c r="S14" s="295" t="s">
+      <c r="Q14" s="255"/>
+      <c r="R14" s="256"/>
+      <c r="S14" s="275" t="s">
         <v>17</v>
       </c>
-      <c r="T14" s="297"/>
-      <c r="U14" s="285"/>
-      <c r="V14" s="285"/>
-      <c r="W14" s="285"/>
-      <c r="X14" s="290"/>
+      <c r="T14" s="277"/>
+      <c r="U14" s="255"/>
+      <c r="V14" s="255"/>
+      <c r="W14" s="255"/>
+      <c r="X14" s="266"/>
       <c r="Y14" s="22"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
@@ -4831,34 +4831,34 @@
       <c r="AZ14" s="1"/>
     </row>
     <row r="15" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A15" s="200" t="s">
+      <c r="A15" s="295" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="199"/>
-      <c r="C15" s="198"/>
-      <c r="D15" s="199"/>
+      <c r="B15" s="213"/>
+      <c r="C15" s="304"/>
+      <c r="D15" s="213"/>
       <c r="E15" s="21" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
-      <c r="H15" s="252"/>
-      <c r="I15" s="209"/>
-      <c r="J15" s="209"/>
-      <c r="K15" s="209"/>
-      <c r="L15" s="250"/>
-      <c r="M15" s="268"/>
-      <c r="N15" s="238"/>
-      <c r="O15" s="269"/>
-      <c r="P15" s="272"/>
-      <c r="Q15" s="238"/>
-      <c r="R15" s="269"/>
-      <c r="S15" s="234"/>
-      <c r="T15" s="272"/>
-      <c r="U15" s="238"/>
-      <c r="V15" s="238"/>
-      <c r="W15" s="238"/>
-      <c r="X15" s="277"/>
+      <c r="H15" s="253"/>
+      <c r="I15" s="212"/>
+      <c r="J15" s="212"/>
+      <c r="K15" s="212"/>
+      <c r="L15" s="207"/>
+      <c r="M15" s="257"/>
+      <c r="N15" s="220"/>
+      <c r="O15" s="202"/>
+      <c r="P15" s="260"/>
+      <c r="Q15" s="220"/>
+      <c r="R15" s="202"/>
+      <c r="S15" s="263"/>
+      <c r="T15" s="260"/>
+      <c r="U15" s="220"/>
+      <c r="V15" s="220"/>
+      <c r="W15" s="220"/>
+      <c r="X15" s="267"/>
       <c r="Y15" s="22"/>
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
@@ -4889,34 +4889,34 @@
       <c r="AZ15" s="1"/>
     </row>
     <row r="16" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A16" s="193" t="s">
+      <c r="A16" s="294" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="194"/>
-      <c r="C16" s="195"/>
-      <c r="D16" s="194"/>
-      <c r="E16" s="196" t="s">
+      <c r="B16" s="197"/>
+      <c r="C16" s="224"/>
+      <c r="D16" s="197"/>
+      <c r="E16" s="225" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="197"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="253"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="197"/>
-      <c r="K16" s="197"/>
-      <c r="L16" s="219"/>
-      <c r="M16" s="268"/>
-      <c r="N16" s="238"/>
-      <c r="O16" s="269"/>
-      <c r="P16" s="272"/>
-      <c r="Q16" s="238"/>
-      <c r="R16" s="269"/>
-      <c r="S16" s="234"/>
-      <c r="T16" s="272"/>
-      <c r="U16" s="238"/>
-      <c r="V16" s="238"/>
-      <c r="W16" s="238"/>
-      <c r="X16" s="277"/>
+      <c r="F16" s="226"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="227"/>
+      <c r="I16" s="226"/>
+      <c r="J16" s="226"/>
+      <c r="K16" s="226"/>
+      <c r="L16" s="228"/>
+      <c r="M16" s="257"/>
+      <c r="N16" s="220"/>
+      <c r="O16" s="202"/>
+      <c r="P16" s="260"/>
+      <c r="Q16" s="220"/>
+      <c r="R16" s="202"/>
+      <c r="S16" s="263"/>
+      <c r="T16" s="260"/>
+      <c r="U16" s="220"/>
+      <c r="V16" s="220"/>
+      <c r="W16" s="220"/>
+      <c r="X16" s="267"/>
       <c r="Y16" s="22"/>
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
@@ -4947,34 +4947,34 @@
       <c r="AZ16" s="1"/>
     </row>
     <row r="17" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A17" s="200" t="s">
+      <c r="A17" s="295" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="199"/>
-      <c r="C17" s="198"/>
-      <c r="D17" s="199"/>
+      <c r="B17" s="213"/>
+      <c r="C17" s="304"/>
+      <c r="D17" s="213"/>
       <c r="E17" s="21" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
-      <c r="H17" s="252"/>
-      <c r="I17" s="209"/>
-      <c r="J17" s="209"/>
-      <c r="K17" s="209"/>
-      <c r="L17" s="250"/>
-      <c r="M17" s="292"/>
-      <c r="N17" s="214"/>
-      <c r="O17" s="293"/>
-      <c r="P17" s="294"/>
-      <c r="Q17" s="214"/>
-      <c r="R17" s="293"/>
-      <c r="S17" s="296"/>
-      <c r="T17" s="294"/>
-      <c r="U17" s="214"/>
-      <c r="V17" s="214"/>
-      <c r="W17" s="214"/>
-      <c r="X17" s="215"/>
+      <c r="H17" s="253"/>
+      <c r="I17" s="212"/>
+      <c r="J17" s="212"/>
+      <c r="K17" s="212"/>
+      <c r="L17" s="207"/>
+      <c r="M17" s="271"/>
+      <c r="N17" s="272"/>
+      <c r="O17" s="273"/>
+      <c r="P17" s="274"/>
+      <c r="Q17" s="272"/>
+      <c r="R17" s="273"/>
+      <c r="S17" s="276"/>
+      <c r="T17" s="274"/>
+      <c r="U17" s="272"/>
+      <c r="V17" s="272"/>
+      <c r="W17" s="272"/>
+      <c r="X17" s="278"/>
       <c r="Y17" s="22"/>
       <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
@@ -5005,42 +5005,42 @@
       <c r="AZ17" s="1"/>
     </row>
     <row r="18" spans="1:52" ht="18.75" customHeight="1">
-      <c r="A18" s="206" t="s">
+      <c r="A18" s="298" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="197"/>
-      <c r="C18" s="197"/>
-      <c r="D18" s="194"/>
-      <c r="E18" s="207" t="s">
+      <c r="B18" s="226"/>
+      <c r="C18" s="226"/>
+      <c r="D18" s="197"/>
+      <c r="E18" s="296" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="197"/>
-      <c r="G18" s="194"/>
-      <c r="H18" s="207" t="s">
+      <c r="F18" s="226"/>
+      <c r="G18" s="197"/>
+      <c r="H18" s="296" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="197"/>
-      <c r="J18" s="197"/>
-      <c r="K18" s="197"/>
-      <c r="L18" s="219"/>
-      <c r="M18" s="206" t="s">
+      <c r="I18" s="226"/>
+      <c r="J18" s="226"/>
+      <c r="K18" s="226"/>
+      <c r="L18" s="228"/>
+      <c r="M18" s="298" t="s">
         <v>24</v>
       </c>
-      <c r="N18" s="197"/>
-      <c r="O18" s="194"/>
-      <c r="P18" s="207" t="s">
+      <c r="N18" s="226"/>
+      <c r="O18" s="197"/>
+      <c r="P18" s="296" t="s">
         <v>25</v>
       </c>
-      <c r="Q18" s="197"/>
-      <c r="R18" s="194"/>
-      <c r="S18" s="207" t="s">
+      <c r="Q18" s="226"/>
+      <c r="R18" s="197"/>
+      <c r="S18" s="296" t="s">
         <v>26</v>
       </c>
-      <c r="T18" s="197"/>
-      <c r="U18" s="197"/>
-      <c r="V18" s="197"/>
-      <c r="W18" s="197"/>
-      <c r="X18" s="219"/>
+      <c r="T18" s="226"/>
+      <c r="U18" s="226"/>
+      <c r="V18" s="226"/>
+      <c r="W18" s="226"/>
+      <c r="X18" s="228"/>
       <c r="Y18" s="14"/>
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
@@ -5071,40 +5071,40 @@
       <c r="AZ18" s="1"/>
     </row>
     <row r="19" spans="1:52" ht="22.5" customHeight="1">
-      <c r="A19" s="239">
+      <c r="A19" s="241">
         <v>1</v>
       </c>
-      <c r="B19" s="204"/>
-      <c r="C19" s="245" t="s">
+      <c r="B19" s="193"/>
+      <c r="C19" s="302" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="204"/>
-      <c r="E19" s="244"/>
-      <c r="F19" s="231"/>
-      <c r="G19" s="204"/>
-      <c r="H19" s="246"/>
-      <c r="I19" s="231"/>
-      <c r="J19" s="231"/>
-      <c r="K19" s="231"/>
-      <c r="L19" s="247"/>
+      <c r="D19" s="193"/>
+      <c r="E19" s="303"/>
+      <c r="F19" s="230"/>
+      <c r="G19" s="193"/>
+      <c r="H19" s="229"/>
+      <c r="I19" s="230"/>
+      <c r="J19" s="230"/>
+      <c r="K19" s="230"/>
+      <c r="L19" s="205"/>
       <c r="M19" s="23">
         <f>A19</f>
         <v>1</v>
       </c>
-      <c r="N19" s="243" t="str">
+      <c r="N19" s="297" t="str">
         <f>C19</f>
         <v>萬裕隆/430</v>
       </c>
-      <c r="O19" s="204"/>
-      <c r="P19" s="244"/>
-      <c r="Q19" s="231"/>
-      <c r="R19" s="204"/>
-      <c r="S19" s="246"/>
-      <c r="T19" s="231"/>
-      <c r="U19" s="231"/>
-      <c r="V19" s="231"/>
-      <c r="W19" s="231"/>
-      <c r="X19" s="247"/>
+      <c r="O19" s="193"/>
+      <c r="P19" s="303"/>
+      <c r="Q19" s="230"/>
+      <c r="R19" s="193"/>
+      <c r="S19" s="229"/>
+      <c r="T19" s="230"/>
+      <c r="U19" s="230"/>
+      <c r="V19" s="230"/>
+      <c r="W19" s="230"/>
+      <c r="X19" s="205"/>
       <c r="Y19" s="24"/>
       <c r="Z19" s="8"/>
       <c r="AA19" s="8"/>
@@ -5135,37 +5135,37 @@
       <c r="AZ19" s="1"/>
     </row>
     <row r="20" spans="1:52" ht="22.5" customHeight="1">
-      <c r="A20" s="239">
+      <c r="A20" s="241">
         <v>2</v>
       </c>
-      <c r="B20" s="204"/>
-      <c r="C20" s="245"/>
-      <c r="D20" s="204"/>
-      <c r="E20" s="244"/>
-      <c r="F20" s="231"/>
-      <c r="G20" s="204"/>
-      <c r="H20" s="248"/>
-      <c r="I20" s="231"/>
-      <c r="J20" s="231"/>
-      <c r="K20" s="231"/>
-      <c r="L20" s="247"/>
+      <c r="B20" s="193"/>
+      <c r="C20" s="302"/>
+      <c r="D20" s="193"/>
+      <c r="E20" s="303"/>
+      <c r="F20" s="230"/>
+      <c r="G20" s="193"/>
+      <c r="H20" s="299"/>
+      <c r="I20" s="230"/>
+      <c r="J20" s="230"/>
+      <c r="K20" s="230"/>
+      <c r="L20" s="205"/>
       <c r="M20" s="23">
         <v>2</v>
       </c>
-      <c r="N20" s="243">
+      <c r="N20" s="297">
         <f>C20</f>
         <v>0</v>
       </c>
-      <c r="O20" s="204"/>
-      <c r="P20" s="244"/>
-      <c r="Q20" s="231"/>
-      <c r="R20" s="204"/>
-      <c r="S20" s="246"/>
-      <c r="T20" s="231"/>
-      <c r="U20" s="231"/>
-      <c r="V20" s="231"/>
-      <c r="W20" s="231"/>
-      <c r="X20" s="247"/>
+      <c r="O20" s="193"/>
+      <c r="P20" s="303"/>
+      <c r="Q20" s="230"/>
+      <c r="R20" s="193"/>
+      <c r="S20" s="229"/>
+      <c r="T20" s="230"/>
+      <c r="U20" s="230"/>
+      <c r="V20" s="230"/>
+      <c r="W20" s="230"/>
+      <c r="X20" s="205"/>
       <c r="Y20" s="24"/>
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
@@ -5196,37 +5196,37 @@
       <c r="AZ20" s="1"/>
     </row>
     <row r="21" spans="1:52" ht="22.5" customHeight="1">
-      <c r="A21" s="239">
+      <c r="A21" s="241">
         <v>3</v>
       </c>
-      <c r="B21" s="204"/>
-      <c r="C21" s="245"/>
-      <c r="D21" s="204"/>
-      <c r="E21" s="244"/>
-      <c r="F21" s="231"/>
-      <c r="G21" s="204"/>
-      <c r="H21" s="248"/>
-      <c r="I21" s="231"/>
-      <c r="J21" s="231"/>
-      <c r="K21" s="231"/>
-      <c r="L21" s="247"/>
+      <c r="B21" s="193"/>
+      <c r="C21" s="302"/>
+      <c r="D21" s="193"/>
+      <c r="E21" s="303"/>
+      <c r="F21" s="230"/>
+      <c r="G21" s="193"/>
+      <c r="H21" s="299"/>
+      <c r="I21" s="230"/>
+      <c r="J21" s="230"/>
+      <c r="K21" s="230"/>
+      <c r="L21" s="205"/>
       <c r="M21" s="23">
         <v>3</v>
       </c>
-      <c r="N21" s="243">
+      <c r="N21" s="297">
         <f>C21</f>
         <v>0</v>
       </c>
-      <c r="O21" s="204"/>
-      <c r="P21" s="244"/>
-      <c r="Q21" s="231"/>
-      <c r="R21" s="204"/>
-      <c r="S21" s="246"/>
-      <c r="T21" s="231"/>
-      <c r="U21" s="231"/>
-      <c r="V21" s="231"/>
-      <c r="W21" s="231"/>
-      <c r="X21" s="247"/>
+      <c r="O21" s="193"/>
+      <c r="P21" s="303"/>
+      <c r="Q21" s="230"/>
+      <c r="R21" s="193"/>
+      <c r="S21" s="229"/>
+      <c r="T21" s="230"/>
+      <c r="U21" s="230"/>
+      <c r="V21" s="230"/>
+      <c r="W21" s="230"/>
+      <c r="X21" s="205"/>
       <c r="Y21" s="24"/>
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
@@ -5257,37 +5257,37 @@
       <c r="AZ21" s="1"/>
     </row>
     <row r="22" spans="1:52" ht="22.5" customHeight="1">
-      <c r="A22" s="239">
+      <c r="A22" s="241">
         <v>4</v>
       </c>
-      <c r="B22" s="204"/>
-      <c r="C22" s="245"/>
-      <c r="D22" s="204"/>
-      <c r="E22" s="244"/>
-      <c r="F22" s="231"/>
-      <c r="G22" s="204"/>
-      <c r="H22" s="248"/>
-      <c r="I22" s="231"/>
-      <c r="J22" s="231"/>
-      <c r="K22" s="231"/>
-      <c r="L22" s="247"/>
+      <c r="B22" s="193"/>
+      <c r="C22" s="302"/>
+      <c r="D22" s="193"/>
+      <c r="E22" s="303"/>
+      <c r="F22" s="230"/>
+      <c r="G22" s="193"/>
+      <c r="H22" s="299"/>
+      <c r="I22" s="230"/>
+      <c r="J22" s="230"/>
+      <c r="K22" s="230"/>
+      <c r="L22" s="205"/>
       <c r="M22" s="23">
         <v>4</v>
       </c>
-      <c r="N22" s="243">
+      <c r="N22" s="297">
         <f>C22</f>
         <v>0</v>
       </c>
-      <c r="O22" s="204"/>
-      <c r="P22" s="244"/>
-      <c r="Q22" s="231"/>
-      <c r="R22" s="204"/>
-      <c r="S22" s="246"/>
-      <c r="T22" s="231"/>
-      <c r="U22" s="231"/>
-      <c r="V22" s="231"/>
-      <c r="W22" s="231"/>
-      <c r="X22" s="247"/>
+      <c r="O22" s="193"/>
+      <c r="P22" s="303"/>
+      <c r="Q22" s="230"/>
+      <c r="R22" s="193"/>
+      <c r="S22" s="229"/>
+      <c r="T22" s="230"/>
+      <c r="U22" s="230"/>
+      <c r="V22" s="230"/>
+      <c r="W22" s="230"/>
+      <c r="X22" s="205"/>
       <c r="Y22" s="24"/>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
@@ -5318,37 +5318,37 @@
       <c r="AZ22" s="1"/>
     </row>
     <row r="23" spans="1:52" ht="22.5" customHeight="1">
-      <c r="A23" s="239">
+      <c r="A23" s="241">
         <v>5</v>
       </c>
-      <c r="B23" s="204"/>
-      <c r="C23" s="245"/>
-      <c r="D23" s="204"/>
-      <c r="E23" s="244"/>
-      <c r="F23" s="231"/>
-      <c r="G23" s="204"/>
-      <c r="H23" s="248"/>
-      <c r="I23" s="231"/>
-      <c r="J23" s="231"/>
-      <c r="K23" s="231"/>
-      <c r="L23" s="247"/>
+      <c r="B23" s="193"/>
+      <c r="C23" s="302"/>
+      <c r="D23" s="193"/>
+      <c r="E23" s="303"/>
+      <c r="F23" s="230"/>
+      <c r="G23" s="193"/>
+      <c r="H23" s="299"/>
+      <c r="I23" s="230"/>
+      <c r="J23" s="230"/>
+      <c r="K23" s="230"/>
+      <c r="L23" s="205"/>
       <c r="M23" s="23">
         <v>5</v>
       </c>
-      <c r="N23" s="243">
+      <c r="N23" s="297">
         <f>C23</f>
         <v>0</v>
       </c>
-      <c r="O23" s="204"/>
-      <c r="P23" s="244"/>
-      <c r="Q23" s="231"/>
-      <c r="R23" s="204"/>
-      <c r="S23" s="246"/>
-      <c r="T23" s="231"/>
-      <c r="U23" s="231"/>
-      <c r="V23" s="231"/>
-      <c r="W23" s="231"/>
-      <c r="X23" s="247"/>
+      <c r="O23" s="193"/>
+      <c r="P23" s="303"/>
+      <c r="Q23" s="230"/>
+      <c r="R23" s="193"/>
+      <c r="S23" s="229"/>
+      <c r="T23" s="230"/>
+      <c r="U23" s="230"/>
+      <c r="V23" s="230"/>
+      <c r="W23" s="230"/>
+      <c r="X23" s="205"/>
       <c r="Y23" s="24"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
@@ -5379,38 +5379,38 @@
       <c r="AZ23" s="1"/>
     </row>
     <row r="24" spans="1:52" ht="22.5" customHeight="1">
-      <c r="A24" s="251" t="s">
+      <c r="A24" s="211" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="209"/>
-      <c r="C24" s="209"/>
-      <c r="D24" s="199"/>
-      <c r="E24" s="208"/>
-      <c r="F24" s="209"/>
-      <c r="G24" s="199"/>
+      <c r="B24" s="212"/>
+      <c r="C24" s="212"/>
+      <c r="D24" s="213"/>
+      <c r="E24" s="301"/>
+      <c r="F24" s="212"/>
+      <c r="G24" s="213"/>
       <c r="H24" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="I24" s="249"/>
-      <c r="J24" s="209"/>
-      <c r="K24" s="209"/>
-      <c r="L24" s="250"/>
-      <c r="M24" s="251" t="s">
+      <c r="I24" s="300"/>
+      <c r="J24" s="212"/>
+      <c r="K24" s="212"/>
+      <c r="L24" s="207"/>
+      <c r="M24" s="211" t="s">
         <v>28</v>
       </c>
-      <c r="N24" s="209"/>
-      <c r="O24" s="199"/>
-      <c r="P24" s="208"/>
-      <c r="Q24" s="209"/>
-      <c r="R24" s="199"/>
+      <c r="N24" s="212"/>
+      <c r="O24" s="213"/>
+      <c r="P24" s="301"/>
+      <c r="Q24" s="212"/>
+      <c r="R24" s="213"/>
       <c r="S24" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="T24" s="298"/>
-      <c r="U24" s="209"/>
-      <c r="V24" s="209"/>
-      <c r="W24" s="209"/>
-      <c r="X24" s="250"/>
+      <c r="T24" s="231"/>
+      <c r="U24" s="212"/>
+      <c r="V24" s="212"/>
+      <c r="W24" s="212"/>
+      <c r="X24" s="207"/>
       <c r="Y24" s="27"/>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
@@ -5441,32 +5441,32 @@
       <c r="AZ24" s="1"/>
     </row>
     <row r="25" spans="1:52" ht="27" customHeight="1">
-      <c r="A25" s="210" t="s">
+      <c r="A25" s="312" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="211"/>
-      <c r="C25" s="211"/>
-      <c r="D25" s="211"/>
-      <c r="E25" s="211"/>
-      <c r="F25" s="211"/>
-      <c r="G25" s="211"/>
-      <c r="H25" s="211"/>
-      <c r="I25" s="211"/>
-      <c r="J25" s="211"/>
-      <c r="K25" s="211"/>
-      <c r="L25" s="211"/>
-      <c r="M25" s="211"/>
-      <c r="N25" s="211"/>
-      <c r="O25" s="211"/>
-      <c r="P25" s="211"/>
-      <c r="Q25" s="211"/>
-      <c r="R25" s="211"/>
-      <c r="S25" s="211"/>
-      <c r="T25" s="211"/>
-      <c r="U25" s="211"/>
-      <c r="V25" s="211"/>
-      <c r="W25" s="211"/>
-      <c r="X25" s="212"/>
+      <c r="B25" s="269"/>
+      <c r="C25" s="269"/>
+      <c r="D25" s="269"/>
+      <c r="E25" s="269"/>
+      <c r="F25" s="269"/>
+      <c r="G25" s="269"/>
+      <c r="H25" s="269"/>
+      <c r="I25" s="269"/>
+      <c r="J25" s="269"/>
+      <c r="K25" s="269"/>
+      <c r="L25" s="269"/>
+      <c r="M25" s="269"/>
+      <c r="N25" s="269"/>
+      <c r="O25" s="269"/>
+      <c r="P25" s="269"/>
+      <c r="Q25" s="269"/>
+      <c r="R25" s="269"/>
+      <c r="S25" s="269"/>
+      <c r="T25" s="269"/>
+      <c r="U25" s="269"/>
+      <c r="V25" s="269"/>
+      <c r="W25" s="269"/>
+      <c r="X25" s="218"/>
       <c r="Y25" s="14"/>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
@@ -5497,34 +5497,34 @@
       <c r="AZ25" s="1"/>
     </row>
     <row r="26" spans="1:52" ht="27" customHeight="1">
-      <c r="A26" s="213" t="s">
+      <c r="A26" s="313" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="214"/>
-      <c r="C26" s="214"/>
-      <c r="D26" s="214"/>
-      <c r="E26" s="214"/>
-      <c r="F26" s="214"/>
-      <c r="G26" s="214"/>
-      <c r="H26" s="214"/>
-      <c r="I26" s="214"/>
-      <c r="J26" s="214"/>
-      <c r="K26" s="214"/>
-      <c r="L26" s="215"/>
-      <c r="M26" s="216" t="s">
+      <c r="B26" s="272"/>
+      <c r="C26" s="272"/>
+      <c r="D26" s="272"/>
+      <c r="E26" s="272"/>
+      <c r="F26" s="272"/>
+      <c r="G26" s="272"/>
+      <c r="H26" s="272"/>
+      <c r="I26" s="272"/>
+      <c r="J26" s="272"/>
+      <c r="K26" s="272"/>
+      <c r="L26" s="278"/>
+      <c r="M26" s="314" t="s">
         <v>120</v>
       </c>
-      <c r="N26" s="211"/>
-      <c r="O26" s="211"/>
-      <c r="P26" s="211"/>
-      <c r="Q26" s="211"/>
-      <c r="R26" s="211"/>
-      <c r="S26" s="211"/>
-      <c r="T26" s="211"/>
-      <c r="U26" s="211"/>
-      <c r="V26" s="211"/>
-      <c r="W26" s="211"/>
-      <c r="X26" s="212"/>
+      <c r="N26" s="269"/>
+      <c r="O26" s="269"/>
+      <c r="P26" s="269"/>
+      <c r="Q26" s="269"/>
+      <c r="R26" s="269"/>
+      <c r="S26" s="269"/>
+      <c r="T26" s="269"/>
+      <c r="U26" s="269"/>
+      <c r="V26" s="269"/>
+      <c r="W26" s="269"/>
+      <c r="X26" s="218"/>
       <c r="Y26" s="14"/>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
@@ -5555,34 +5555,34 @@
       <c r="AZ26" s="1"/>
     </row>
     <row r="27" spans="1:52" ht="27" customHeight="1">
-      <c r="A27" s="217" t="s">
+      <c r="A27" s="289" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="197"/>
-      <c r="C27" s="197"/>
-      <c r="D27" s="197"/>
-      <c r="E27" s="197"/>
-      <c r="F27" s="197"/>
-      <c r="G27" s="194"/>
-      <c r="H27" s="218"/>
-      <c r="I27" s="197"/>
-      <c r="J27" s="197"/>
-      <c r="K27" s="197"/>
-      <c r="L27" s="219"/>
-      <c r="M27" s="220" t="s">
+      <c r="B27" s="226"/>
+      <c r="C27" s="226"/>
+      <c r="D27" s="226"/>
+      <c r="E27" s="226"/>
+      <c r="F27" s="226"/>
+      <c r="G27" s="197"/>
+      <c r="H27" s="315"/>
+      <c r="I27" s="226"/>
+      <c r="J27" s="226"/>
+      <c r="K27" s="226"/>
+      <c r="L27" s="228"/>
+      <c r="M27" s="316" t="s">
         <v>31</v>
       </c>
-      <c r="N27" s="221"/>
-      <c r="O27" s="221"/>
-      <c r="P27" s="221"/>
-      <c r="Q27" s="221"/>
-      <c r="R27" s="202"/>
-      <c r="S27" s="222"/>
-      <c r="T27" s="197"/>
-      <c r="U27" s="197"/>
-      <c r="V27" s="197"/>
-      <c r="W27" s="197"/>
-      <c r="X27" s="219"/>
+      <c r="N27" s="251"/>
+      <c r="O27" s="251"/>
+      <c r="P27" s="251"/>
+      <c r="Q27" s="251"/>
+      <c r="R27" s="199"/>
+      <c r="S27" s="317"/>
+      <c r="T27" s="226"/>
+      <c r="U27" s="226"/>
+      <c r="V27" s="226"/>
+      <c r="W27" s="226"/>
+      <c r="X27" s="228"/>
       <c r="Y27" s="24"/>
       <c r="Z27" s="8"/>
       <c r="AA27" s="8"/>
@@ -5613,36 +5613,36 @@
       <c r="AZ27" s="1"/>
     </row>
     <row r="28" spans="1:52" ht="27" customHeight="1">
-      <c r="A28" s="239" t="s">
+      <c r="A28" s="241" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="231"/>
-      <c r="C28" s="231"/>
-      <c r="D28" s="231"/>
-      <c r="E28" s="231"/>
-      <c r="F28" s="231"/>
-      <c r="G28" s="204"/>
-      <c r="H28" s="246"/>
-      <c r="I28" s="231"/>
-      <c r="J28" s="231"/>
-      <c r="K28" s="231"/>
-      <c r="L28" s="247"/>
-      <c r="M28" s="306" t="s">
+      <c r="B28" s="230"/>
+      <c r="C28" s="230"/>
+      <c r="D28" s="230"/>
+      <c r="E28" s="230"/>
+      <c r="F28" s="230"/>
+      <c r="G28" s="193"/>
+      <c r="H28" s="229"/>
+      <c r="I28" s="230"/>
+      <c r="J28" s="230"/>
+      <c r="K28" s="230"/>
+      <c r="L28" s="205"/>
+      <c r="M28" s="243" t="s">
         <v>33</v>
       </c>
-      <c r="N28" s="231"/>
-      <c r="O28" s="231"/>
+      <c r="N28" s="230"/>
+      <c r="O28" s="230"/>
       <c r="P28" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="Q28" s="307"/>
-      <c r="R28" s="247"/>
-      <c r="S28" s="305"/>
-      <c r="T28" s="231"/>
-      <c r="U28" s="231"/>
-      <c r="V28" s="231"/>
-      <c r="W28" s="231"/>
-      <c r="X28" s="247"/>
+      <c r="Q28" s="244"/>
+      <c r="R28" s="205"/>
+      <c r="S28" s="242"/>
+      <c r="T28" s="230"/>
+      <c r="U28" s="230"/>
+      <c r="V28" s="230"/>
+      <c r="W28" s="230"/>
+      <c r="X28" s="205"/>
       <c r="Y28" s="29"/>
       <c r="Z28" s="8"/>
       <c r="AA28" s="8"/>
@@ -5673,34 +5673,34 @@
       <c r="AZ28" s="1"/>
     </row>
     <row r="29" spans="1:52" ht="27" customHeight="1">
-      <c r="A29" s="239" t="s">
+      <c r="A29" s="241" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="231"/>
-      <c r="C29" s="231"/>
-      <c r="D29" s="231"/>
-      <c r="E29" s="231"/>
-      <c r="F29" s="231"/>
-      <c r="G29" s="204"/>
-      <c r="H29" s="246"/>
-      <c r="I29" s="231"/>
-      <c r="J29" s="231"/>
-      <c r="K29" s="231"/>
-      <c r="L29" s="247"/>
-      <c r="M29" s="239" t="s">
+      <c r="B29" s="230"/>
+      <c r="C29" s="230"/>
+      <c r="D29" s="230"/>
+      <c r="E29" s="230"/>
+      <c r="F29" s="230"/>
+      <c r="G29" s="193"/>
+      <c r="H29" s="229"/>
+      <c r="I29" s="230"/>
+      <c r="J29" s="230"/>
+      <c r="K29" s="230"/>
+      <c r="L29" s="205"/>
+      <c r="M29" s="241" t="s">
         <v>35</v>
       </c>
-      <c r="N29" s="231"/>
-      <c r="O29" s="231"/>
-      <c r="P29" s="231"/>
-      <c r="Q29" s="231"/>
-      <c r="R29" s="204"/>
-      <c r="S29" s="305"/>
-      <c r="T29" s="231"/>
-      <c r="U29" s="231"/>
-      <c r="V29" s="231"/>
-      <c r="W29" s="231"/>
-      <c r="X29" s="247"/>
+      <c r="N29" s="230"/>
+      <c r="O29" s="230"/>
+      <c r="P29" s="230"/>
+      <c r="Q29" s="230"/>
+      <c r="R29" s="193"/>
+      <c r="S29" s="242"/>
+      <c r="T29" s="230"/>
+      <c r="U29" s="230"/>
+      <c r="V29" s="230"/>
+      <c r="W29" s="230"/>
+      <c r="X29" s="205"/>
       <c r="Y29" s="30"/>
       <c r="Z29" s="8"/>
       <c r="AA29" s="8"/>
@@ -5731,34 +5731,34 @@
       <c r="AZ29" s="1"/>
     </row>
     <row r="30" spans="1:52" ht="27" customHeight="1">
-      <c r="A30" s="251" t="s">
+      <c r="A30" s="211" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="209"/>
-      <c r="C30" s="209"/>
-      <c r="D30" s="209"/>
-      <c r="E30" s="209"/>
-      <c r="F30" s="209"/>
-      <c r="G30" s="199"/>
-      <c r="H30" s="309"/>
-      <c r="I30" s="209"/>
-      <c r="J30" s="209"/>
-      <c r="K30" s="209"/>
-      <c r="L30" s="250"/>
-      <c r="M30" s="264" t="s">
+      <c r="B30" s="212"/>
+      <c r="C30" s="212"/>
+      <c r="D30" s="212"/>
+      <c r="E30" s="212"/>
+      <c r="F30" s="212"/>
+      <c r="G30" s="213"/>
+      <c r="H30" s="214"/>
+      <c r="I30" s="212"/>
+      <c r="J30" s="212"/>
+      <c r="K30" s="212"/>
+      <c r="L30" s="207"/>
+      <c r="M30" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="N30" s="209"/>
-      <c r="O30" s="209"/>
-      <c r="P30" s="209"/>
-      <c r="Q30" s="209"/>
-      <c r="R30" s="209"/>
-      <c r="S30" s="310"/>
-      <c r="T30" s="209"/>
-      <c r="U30" s="209"/>
-      <c r="V30" s="209"/>
-      <c r="W30" s="209"/>
-      <c r="X30" s="250"/>
+      <c r="N30" s="212"/>
+      <c r="O30" s="212"/>
+      <c r="P30" s="212"/>
+      <c r="Q30" s="212"/>
+      <c r="R30" s="212"/>
+      <c r="S30" s="216"/>
+      <c r="T30" s="212"/>
+      <c r="U30" s="212"/>
+      <c r="V30" s="212"/>
+      <c r="W30" s="212"/>
+      <c r="X30" s="207"/>
       <c r="Y30" s="30"/>
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
@@ -5812,10 +5812,10 @@
       <c r="S31" s="32"/>
       <c r="T31" s="32"/>
       <c r="U31" s="33"/>
-      <c r="V31" s="311" t="s">
+      <c r="V31" s="217" t="s">
         <v>39</v>
       </c>
-      <c r="W31" s="212"/>
+      <c r="W31" s="218"/>
       <c r="X31" s="19"/>
       <c r="Y31" s="34"/>
       <c r="Z31" s="8"/>
@@ -5847,38 +5847,38 @@
       <c r="AZ31" s="1"/>
     </row>
     <row r="32" spans="1:52" ht="16.5" customHeight="1">
-      <c r="A32" s="312" t="s">
+      <c r="A32" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="238"/>
-      <c r="C32" s="238"/>
-      <c r="D32" s="238"/>
-      <c r="E32" s="313" t="s">
+      <c r="B32" s="220"/>
+      <c r="C32" s="220"/>
+      <c r="D32" s="220"/>
+      <c r="E32" s="221" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="238"/>
-      <c r="G32" s="238"/>
-      <c r="H32" s="238"/>
-      <c r="I32" s="238"/>
-      <c r="J32" s="238"/>
-      <c r="K32" s="238"/>
-      <c r="L32" s="269"/>
-      <c r="M32" s="313" t="s">
+      <c r="F32" s="220"/>
+      <c r="G32" s="220"/>
+      <c r="H32" s="220"/>
+      <c r="I32" s="220"/>
+      <c r="J32" s="220"/>
+      <c r="K32" s="220"/>
+      <c r="L32" s="202"/>
+      <c r="M32" s="221" t="s">
         <v>42</v>
       </c>
-      <c r="N32" s="238"/>
-      <c r="O32" s="238"/>
-      <c r="P32" s="238"/>
-      <c r="Q32" s="238"/>
-      <c r="R32" s="225"/>
-      <c r="S32" s="314" t="s">
+      <c r="N32" s="220"/>
+      <c r="O32" s="220"/>
+      <c r="P32" s="220"/>
+      <c r="Q32" s="220"/>
+      <c r="R32" s="222"/>
+      <c r="S32" s="223" t="s">
         <v>43</v>
       </c>
-      <c r="T32" s="266"/>
-      <c r="U32" s="266"/>
-      <c r="V32" s="266"/>
-      <c r="W32" s="266"/>
-      <c r="X32" s="276"/>
+      <c r="T32" s="209"/>
+      <c r="U32" s="209"/>
+      <c r="V32" s="209"/>
+      <c r="W32" s="209"/>
+      <c r="X32" s="210"/>
       <c r="Y32" s="14"/>
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
@@ -5909,32 +5909,32 @@
       <c r="AZ32" s="1"/>
     </row>
     <row r="33" spans="1:52" ht="67.5" customHeight="1">
-      <c r="A33" s="240"/>
-      <c r="B33" s="211"/>
-      <c r="C33" s="211"/>
-      <c r="D33" s="212"/>
-      <c r="E33" s="240"/>
-      <c r="F33" s="211"/>
-      <c r="G33" s="211"/>
-      <c r="H33" s="211"/>
-      <c r="I33" s="211"/>
-      <c r="J33" s="211"/>
-      <c r="K33" s="211"/>
-      <c r="L33" s="212"/>
-      <c r="M33" s="291"/>
-      <c r="N33" s="211"/>
-      <c r="O33" s="211"/>
-      <c r="P33" s="211"/>
-      <c r="Q33" s="211"/>
-      <c r="R33" s="212"/>
-      <c r="S33" s="291" t="s">
+      <c r="A33" s="268"/>
+      <c r="B33" s="269"/>
+      <c r="C33" s="269"/>
+      <c r="D33" s="218"/>
+      <c r="E33" s="268"/>
+      <c r="F33" s="269"/>
+      <c r="G33" s="269"/>
+      <c r="H33" s="269"/>
+      <c r="I33" s="269"/>
+      <c r="J33" s="269"/>
+      <c r="K33" s="269"/>
+      <c r="L33" s="218"/>
+      <c r="M33" s="270"/>
+      <c r="N33" s="269"/>
+      <c r="O33" s="269"/>
+      <c r="P33" s="269"/>
+      <c r="Q33" s="269"/>
+      <c r="R33" s="218"/>
+      <c r="S33" s="270" t="s">
         <v>44</v>
       </c>
-      <c r="T33" s="211"/>
-      <c r="U33" s="211"/>
-      <c r="V33" s="211"/>
-      <c r="W33" s="211"/>
-      <c r="X33" s="212"/>
+      <c r="T33" s="269"/>
+      <c r="U33" s="269"/>
+      <c r="V33" s="269"/>
+      <c r="W33" s="269"/>
+      <c r="X33" s="218"/>
       <c r="Y33" s="35"/>
       <c r="Z33" s="36"/>
       <c r="AA33" s="36"/>
@@ -5996,34 +5996,34 @@
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
-      <c r="AF34" s="308" t="s">
+      <c r="AF34" s="208" t="s">
         <v>45</v>
       </c>
-      <c r="AG34" s="266"/>
-      <c r="AH34" s="266"/>
-      <c r="AI34" s="266"/>
-      <c r="AJ34" s="276"/>
-      <c r="AK34" s="308" t="s">
+      <c r="AG34" s="209"/>
+      <c r="AH34" s="209"/>
+      <c r="AI34" s="209"/>
+      <c r="AJ34" s="210"/>
+      <c r="AK34" s="208" t="s">
         <v>46</v>
       </c>
-      <c r="AL34" s="266"/>
-      <c r="AM34" s="266"/>
-      <c r="AN34" s="266"/>
-      <c r="AO34" s="276"/>
-      <c r="AP34" s="308" t="s">
+      <c r="AL34" s="209"/>
+      <c r="AM34" s="209"/>
+      <c r="AN34" s="209"/>
+      <c r="AO34" s="210"/>
+      <c r="AP34" s="208" t="s">
         <v>47</v>
       </c>
-      <c r="AQ34" s="266"/>
-      <c r="AR34" s="266"/>
-      <c r="AS34" s="266"/>
-      <c r="AT34" s="276"/>
-      <c r="AU34" s="308" t="s">
+      <c r="AQ34" s="209"/>
+      <c r="AR34" s="209"/>
+      <c r="AS34" s="209"/>
+      <c r="AT34" s="210"/>
+      <c r="AU34" s="208" t="s">
         <v>48</v>
       </c>
-      <c r="AV34" s="266"/>
-      <c r="AW34" s="266"/>
-      <c r="AX34" s="266"/>
-      <c r="AY34" s="276"/>
+      <c r="AV34" s="209"/>
+      <c r="AW34" s="209"/>
+      <c r="AX34" s="209"/>
+      <c r="AY34" s="210"/>
       <c r="AZ34" s="1"/>
     </row>
     <row r="35" spans="1:52" ht="38.25" customHeight="1">
@@ -6057,7 +6057,7 @@
       <c r="J35" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="K35" s="192" t="s">
+      <c r="K35" s="191" t="s">
         <v>122</v>
       </c>
       <c r="L35" s="44" t="s">
@@ -6078,10 +6078,10 @@
       <c r="Q35" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="R35" s="316" t="s">
+      <c r="R35" s="194" t="s">
         <v>63</v>
       </c>
-      <c r="S35" s="267"/>
+      <c r="S35" s="195"/>
       <c r="T35" s="45" t="s">
         <v>64</v>
       </c>
@@ -6094,10 +6094,10 @@
       <c r="W35" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="X35" s="187" t="s">
+      <c r="X35" s="186" t="s">
         <v>68</v>
       </c>
-      <c r="Y35" s="188" t="s">
+      <c r="Y35" s="187" t="s">
         <v>69</v>
       </c>
       <c r="Z35" s="50" t="s">
@@ -6232,10 +6232,10 @@
       <c r="Q36" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="R36" s="317" t="s">
+      <c r="R36" s="196" t="s">
         <v>82</v>
       </c>
-      <c r="S36" s="194"/>
+      <c r="S36" s="197"/>
       <c r="T36" s="60" t="s">
         <v>83</v>
       </c>
@@ -6294,40 +6294,40 @@
       <c r="K37" s="76"/>
       <c r="L37" s="77"/>
       <c r="M37" s="72"/>
-      <c r="N37" s="78"/>
-      <c r="O37" s="79"/>
-      <c r="P37" s="79"/>
-      <c r="Q37" s="80"/>
-      <c r="R37" s="223"/>
-      <c r="S37" s="202"/>
-      <c r="T37" s="81"/>
+      <c r="N37" s="75"/>
+      <c r="O37" s="322"/>
+      <c r="P37" s="78"/>
+      <c r="Q37" s="79"/>
+      <c r="R37" s="198"/>
+      <c r="S37" s="199"/>
+      <c r="T37" s="80"/>
       <c r="U37" s="74"/>
       <c r="V37" s="74"/>
       <c r="W37" s="74"/>
-      <c r="X37" s="82"/>
-      <c r="Y37" s="83"/>
-      <c r="Z37" s="84"/>
-      <c r="AA37" s="84"/>
-      <c r="AB37" s="84"/>
-      <c r="AC37" s="84"/>
-      <c r="AD37" s="85"/>
+      <c r="X37" s="81"/>
+      <c r="Y37" s="82"/>
+      <c r="Z37" s="83"/>
+      <c r="AA37" s="83"/>
+      <c r="AB37" s="83"/>
+      <c r="AC37" s="83"/>
+      <c r="AD37" s="84"/>
       <c r="AE37" s="62"/>
-      <c r="AF37" s="86"/>
-      <c r="AG37" s="87"/>
+      <c r="AF37" s="85"/>
+      <c r="AG37" s="86"/>
       <c r="AH37" s="62"/>
       <c r="AI37" s="62"/>
       <c r="AJ37" s="64"/>
-      <c r="AK37" s="88"/>
+      <c r="AK37" s="87"/>
       <c r="AL37" s="62"/>
       <c r="AM37" s="62"/>
       <c r="AN37" s="62"/>
       <c r="AO37" s="64"/>
-      <c r="AP37" s="88"/>
+      <c r="AP37" s="87"/>
       <c r="AQ37" s="62"/>
       <c r="AR37" s="62"/>
       <c r="AS37" s="62"/>
       <c r="AT37" s="64"/>
-      <c r="AU37" s="88"/>
+      <c r="AU37" s="87"/>
       <c r="AV37" s="62"/>
       <c r="AW37" s="62"/>
       <c r="AX37" s="62"/>
@@ -6348,40 +6348,40 @@
       <c r="K38" s="76"/>
       <c r="L38" s="77"/>
       <c r="M38" s="72"/>
-      <c r="N38" s="78"/>
-      <c r="O38" s="79"/>
-      <c r="P38" s="79"/>
-      <c r="Q38" s="80"/>
-      <c r="R38" s="223"/>
-      <c r="S38" s="202"/>
-      <c r="T38" s="81"/>
+      <c r="N38" s="75"/>
+      <c r="O38" s="322"/>
+      <c r="P38" s="78"/>
+      <c r="Q38" s="79"/>
+      <c r="R38" s="198"/>
+      <c r="S38" s="199"/>
+      <c r="T38" s="80"/>
       <c r="U38" s="74"/>
       <c r="V38" s="74"/>
       <c r="W38" s="74"/>
-      <c r="X38" s="82"/>
-      <c r="Y38" s="83"/>
-      <c r="Z38" s="84"/>
-      <c r="AA38" s="84"/>
-      <c r="AB38" s="84"/>
-      <c r="AC38" s="84"/>
-      <c r="AD38" s="85"/>
+      <c r="X38" s="81"/>
+      <c r="Y38" s="82"/>
+      <c r="Z38" s="83"/>
+      <c r="AA38" s="83"/>
+      <c r="AB38" s="83"/>
+      <c r="AC38" s="83"/>
+      <c r="AD38" s="84"/>
       <c r="AE38" s="62"/>
-      <c r="AF38" s="86"/>
-      <c r="AG38" s="87"/>
+      <c r="AF38" s="85"/>
+      <c r="AG38" s="86"/>
       <c r="AH38" s="62"/>
       <c r="AI38" s="62"/>
       <c r="AJ38" s="64"/>
-      <c r="AK38" s="88"/>
+      <c r="AK38" s="87"/>
       <c r="AL38" s="62"/>
       <c r="AM38" s="62"/>
       <c r="AN38" s="62"/>
       <c r="AO38" s="64"/>
-      <c r="AP38" s="88"/>
+      <c r="AP38" s="87"/>
       <c r="AQ38" s="62"/>
       <c r="AR38" s="62"/>
       <c r="AS38" s="62"/>
       <c r="AT38" s="64"/>
-      <c r="AU38" s="88"/>
+      <c r="AU38" s="87"/>
       <c r="AV38" s="62"/>
       <c r="AW38" s="62"/>
       <c r="AX38" s="62"/>
@@ -6402,40 +6402,40 @@
       <c r="K39" s="76"/>
       <c r="L39" s="77"/>
       <c r="M39" s="72"/>
-      <c r="N39" s="78"/>
-      <c r="O39" s="79"/>
-      <c r="P39" s="79"/>
-      <c r="Q39" s="80"/>
-      <c r="R39" s="223"/>
-      <c r="S39" s="202"/>
-      <c r="T39" s="81"/>
+      <c r="N39" s="75"/>
+      <c r="O39" s="322"/>
+      <c r="P39" s="78"/>
+      <c r="Q39" s="79"/>
+      <c r="R39" s="198"/>
+      <c r="S39" s="199"/>
+      <c r="T39" s="80"/>
       <c r="U39" s="74"/>
       <c r="V39" s="74"/>
       <c r="W39" s="74"/>
-      <c r="X39" s="82"/>
-      <c r="Y39" s="83"/>
-      <c r="Z39" s="84"/>
-      <c r="AA39" s="84"/>
-      <c r="AB39" s="84"/>
-      <c r="AC39" s="84"/>
-      <c r="AD39" s="85"/>
+      <c r="X39" s="81"/>
+      <c r="Y39" s="82"/>
+      <c r="Z39" s="83"/>
+      <c r="AA39" s="83"/>
+      <c r="AB39" s="83"/>
+      <c r="AC39" s="83"/>
+      <c r="AD39" s="84"/>
       <c r="AE39" s="62"/>
-      <c r="AF39" s="86"/>
-      <c r="AG39" s="87"/>
+      <c r="AF39" s="85"/>
+      <c r="AG39" s="86"/>
       <c r="AH39" s="62"/>
       <c r="AI39" s="62"/>
       <c r="AJ39" s="64"/>
-      <c r="AK39" s="88"/>
+      <c r="AK39" s="87"/>
       <c r="AL39" s="62"/>
       <c r="AM39" s="62"/>
       <c r="AN39" s="62"/>
       <c r="AO39" s="64"/>
-      <c r="AP39" s="88"/>
+      <c r="AP39" s="87"/>
       <c r="AQ39" s="62"/>
       <c r="AR39" s="62"/>
       <c r="AS39" s="62"/>
       <c r="AT39" s="64"/>
-      <c r="AU39" s="88"/>
+      <c r="AU39" s="87"/>
       <c r="AV39" s="62"/>
       <c r="AW39" s="62"/>
       <c r="AX39" s="62"/>
@@ -6456,40 +6456,40 @@
       <c r="K40" s="76"/>
       <c r="L40" s="77"/>
       <c r="M40" s="72"/>
-      <c r="N40" s="78"/>
-      <c r="O40" s="79"/>
-      <c r="P40" s="79"/>
-      <c r="Q40" s="80"/>
-      <c r="R40" s="223"/>
-      <c r="S40" s="202"/>
-      <c r="T40" s="81"/>
+      <c r="N40" s="75"/>
+      <c r="O40" s="322"/>
+      <c r="P40" s="78"/>
+      <c r="Q40" s="79"/>
+      <c r="R40" s="198"/>
+      <c r="S40" s="199"/>
+      <c r="T40" s="80"/>
       <c r="U40" s="74"/>
       <c r="V40" s="74"/>
       <c r="W40" s="74"/>
-      <c r="X40" s="82"/>
-      <c r="Y40" s="83"/>
-      <c r="Z40" s="84"/>
-      <c r="AA40" s="84"/>
-      <c r="AB40" s="84"/>
-      <c r="AC40" s="84"/>
-      <c r="AD40" s="85"/>
+      <c r="X40" s="81"/>
+      <c r="Y40" s="82"/>
+      <c r="Z40" s="83"/>
+      <c r="AA40" s="83"/>
+      <c r="AB40" s="83"/>
+      <c r="AC40" s="83"/>
+      <c r="AD40" s="84"/>
       <c r="AE40" s="62"/>
-      <c r="AF40" s="86"/>
-      <c r="AG40" s="87"/>
+      <c r="AF40" s="85"/>
+      <c r="AG40" s="86"/>
       <c r="AH40" s="62"/>
       <c r="AI40" s="62"/>
       <c r="AJ40" s="64"/>
-      <c r="AK40" s="88"/>
+      <c r="AK40" s="87"/>
       <c r="AL40" s="62"/>
       <c r="AM40" s="62"/>
       <c r="AN40" s="62"/>
       <c r="AO40" s="64"/>
-      <c r="AP40" s="88"/>
+      <c r="AP40" s="87"/>
       <c r="AQ40" s="62"/>
       <c r="AR40" s="62"/>
       <c r="AS40" s="62"/>
       <c r="AT40" s="64"/>
-      <c r="AU40" s="88"/>
+      <c r="AU40" s="87"/>
       <c r="AV40" s="62"/>
       <c r="AW40" s="62"/>
       <c r="AX40" s="62"/>
@@ -6497,39 +6497,39 @@
       <c r="AZ40" s="67"/>
     </row>
     <row r="41" spans="1:52" ht="18" customHeight="1">
-      <c r="A41" s="89"/>
-      <c r="B41" s="89"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="83"/>
-      <c r="J41" s="90"/>
-      <c r="K41" s="90"/>
-      <c r="L41" s="89"/>
-      <c r="M41" s="89"/>
-      <c r="N41" s="91"/>
-      <c r="O41" s="90"/>
-      <c r="P41" s="90"/>
-      <c r="Q41" s="90"/>
-      <c r="R41" s="90"/>
-      <c r="S41" s="90"/>
-      <c r="T41" s="90"/>
-      <c r="U41" s="83"/>
-      <c r="V41" s="83"/>
-      <c r="W41" s="83"/>
-      <c r="X41" s="83"/>
-      <c r="Y41" s="83"/>
-      <c r="Z41" s="84"/>
-      <c r="AA41" s="84"/>
-      <c r="AB41" s="84"/>
-      <c r="AC41" s="84"/>
-      <c r="AD41" s="85"/>
+      <c r="A41" s="88"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="82"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="88"/>
+      <c r="M41" s="88"/>
+      <c r="N41" s="89"/>
+      <c r="O41" s="89"/>
+      <c r="P41" s="89"/>
+      <c r="Q41" s="89"/>
+      <c r="R41" s="89"/>
+      <c r="S41" s="89"/>
+      <c r="T41" s="89"/>
+      <c r="U41" s="82"/>
+      <c r="V41" s="82"/>
+      <c r="W41" s="82"/>
+      <c r="X41" s="82"/>
+      <c r="Y41" s="82"/>
+      <c r="Z41" s="83"/>
+      <c r="AA41" s="83"/>
+      <c r="AB41" s="83"/>
+      <c r="AC41" s="83"/>
+      <c r="AD41" s="84"/>
       <c r="AE41" s="62"/>
-      <c r="AF41" s="86"/>
-      <c r="AG41" s="87"/>
+      <c r="AF41" s="85"/>
+      <c r="AG41" s="86"/>
       <c r="AH41" s="62"/>
       <c r="AI41" s="62"/>
       <c r="AJ41" s="62"/>
@@ -6543,474 +6543,474 @@
       <c r="AR41" s="62"/>
       <c r="AS41" s="62"/>
       <c r="AT41" s="62"/>
-      <c r="AU41" s="92"/>
-      <c r="AV41" s="93"/>
-      <c r="AW41" s="93"/>
-      <c r="AX41" s="93"/>
-      <c r="AY41" s="94"/>
+      <c r="AU41" s="91"/>
+      <c r="AV41" s="92"/>
+      <c r="AW41" s="92"/>
+      <c r="AX41" s="92"/>
+      <c r="AY41" s="93"/>
       <c r="AZ41" s="67"/>
     </row>
     <row r="42" spans="1:52" ht="21" customHeight="1">
-      <c r="A42" s="224" t="s">
+      <c r="A42" s="318" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="225"/>
-      <c r="C42" s="225"/>
-      <c r="D42" s="225"/>
-      <c r="E42" s="225"/>
-      <c r="F42" s="225"/>
-      <c r="G42" s="225"/>
-      <c r="H42" s="225"/>
-      <c r="I42" s="225"/>
-      <c r="J42" s="225"/>
-      <c r="K42" s="225"/>
-      <c r="L42" s="225"/>
-      <c r="M42" s="225"/>
-      <c r="N42" s="225"/>
-      <c r="O42" s="225"/>
-      <c r="P42" s="225"/>
-      <c r="Q42" s="225"/>
-      <c r="R42" s="225"/>
-      <c r="S42" s="225"/>
-      <c r="T42" s="225"/>
-      <c r="U42" s="225"/>
-      <c r="V42" s="225"/>
-      <c r="W42" s="225"/>
-      <c r="X42" s="225"/>
-      <c r="Y42" s="95"/>
-      <c r="Z42" s="96"/>
-      <c r="AA42" s="96"/>
-      <c r="AB42" s="96"/>
-      <c r="AC42" s="97"/>
-      <c r="AD42" s="98"/>
-      <c r="AE42" s="96"/>
-      <c r="AF42" s="189"/>
-      <c r="AG42" s="189"/>
-      <c r="AH42" s="189"/>
-      <c r="AI42" s="189"/>
-      <c r="AJ42" s="189"/>
-      <c r="AK42" s="190"/>
-      <c r="AL42" s="190"/>
-      <c r="AM42" s="190"/>
-      <c r="AN42" s="190"/>
-      <c r="AO42" s="190"/>
-      <c r="AP42" s="190"/>
-      <c r="AQ42" s="190"/>
-      <c r="AR42" s="190"/>
-      <c r="AS42" s="190"/>
-      <c r="AT42" s="190"/>
-      <c r="AU42" s="191"/>
-      <c r="AV42" s="191"/>
-      <c r="AW42" s="191"/>
-      <c r="AX42" s="191"/>
-      <c r="AY42" s="99"/>
-      <c r="AZ42" s="100" t="s">
+      <c r="B42" s="222"/>
+      <c r="C42" s="222"/>
+      <c r="D42" s="222"/>
+      <c r="E42" s="222"/>
+      <c r="F42" s="222"/>
+      <c r="G42" s="222"/>
+      <c r="H42" s="222"/>
+      <c r="I42" s="222"/>
+      <c r="J42" s="222"/>
+      <c r="K42" s="222"/>
+      <c r="L42" s="222"/>
+      <c r="M42" s="222"/>
+      <c r="N42" s="222"/>
+      <c r="O42" s="222"/>
+      <c r="P42" s="222"/>
+      <c r="Q42" s="222"/>
+      <c r="R42" s="222"/>
+      <c r="S42" s="222"/>
+      <c r="T42" s="222"/>
+      <c r="U42" s="222"/>
+      <c r="V42" s="222"/>
+      <c r="W42" s="222"/>
+      <c r="X42" s="222"/>
+      <c r="Y42" s="94"/>
+      <c r="Z42" s="95"/>
+      <c r="AA42" s="95"/>
+      <c r="AB42" s="95"/>
+      <c r="AC42" s="96"/>
+      <c r="AD42" s="97"/>
+      <c r="AE42" s="95"/>
+      <c r="AF42" s="188"/>
+      <c r="AG42" s="188"/>
+      <c r="AH42" s="188"/>
+      <c r="AI42" s="188"/>
+      <c r="AJ42" s="188"/>
+      <c r="AK42" s="189"/>
+      <c r="AL42" s="189"/>
+      <c r="AM42" s="189"/>
+      <c r="AN42" s="189"/>
+      <c r="AO42" s="189"/>
+      <c r="AP42" s="189"/>
+      <c r="AQ42" s="189"/>
+      <c r="AR42" s="189"/>
+      <c r="AS42" s="189"/>
+      <c r="AT42" s="189"/>
+      <c r="AU42" s="190"/>
+      <c r="AV42" s="190"/>
+      <c r="AW42" s="190"/>
+      <c r="AX42" s="190"/>
+      <c r="AY42" s="98"/>
+      <c r="AZ42" s="99" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:52" ht="21" customHeight="1">
-      <c r="A43" s="226" t="s">
+      <c r="A43" s="319" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="225"/>
-      <c r="C43" s="225"/>
-      <c r="D43" s="225"/>
-      <c r="E43" s="225"/>
-      <c r="F43" s="225"/>
-      <c r="G43" s="225"/>
-      <c r="H43" s="225"/>
-      <c r="I43" s="225"/>
-      <c r="J43" s="225"/>
-      <c r="K43" s="225"/>
-      <c r="L43" s="225"/>
-      <c r="M43" s="225"/>
-      <c r="N43" s="225"/>
-      <c r="O43" s="225"/>
-      <c r="P43" s="225"/>
-      <c r="Q43" s="225"/>
-      <c r="R43" s="225"/>
-      <c r="S43" s="225"/>
-      <c r="T43" s="225"/>
-      <c r="U43" s="225"/>
-      <c r="V43" s="225"/>
-      <c r="W43" s="225"/>
-      <c r="X43" s="225"/>
-      <c r="Y43" s="101"/>
-      <c r="Z43" s="96"/>
-      <c r="AA43" s="96"/>
-      <c r="AB43" s="96"/>
-      <c r="AC43" s="97"/>
-      <c r="AD43" s="98"/>
-      <c r="AE43" s="96"/>
-      <c r="AF43" s="96"/>
-      <c r="AG43" s="98"/>
-      <c r="AH43" s="98"/>
-      <c r="AI43" s="98"/>
-      <c r="AJ43" s="98"/>
-      <c r="AK43" s="98"/>
-      <c r="AL43" s="98"/>
-      <c r="AM43" s="98"/>
-      <c r="AN43" s="98"/>
-      <c r="AO43" s="98"/>
-      <c r="AP43" s="98"/>
-      <c r="AQ43" s="98"/>
-      <c r="AR43" s="98"/>
-      <c r="AS43" s="98"/>
-      <c r="AT43" s="98"/>
-      <c r="AU43" s="98"/>
-      <c r="AV43" s="98"/>
-      <c r="AW43" s="102"/>
-      <c r="AX43" s="102"/>
-      <c r="AY43" s="102"/>
-      <c r="AZ43" s="100"/>
+      <c r="B43" s="222"/>
+      <c r="C43" s="222"/>
+      <c r="D43" s="222"/>
+      <c r="E43" s="222"/>
+      <c r="F43" s="222"/>
+      <c r="G43" s="222"/>
+      <c r="H43" s="222"/>
+      <c r="I43" s="222"/>
+      <c r="J43" s="222"/>
+      <c r="K43" s="222"/>
+      <c r="L43" s="222"/>
+      <c r="M43" s="222"/>
+      <c r="N43" s="222"/>
+      <c r="O43" s="222"/>
+      <c r="P43" s="222"/>
+      <c r="Q43" s="222"/>
+      <c r="R43" s="222"/>
+      <c r="S43" s="222"/>
+      <c r="T43" s="222"/>
+      <c r="U43" s="222"/>
+      <c r="V43" s="222"/>
+      <c r="W43" s="222"/>
+      <c r="X43" s="222"/>
+      <c r="Y43" s="100"/>
+      <c r="Z43" s="95"/>
+      <c r="AA43" s="95"/>
+      <c r="AB43" s="95"/>
+      <c r="AC43" s="96"/>
+      <c r="AD43" s="97"/>
+      <c r="AE43" s="95"/>
+      <c r="AF43" s="95"/>
+      <c r="AG43" s="97"/>
+      <c r="AH43" s="97"/>
+      <c r="AI43" s="97"/>
+      <c r="AJ43" s="97"/>
+      <c r="AK43" s="97"/>
+      <c r="AL43" s="97"/>
+      <c r="AM43" s="97"/>
+      <c r="AN43" s="97"/>
+      <c r="AO43" s="97"/>
+      <c r="AP43" s="97"/>
+      <c r="AQ43" s="97"/>
+      <c r="AR43" s="97"/>
+      <c r="AS43" s="97"/>
+      <c r="AT43" s="97"/>
+      <c r="AU43" s="97"/>
+      <c r="AV43" s="97"/>
+      <c r="AW43" s="101"/>
+      <c r="AX43" s="101"/>
+      <c r="AY43" s="101"/>
+      <c r="AZ43" s="99"/>
     </row>
     <row r="44" spans="1:52" ht="21" customHeight="1">
-      <c r="A44" s="103"/>
-      <c r="B44" s="104"/>
-      <c r="C44" s="104"/>
-      <c r="D44" s="104"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="106"/>
-      <c r="I44" s="91"/>
-      <c r="J44" s="107"/>
-      <c r="K44" s="108"/>
-      <c r="L44" s="89"/>
-      <c r="M44" s="91"/>
-      <c r="N44" s="109"/>
-      <c r="O44" s="110"/>
-      <c r="P44" s="111"/>
-      <c r="Q44" s="112"/>
-      <c r="R44" s="113"/>
-      <c r="S44" s="114"/>
-      <c r="T44" s="115"/>
-      <c r="U44" s="115"/>
-      <c r="V44" s="115"/>
-      <c r="W44" s="115"/>
-      <c r="X44" s="116"/>
-      <c r="Y44" s="116"/>
-      <c r="Z44" s="116"/>
-      <c r="AA44" s="116"/>
-      <c r="AB44" s="116"/>
-      <c r="AC44" s="117"/>
-      <c r="AD44" s="118"/>
-      <c r="AE44" s="116"/>
-      <c r="AF44" s="116"/>
-      <c r="AG44" s="118"/>
-      <c r="AH44" s="118"/>
-      <c r="AI44" s="118"/>
-      <c r="AJ44" s="118"/>
-      <c r="AK44" s="118"/>
-      <c r="AL44" s="118"/>
-      <c r="AM44" s="118"/>
-      <c r="AN44" s="118"/>
-      <c r="AO44" s="118"/>
-      <c r="AP44" s="118"/>
-      <c r="AQ44" s="118"/>
-      <c r="AR44" s="118"/>
-      <c r="AS44" s="118"/>
-      <c r="AT44" s="118"/>
-      <c r="AU44" s="118"/>
-      <c r="AV44" s="118"/>
-      <c r="AW44" s="100"/>
-      <c r="AX44" s="100"/>
-      <c r="AY44" s="100"/>
-      <c r="AZ44" s="100"/>
+      <c r="A44" s="102"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="90"/>
+      <c r="J44" s="106"/>
+      <c r="K44" s="107"/>
+      <c r="L44" s="88"/>
+      <c r="M44" s="90"/>
+      <c r="N44" s="108"/>
+      <c r="O44" s="109"/>
+      <c r="P44" s="110"/>
+      <c r="Q44" s="111"/>
+      <c r="R44" s="112"/>
+      <c r="S44" s="113"/>
+      <c r="T44" s="114"/>
+      <c r="U44" s="114"/>
+      <c r="V44" s="114"/>
+      <c r="W44" s="114"/>
+      <c r="X44" s="115"/>
+      <c r="Y44" s="115"/>
+      <c r="Z44" s="115"/>
+      <c r="AA44" s="115"/>
+      <c r="AB44" s="115"/>
+      <c r="AC44" s="116"/>
+      <c r="AD44" s="117"/>
+      <c r="AE44" s="115"/>
+      <c r="AF44" s="115"/>
+      <c r="AG44" s="117"/>
+      <c r="AH44" s="117"/>
+      <c r="AI44" s="117"/>
+      <c r="AJ44" s="117"/>
+      <c r="AK44" s="117"/>
+      <c r="AL44" s="117"/>
+      <c r="AM44" s="117"/>
+      <c r="AN44" s="117"/>
+      <c r="AO44" s="117"/>
+      <c r="AP44" s="117"/>
+      <c r="AQ44" s="117"/>
+      <c r="AR44" s="117"/>
+      <c r="AS44" s="117"/>
+      <c r="AT44" s="117"/>
+      <c r="AU44" s="117"/>
+      <c r="AV44" s="117"/>
+      <c r="AW44" s="99"/>
+      <c r="AX44" s="99"/>
+      <c r="AY44" s="99"/>
+      <c r="AZ44" s="99"/>
     </row>
     <row r="45" spans="1:52" ht="15.75" customHeight="1">
-      <c r="A45" s="102"/>
-      <c r="B45" s="100"/>
-      <c r="C45" s="119"/>
-      <c r="D45" s="119"/>
-      <c r="E45" s="120"/>
-      <c r="F45" s="120"/>
+      <c r="A45" s="101"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="119"/>
+      <c r="F45" s="119"/>
       <c r="G45" s="65"/>
       <c r="H45" s="65"/>
-      <c r="I45" s="121"/>
+      <c r="I45" s="120"/>
       <c r="J45" s="65"/>
       <c r="K45" s="65"/>
-      <c r="L45" s="122"/>
-      <c r="M45" s="100"/>
-      <c r="N45" s="100"/>
-      <c r="O45" s="123"/>
-      <c r="P45" s="100"/>
-      <c r="Q45" s="124"/>
-      <c r="R45" s="125" t="s">
+      <c r="L45" s="121"/>
+      <c r="M45" s="99"/>
+      <c r="N45" s="99"/>
+      <c r="O45" s="122"/>
+      <c r="P45" s="99"/>
+      <c r="Q45" s="123"/>
+      <c r="R45" s="124" t="s">
         <v>82</v>
       </c>
-      <c r="S45" s="227"/>
-      <c r="T45" s="219"/>
-      <c r="U45" s="126" t="s">
+      <c r="S45" s="320"/>
+      <c r="T45" s="228"/>
+      <c r="U45" s="125" t="s">
         <v>87</v>
       </c>
-      <c r="V45" s="127"/>
-      <c r="W45" s="128"/>
-      <c r="X45" s="100"/>
-      <c r="Y45" s="100"/>
-      <c r="Z45" s="129"/>
-      <c r="AA45" s="129"/>
-      <c r="AB45" s="129"/>
-      <c r="AC45" s="130"/>
-      <c r="AD45" s="131"/>
-      <c r="AE45" s="129"/>
-      <c r="AF45" s="116"/>
-      <c r="AG45" s="118"/>
-      <c r="AH45" s="118"/>
-      <c r="AI45" s="118"/>
-      <c r="AJ45" s="118"/>
-      <c r="AK45" s="118"/>
-      <c r="AL45" s="118"/>
-      <c r="AM45" s="118"/>
-      <c r="AN45" s="118"/>
-      <c r="AO45" s="118"/>
-      <c r="AP45" s="118"/>
-      <c r="AQ45" s="118"/>
-      <c r="AR45" s="118"/>
-      <c r="AS45" s="118"/>
-      <c r="AT45" s="118"/>
-      <c r="AU45" s="118"/>
-      <c r="AV45" s="118"/>
-      <c r="AW45" s="100"/>
-      <c r="AX45" s="100"/>
-      <c r="AY45" s="100"/>
-      <c r="AZ45" s="100"/>
+      <c r="V45" s="126"/>
+      <c r="W45" s="127"/>
+      <c r="X45" s="99"/>
+      <c r="Y45" s="99"/>
+      <c r="Z45" s="128"/>
+      <c r="AA45" s="128"/>
+      <c r="AB45" s="128"/>
+      <c r="AC45" s="129"/>
+      <c r="AD45" s="130"/>
+      <c r="AE45" s="128"/>
+      <c r="AF45" s="115"/>
+      <c r="AG45" s="117"/>
+      <c r="AH45" s="117"/>
+      <c r="AI45" s="117"/>
+      <c r="AJ45" s="117"/>
+      <c r="AK45" s="117"/>
+      <c r="AL45" s="117"/>
+      <c r="AM45" s="117"/>
+      <c r="AN45" s="117"/>
+      <c r="AO45" s="117"/>
+      <c r="AP45" s="117"/>
+      <c r="AQ45" s="117"/>
+      <c r="AR45" s="117"/>
+      <c r="AS45" s="117"/>
+      <c r="AT45" s="117"/>
+      <c r="AU45" s="117"/>
+      <c r="AV45" s="117"/>
+      <c r="AW45" s="99"/>
+      <c r="AX45" s="99"/>
+      <c r="AY45" s="99"/>
+      <c r="AZ45" s="99"/>
     </row>
     <row r="46" spans="1:52" ht="18" customHeight="1">
-      <c r="A46" s="132"/>
-      <c r="B46" s="133"/>
-      <c r="C46" s="119"/>
-      <c r="D46" s="134" t="s">
+      <c r="A46" s="131"/>
+      <c r="B46" s="132"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="E46" s="228"/>
-      <c r="F46" s="225"/>
-      <c r="G46" s="225"/>
-      <c r="H46" s="225"/>
-      <c r="I46" s="135"/>
-      <c r="J46" s="136" t="s">
+      <c r="E46" s="307"/>
+      <c r="F46" s="222"/>
+      <c r="G46" s="222"/>
+      <c r="H46" s="222"/>
+      <c r="I46" s="134"/>
+      <c r="J46" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="K46" s="318" t="s">
+      <c r="K46" s="200" t="s">
         <v>89</v>
       </c>
-      <c r="L46" s="204"/>
-      <c r="M46" s="137"/>
-      <c r="N46" s="138" t="s">
+      <c r="L46" s="193"/>
+      <c r="M46" s="136"/>
+      <c r="N46" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="O46" s="139"/>
-      <c r="P46" s="100"/>
-      <c r="Q46" s="140"/>
-      <c r="R46" s="141"/>
-      <c r="S46" s="321"/>
-      <c r="T46" s="247"/>
-      <c r="U46" s="142" t="s">
+      <c r="O46" s="138"/>
+      <c r="P46" s="99"/>
+      <c r="Q46" s="139"/>
+      <c r="R46" s="140"/>
+      <c r="S46" s="204"/>
+      <c r="T46" s="205"/>
+      <c r="U46" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="V46" s="143"/>
-      <c r="W46" s="144"/>
-      <c r="X46" s="145"/>
-      <c r="Y46" s="145"/>
-      <c r="Z46" s="118"/>
-      <c r="AA46" s="118"/>
-      <c r="AB46" s="146"/>
-      <c r="AC46" s="118"/>
-      <c r="AD46" s="118"/>
-      <c r="AE46" s="118"/>
-      <c r="AF46" s="118"/>
-      <c r="AG46" s="118"/>
-      <c r="AH46" s="118"/>
-      <c r="AI46" s="118"/>
-      <c r="AJ46" s="118"/>
-      <c r="AK46" s="118"/>
-      <c r="AL46" s="118"/>
-      <c r="AM46" s="118"/>
-      <c r="AN46" s="118"/>
-      <c r="AO46" s="118"/>
-      <c r="AP46" s="118"/>
-      <c r="AQ46" s="118"/>
-      <c r="AR46" s="118"/>
-      <c r="AS46" s="118"/>
-      <c r="AT46" s="118"/>
-      <c r="AU46" s="118"/>
-      <c r="AV46" s="118"/>
-      <c r="AW46" s="100"/>
-      <c r="AX46" s="100"/>
-      <c r="AY46" s="100"/>
-      <c r="AZ46" s="100"/>
+      <c r="V46" s="142"/>
+      <c r="W46" s="143"/>
+      <c r="X46" s="144"/>
+      <c r="Y46" s="144"/>
+      <c r="Z46" s="117"/>
+      <c r="AA46" s="117"/>
+      <c r="AB46" s="145"/>
+      <c r="AC46" s="117"/>
+      <c r="AD46" s="117"/>
+      <c r="AE46" s="117"/>
+      <c r="AF46" s="117"/>
+      <c r="AG46" s="117"/>
+      <c r="AH46" s="117"/>
+      <c r="AI46" s="117"/>
+      <c r="AJ46" s="117"/>
+      <c r="AK46" s="117"/>
+      <c r="AL46" s="117"/>
+      <c r="AM46" s="117"/>
+      <c r="AN46" s="117"/>
+      <c r="AO46" s="117"/>
+      <c r="AP46" s="117"/>
+      <c r="AQ46" s="117"/>
+      <c r="AR46" s="117"/>
+      <c r="AS46" s="117"/>
+      <c r="AT46" s="117"/>
+      <c r="AU46" s="117"/>
+      <c r="AV46" s="117"/>
+      <c r="AW46" s="99"/>
+      <c r="AX46" s="99"/>
+      <c r="AY46" s="99"/>
+      <c r="AZ46" s="99"/>
     </row>
     <row r="47" spans="1:52" ht="18" customHeight="1">
-      <c r="A47" s="132"/>
-      <c r="B47" s="133"/>
-      <c r="C47" s="119"/>
-      <c r="D47" s="134" t="s">
+      <c r="A47" s="131"/>
+      <c r="B47" s="132"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="133" t="s">
         <v>92</v>
       </c>
-      <c r="E47" s="228"/>
-      <c r="F47" s="225"/>
-      <c r="G47" s="225"/>
-      <c r="H47" s="225"/>
-      <c r="I47" s="100"/>
-      <c r="J47" s="136"/>
-      <c r="K47" s="319" t="s">
+      <c r="E47" s="307"/>
+      <c r="F47" s="222"/>
+      <c r="G47" s="222"/>
+      <c r="H47" s="222"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="135"/>
+      <c r="K47" s="201" t="s">
         <v>93</v>
       </c>
-      <c r="L47" s="269"/>
-      <c r="M47" s="137"/>
-      <c r="N47" s="138" t="s">
+      <c r="L47" s="202"/>
+      <c r="M47" s="136"/>
+      <c r="N47" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="O47" s="139"/>
-      <c r="P47" s="147"/>
-      <c r="Q47" s="100"/>
-      <c r="R47" s="100"/>
-      <c r="S47" s="322"/>
-      <c r="T47" s="250"/>
-      <c r="U47" s="148" t="s">
+      <c r="O47" s="138"/>
+      <c r="P47" s="146"/>
+      <c r="Q47" s="99"/>
+      <c r="R47" s="99"/>
+      <c r="S47" s="206"/>
+      <c r="T47" s="207"/>
+      <c r="U47" s="147" t="s">
         <v>94</v>
       </c>
-      <c r="V47" s="149"/>
-      <c r="W47" s="150"/>
-      <c r="X47" s="145"/>
-      <c r="Y47" s="145"/>
-      <c r="Z47" s="118"/>
-      <c r="AA47" s="118"/>
-      <c r="AB47" s="146"/>
-      <c r="AC47" s="118"/>
-      <c r="AD47" s="118"/>
-      <c r="AE47" s="118"/>
-      <c r="AF47" s="118"/>
-      <c r="AG47" s="118"/>
-      <c r="AH47" s="118"/>
-      <c r="AI47" s="118"/>
-      <c r="AJ47" s="118"/>
-      <c r="AK47" s="118"/>
-      <c r="AL47" s="118"/>
-      <c r="AM47" s="118"/>
-      <c r="AN47" s="118"/>
-      <c r="AO47" s="118"/>
-      <c r="AP47" s="118"/>
-      <c r="AQ47" s="118"/>
-      <c r="AR47" s="118"/>
-      <c r="AS47" s="118"/>
-      <c r="AT47" s="118"/>
-      <c r="AU47" s="118"/>
-      <c r="AV47" s="118"/>
-      <c r="AW47" s="100"/>
-      <c r="AX47" s="100"/>
-      <c r="AY47" s="100"/>
-      <c r="AZ47" s="100"/>
+      <c r="V47" s="148"/>
+      <c r="W47" s="149"/>
+      <c r="X47" s="144"/>
+      <c r="Y47" s="144"/>
+      <c r="Z47" s="117"/>
+      <c r="AA47" s="117"/>
+      <c r="AB47" s="145"/>
+      <c r="AC47" s="117"/>
+      <c r="AD47" s="117"/>
+      <c r="AE47" s="117"/>
+      <c r="AF47" s="117"/>
+      <c r="AG47" s="117"/>
+      <c r="AH47" s="117"/>
+      <c r="AI47" s="117"/>
+      <c r="AJ47" s="117"/>
+      <c r="AK47" s="117"/>
+      <c r="AL47" s="117"/>
+      <c r="AM47" s="117"/>
+      <c r="AN47" s="117"/>
+      <c r="AO47" s="117"/>
+      <c r="AP47" s="117"/>
+      <c r="AQ47" s="117"/>
+      <c r="AR47" s="117"/>
+      <c r="AS47" s="117"/>
+      <c r="AT47" s="117"/>
+      <c r="AU47" s="117"/>
+      <c r="AV47" s="117"/>
+      <c r="AW47" s="99"/>
+      <c r="AX47" s="99"/>
+      <c r="AY47" s="99"/>
+      <c r="AZ47" s="99"/>
     </row>
     <row r="48" spans="1:52" ht="18" customHeight="1">
-      <c r="A48" s="132"/>
-      <c r="B48" s="133"/>
-      <c r="C48" s="151"/>
-      <c r="D48" s="151"/>
-      <c r="E48" s="152"/>
-      <c r="F48" s="152"/>
-      <c r="G48" s="152"/>
-      <c r="H48" s="152"/>
-      <c r="I48" s="100"/>
-      <c r="J48" s="153"/>
-      <c r="K48" s="318" t="s">
+      <c r="A48" s="131"/>
+      <c r="B48" s="132"/>
+      <c r="C48" s="150"/>
+      <c r="D48" s="150"/>
+      <c r="E48" s="151"/>
+      <c r="F48" s="151"/>
+      <c r="G48" s="151"/>
+      <c r="H48" s="151"/>
+      <c r="I48" s="99"/>
+      <c r="J48" s="152"/>
+      <c r="K48" s="200" t="s">
         <v>93</v>
       </c>
-      <c r="L48" s="204"/>
-      <c r="M48" s="154"/>
-      <c r="N48" s="155" t="s">
+      <c r="L48" s="193"/>
+      <c r="M48" s="153"/>
+      <c r="N48" s="154" t="s">
         <v>95</v>
       </c>
-      <c r="O48" s="156"/>
-      <c r="P48" s="147"/>
-      <c r="Q48" s="100"/>
-      <c r="R48" s="100"/>
-      <c r="S48" s="157"/>
+      <c r="O48" s="155"/>
+      <c r="P48" s="146"/>
+      <c r="Q48" s="99"/>
+      <c r="R48" s="99"/>
+      <c r="S48" s="156"/>
       <c r="T48" s="65"/>
       <c r="U48" s="65"/>
-      <c r="V48" s="150"/>
-      <c r="W48" s="150"/>
-      <c r="X48" s="145"/>
-      <c r="Y48" s="145"/>
-      <c r="Z48" s="118"/>
-      <c r="AA48" s="118"/>
-      <c r="AB48" s="146"/>
-      <c r="AC48" s="118"/>
-      <c r="AD48" s="118"/>
-      <c r="AE48" s="118"/>
-      <c r="AF48" s="118"/>
-      <c r="AG48" s="118"/>
-      <c r="AH48" s="118"/>
-      <c r="AI48" s="118"/>
-      <c r="AJ48" s="118"/>
-      <c r="AK48" s="118"/>
-      <c r="AL48" s="118"/>
-      <c r="AM48" s="118"/>
-      <c r="AN48" s="118"/>
-      <c r="AO48" s="118"/>
-      <c r="AP48" s="118"/>
-      <c r="AQ48" s="118"/>
-      <c r="AR48" s="118"/>
-      <c r="AS48" s="118"/>
-      <c r="AT48" s="118"/>
-      <c r="AU48" s="118"/>
-      <c r="AV48" s="118"/>
-      <c r="AW48" s="100"/>
-      <c r="AX48" s="100"/>
-      <c r="AY48" s="100"/>
-      <c r="AZ48" s="100"/>
+      <c r="V48" s="149"/>
+      <c r="W48" s="149"/>
+      <c r="X48" s="144"/>
+      <c r="Y48" s="144"/>
+      <c r="Z48" s="117"/>
+      <c r="AA48" s="117"/>
+      <c r="AB48" s="145"/>
+      <c r="AC48" s="117"/>
+      <c r="AD48" s="117"/>
+      <c r="AE48" s="117"/>
+      <c r="AF48" s="117"/>
+      <c r="AG48" s="117"/>
+      <c r="AH48" s="117"/>
+      <c r="AI48" s="117"/>
+      <c r="AJ48" s="117"/>
+      <c r="AK48" s="117"/>
+      <c r="AL48" s="117"/>
+      <c r="AM48" s="117"/>
+      <c r="AN48" s="117"/>
+      <c r="AO48" s="117"/>
+      <c r="AP48" s="117"/>
+      <c r="AQ48" s="117"/>
+      <c r="AR48" s="117"/>
+      <c r="AS48" s="117"/>
+      <c r="AT48" s="117"/>
+      <c r="AU48" s="117"/>
+      <c r="AV48" s="117"/>
+      <c r="AW48" s="99"/>
+      <c r="AX48" s="99"/>
+      <c r="AY48" s="99"/>
+      <c r="AZ48" s="99"/>
     </row>
     <row r="49" spans="1:52" ht="18" customHeight="1">
-      <c r="A49" s="158"/>
-      <c r="B49" s="159"/>
+      <c r="A49" s="157"/>
+      <c r="B49" s="158"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="237"/>
-      <c r="E49" s="238"/>
-      <c r="F49" s="238"/>
-      <c r="G49" s="238"/>
-      <c r="H49" s="238"/>
-      <c r="I49" s="238"/>
-      <c r="J49" s="238"/>
-      <c r="K49" s="238"/>
-      <c r="L49" s="238"/>
-      <c r="M49" s="238"/>
-      <c r="N49" s="238"/>
-      <c r="O49" s="238"/>
-      <c r="P49" s="238"/>
-      <c r="Q49" s="238"/>
-      <c r="R49" s="238"/>
-      <c r="S49" s="238"/>
-      <c r="T49" s="160"/>
-      <c r="U49" s="161" t="s">
+      <c r="D49" s="308"/>
+      <c r="E49" s="220"/>
+      <c r="F49" s="220"/>
+      <c r="G49" s="220"/>
+      <c r="H49" s="220"/>
+      <c r="I49" s="220"/>
+      <c r="J49" s="220"/>
+      <c r="K49" s="220"/>
+      <c r="L49" s="220"/>
+      <c r="M49" s="220"/>
+      <c r="N49" s="220"/>
+      <c r="O49" s="220"/>
+      <c r="P49" s="220"/>
+      <c r="Q49" s="220"/>
+      <c r="R49" s="220"/>
+      <c r="S49" s="220"/>
+      <c r="T49" s="159"/>
+      <c r="U49" s="160" t="s">
         <v>96</v>
       </c>
-      <c r="V49" s="279"/>
-      <c r="W49" s="279"/>
-      <c r="X49" s="162"/>
-      <c r="Y49" s="162"/>
-      <c r="Z49" s="162"/>
-      <c r="AA49" s="162"/>
-      <c r="AB49" s="162"/>
-      <c r="AC49" s="162"/>
-      <c r="AD49" s="162"/>
-      <c r="AE49" s="162"/>
-      <c r="AF49" s="162"/>
-      <c r="AG49" s="162"/>
-      <c r="AH49" s="162"/>
-      <c r="AI49" s="162"/>
-      <c r="AJ49" s="162"/>
-      <c r="AK49" s="162"/>
-      <c r="AL49" s="162"/>
-      <c r="AM49" s="162"/>
-      <c r="AN49" s="162"/>
-      <c r="AO49" s="162"/>
-      <c r="AP49" s="162"/>
-      <c r="AQ49" s="162"/>
-      <c r="AR49" s="162"/>
-      <c r="AS49" s="162"/>
-      <c r="AT49" s="162"/>
-      <c r="AU49" s="162"/>
-      <c r="AV49" s="162"/>
+      <c r="V49" s="245"/>
+      <c r="W49" s="245"/>
+      <c r="X49" s="161"/>
+      <c r="Y49" s="161"/>
+      <c r="Z49" s="161"/>
+      <c r="AA49" s="161"/>
+      <c r="AB49" s="161"/>
+      <c r="AC49" s="161"/>
+      <c r="AD49" s="161"/>
+      <c r="AE49" s="161"/>
+      <c r="AF49" s="161"/>
+      <c r="AG49" s="161"/>
+      <c r="AH49" s="161"/>
+      <c r="AI49" s="161"/>
+      <c r="AJ49" s="161"/>
+      <c r="AK49" s="161"/>
+      <c r="AL49" s="161"/>
+      <c r="AM49" s="161"/>
+      <c r="AN49" s="161"/>
+      <c r="AO49" s="161"/>
+      <c r="AP49" s="161"/>
+      <c r="AQ49" s="161"/>
+      <c r="AR49" s="161"/>
+      <c r="AS49" s="161"/>
+      <c r="AT49" s="161"/>
+      <c r="AU49" s="161"/>
+      <c r="AV49" s="161"/>
       <c r="AW49" s="1"/>
       <c r="AX49" s="1"/>
       <c r="AY49" s="1"/>
@@ -7019,42 +7019,42 @@
     <row r="50" spans="1:52" ht="28.5" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="233" t="s">
+      <c r="C50" s="310" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="205" t="s">
+      <c r="D50" s="305" t="s">
         <v>98</v>
       </c>
-      <c r="E50" s="204"/>
-      <c r="F50" s="236"/>
-      <c r="G50" s="204"/>
-      <c r="H50" s="164"/>
-      <c r="I50" s="165"/>
-      <c r="J50" s="233" t="s">
+      <c r="E50" s="193"/>
+      <c r="F50" s="311"/>
+      <c r="G50" s="193"/>
+      <c r="H50" s="163"/>
+      <c r="I50" s="164"/>
+      <c r="J50" s="310" t="s">
         <v>99</v>
       </c>
-      <c r="K50" s="320" t="s">
+      <c r="K50" s="203" t="s">
         <v>100</v>
       </c>
-      <c r="L50" s="204"/>
-      <c r="M50" s="166"/>
-      <c r="N50" s="164"/>
+      <c r="L50" s="193"/>
+      <c r="M50" s="165"/>
+      <c r="N50" s="163"/>
       <c r="O50" s="1"/>
-      <c r="P50" s="165"/>
-      <c r="Q50" s="242" t="s">
+      <c r="P50" s="164"/>
+      <c r="Q50" s="246" t="s">
         <v>117</v>
       </c>
-      <c r="R50" s="231"/>
-      <c r="S50" s="204"/>
-      <c r="T50" s="280"/>
-      <c r="U50" s="281"/>
+      <c r="R50" s="230"/>
+      <c r="S50" s="193"/>
+      <c r="T50" s="247"/>
+      <c r="U50" s="248"/>
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
       <c r="X50" s="8"/>
       <c r="Y50" s="8"/>
-      <c r="Z50" s="167"/>
-      <c r="AA50" s="167"/>
-      <c r="AB50" s="168"/>
+      <c r="Z50" s="166"/>
+      <c r="AA50" s="166"/>
+      <c r="AB50" s="167"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
@@ -7083,40 +7083,40 @@
     <row r="51" spans="1:52" ht="28.5" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="234"/>
-      <c r="D51" s="205" t="s">
+      <c r="C51" s="263"/>
+      <c r="D51" s="305" t="s">
         <v>101</v>
       </c>
-      <c r="E51" s="204"/>
-      <c r="F51" s="203"/>
-      <c r="G51" s="204"/>
-      <c r="H51" s="164"/>
-      <c r="I51" s="165"/>
-      <c r="J51" s="234"/>
-      <c r="K51" s="282">
+      <c r="E51" s="193"/>
+      <c r="F51" s="306"/>
+      <c r="G51" s="193"/>
+      <c r="H51" s="163"/>
+      <c r="I51" s="164"/>
+      <c r="J51" s="263"/>
+      <c r="K51" s="249">
         <v>30</v>
       </c>
-      <c r="L51" s="204"/>
-      <c r="M51" s="169"/>
-      <c r="N51" s="164"/>
-      <c r="O51" s="170" t="s">
+      <c r="L51" s="193"/>
+      <c r="M51" s="168"/>
+      <c r="N51" s="163"/>
+      <c r="O51" s="169" t="s">
         <v>102</v>
       </c>
-      <c r="P51" s="171"/>
-      <c r="Q51" s="242" t="s">
+      <c r="P51" s="170"/>
+      <c r="Q51" s="246" t="s">
         <v>103</v>
       </c>
-      <c r="R51" s="231"/>
-      <c r="S51" s="204"/>
-      <c r="T51" s="280"/>
-      <c r="U51" s="204"/>
-      <c r="V51" s="172"/>
+      <c r="R51" s="230"/>
+      <c r="S51" s="193"/>
+      <c r="T51" s="247"/>
+      <c r="U51" s="193"/>
+      <c r="V51" s="171"/>
       <c r="W51" s="1"/>
       <c r="X51" s="8"/>
       <c r="Y51" s="8"/>
-      <c r="Z51" s="167"/>
-      <c r="AA51" s="167"/>
-      <c r="AB51" s="168"/>
+      <c r="Z51" s="166"/>
+      <c r="AA51" s="166"/>
+      <c r="AB51" s="167"/>
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
@@ -7145,38 +7145,38 @@
     <row r="52" spans="1:52" ht="28.5" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="5"/>
-      <c r="C52" s="234"/>
-      <c r="D52" s="205" t="s">
+      <c r="C52" s="263"/>
+      <c r="D52" s="305" t="s">
         <v>104</v>
       </c>
-      <c r="E52" s="204"/>
-      <c r="F52" s="203"/>
-      <c r="G52" s="204"/>
-      <c r="H52" s="164"/>
-      <c r="I52" s="165"/>
-      <c r="J52" s="234"/>
-      <c r="K52" s="241" t="s">
+      <c r="E52" s="193"/>
+      <c r="F52" s="306"/>
+      <c r="G52" s="193"/>
+      <c r="H52" s="163"/>
+      <c r="I52" s="164"/>
+      <c r="J52" s="263"/>
+      <c r="K52" s="234" t="s">
         <v>105</v>
       </c>
-      <c r="L52" s="204"/>
-      <c r="M52" s="166"/>
-      <c r="N52" s="164"/>
+      <c r="L52" s="193"/>
+      <c r="M52" s="165"/>
+      <c r="N52" s="163"/>
       <c r="O52" s="1"/>
-      <c r="P52" s="171"/>
-      <c r="Q52" s="242" t="s">
+      <c r="P52" s="170"/>
+      <c r="Q52" s="246" t="s">
         <v>106</v>
       </c>
-      <c r="R52" s="231"/>
-      <c r="S52" s="204"/>
-      <c r="T52" s="315"/>
-      <c r="U52" s="204"/>
-      <c r="V52" s="172"/>
+      <c r="R52" s="230"/>
+      <c r="S52" s="193"/>
+      <c r="T52" s="192"/>
+      <c r="U52" s="193"/>
+      <c r="V52" s="171"/>
       <c r="W52" s="1"/>
       <c r="X52" s="8"/>
       <c r="Y52" s="8"/>
-      <c r="Z52" s="167"/>
-      <c r="AA52" s="167"/>
-      <c r="AB52" s="168"/>
+      <c r="Z52" s="166"/>
+      <c r="AA52" s="166"/>
+      <c r="AB52" s="167"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
@@ -7205,38 +7205,38 @@
     <row r="53" spans="1:52" ht="28.5" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="5"/>
-      <c r="C53" s="234"/>
-      <c r="D53" s="163" t="s">
+      <c r="C53" s="263"/>
+      <c r="D53" s="162" t="s">
         <v>107</v>
       </c>
-      <c r="E53" s="173"/>
-      <c r="F53" s="203"/>
-      <c r="G53" s="204"/>
-      <c r="H53" s="164"/>
-      <c r="I53" s="165"/>
-      <c r="J53" s="234"/>
-      <c r="K53" s="241" t="s">
+      <c r="E53" s="172"/>
+      <c r="F53" s="306"/>
+      <c r="G53" s="193"/>
+      <c r="H53" s="163"/>
+      <c r="I53" s="164"/>
+      <c r="J53" s="263"/>
+      <c r="K53" s="234" t="s">
         <v>108</v>
       </c>
-      <c r="L53" s="204"/>
-      <c r="M53" s="166"/>
-      <c r="N53" s="164"/>
-      <c r="O53" s="174" t="s">
+      <c r="L53" s="193"/>
+      <c r="M53" s="165"/>
+      <c r="N53" s="163"/>
+      <c r="O53" s="173" t="s">
         <v>109</v>
       </c>
-      <c r="P53" s="171"/>
+      <c r="P53" s="170"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
-      <c r="V53" s="172"/>
+      <c r="V53" s="171"/>
       <c r="W53" s="1"/>
       <c r="X53" s="8"/>
       <c r="Y53" s="8"/>
-      <c r="Z53" s="167"/>
-      <c r="AA53" s="167"/>
-      <c r="AB53" s="168"/>
+      <c r="Z53" s="166"/>
+      <c r="AA53" s="166"/>
+      <c r="AB53" s="167"/>
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
@@ -7265,36 +7265,36 @@
     <row r="54" spans="1:52" ht="28.5" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="5"/>
-      <c r="C54" s="234"/>
-      <c r="D54" s="205" t="s">
+      <c r="C54" s="263"/>
+      <c r="D54" s="305" t="s">
         <v>110</v>
       </c>
-      <c r="E54" s="204"/>
-      <c r="F54" s="203"/>
-      <c r="G54" s="204"/>
-      <c r="H54" s="164"/>
-      <c r="I54" s="165"/>
-      <c r="J54" s="234"/>
-      <c r="K54" s="299" t="s">
+      <c r="E54" s="193"/>
+      <c r="F54" s="306"/>
+      <c r="G54" s="193"/>
+      <c r="H54" s="163"/>
+      <c r="I54" s="164"/>
+      <c r="J54" s="263"/>
+      <c r="K54" s="235" t="s">
         <v>111</v>
       </c>
-      <c r="L54" s="204"/>
-      <c r="M54" s="166"/>
-      <c r="N54" s="164"/>
+      <c r="L54" s="193"/>
+      <c r="M54" s="165"/>
+      <c r="N54" s="163"/>
       <c r="O54" s="1"/>
-      <c r="P54" s="171"/>
+      <c r="P54" s="170"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
-      <c r="V54" s="172"/>
+      <c r="V54" s="171"/>
       <c r="W54" s="1"/>
       <c r="X54" s="8"/>
       <c r="Y54" s="8"/>
-      <c r="Z54" s="167"/>
-      <c r="AA54" s="167"/>
-      <c r="AB54" s="168"/>
+      <c r="Z54" s="166"/>
+      <c r="AA54" s="166"/>
+      <c r="AB54" s="167"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
@@ -7323,38 +7323,38 @@
     <row r="55" spans="1:52" ht="28.5" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="234"/>
-      <c r="D55" s="205" t="s">
+      <c r="C55" s="263"/>
+      <c r="D55" s="305" t="s">
         <v>112</v>
       </c>
-      <c r="E55" s="204"/>
-      <c r="F55" s="203"/>
-      <c r="G55" s="204"/>
-      <c r="H55" s="164"/>
-      <c r="I55" s="165"/>
-      <c r="J55" s="234"/>
-      <c r="K55" s="300" t="s">
+      <c r="E55" s="193"/>
+      <c r="F55" s="306"/>
+      <c r="G55" s="193"/>
+      <c r="H55" s="163"/>
+      <c r="I55" s="164"/>
+      <c r="J55" s="263"/>
+      <c r="K55" s="236" t="s">
         <v>113</v>
       </c>
-      <c r="L55" s="204"/>
-      <c r="M55" s="166"/>
-      <c r="N55" s="164"/>
+      <c r="L55" s="193"/>
+      <c r="M55" s="165"/>
+      <c r="N55" s="163"/>
       <c r="O55" s="1"/>
-      <c r="P55" s="171"/>
-      <c r="Q55" s="301" t="s">
+      <c r="P55" s="170"/>
+      <c r="Q55" s="237" t="s">
         <v>114</v>
       </c>
-      <c r="R55" s="231"/>
-      <c r="S55" s="204"/>
-      <c r="T55" s="302"/>
-      <c r="U55" s="204"/>
+      <c r="R55" s="230"/>
+      <c r="S55" s="193"/>
+      <c r="T55" s="238"/>
+      <c r="U55" s="193"/>
       <c r="V55" s="6"/>
       <c r="W55" s="1"/>
       <c r="X55" s="8"/>
       <c r="Y55" s="8"/>
-      <c r="Z55" s="167"/>
-      <c r="AA55" s="167"/>
-      <c r="AB55" s="168"/>
+      <c r="Z55" s="166"/>
+      <c r="AA55" s="166"/>
+      <c r="AB55" s="167"/>
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
@@ -7383,94 +7383,94 @@
     <row r="56" spans="1:52" ht="28.5" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="5"/>
-      <c r="C56" s="234"/>
-      <c r="D56" s="205" t="s">
+      <c r="C56" s="263"/>
+      <c r="D56" s="305" t="s">
         <v>115</v>
       </c>
-      <c r="E56" s="204"/>
-      <c r="F56" s="203"/>
-      <c r="G56" s="204"/>
-      <c r="H56" s="164"/>
-      <c r="I56" s="165"/>
-      <c r="J56" s="234"/>
-      <c r="K56" s="303">
+      <c r="E56" s="193"/>
+      <c r="F56" s="306"/>
+      <c r="G56" s="193"/>
+      <c r="H56" s="163"/>
+      <c r="I56" s="164"/>
+      <c r="J56" s="263"/>
+      <c r="K56" s="239">
         <v>30</v>
       </c>
-      <c r="L56" s="204"/>
-      <c r="M56" s="304"/>
-      <c r="N56" s="204"/>
-      <c r="O56" s="165"/>
-      <c r="P56" s="171"/>
-      <c r="Q56" s="175"/>
-      <c r="R56" s="175"/>
-      <c r="S56" s="175"/>
-      <c r="T56" s="175"/>
-      <c r="U56" s="175"/>
-      <c r="V56" s="175"/>
-      <c r="W56" s="175"/>
-      <c r="X56" s="176"/>
-      <c r="Y56" s="176"/>
-      <c r="Z56" s="176"/>
-      <c r="AA56" s="176"/>
-      <c r="AB56" s="176"/>
-      <c r="AC56" s="176"/>
-      <c r="AD56" s="176"/>
-      <c r="AE56" s="176"/>
-      <c r="AF56" s="176"/>
-      <c r="AG56" s="176"/>
-      <c r="AH56" s="176"/>
-      <c r="AI56" s="176"/>
-      <c r="AJ56" s="176"/>
-      <c r="AK56" s="176"/>
-      <c r="AL56" s="176"/>
-      <c r="AM56" s="176"/>
-      <c r="AN56" s="176"/>
-      <c r="AO56" s="176"/>
-      <c r="AP56" s="176"/>
-      <c r="AQ56" s="176"/>
-      <c r="AR56" s="176"/>
-      <c r="AS56" s="176"/>
-      <c r="AT56" s="176"/>
-      <c r="AU56" s="176"/>
-      <c r="AV56" s="176"/>
-      <c r="AW56" s="176"/>
-      <c r="AX56" s="176"/>
-      <c r="AY56" s="176"/>
-      <c r="AZ56" s="176"/>
+      <c r="L56" s="193"/>
+      <c r="M56" s="240"/>
+      <c r="N56" s="193"/>
+      <c r="O56" s="164"/>
+      <c r="P56" s="170"/>
+      <c r="Q56" s="174"/>
+      <c r="R56" s="174"/>
+      <c r="S56" s="174"/>
+      <c r="T56" s="174"/>
+      <c r="U56" s="174"/>
+      <c r="V56" s="174"/>
+      <c r="W56" s="174"/>
+      <c r="X56" s="175"/>
+      <c r="Y56" s="175"/>
+      <c r="Z56" s="175"/>
+      <c r="AA56" s="175"/>
+      <c r="AB56" s="175"/>
+      <c r="AC56" s="175"/>
+      <c r="AD56" s="175"/>
+      <c r="AE56" s="175"/>
+      <c r="AF56" s="175"/>
+      <c r="AG56" s="175"/>
+      <c r="AH56" s="175"/>
+      <c r="AI56" s="175"/>
+      <c r="AJ56" s="175"/>
+      <c r="AK56" s="175"/>
+      <c r="AL56" s="175"/>
+      <c r="AM56" s="175"/>
+      <c r="AN56" s="175"/>
+      <c r="AO56" s="175"/>
+      <c r="AP56" s="175"/>
+      <c r="AQ56" s="175"/>
+      <c r="AR56" s="175"/>
+      <c r="AS56" s="175"/>
+      <c r="AT56" s="175"/>
+      <c r="AU56" s="175"/>
+      <c r="AV56" s="175"/>
+      <c r="AW56" s="175"/>
+      <c r="AX56" s="175"/>
+      <c r="AY56" s="175"/>
+      <c r="AZ56" s="175"/>
     </row>
     <row r="57" spans="1:52" ht="28.5" customHeight="1">
-      <c r="A57" s="177"/>
+      <c r="A57" s="176"/>
       <c r="B57" s="5"/>
-      <c r="C57" s="235"/>
-      <c r="D57" s="229" t="s">
+      <c r="C57" s="264"/>
+      <c r="D57" s="232" t="s">
         <v>116</v>
       </c>
-      <c r="E57" s="204"/>
-      <c r="F57" s="230"/>
-      <c r="G57" s="231"/>
-      <c r="H57" s="204"/>
-      <c r="I57" s="178"/>
-      <c r="J57" s="235"/>
-      <c r="K57" s="229" t="s">
+      <c r="E57" s="193"/>
+      <c r="F57" s="233"/>
+      <c r="G57" s="230"/>
+      <c r="H57" s="193"/>
+      <c r="I57" s="177"/>
+      <c r="J57" s="264"/>
+      <c r="K57" s="232" t="s">
         <v>116</v>
       </c>
-      <c r="L57" s="204"/>
-      <c r="M57" s="230"/>
-      <c r="N57" s="204"/>
-      <c r="O57" s="178"/>
-      <c r="P57" s="179"/>
-      <c r="Q57" s="180"/>
-      <c r="R57" s="181"/>
-      <c r="S57" s="181"/>
-      <c r="T57" s="179"/>
-      <c r="U57" s="176"/>
-      <c r="V57" s="176"/>
-      <c r="W57" s="176"/>
+      <c r="L57" s="193"/>
+      <c r="M57" s="233"/>
+      <c r="N57" s="193"/>
+      <c r="O57" s="177"/>
+      <c r="P57" s="178"/>
+      <c r="Q57" s="179"/>
+      <c r="R57" s="180"/>
+      <c r="S57" s="180"/>
+      <c r="T57" s="178"/>
+      <c r="U57" s="175"/>
+      <c r="V57" s="175"/>
+      <c r="W57" s="175"/>
       <c r="X57" s="8"/>
       <c r="Y57" s="8"/>
-      <c r="Z57" s="167"/>
-      <c r="AA57" s="167"/>
-      <c r="AB57" s="168"/>
+      <c r="Z57" s="166"/>
+      <c r="AA57" s="166"/>
+      <c r="AB57" s="167"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
@@ -7502,24 +7502,24 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="232"/>
-      <c r="G58" s="231"/>
-      <c r="H58" s="204"/>
+      <c r="F58" s="309"/>
+      <c r="G58" s="230"/>
+      <c r="H58" s="193"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
-      <c r="O58" s="165"/>
-      <c r="P58" s="182"/>
-      <c r="Q58" s="165"/>
-      <c r="R58" s="165"/>
-      <c r="S58" s="165"/>
-      <c r="T58" s="165"/>
-      <c r="U58" s="165"/>
-      <c r="V58" s="165"/>
-      <c r="W58" s="165"/>
+      <c r="O58" s="164"/>
+      <c r="P58" s="181"/>
+      <c r="Q58" s="164"/>
+      <c r="R58" s="164"/>
+      <c r="S58" s="164"/>
+      <c r="T58" s="164"/>
+      <c r="U58" s="164"/>
+      <c r="V58" s="164"/>
+      <c r="W58" s="164"/>
       <c r="X58" s="8"/>
       <c r="Y58" s="8"/>
       <c r="Z58" s="8"/>
@@ -7551,7 +7551,7 @@
       <c r="AZ58" s="1"/>
     </row>
     <row r="59" spans="1:52" ht="15.75" customHeight="1">
-      <c r="A59" s="174"/>
+      <c r="A59" s="173"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -7567,7 +7567,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
-      <c r="Q59" s="183"/>
+      <c r="Q59" s="182"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
@@ -58042,31 +58042,151 @@
     </row>
   </sheetData>
   <mergeCells count="194">
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="AF34:AJ34"/>
-    <mergeCell ref="AK34:AO34"/>
-    <mergeCell ref="AP34:AT34"/>
-    <mergeCell ref="AU34:AY34"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:X32"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="A25:X25"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="M26:X26"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:X27"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="A42:X42"/>
+    <mergeCell ref="A43:X43"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="C50:C57"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="J50:J57"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="D49:S49"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="S18:X18"/>
+    <mergeCell ref="S19:X19"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="S4:W4"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="M7:O9"/>
+    <mergeCell ref="P7:R9"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="T7:X9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="M10:O13"/>
+    <mergeCell ref="P10:R13"/>
+    <mergeCell ref="S10:S13"/>
+    <mergeCell ref="T10:X13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="E33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:X33"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="M14:O17"/>
+    <mergeCell ref="P14:R17"/>
+    <mergeCell ref="S14:S17"/>
+    <mergeCell ref="T14:X17"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="H14:L14"/>
@@ -58091,151 +58211,31 @@
     <mergeCell ref="M28:O28"/>
     <mergeCell ref="Q28:R28"/>
     <mergeCell ref="S28:X28"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="M10:O13"/>
-    <mergeCell ref="P10:R13"/>
-    <mergeCell ref="S10:S13"/>
-    <mergeCell ref="T10:X13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="E33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:X33"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="M14:O17"/>
-    <mergeCell ref="P14:R17"/>
-    <mergeCell ref="S14:S17"/>
-    <mergeCell ref="T14:X17"/>
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="A2:X2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="S4:W4"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="M7:O9"/>
-    <mergeCell ref="P7:R9"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="T7:X9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="S18:X18"/>
-    <mergeCell ref="S19:X19"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="D49:S49"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="Q52:S52"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="C50:C57"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="J50:J57"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="A25:X25"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="M26:X26"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:X27"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="A42:X42"/>
-    <mergeCell ref="A43:X43"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="AF34:AJ34"/>
+    <mergeCell ref="AK34:AO34"/>
+    <mergeCell ref="AP34:AT34"/>
+    <mergeCell ref="AU34:AY34"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:X32"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="S47:T47"/>
   </mergeCells>
   <phoneticPr fontId="73" type="noConversion"/>
   <dataValidations count="2">

--- a/spModle.xlsx
+++ b/spModle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS_Workstation\Desktop\excelize_json_practice\excelize_json_practice\PI_SP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\OneDrive\桌面\NEW_folder\pi_sp\PI_SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60646788-68E9-496B-BF02-AADC6622362D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C6EB5C-165C-4E64-93EB-E2D1BA25B4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP" sheetId="2" r:id="rId1"/>
@@ -571,7 +571,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="123">
   <si>
     <t>EDGE</t>
   </si>
@@ -807,9 +807,6 @@
       </rPr>
       <t>總價 (USD)</t>
     </r>
-  </si>
-  <si>
-    <t>萬裕隆/430</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -3194,101 +3191,14 @@
     <xf numFmtId="0" fontId="76" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="57" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="26" fontId="23" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="51" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3299,20 +3209,98 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="26" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="26" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="23" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="44" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3320,92 +3308,14 @@
     <xf numFmtId="185" fontId="63" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="191" fontId="55" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="61" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="63" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="55" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="193" fontId="2" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="56" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="57" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="57" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="55" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3413,47 +3323,59 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="56" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="26" fontId="13" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="13" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3485,14 +3407,35 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3500,91 +3443,145 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="57" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="57" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="55" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="26" fontId="13" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="13" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="191" fontId="55" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="61" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="55" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="193" fontId="2" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="44" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="63" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="57" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="26" fontId="23" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="26" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="26" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="23" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="51" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3947,89 +3944,89 @@
   </sheetPr>
   <dimension ref="A1:AZ993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35:S35"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="6.5" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="4.875" customWidth="1"/>
-    <col min="6" max="6" width="4.625" customWidth="1"/>
-    <col min="7" max="7" width="6.875" customWidth="1"/>
-    <col min="8" max="8" width="6.5" customWidth="1"/>
-    <col min="9" max="9" width="7.25" customWidth="1"/>
-    <col min="10" max="10" width="5.5" customWidth="1"/>
-    <col min="11" max="11" width="10.25" customWidth="1"/>
-    <col min="12" max="12" width="12.375" customWidth="1"/>
-    <col min="13" max="13" width="7.625" customWidth="1"/>
-    <col min="14" max="15" width="7.375" customWidth="1"/>
-    <col min="16" max="16" width="7.125" customWidth="1"/>
-    <col min="17" max="17" width="7.875" customWidth="1"/>
-    <col min="18" max="18" width="5.375" customWidth="1"/>
-    <col min="19" max="19" width="9.75" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" customWidth="1"/>
+    <col min="10" max="10" width="5.44140625" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" customWidth="1"/>
+    <col min="14" max="15" width="7.33203125" customWidth="1"/>
+    <col min="16" max="16" width="7.109375" customWidth="1"/>
+    <col min="17" max="17" width="7.88671875" customWidth="1"/>
+    <col min="18" max="18" width="5.33203125" customWidth="1"/>
+    <col min="19" max="19" width="9.77734375" customWidth="1"/>
     <col min="20" max="20" width="11" customWidth="1"/>
-    <col min="21" max="21" width="6.125" customWidth="1"/>
-    <col min="22" max="22" width="5.875" customWidth="1"/>
-    <col min="23" max="23" width="5.625" customWidth="1"/>
-    <col min="24" max="24" width="5.5" customWidth="1"/>
-    <col min="25" max="25" width="5.375" customWidth="1"/>
-    <col min="26" max="26" width="10.625" customWidth="1"/>
-    <col min="27" max="27" width="9.25" customWidth="1"/>
-    <col min="28" max="28" width="8.5" customWidth="1"/>
-    <col min="29" max="29" width="10.375" customWidth="1"/>
+    <col min="21" max="21" width="6.109375" customWidth="1"/>
+    <col min="22" max="22" width="5.88671875" customWidth="1"/>
+    <col min="23" max="23" width="5.6640625" customWidth="1"/>
+    <col min="24" max="24" width="5.44140625" customWidth="1"/>
+    <col min="25" max="25" width="5.33203125" customWidth="1"/>
+    <col min="26" max="26" width="10.6640625" customWidth="1"/>
+    <col min="27" max="27" width="9.21875" customWidth="1"/>
+    <col min="28" max="28" width="8.44140625" customWidth="1"/>
+    <col min="29" max="29" width="10.33203125" customWidth="1"/>
     <col min="30" max="31" width="7" customWidth="1"/>
-    <col min="32" max="33" width="3.625" customWidth="1"/>
-    <col min="34" max="34" width="2.375" customWidth="1"/>
-    <col min="35" max="35" width="3.25" customWidth="1"/>
-    <col min="36" max="36" width="2.375" customWidth="1"/>
-    <col min="37" max="37" width="9.375" customWidth="1"/>
-    <col min="38" max="38" width="6.75" customWidth="1"/>
-    <col min="39" max="39" width="5.625" customWidth="1"/>
-    <col min="40" max="40" width="6.75" customWidth="1"/>
-    <col min="41" max="41" width="2.5" customWidth="1"/>
-    <col min="42" max="42" width="7.875" customWidth="1"/>
-    <col min="43" max="44" width="5.25" customWidth="1"/>
-    <col min="45" max="45" width="4.125" customWidth="1"/>
-    <col min="46" max="46" width="6.75" customWidth="1"/>
-    <col min="47" max="47" width="8.25" customWidth="1"/>
-    <col min="48" max="48" width="8.5" customWidth="1"/>
-    <col min="49" max="49" width="6.375" customWidth="1"/>
-    <col min="50" max="50" width="5.75" customWidth="1"/>
-    <col min="51" max="51" width="3.625" customWidth="1"/>
+    <col min="32" max="33" width="3.6640625" customWidth="1"/>
+    <col min="34" max="34" width="2.33203125" customWidth="1"/>
+    <col min="35" max="35" width="3.21875" customWidth="1"/>
+    <col min="36" max="36" width="2.33203125" customWidth="1"/>
+    <col min="37" max="37" width="9.33203125" customWidth="1"/>
+    <col min="38" max="38" width="6.77734375" customWidth="1"/>
+    <col min="39" max="39" width="5.6640625" customWidth="1"/>
+    <col min="40" max="40" width="6.77734375" customWidth="1"/>
+    <col min="41" max="41" width="2.44140625" customWidth="1"/>
+    <col min="42" max="42" width="7.88671875" customWidth="1"/>
+    <col min="43" max="44" width="5.21875" customWidth="1"/>
+    <col min="45" max="45" width="4.109375" customWidth="1"/>
+    <col min="46" max="46" width="6.77734375" customWidth="1"/>
+    <col min="47" max="47" width="8.21875" customWidth="1"/>
+    <col min="48" max="48" width="8.44140625" customWidth="1"/>
+    <col min="49" max="49" width="6.33203125" customWidth="1"/>
+    <col min="50" max="50" width="5.77734375" customWidth="1"/>
+    <col min="51" max="51" width="3.6640625" customWidth="1"/>
     <col min="52" max="52" width="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="27" customHeight="1">
-      <c r="A1" s="279" t="s">
+      <c r="A1" s="254" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="222"/>
-      <c r="K1" s="222"/>
-      <c r="L1" s="222"/>
-      <c r="M1" s="222"/>
-      <c r="N1" s="222"/>
-      <c r="O1" s="222"/>
-      <c r="P1" s="222"/>
-      <c r="Q1" s="222"/>
-      <c r="R1" s="222"/>
-      <c r="S1" s="222"/>
-      <c r="T1" s="222"/>
-      <c r="U1" s="222"/>
-      <c r="V1" s="222"/>
-      <c r="W1" s="222"/>
-      <c r="X1" s="222"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="225"/>
+      <c r="L1" s="225"/>
+      <c r="M1" s="225"/>
+      <c r="N1" s="225"/>
+      <c r="O1" s="225"/>
+      <c r="P1" s="225"/>
+      <c r="Q1" s="225"/>
+      <c r="R1" s="225"/>
+      <c r="S1" s="225"/>
+      <c r="T1" s="225"/>
+      <c r="U1" s="225"/>
+      <c r="V1" s="225"/>
+      <c r="W1" s="225"/>
+      <c r="X1" s="225"/>
       <c r="Y1" s="7"/>
       <c r="Z1" s="8"/>
       <c r="AA1" s="8"/>
@@ -4060,32 +4057,32 @@
       <c r="AZ1" s="1"/>
     </row>
     <row r="2" spans="1:52" ht="29.25" customHeight="1">
-      <c r="A2" s="280" t="s">
+      <c r="A2" s="255" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
-      <c r="L2" s="220"/>
-      <c r="M2" s="220"/>
-      <c r="N2" s="220"/>
-      <c r="O2" s="220"/>
-      <c r="P2" s="220"/>
-      <c r="Q2" s="220"/>
-      <c r="R2" s="220"/>
-      <c r="S2" s="220"/>
-      <c r="T2" s="220"/>
-      <c r="U2" s="220"/>
-      <c r="V2" s="220"/>
-      <c r="W2" s="220"/>
-      <c r="X2" s="220"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="238"/>
+      <c r="M2" s="238"/>
+      <c r="N2" s="238"/>
+      <c r="O2" s="238"/>
+      <c r="P2" s="238"/>
+      <c r="Q2" s="238"/>
+      <c r="R2" s="238"/>
+      <c r="S2" s="238"/>
+      <c r="T2" s="238"/>
+      <c r="U2" s="238"/>
+      <c r="V2" s="238"/>
+      <c r="W2" s="238"/>
+      <c r="X2" s="238"/>
       <c r="Y2" s="9"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
@@ -4115,7 +4112,7 @@
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
     </row>
-    <row r="3" spans="1:52" ht="16.5">
+    <row r="3" spans="1:52" ht="16.2">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
@@ -4172,33 +4169,33 @@
     <row r="4" spans="1:52" ht="18.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="281" t="s">
+      <c r="C4" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="218"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="269"/>
-      <c r="G4" s="269"/>
-      <c r="H4" s="269"/>
-      <c r="I4" s="218"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="257"/>
+      <c r="F4" s="211"/>
+      <c r="G4" s="211"/>
+      <c r="H4" s="211"/>
+      <c r="I4" s="212"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
       <c r="N4" s="13"/>
       <c r="O4" s="16"/>
-      <c r="P4" s="289" t="s">
+      <c r="P4" s="217" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="226"/>
-      <c r="R4" s="197"/>
-      <c r="S4" s="283" t="s">
+      <c r="Q4" s="197"/>
+      <c r="R4" s="194"/>
+      <c r="S4" s="258" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="269"/>
-      <c r="U4" s="269"/>
-      <c r="V4" s="269"/>
-      <c r="W4" s="218"/>
+      <c r="T4" s="211"/>
+      <c r="U4" s="211"/>
+      <c r="V4" s="211"/>
+      <c r="W4" s="212"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="17"/>
       <c r="Z4" s="8"/>
@@ -4232,31 +4229,31 @@
     <row r="5" spans="1:52" ht="18.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="286" t="s">
+      <c r="C5" s="261" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="218"/>
-      <c r="E5" s="284"/>
-      <c r="F5" s="269"/>
-      <c r="G5" s="269"/>
-      <c r="H5" s="269"/>
-      <c r="I5" s="218"/>
+      <c r="D5" s="212"/>
+      <c r="E5" s="259"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="212"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
       <c r="N5" s="13"/>
       <c r="O5" s="16"/>
-      <c r="P5" s="215" t="s">
+      <c r="P5" s="264" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="212"/>
-      <c r="R5" s="213"/>
-      <c r="S5" s="285"/>
-      <c r="T5" s="269"/>
-      <c r="U5" s="269"/>
-      <c r="V5" s="269"/>
-      <c r="W5" s="218"/>
+      <c r="Q5" s="209"/>
+      <c r="R5" s="199"/>
+      <c r="S5" s="260"/>
+      <c r="T5" s="211"/>
+      <c r="U5" s="211"/>
+      <c r="V5" s="211"/>
+      <c r="W5" s="212"/>
       <c r="X5" s="8"/>
       <c r="Y5" s="14"/>
       <c r="Z5" s="8"/>
@@ -4346,41 +4343,41 @@
       <c r="B7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="287" t="s">
+      <c r="C7" s="262" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="218"/>
+      <c r="D7" s="212"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="288" t="s">
+      <c r="F7" s="263" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="218"/>
+      <c r="G7" s="212"/>
       <c r="H7" s="19"/>
-      <c r="I7" s="288" t="s">
+      <c r="I7" s="263" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="269"/>
+      <c r="J7" s="211"/>
       <c r="K7" s="184"/>
       <c r="L7" s="185"/>
-      <c r="M7" s="290" t="s">
+      <c r="M7" s="265" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="209"/>
-      <c r="O7" s="195"/>
-      <c r="P7" s="291" t="e">
+      <c r="N7" s="266"/>
+      <c r="O7" s="267"/>
+      <c r="P7" s="271" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q7" s="209"/>
-      <c r="R7" s="195"/>
-      <c r="S7" s="292" t="s">
+      <c r="Q7" s="266"/>
+      <c r="R7" s="267"/>
+      <c r="S7" s="274" t="s">
         <v>13</v>
       </c>
-      <c r="T7" s="293"/>
-      <c r="U7" s="209"/>
-      <c r="V7" s="209"/>
-      <c r="W7" s="209"/>
-      <c r="X7" s="210"/>
+      <c r="T7" s="275"/>
+      <c r="U7" s="266"/>
+      <c r="V7" s="266"/>
+      <c r="W7" s="266"/>
+      <c r="X7" s="276"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
@@ -4411,34 +4408,34 @@
       <c r="AZ7" s="1"/>
     </row>
     <row r="8" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A8" s="294" t="s">
+      <c r="A8" s="193" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="197"/>
-      <c r="C8" s="321"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="225" t="s">
+      <c r="B8" s="194"/>
+      <c r="C8" s="201"/>
+      <c r="D8" s="202"/>
+      <c r="E8" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="226"/>
-      <c r="G8" s="197"/>
-      <c r="H8" s="250"/>
-      <c r="I8" s="251"/>
-      <c r="J8" s="251"/>
-      <c r="K8" s="251"/>
-      <c r="L8" s="252"/>
-      <c r="M8" s="257"/>
-      <c r="N8" s="220"/>
-      <c r="O8" s="202"/>
-      <c r="P8" s="260"/>
-      <c r="Q8" s="220"/>
-      <c r="R8" s="202"/>
-      <c r="S8" s="263"/>
-      <c r="T8" s="260"/>
-      <c r="U8" s="220"/>
-      <c r="V8" s="220"/>
-      <c r="W8" s="220"/>
-      <c r="X8" s="267"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="283"/>
+      <c r="I8" s="221"/>
+      <c r="J8" s="221"/>
+      <c r="K8" s="221"/>
+      <c r="L8" s="278"/>
+      <c r="M8" s="268"/>
+      <c r="N8" s="238"/>
+      <c r="O8" s="269"/>
+      <c r="P8" s="272"/>
+      <c r="Q8" s="238"/>
+      <c r="R8" s="269"/>
+      <c r="S8" s="234"/>
+      <c r="T8" s="272"/>
+      <c r="U8" s="238"/>
+      <c r="V8" s="238"/>
+      <c r="W8" s="238"/>
+      <c r="X8" s="277"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
@@ -4469,34 +4466,34 @@
       <c r="AZ8" s="1"/>
     </row>
     <row r="9" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A9" s="295" t="s">
+      <c r="A9" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="213"/>
-      <c r="C9" s="253"/>
-      <c r="D9" s="213"/>
+      <c r="B9" s="199"/>
+      <c r="C9" s="252"/>
+      <c r="D9" s="199"/>
       <c r="E9" s="21" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
-      <c r="H9" s="253"/>
-      <c r="I9" s="212"/>
-      <c r="J9" s="212"/>
-      <c r="K9" s="212"/>
-      <c r="L9" s="207"/>
-      <c r="M9" s="258"/>
-      <c r="N9" s="251"/>
-      <c r="O9" s="199"/>
-      <c r="P9" s="261"/>
-      <c r="Q9" s="251"/>
-      <c r="R9" s="199"/>
-      <c r="S9" s="264"/>
-      <c r="T9" s="261"/>
-      <c r="U9" s="251"/>
-      <c r="V9" s="251"/>
-      <c r="W9" s="251"/>
-      <c r="X9" s="252"/>
+      <c r="H9" s="252"/>
+      <c r="I9" s="209"/>
+      <c r="J9" s="209"/>
+      <c r="K9" s="209"/>
+      <c r="L9" s="250"/>
+      <c r="M9" s="270"/>
+      <c r="N9" s="221"/>
+      <c r="O9" s="202"/>
+      <c r="P9" s="273"/>
+      <c r="Q9" s="221"/>
+      <c r="R9" s="202"/>
+      <c r="S9" s="235"/>
+      <c r="T9" s="273"/>
+      <c r="U9" s="221"/>
+      <c r="V9" s="221"/>
+      <c r="W9" s="221"/>
+      <c r="X9" s="278"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
@@ -4527,41 +4524,41 @@
       <c r="AZ9" s="1"/>
     </row>
     <row r="10" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A10" s="294" t="s">
+      <c r="A10" s="193" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="197"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="197"/>
-      <c r="E10" s="225" t="s">
+      <c r="B10" s="194"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="226"/>
-      <c r="G10" s="197"/>
-      <c r="H10" s="227"/>
-      <c r="I10" s="226"/>
-      <c r="J10" s="226"/>
-      <c r="K10" s="226"/>
-      <c r="L10" s="228"/>
-      <c r="M10" s="254" t="s">
+      <c r="F10" s="197"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="253"/>
+      <c r="I10" s="197"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="197"/>
+      <c r="L10" s="219"/>
+      <c r="M10" s="284" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="255"/>
-      <c r="O10" s="256"/>
-      <c r="P10" s="259" t="e">
+      <c r="N10" s="285"/>
+      <c r="O10" s="286"/>
+      <c r="P10" s="287" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q10" s="255"/>
-      <c r="R10" s="256"/>
-      <c r="S10" s="262" t="s">
+      <c r="Q10" s="285"/>
+      <c r="R10" s="286"/>
+      <c r="S10" s="288" t="s">
         <v>20</v>
       </c>
-      <c r="T10" s="265"/>
-      <c r="U10" s="255"/>
-      <c r="V10" s="255"/>
-      <c r="W10" s="255"/>
-      <c r="X10" s="266"/>
+      <c r="T10" s="289"/>
+      <c r="U10" s="285"/>
+      <c r="V10" s="285"/>
+      <c r="W10" s="285"/>
+      <c r="X10" s="290"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
@@ -4592,34 +4589,34 @@
       <c r="AZ10" s="1"/>
     </row>
     <row r="11" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A11" s="295" t="s">
+      <c r="A11" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="213"/>
-      <c r="C11" s="304"/>
-      <c r="D11" s="213"/>
+      <c r="B11" s="199"/>
+      <c r="C11" s="198"/>
+      <c r="D11" s="199"/>
       <c r="E11" s="21" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
-      <c r="H11" s="253"/>
-      <c r="I11" s="212"/>
-      <c r="J11" s="212"/>
-      <c r="K11" s="212"/>
-      <c r="L11" s="207"/>
-      <c r="M11" s="257"/>
-      <c r="N11" s="220"/>
-      <c r="O11" s="202"/>
-      <c r="P11" s="260"/>
-      <c r="Q11" s="220"/>
-      <c r="R11" s="202"/>
-      <c r="S11" s="263"/>
-      <c r="T11" s="260"/>
-      <c r="U11" s="220"/>
-      <c r="V11" s="220"/>
-      <c r="W11" s="220"/>
-      <c r="X11" s="267"/>
+      <c r="H11" s="252"/>
+      <c r="I11" s="209"/>
+      <c r="J11" s="209"/>
+      <c r="K11" s="209"/>
+      <c r="L11" s="250"/>
+      <c r="M11" s="268"/>
+      <c r="N11" s="238"/>
+      <c r="O11" s="269"/>
+      <c r="P11" s="272"/>
+      <c r="Q11" s="238"/>
+      <c r="R11" s="269"/>
+      <c r="S11" s="234"/>
+      <c r="T11" s="272"/>
+      <c r="U11" s="238"/>
+      <c r="V11" s="238"/>
+      <c r="W11" s="238"/>
+      <c r="X11" s="277"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
@@ -4650,34 +4647,34 @@
       <c r="AZ11" s="1"/>
     </row>
     <row r="12" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A12" s="294" t="s">
+      <c r="A12" s="193" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="197"/>
-      <c r="C12" s="224"/>
-      <c r="D12" s="197"/>
-      <c r="E12" s="225" t="s">
+      <c r="B12" s="194"/>
+      <c r="C12" s="195"/>
+      <c r="D12" s="194"/>
+      <c r="E12" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="226"/>
-      <c r="G12" s="197"/>
-      <c r="H12" s="227"/>
-      <c r="I12" s="226"/>
-      <c r="J12" s="226"/>
-      <c r="K12" s="226"/>
-      <c r="L12" s="228"/>
-      <c r="M12" s="257"/>
-      <c r="N12" s="220"/>
-      <c r="O12" s="202"/>
-      <c r="P12" s="260"/>
-      <c r="Q12" s="220"/>
-      <c r="R12" s="202"/>
-      <c r="S12" s="263"/>
-      <c r="T12" s="260"/>
-      <c r="U12" s="220"/>
-      <c r="V12" s="220"/>
-      <c r="W12" s="220"/>
-      <c r="X12" s="267"/>
+      <c r="F12" s="197"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="253"/>
+      <c r="I12" s="197"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="197"/>
+      <c r="L12" s="219"/>
+      <c r="M12" s="268"/>
+      <c r="N12" s="238"/>
+      <c r="O12" s="269"/>
+      <c r="P12" s="272"/>
+      <c r="Q12" s="238"/>
+      <c r="R12" s="269"/>
+      <c r="S12" s="234"/>
+      <c r="T12" s="272"/>
+      <c r="U12" s="238"/>
+      <c r="V12" s="238"/>
+      <c r="W12" s="238"/>
+      <c r="X12" s="277"/>
       <c r="Y12" s="20"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
@@ -4708,34 +4705,34 @@
       <c r="AZ12" s="1"/>
     </row>
     <row r="13" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A13" s="295" t="s">
+      <c r="A13" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="213"/>
-      <c r="C13" s="304"/>
-      <c r="D13" s="213"/>
+      <c r="B13" s="199"/>
+      <c r="C13" s="198"/>
+      <c r="D13" s="199"/>
       <c r="E13" s="21" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
-      <c r="H13" s="253"/>
-      <c r="I13" s="212"/>
-      <c r="J13" s="212"/>
-      <c r="K13" s="212"/>
-      <c r="L13" s="207"/>
-      <c r="M13" s="258"/>
-      <c r="N13" s="251"/>
-      <c r="O13" s="199"/>
-      <c r="P13" s="261"/>
-      <c r="Q13" s="251"/>
-      <c r="R13" s="199"/>
-      <c r="S13" s="264"/>
-      <c r="T13" s="261"/>
-      <c r="U13" s="251"/>
-      <c r="V13" s="251"/>
-      <c r="W13" s="251"/>
-      <c r="X13" s="252"/>
+      <c r="H13" s="252"/>
+      <c r="I13" s="209"/>
+      <c r="J13" s="209"/>
+      <c r="K13" s="209"/>
+      <c r="L13" s="250"/>
+      <c r="M13" s="270"/>
+      <c r="N13" s="221"/>
+      <c r="O13" s="202"/>
+      <c r="P13" s="273"/>
+      <c r="Q13" s="221"/>
+      <c r="R13" s="202"/>
+      <c r="S13" s="235"/>
+      <c r="T13" s="273"/>
+      <c r="U13" s="221"/>
+      <c r="V13" s="221"/>
+      <c r="W13" s="221"/>
+      <c r="X13" s="278"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
@@ -4766,41 +4763,41 @@
       <c r="AZ13" s="1"/>
     </row>
     <row r="14" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A14" s="294" t="s">
+      <c r="A14" s="193" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="197"/>
-      <c r="C14" s="224"/>
-      <c r="D14" s="197"/>
-      <c r="E14" s="225" t="s">
+      <c r="B14" s="194"/>
+      <c r="C14" s="195"/>
+      <c r="D14" s="194"/>
+      <c r="E14" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="226"/>
-      <c r="G14" s="197"/>
-      <c r="H14" s="227"/>
-      <c r="I14" s="226"/>
-      <c r="J14" s="226"/>
-      <c r="K14" s="226"/>
-      <c r="L14" s="228"/>
-      <c r="M14" s="254" t="s">
+      <c r="F14" s="197"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="253"/>
+      <c r="I14" s="197"/>
+      <c r="J14" s="197"/>
+      <c r="K14" s="197"/>
+      <c r="L14" s="219"/>
+      <c r="M14" s="284" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="255"/>
-      <c r="O14" s="256"/>
-      <c r="P14" s="259" t="e">
+      <c r="N14" s="285"/>
+      <c r="O14" s="286"/>
+      <c r="P14" s="287" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q14" s="255"/>
-      <c r="R14" s="256"/>
-      <c r="S14" s="275" t="s">
+      <c r="Q14" s="285"/>
+      <c r="R14" s="286"/>
+      <c r="S14" s="295" t="s">
         <v>17</v>
       </c>
-      <c r="T14" s="277"/>
-      <c r="U14" s="255"/>
-      <c r="V14" s="255"/>
-      <c r="W14" s="255"/>
-      <c r="X14" s="266"/>
+      <c r="T14" s="297"/>
+      <c r="U14" s="285"/>
+      <c r="V14" s="285"/>
+      <c r="W14" s="285"/>
+      <c r="X14" s="290"/>
       <c r="Y14" s="22"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
@@ -4831,34 +4828,34 @@
       <c r="AZ14" s="1"/>
     </row>
     <row r="15" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A15" s="295" t="s">
+      <c r="A15" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="213"/>
-      <c r="C15" s="304"/>
-      <c r="D15" s="213"/>
+      <c r="B15" s="199"/>
+      <c r="C15" s="198"/>
+      <c r="D15" s="199"/>
       <c r="E15" s="21" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
-      <c r="H15" s="253"/>
-      <c r="I15" s="212"/>
-      <c r="J15" s="212"/>
-      <c r="K15" s="212"/>
-      <c r="L15" s="207"/>
-      <c r="M15" s="257"/>
-      <c r="N15" s="220"/>
-      <c r="O15" s="202"/>
-      <c r="P15" s="260"/>
-      <c r="Q15" s="220"/>
-      <c r="R15" s="202"/>
-      <c r="S15" s="263"/>
-      <c r="T15" s="260"/>
-      <c r="U15" s="220"/>
-      <c r="V15" s="220"/>
-      <c r="W15" s="220"/>
-      <c r="X15" s="267"/>
+      <c r="H15" s="252"/>
+      <c r="I15" s="209"/>
+      <c r="J15" s="209"/>
+      <c r="K15" s="209"/>
+      <c r="L15" s="250"/>
+      <c r="M15" s="268"/>
+      <c r="N15" s="238"/>
+      <c r="O15" s="269"/>
+      <c r="P15" s="272"/>
+      <c r="Q15" s="238"/>
+      <c r="R15" s="269"/>
+      <c r="S15" s="234"/>
+      <c r="T15" s="272"/>
+      <c r="U15" s="238"/>
+      <c r="V15" s="238"/>
+      <c r="W15" s="238"/>
+      <c r="X15" s="277"/>
       <c r="Y15" s="22"/>
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
@@ -4889,34 +4886,34 @@
       <c r="AZ15" s="1"/>
     </row>
     <row r="16" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A16" s="294" t="s">
+      <c r="A16" s="193" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="197"/>
-      <c r="C16" s="224"/>
-      <c r="D16" s="197"/>
-      <c r="E16" s="225" t="s">
+      <c r="B16" s="194"/>
+      <c r="C16" s="195"/>
+      <c r="D16" s="194"/>
+      <c r="E16" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="226"/>
-      <c r="G16" s="197"/>
-      <c r="H16" s="227"/>
-      <c r="I16" s="226"/>
-      <c r="J16" s="226"/>
-      <c r="K16" s="226"/>
-      <c r="L16" s="228"/>
-      <c r="M16" s="257"/>
-      <c r="N16" s="220"/>
-      <c r="O16" s="202"/>
-      <c r="P16" s="260"/>
-      <c r="Q16" s="220"/>
-      <c r="R16" s="202"/>
-      <c r="S16" s="263"/>
-      <c r="T16" s="260"/>
-      <c r="U16" s="220"/>
-      <c r="V16" s="220"/>
-      <c r="W16" s="220"/>
-      <c r="X16" s="267"/>
+      <c r="F16" s="197"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="253"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="197"/>
+      <c r="L16" s="219"/>
+      <c r="M16" s="268"/>
+      <c r="N16" s="238"/>
+      <c r="O16" s="269"/>
+      <c r="P16" s="272"/>
+      <c r="Q16" s="238"/>
+      <c r="R16" s="269"/>
+      <c r="S16" s="234"/>
+      <c r="T16" s="272"/>
+      <c r="U16" s="238"/>
+      <c r="V16" s="238"/>
+      <c r="W16" s="238"/>
+      <c r="X16" s="277"/>
       <c r="Y16" s="22"/>
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
@@ -4947,34 +4944,34 @@
       <c r="AZ16" s="1"/>
     </row>
     <row r="17" spans="1:52" ht="19.5" customHeight="1">
-      <c r="A17" s="295" t="s">
+      <c r="A17" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="213"/>
-      <c r="C17" s="304"/>
-      <c r="D17" s="213"/>
+      <c r="B17" s="199"/>
+      <c r="C17" s="198"/>
+      <c r="D17" s="199"/>
       <c r="E17" s="21" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
-      <c r="H17" s="253"/>
-      <c r="I17" s="212"/>
-      <c r="J17" s="212"/>
-      <c r="K17" s="212"/>
-      <c r="L17" s="207"/>
-      <c r="M17" s="271"/>
-      <c r="N17" s="272"/>
-      <c r="O17" s="273"/>
-      <c r="P17" s="274"/>
-      <c r="Q17" s="272"/>
-      <c r="R17" s="273"/>
-      <c r="S17" s="276"/>
-      <c r="T17" s="274"/>
-      <c r="U17" s="272"/>
-      <c r="V17" s="272"/>
-      <c r="W17" s="272"/>
-      <c r="X17" s="278"/>
+      <c r="H17" s="252"/>
+      <c r="I17" s="209"/>
+      <c r="J17" s="209"/>
+      <c r="K17" s="209"/>
+      <c r="L17" s="250"/>
+      <c r="M17" s="292"/>
+      <c r="N17" s="214"/>
+      <c r="O17" s="293"/>
+      <c r="P17" s="294"/>
+      <c r="Q17" s="214"/>
+      <c r="R17" s="293"/>
+      <c r="S17" s="296"/>
+      <c r="T17" s="294"/>
+      <c r="U17" s="214"/>
+      <c r="V17" s="214"/>
+      <c r="W17" s="214"/>
+      <c r="X17" s="215"/>
       <c r="Y17" s="22"/>
       <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
@@ -5005,42 +5002,42 @@
       <c r="AZ17" s="1"/>
     </row>
     <row r="18" spans="1:52" ht="18.75" customHeight="1">
-      <c r="A18" s="298" t="s">
+      <c r="A18" s="206" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="226"/>
-      <c r="C18" s="226"/>
-      <c r="D18" s="197"/>
-      <c r="E18" s="296" t="s">
+      <c r="B18" s="197"/>
+      <c r="C18" s="197"/>
+      <c r="D18" s="194"/>
+      <c r="E18" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="226"/>
-      <c r="G18" s="197"/>
-      <c r="H18" s="296" t="s">
+      <c r="F18" s="197"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="226"/>
-      <c r="J18" s="226"/>
-      <c r="K18" s="226"/>
-      <c r="L18" s="228"/>
-      <c r="M18" s="298" t="s">
+      <c r="I18" s="197"/>
+      <c r="J18" s="197"/>
+      <c r="K18" s="197"/>
+      <c r="L18" s="219"/>
+      <c r="M18" s="206" t="s">
         <v>24</v>
       </c>
-      <c r="N18" s="226"/>
-      <c r="O18" s="197"/>
-      <c r="P18" s="296" t="s">
+      <c r="N18" s="197"/>
+      <c r="O18" s="194"/>
+      <c r="P18" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="Q18" s="226"/>
-      <c r="R18" s="197"/>
-      <c r="S18" s="296" t="s">
+      <c r="Q18" s="197"/>
+      <c r="R18" s="194"/>
+      <c r="S18" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="T18" s="226"/>
-      <c r="U18" s="226"/>
-      <c r="V18" s="226"/>
-      <c r="W18" s="226"/>
-      <c r="X18" s="228"/>
+      <c r="T18" s="197"/>
+      <c r="U18" s="197"/>
+      <c r="V18" s="197"/>
+      <c r="W18" s="197"/>
+      <c r="X18" s="219"/>
       <c r="Y18" s="14"/>
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
@@ -5071,40 +5068,38 @@
       <c r="AZ18" s="1"/>
     </row>
     <row r="19" spans="1:52" ht="22.5" customHeight="1">
-      <c r="A19" s="241">
+      <c r="A19" s="239">
         <v>1</v>
       </c>
-      <c r="B19" s="193"/>
-      <c r="C19" s="302" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="193"/>
-      <c r="E19" s="303"/>
-      <c r="F19" s="230"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="229"/>
-      <c r="I19" s="230"/>
-      <c r="J19" s="230"/>
-      <c r="K19" s="230"/>
-      <c r="L19" s="205"/>
+      <c r="B19" s="204"/>
+      <c r="C19" s="245"/>
+      <c r="D19" s="204"/>
+      <c r="E19" s="244"/>
+      <c r="F19" s="231"/>
+      <c r="G19" s="204"/>
+      <c r="H19" s="246"/>
+      <c r="I19" s="231"/>
+      <c r="J19" s="231"/>
+      <c r="K19" s="231"/>
+      <c r="L19" s="247"/>
       <c r="M19" s="23">
         <f>A19</f>
         <v>1</v>
       </c>
-      <c r="N19" s="297" t="str">
+      <c r="N19" s="243">
         <f>C19</f>
-        <v>萬裕隆/430</v>
+        <v>0</v>
       </c>
-      <c r="O19" s="193"/>
-      <c r="P19" s="303"/>
-      <c r="Q19" s="230"/>
-      <c r="R19" s="193"/>
-      <c r="S19" s="229"/>
-      <c r="T19" s="230"/>
-      <c r="U19" s="230"/>
-      <c r="V19" s="230"/>
-      <c r="W19" s="230"/>
-      <c r="X19" s="205"/>
+      <c r="O19" s="204"/>
+      <c r="P19" s="244"/>
+      <c r="Q19" s="231"/>
+      <c r="R19" s="204"/>
+      <c r="S19" s="246"/>
+      <c r="T19" s="231"/>
+      <c r="U19" s="231"/>
+      <c r="V19" s="231"/>
+      <c r="W19" s="231"/>
+      <c r="X19" s="247"/>
       <c r="Y19" s="24"/>
       <c r="Z19" s="8"/>
       <c r="AA19" s="8"/>
@@ -5135,37 +5130,37 @@
       <c r="AZ19" s="1"/>
     </row>
     <row r="20" spans="1:52" ht="22.5" customHeight="1">
-      <c r="A20" s="241">
+      <c r="A20" s="239">
         <v>2</v>
       </c>
-      <c r="B20" s="193"/>
-      <c r="C20" s="302"/>
-      <c r="D20" s="193"/>
-      <c r="E20" s="303"/>
-      <c r="F20" s="230"/>
-      <c r="G20" s="193"/>
-      <c r="H20" s="299"/>
-      <c r="I20" s="230"/>
-      <c r="J20" s="230"/>
-      <c r="K20" s="230"/>
-      <c r="L20" s="205"/>
+      <c r="B20" s="204"/>
+      <c r="C20" s="245"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="244"/>
+      <c r="F20" s="231"/>
+      <c r="G20" s="204"/>
+      <c r="H20" s="248"/>
+      <c r="I20" s="231"/>
+      <c r="J20" s="231"/>
+      <c r="K20" s="231"/>
+      <c r="L20" s="247"/>
       <c r="M20" s="23">
         <v>2</v>
       </c>
-      <c r="N20" s="297">
+      <c r="N20" s="243">
         <f>C20</f>
         <v>0</v>
       </c>
-      <c r="O20" s="193"/>
-      <c r="P20" s="303"/>
-      <c r="Q20" s="230"/>
-      <c r="R20" s="193"/>
-      <c r="S20" s="229"/>
-      <c r="T20" s="230"/>
-      <c r="U20" s="230"/>
-      <c r="V20" s="230"/>
-      <c r="W20" s="230"/>
-      <c r="X20" s="205"/>
+      <c r="O20" s="204"/>
+      <c r="P20" s="244"/>
+      <c r="Q20" s="231"/>
+      <c r="R20" s="204"/>
+      <c r="S20" s="246"/>
+      <c r="T20" s="231"/>
+      <c r="U20" s="231"/>
+      <c r="V20" s="231"/>
+      <c r="W20" s="231"/>
+      <c r="X20" s="247"/>
       <c r="Y20" s="24"/>
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
@@ -5196,37 +5191,37 @@
       <c r="AZ20" s="1"/>
     </row>
     <row r="21" spans="1:52" ht="22.5" customHeight="1">
-      <c r="A21" s="241">
+      <c r="A21" s="239">
         <v>3</v>
       </c>
-      <c r="B21" s="193"/>
-      <c r="C21" s="302"/>
-      <c r="D21" s="193"/>
-      <c r="E21" s="303"/>
-      <c r="F21" s="230"/>
-      <c r="G21" s="193"/>
-      <c r="H21" s="299"/>
-      <c r="I21" s="230"/>
-      <c r="J21" s="230"/>
-      <c r="K21" s="230"/>
-      <c r="L21" s="205"/>
+      <c r="B21" s="204"/>
+      <c r="C21" s="245"/>
+      <c r="D21" s="204"/>
+      <c r="E21" s="244"/>
+      <c r="F21" s="231"/>
+      <c r="G21" s="204"/>
+      <c r="H21" s="248"/>
+      <c r="I21" s="231"/>
+      <c r="J21" s="231"/>
+      <c r="K21" s="231"/>
+      <c r="L21" s="247"/>
       <c r="M21" s="23">
         <v>3</v>
       </c>
-      <c r="N21" s="297">
+      <c r="N21" s="243">
         <f>C21</f>
         <v>0</v>
       </c>
-      <c r="O21" s="193"/>
-      <c r="P21" s="303"/>
-      <c r="Q21" s="230"/>
-      <c r="R21" s="193"/>
-      <c r="S21" s="229"/>
-      <c r="T21" s="230"/>
-      <c r="U21" s="230"/>
-      <c r="V21" s="230"/>
-      <c r="W21" s="230"/>
-      <c r="X21" s="205"/>
+      <c r="O21" s="204"/>
+      <c r="P21" s="244"/>
+      <c r="Q21" s="231"/>
+      <c r="R21" s="204"/>
+      <c r="S21" s="246"/>
+      <c r="T21" s="231"/>
+      <c r="U21" s="231"/>
+      <c r="V21" s="231"/>
+      <c r="W21" s="231"/>
+      <c r="X21" s="247"/>
       <c r="Y21" s="24"/>
       <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
@@ -5257,37 +5252,37 @@
       <c r="AZ21" s="1"/>
     </row>
     <row r="22" spans="1:52" ht="22.5" customHeight="1">
-      <c r="A22" s="241">
+      <c r="A22" s="239">
         <v>4</v>
       </c>
-      <c r="B22" s="193"/>
-      <c r="C22" s="302"/>
-      <c r="D22" s="193"/>
-      <c r="E22" s="303"/>
-      <c r="F22" s="230"/>
-      <c r="G22" s="193"/>
-      <c r="H22" s="299"/>
-      <c r="I22" s="230"/>
-      <c r="J22" s="230"/>
-      <c r="K22" s="230"/>
-      <c r="L22" s="205"/>
+      <c r="B22" s="204"/>
+      <c r="C22" s="245"/>
+      <c r="D22" s="204"/>
+      <c r="E22" s="244"/>
+      <c r="F22" s="231"/>
+      <c r="G22" s="204"/>
+      <c r="H22" s="248"/>
+      <c r="I22" s="231"/>
+      <c r="J22" s="231"/>
+      <c r="K22" s="231"/>
+      <c r="L22" s="247"/>
       <c r="M22" s="23">
         <v>4</v>
       </c>
-      <c r="N22" s="297">
+      <c r="N22" s="243">
         <f>C22</f>
         <v>0</v>
       </c>
-      <c r="O22" s="193"/>
-      <c r="P22" s="303"/>
-      <c r="Q22" s="230"/>
-      <c r="R22" s="193"/>
-      <c r="S22" s="229"/>
-      <c r="T22" s="230"/>
-      <c r="U22" s="230"/>
-      <c r="V22" s="230"/>
-      <c r="W22" s="230"/>
-      <c r="X22" s="205"/>
+      <c r="O22" s="204"/>
+      <c r="P22" s="244"/>
+      <c r="Q22" s="231"/>
+      <c r="R22" s="204"/>
+      <c r="S22" s="246"/>
+      <c r="T22" s="231"/>
+      <c r="U22" s="231"/>
+      <c r="V22" s="231"/>
+      <c r="W22" s="231"/>
+      <c r="X22" s="247"/>
       <c r="Y22" s="24"/>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
@@ -5318,37 +5313,37 @@
       <c r="AZ22" s="1"/>
     </row>
     <row r="23" spans="1:52" ht="22.5" customHeight="1">
-      <c r="A23" s="241">
+      <c r="A23" s="239">
         <v>5</v>
       </c>
-      <c r="B23" s="193"/>
-      <c r="C23" s="302"/>
-      <c r="D23" s="193"/>
-      <c r="E23" s="303"/>
-      <c r="F23" s="230"/>
-      <c r="G23" s="193"/>
-      <c r="H23" s="299"/>
-      <c r="I23" s="230"/>
-      <c r="J23" s="230"/>
-      <c r="K23" s="230"/>
-      <c r="L23" s="205"/>
+      <c r="B23" s="204"/>
+      <c r="C23" s="245"/>
+      <c r="D23" s="204"/>
+      <c r="E23" s="244"/>
+      <c r="F23" s="231"/>
+      <c r="G23" s="204"/>
+      <c r="H23" s="248"/>
+      <c r="I23" s="231"/>
+      <c r="J23" s="231"/>
+      <c r="K23" s="231"/>
+      <c r="L23" s="247"/>
       <c r="M23" s="23">
         <v>5</v>
       </c>
-      <c r="N23" s="297">
+      <c r="N23" s="243">
         <f>C23</f>
         <v>0</v>
       </c>
-      <c r="O23" s="193"/>
-      <c r="P23" s="303"/>
-      <c r="Q23" s="230"/>
-      <c r="R23" s="193"/>
-      <c r="S23" s="229"/>
-      <c r="T23" s="230"/>
-      <c r="U23" s="230"/>
-      <c r="V23" s="230"/>
-      <c r="W23" s="230"/>
-      <c r="X23" s="205"/>
+      <c r="O23" s="204"/>
+      <c r="P23" s="244"/>
+      <c r="Q23" s="231"/>
+      <c r="R23" s="204"/>
+      <c r="S23" s="246"/>
+      <c r="T23" s="231"/>
+      <c r="U23" s="231"/>
+      <c r="V23" s="231"/>
+      <c r="W23" s="231"/>
+      <c r="X23" s="247"/>
       <c r="Y23" s="24"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
@@ -5379,38 +5374,38 @@
       <c r="AZ23" s="1"/>
     </row>
     <row r="24" spans="1:52" ht="22.5" customHeight="1">
-      <c r="A24" s="211" t="s">
+      <c r="A24" s="251" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="209"/>
+      <c r="C24" s="209"/>
+      <c r="D24" s="199"/>
+      <c r="E24" s="208"/>
+      <c r="F24" s="209"/>
+      <c r="G24" s="199"/>
+      <c r="H24" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="212"/>
-      <c r="C24" s="212"/>
-      <c r="D24" s="213"/>
-      <c r="E24" s="301"/>
-      <c r="F24" s="212"/>
-      <c r="G24" s="213"/>
-      <c r="H24" s="25" t="s">
-        <v>29</v>
+      <c r="I24" s="249"/>
+      <c r="J24" s="209"/>
+      <c r="K24" s="209"/>
+      <c r="L24" s="250"/>
+      <c r="M24" s="251" t="s">
+        <v>27</v>
       </c>
-      <c r="I24" s="300"/>
-      <c r="J24" s="212"/>
-      <c r="K24" s="212"/>
-      <c r="L24" s="207"/>
-      <c r="M24" s="211" t="s">
+      <c r="N24" s="209"/>
+      <c r="O24" s="199"/>
+      <c r="P24" s="208"/>
+      <c r="Q24" s="209"/>
+      <c r="R24" s="199"/>
+      <c r="S24" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="N24" s="212"/>
-      <c r="O24" s="213"/>
-      <c r="P24" s="301"/>
-      <c r="Q24" s="212"/>
-      <c r="R24" s="213"/>
-      <c r="S24" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T24" s="231"/>
-      <c r="U24" s="212"/>
-      <c r="V24" s="212"/>
-      <c r="W24" s="212"/>
-      <c r="X24" s="207"/>
+      <c r="T24" s="298"/>
+      <c r="U24" s="209"/>
+      <c r="V24" s="209"/>
+      <c r="W24" s="209"/>
+      <c r="X24" s="250"/>
       <c r="Y24" s="27"/>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
@@ -5441,32 +5436,32 @@
       <c r="AZ24" s="1"/>
     </row>
     <row r="25" spans="1:52" ht="27" customHeight="1">
-      <c r="A25" s="312" t="s">
-        <v>118</v>
+      <c r="A25" s="210" t="s">
+        <v>117</v>
       </c>
-      <c r="B25" s="269"/>
-      <c r="C25" s="269"/>
-      <c r="D25" s="269"/>
-      <c r="E25" s="269"/>
-      <c r="F25" s="269"/>
-      <c r="G25" s="269"/>
-      <c r="H25" s="269"/>
-      <c r="I25" s="269"/>
-      <c r="J25" s="269"/>
-      <c r="K25" s="269"/>
-      <c r="L25" s="269"/>
-      <c r="M25" s="269"/>
-      <c r="N25" s="269"/>
-      <c r="O25" s="269"/>
-      <c r="P25" s="269"/>
-      <c r="Q25" s="269"/>
-      <c r="R25" s="269"/>
-      <c r="S25" s="269"/>
-      <c r="T25" s="269"/>
-      <c r="U25" s="269"/>
-      <c r="V25" s="269"/>
-      <c r="W25" s="269"/>
-      <c r="X25" s="218"/>
+      <c r="B25" s="211"/>
+      <c r="C25" s="211"/>
+      <c r="D25" s="211"/>
+      <c r="E25" s="211"/>
+      <c r="F25" s="211"/>
+      <c r="G25" s="211"/>
+      <c r="H25" s="211"/>
+      <c r="I25" s="211"/>
+      <c r="J25" s="211"/>
+      <c r="K25" s="211"/>
+      <c r="L25" s="211"/>
+      <c r="M25" s="211"/>
+      <c r="N25" s="211"/>
+      <c r="O25" s="211"/>
+      <c r="P25" s="211"/>
+      <c r="Q25" s="211"/>
+      <c r="R25" s="211"/>
+      <c r="S25" s="211"/>
+      <c r="T25" s="211"/>
+      <c r="U25" s="211"/>
+      <c r="V25" s="211"/>
+      <c r="W25" s="211"/>
+      <c r="X25" s="212"/>
       <c r="Y25" s="14"/>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
@@ -5497,34 +5492,34 @@
       <c r="AZ25" s="1"/>
     </row>
     <row r="26" spans="1:52" ht="27" customHeight="1">
-      <c r="A26" s="313" t="s">
+      <c r="A26" s="213" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="214"/>
+      <c r="C26" s="214"/>
+      <c r="D26" s="214"/>
+      <c r="E26" s="214"/>
+      <c r="F26" s="214"/>
+      <c r="G26" s="214"/>
+      <c r="H26" s="214"/>
+      <c r="I26" s="214"/>
+      <c r="J26" s="214"/>
+      <c r="K26" s="214"/>
+      <c r="L26" s="215"/>
+      <c r="M26" s="216" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="272"/>
-      <c r="C26" s="272"/>
-      <c r="D26" s="272"/>
-      <c r="E26" s="272"/>
-      <c r="F26" s="272"/>
-      <c r="G26" s="272"/>
-      <c r="H26" s="272"/>
-      <c r="I26" s="272"/>
-      <c r="J26" s="272"/>
-      <c r="K26" s="272"/>
-      <c r="L26" s="278"/>
-      <c r="M26" s="314" t="s">
-        <v>120</v>
-      </c>
-      <c r="N26" s="269"/>
-      <c r="O26" s="269"/>
-      <c r="P26" s="269"/>
-      <c r="Q26" s="269"/>
-      <c r="R26" s="269"/>
-      <c r="S26" s="269"/>
-      <c r="T26" s="269"/>
-      <c r="U26" s="269"/>
-      <c r="V26" s="269"/>
-      <c r="W26" s="269"/>
-      <c r="X26" s="218"/>
+      <c r="N26" s="211"/>
+      <c r="O26" s="211"/>
+      <c r="P26" s="211"/>
+      <c r="Q26" s="211"/>
+      <c r="R26" s="211"/>
+      <c r="S26" s="211"/>
+      <c r="T26" s="211"/>
+      <c r="U26" s="211"/>
+      <c r="V26" s="211"/>
+      <c r="W26" s="211"/>
+      <c r="X26" s="212"/>
       <c r="Y26" s="14"/>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
@@ -5555,34 +5550,34 @@
       <c r="AZ26" s="1"/>
     </row>
     <row r="27" spans="1:52" ht="27" customHeight="1">
-      <c r="A27" s="289" t="s">
+      <c r="A27" s="217" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="197"/>
+      <c r="C27" s="197"/>
+      <c r="D27" s="197"/>
+      <c r="E27" s="197"/>
+      <c r="F27" s="197"/>
+      <c r="G27" s="194"/>
+      <c r="H27" s="218"/>
+      <c r="I27" s="197"/>
+      <c r="J27" s="197"/>
+      <c r="K27" s="197"/>
+      <c r="L27" s="219"/>
+      <c r="M27" s="220" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="226"/>
-      <c r="C27" s="226"/>
-      <c r="D27" s="226"/>
-      <c r="E27" s="226"/>
-      <c r="F27" s="226"/>
-      <c r="G27" s="197"/>
-      <c r="H27" s="315"/>
-      <c r="I27" s="226"/>
-      <c r="J27" s="226"/>
-      <c r="K27" s="226"/>
-      <c r="L27" s="228"/>
-      <c r="M27" s="316" t="s">
-        <v>31</v>
-      </c>
-      <c r="N27" s="251"/>
-      <c r="O27" s="251"/>
-      <c r="P27" s="251"/>
-      <c r="Q27" s="251"/>
-      <c r="R27" s="199"/>
-      <c r="S27" s="317"/>
-      <c r="T27" s="226"/>
-      <c r="U27" s="226"/>
-      <c r="V27" s="226"/>
-      <c r="W27" s="226"/>
-      <c r="X27" s="228"/>
+      <c r="N27" s="221"/>
+      <c r="O27" s="221"/>
+      <c r="P27" s="221"/>
+      <c r="Q27" s="221"/>
+      <c r="R27" s="202"/>
+      <c r="S27" s="222"/>
+      <c r="T27" s="197"/>
+      <c r="U27" s="197"/>
+      <c r="V27" s="197"/>
+      <c r="W27" s="197"/>
+      <c r="X27" s="219"/>
       <c r="Y27" s="24"/>
       <c r="Z27" s="8"/>
       <c r="AA27" s="8"/>
@@ -5613,36 +5608,36 @@
       <c r="AZ27" s="1"/>
     </row>
     <row r="28" spans="1:52" ht="27" customHeight="1">
-      <c r="A28" s="241" t="s">
+      <c r="A28" s="239" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="231"/>
+      <c r="C28" s="231"/>
+      <c r="D28" s="231"/>
+      <c r="E28" s="231"/>
+      <c r="F28" s="231"/>
+      <c r="G28" s="204"/>
+      <c r="H28" s="246"/>
+      <c r="I28" s="231"/>
+      <c r="J28" s="231"/>
+      <c r="K28" s="231"/>
+      <c r="L28" s="247"/>
+      <c r="M28" s="306" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="230"/>
-      <c r="C28" s="230"/>
-      <c r="D28" s="230"/>
-      <c r="E28" s="230"/>
-      <c r="F28" s="230"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="229"/>
-      <c r="I28" s="230"/>
-      <c r="J28" s="230"/>
-      <c r="K28" s="230"/>
-      <c r="L28" s="205"/>
-      <c r="M28" s="243" t="s">
-        <v>33</v>
+      <c r="N28" s="231"/>
+      <c r="O28" s="231"/>
+      <c r="P28" s="28" t="s">
+        <v>120</v>
       </c>
-      <c r="N28" s="230"/>
-      <c r="O28" s="230"/>
-      <c r="P28" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q28" s="244"/>
-      <c r="R28" s="205"/>
-      <c r="S28" s="242"/>
-      <c r="T28" s="230"/>
-      <c r="U28" s="230"/>
-      <c r="V28" s="230"/>
-      <c r="W28" s="230"/>
-      <c r="X28" s="205"/>
+      <c r="Q28" s="307"/>
+      <c r="R28" s="247"/>
+      <c r="S28" s="305"/>
+      <c r="T28" s="231"/>
+      <c r="U28" s="231"/>
+      <c r="V28" s="231"/>
+      <c r="W28" s="231"/>
+      <c r="X28" s="247"/>
       <c r="Y28" s="29"/>
       <c r="Z28" s="8"/>
       <c r="AA28" s="8"/>
@@ -5673,34 +5668,34 @@
       <c r="AZ28" s="1"/>
     </row>
     <row r="29" spans="1:52" ht="27" customHeight="1">
-      <c r="A29" s="241" t="s">
+      <c r="A29" s="239" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="231"/>
+      <c r="C29" s="231"/>
+      <c r="D29" s="231"/>
+      <c r="E29" s="231"/>
+      <c r="F29" s="231"/>
+      <c r="G29" s="204"/>
+      <c r="H29" s="246"/>
+      <c r="I29" s="231"/>
+      <c r="J29" s="231"/>
+      <c r="K29" s="231"/>
+      <c r="L29" s="247"/>
+      <c r="M29" s="239" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="230"/>
-      <c r="C29" s="230"/>
-      <c r="D29" s="230"/>
-      <c r="E29" s="230"/>
-      <c r="F29" s="230"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="229"/>
-      <c r="I29" s="230"/>
-      <c r="J29" s="230"/>
-      <c r="K29" s="230"/>
-      <c r="L29" s="205"/>
-      <c r="M29" s="241" t="s">
-        <v>35</v>
-      </c>
-      <c r="N29" s="230"/>
-      <c r="O29" s="230"/>
-      <c r="P29" s="230"/>
-      <c r="Q29" s="230"/>
-      <c r="R29" s="193"/>
-      <c r="S29" s="242"/>
-      <c r="T29" s="230"/>
-      <c r="U29" s="230"/>
-      <c r="V29" s="230"/>
-      <c r="W29" s="230"/>
-      <c r="X29" s="205"/>
+      <c r="N29" s="231"/>
+      <c r="O29" s="231"/>
+      <c r="P29" s="231"/>
+      <c r="Q29" s="231"/>
+      <c r="R29" s="204"/>
+      <c r="S29" s="305"/>
+      <c r="T29" s="231"/>
+      <c r="U29" s="231"/>
+      <c r="V29" s="231"/>
+      <c r="W29" s="231"/>
+      <c r="X29" s="247"/>
       <c r="Y29" s="30"/>
       <c r="Z29" s="8"/>
       <c r="AA29" s="8"/>
@@ -5731,34 +5726,34 @@
       <c r="AZ29" s="1"/>
     </row>
     <row r="30" spans="1:52" ht="27" customHeight="1">
-      <c r="A30" s="211" t="s">
+      <c r="A30" s="251" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="209"/>
+      <c r="C30" s="209"/>
+      <c r="D30" s="209"/>
+      <c r="E30" s="209"/>
+      <c r="F30" s="209"/>
+      <c r="G30" s="199"/>
+      <c r="H30" s="309"/>
+      <c r="I30" s="209"/>
+      <c r="J30" s="209"/>
+      <c r="K30" s="209"/>
+      <c r="L30" s="250"/>
+      <c r="M30" s="264" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="212"/>
-      <c r="C30" s="212"/>
-      <c r="D30" s="212"/>
-      <c r="E30" s="212"/>
-      <c r="F30" s="212"/>
-      <c r="G30" s="213"/>
-      <c r="H30" s="214"/>
-      <c r="I30" s="212"/>
-      <c r="J30" s="212"/>
-      <c r="K30" s="212"/>
-      <c r="L30" s="207"/>
-      <c r="M30" s="215" t="s">
-        <v>37</v>
-      </c>
-      <c r="N30" s="212"/>
-      <c r="O30" s="212"/>
-      <c r="P30" s="212"/>
-      <c r="Q30" s="212"/>
-      <c r="R30" s="212"/>
-      <c r="S30" s="216"/>
-      <c r="T30" s="212"/>
-      <c r="U30" s="212"/>
-      <c r="V30" s="212"/>
-      <c r="W30" s="212"/>
-      <c r="X30" s="207"/>
+      <c r="N30" s="209"/>
+      <c r="O30" s="209"/>
+      <c r="P30" s="209"/>
+      <c r="Q30" s="209"/>
+      <c r="R30" s="209"/>
+      <c r="S30" s="310"/>
+      <c r="T30" s="209"/>
+      <c r="U30" s="209"/>
+      <c r="V30" s="209"/>
+      <c r="W30" s="209"/>
+      <c r="X30" s="250"/>
       <c r="Y30" s="30"/>
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
@@ -5790,7 +5785,7 @@
     </row>
     <row r="31" spans="1:52" ht="26.25" customHeight="1">
       <c r="A31" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -5812,10 +5807,10 @@
       <c r="S31" s="32"/>
       <c r="T31" s="32"/>
       <c r="U31" s="33"/>
-      <c r="V31" s="217" t="s">
-        <v>39</v>
+      <c r="V31" s="311" t="s">
+        <v>38</v>
       </c>
-      <c r="W31" s="218"/>
+      <c r="W31" s="212"/>
       <c r="X31" s="19"/>
       <c r="Y31" s="34"/>
       <c r="Z31" s="8"/>
@@ -5847,38 +5842,38 @@
       <c r="AZ31" s="1"/>
     </row>
     <row r="32" spans="1:52" ht="16.5" customHeight="1">
-      <c r="A32" s="219" t="s">
+      <c r="A32" s="312" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="238"/>
+      <c r="C32" s="238"/>
+      <c r="D32" s="238"/>
+      <c r="E32" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="220"/>
-      <c r="C32" s="220"/>
-      <c r="D32" s="220"/>
-      <c r="E32" s="221" t="s">
+      <c r="F32" s="238"/>
+      <c r="G32" s="238"/>
+      <c r="H32" s="238"/>
+      <c r="I32" s="238"/>
+      <c r="J32" s="238"/>
+      <c r="K32" s="238"/>
+      <c r="L32" s="269"/>
+      <c r="M32" s="313" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="220"/>
-      <c r="G32" s="220"/>
-      <c r="H32" s="220"/>
-      <c r="I32" s="220"/>
-      <c r="J32" s="220"/>
-      <c r="K32" s="220"/>
-      <c r="L32" s="202"/>
-      <c r="M32" s="221" t="s">
+      <c r="N32" s="238"/>
+      <c r="O32" s="238"/>
+      <c r="P32" s="238"/>
+      <c r="Q32" s="238"/>
+      <c r="R32" s="225"/>
+      <c r="S32" s="314" t="s">
         <v>42</v>
       </c>
-      <c r="N32" s="220"/>
-      <c r="O32" s="220"/>
-      <c r="P32" s="220"/>
-      <c r="Q32" s="220"/>
-      <c r="R32" s="222"/>
-      <c r="S32" s="223" t="s">
-        <v>43</v>
-      </c>
-      <c r="T32" s="209"/>
-      <c r="U32" s="209"/>
-      <c r="V32" s="209"/>
-      <c r="W32" s="209"/>
-      <c r="X32" s="210"/>
+      <c r="T32" s="266"/>
+      <c r="U32" s="266"/>
+      <c r="V32" s="266"/>
+      <c r="W32" s="266"/>
+      <c r="X32" s="276"/>
       <c r="Y32" s="14"/>
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
@@ -5909,32 +5904,32 @@
       <c r="AZ32" s="1"/>
     </row>
     <row r="33" spans="1:52" ht="67.5" customHeight="1">
-      <c r="A33" s="268"/>
-      <c r="B33" s="269"/>
-      <c r="C33" s="269"/>
-      <c r="D33" s="218"/>
-      <c r="E33" s="268"/>
-      <c r="F33" s="269"/>
-      <c r="G33" s="269"/>
-      <c r="H33" s="269"/>
-      <c r="I33" s="269"/>
-      <c r="J33" s="269"/>
-      <c r="K33" s="269"/>
-      <c r="L33" s="218"/>
-      <c r="M33" s="270"/>
-      <c r="N33" s="269"/>
-      <c r="O33" s="269"/>
-      <c r="P33" s="269"/>
-      <c r="Q33" s="269"/>
-      <c r="R33" s="218"/>
-      <c r="S33" s="270" t="s">
-        <v>44</v>
+      <c r="A33" s="240"/>
+      <c r="B33" s="211"/>
+      <c r="C33" s="211"/>
+      <c r="D33" s="212"/>
+      <c r="E33" s="240"/>
+      <c r="F33" s="211"/>
+      <c r="G33" s="211"/>
+      <c r="H33" s="211"/>
+      <c r="I33" s="211"/>
+      <c r="J33" s="211"/>
+      <c r="K33" s="211"/>
+      <c r="L33" s="212"/>
+      <c r="M33" s="291"/>
+      <c r="N33" s="211"/>
+      <c r="O33" s="211"/>
+      <c r="P33" s="211"/>
+      <c r="Q33" s="211"/>
+      <c r="R33" s="212"/>
+      <c r="S33" s="291" t="s">
+        <v>43</v>
       </c>
-      <c r="T33" s="269"/>
-      <c r="U33" s="269"/>
-      <c r="V33" s="269"/>
-      <c r="W33" s="269"/>
-      <c r="X33" s="218"/>
+      <c r="T33" s="211"/>
+      <c r="U33" s="211"/>
+      <c r="V33" s="211"/>
+      <c r="W33" s="211"/>
+      <c r="X33" s="212"/>
       <c r="Y33" s="35"/>
       <c r="Z33" s="36"/>
       <c r="AA33" s="36"/>
@@ -5996,127 +5991,127 @@
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
-      <c r="AF34" s="208" t="s">
+      <c r="AF34" s="308" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG34" s="266"/>
+      <c r="AH34" s="266"/>
+      <c r="AI34" s="266"/>
+      <c r="AJ34" s="276"/>
+      <c r="AK34" s="308" t="s">
         <v>45</v>
       </c>
-      <c r="AG34" s="209"/>
-      <c r="AH34" s="209"/>
-      <c r="AI34" s="209"/>
-      <c r="AJ34" s="210"/>
-      <c r="AK34" s="208" t="s">
+      <c r="AL34" s="266"/>
+      <c r="AM34" s="266"/>
+      <c r="AN34" s="266"/>
+      <c r="AO34" s="276"/>
+      <c r="AP34" s="308" t="s">
         <v>46</v>
       </c>
-      <c r="AL34" s="209"/>
-      <c r="AM34" s="209"/>
-      <c r="AN34" s="209"/>
-      <c r="AO34" s="210"/>
-      <c r="AP34" s="208" t="s">
+      <c r="AQ34" s="266"/>
+      <c r="AR34" s="266"/>
+      <c r="AS34" s="266"/>
+      <c r="AT34" s="276"/>
+      <c r="AU34" s="308" t="s">
         <v>47</v>
       </c>
-      <c r="AQ34" s="209"/>
-      <c r="AR34" s="209"/>
-      <c r="AS34" s="209"/>
-      <c r="AT34" s="210"/>
-      <c r="AU34" s="208" t="s">
+      <c r="AV34" s="266"/>
+      <c r="AW34" s="266"/>
+      <c r="AX34" s="266"/>
+      <c r="AY34" s="276"/>
+      <c r="AZ34" s="1"/>
+    </row>
+    <row r="35" spans="1:52" ht="38.25" customHeight="1">
+      <c r="A35" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="AV34" s="209"/>
-      <c r="AW34" s="209"/>
-      <c r="AX34" s="209"/>
-      <c r="AY34" s="210"/>
-      <c r="AZ34" s="1"/>
-    </row>
-    <row r="35" spans="1:52" ht="38.25" customHeight="1">
-      <c r="A35" s="39" t="s">
+      <c r="B35" s="39" t="s">
         <v>49</v>
-      </c>
-      <c r="B35" s="39" t="s">
-        <v>50</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>0</v>
       </c>
       <c r="D35" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="41" t="s">
+      <c r="F35" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F35" s="41" t="s">
+      <c r="G35" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="42" t="s">
+      <c r="H35" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="H35" s="42" t="s">
+      <c r="I35" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I35" s="43" t="s">
+      <c r="J35" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="J35" s="44" t="s">
+      <c r="K35" s="191" t="s">
+        <v>121</v>
+      </c>
+      <c r="L35" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="K35" s="191" t="s">
+      <c r="M35" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="N35" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="O35" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="L35" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="M35" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="N35" s="46" t="s">
+      <c r="P35" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="O35" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="P35" s="47" t="s">
+      <c r="Q35" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="Q35" s="47" t="s">
+      <c r="R35" s="316" t="s">
         <v>62</v>
       </c>
-      <c r="R35" s="194" t="s">
+      <c r="S35" s="267"/>
+      <c r="T35" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="S35" s="195"/>
-      <c r="T35" s="45" t="s">
+      <c r="U35" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="U35" s="48" t="s">
+      <c r="V35" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="V35" s="46" t="s">
+      <c r="W35" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="W35" s="49" t="s">
+      <c r="X35" s="186" t="s">
         <v>67</v>
       </c>
-      <c r="X35" s="186" t="s">
+      <c r="Y35" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="Y35" s="187" t="s">
+      <c r="Z35" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="Z35" s="50" t="s">
+      <c r="AA35" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="AA35" s="50" t="s">
+      <c r="AB35" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="AB35" s="50" t="s">
+      <c r="AC35" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="AC35" s="50" t="s">
+      <c r="AD35" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="AD35" s="51" t="s">
+      <c r="AE35" s="50" t="s">
         <v>74</v>
-      </c>
-      <c r="AE35" s="50" t="s">
-        <v>75</v>
       </c>
       <c r="AF35" s="52">
         <v>1</v>
@@ -6182,74 +6177,74 @@
     </row>
     <row r="36" spans="1:52" ht="18" customHeight="1">
       <c r="A36" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="56" t="s">
+      <c r="C36" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="56" t="s">
+      <c r="D36" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="56" t="s">
+      <c r="E36" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="57" t="s">
+      <c r="F36" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="F36" s="57" t="s">
+      <c r="H36" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="G36" s="58" t="s">
+      <c r="I36" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="J36" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="K36" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="L36" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="M36" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="N36" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="O36" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="P36" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q36" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="R36" s="317" t="s">
         <v>81</v>
       </c>
-      <c r="H36" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="I36" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="J36" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="K36" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="L36" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="M36" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="N36" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="O36" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="P36" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q36" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="R36" s="196" t="s">
+      <c r="S36" s="194"/>
+      <c r="T36" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="S36" s="197"/>
-      <c r="T36" s="60" t="s">
-        <v>83</v>
-      </c>
       <c r="U36" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V36" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W36" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X36" s="61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Y36" s="62"/>
       <c r="Z36" s="62"/>
@@ -6295,11 +6290,11 @@
       <c r="L37" s="77"/>
       <c r="M37" s="72"/>
       <c r="N37" s="75"/>
-      <c r="O37" s="322"/>
+      <c r="O37" s="192"/>
       <c r="P37" s="78"/>
       <c r="Q37" s="79"/>
-      <c r="R37" s="198"/>
-      <c r="S37" s="199"/>
+      <c r="R37" s="223"/>
+      <c r="S37" s="202"/>
       <c r="T37" s="80"/>
       <c r="U37" s="74"/>
       <c r="V37" s="74"/>
@@ -6349,11 +6344,11 @@
       <c r="L38" s="77"/>
       <c r="M38" s="72"/>
       <c r="N38" s="75"/>
-      <c r="O38" s="322"/>
+      <c r="O38" s="192"/>
       <c r="P38" s="78"/>
       <c r="Q38" s="79"/>
-      <c r="R38" s="198"/>
-      <c r="S38" s="199"/>
+      <c r="R38" s="223"/>
+      <c r="S38" s="202"/>
       <c r="T38" s="80"/>
       <c r="U38" s="74"/>
       <c r="V38" s="74"/>
@@ -6403,11 +6398,11 @@
       <c r="L39" s="77"/>
       <c r="M39" s="72"/>
       <c r="N39" s="75"/>
-      <c r="O39" s="322"/>
+      <c r="O39" s="192"/>
       <c r="P39" s="78"/>
       <c r="Q39" s="79"/>
-      <c r="R39" s="198"/>
-      <c r="S39" s="199"/>
+      <c r="R39" s="223"/>
+      <c r="S39" s="202"/>
       <c r="T39" s="80"/>
       <c r="U39" s="74"/>
       <c r="V39" s="74"/>
@@ -6457,11 +6452,11 @@
       <c r="L40" s="77"/>
       <c r="M40" s="72"/>
       <c r="N40" s="75"/>
-      <c r="O40" s="322"/>
+      <c r="O40" s="192"/>
       <c r="P40" s="78"/>
       <c r="Q40" s="79"/>
-      <c r="R40" s="198"/>
-      <c r="S40" s="199"/>
+      <c r="R40" s="223"/>
+      <c r="S40" s="202"/>
       <c r="T40" s="80"/>
       <c r="U40" s="74"/>
       <c r="V40" s="74"/>
@@ -6551,32 +6546,32 @@
       <c r="AZ41" s="67"/>
     </row>
     <row r="42" spans="1:52" ht="21" customHeight="1">
-      <c r="A42" s="318" t="s">
-        <v>84</v>
+      <c r="A42" s="224" t="s">
+        <v>83</v>
       </c>
-      <c r="B42" s="222"/>
-      <c r="C42" s="222"/>
-      <c r="D42" s="222"/>
-      <c r="E42" s="222"/>
-      <c r="F42" s="222"/>
-      <c r="G42" s="222"/>
-      <c r="H42" s="222"/>
-      <c r="I42" s="222"/>
-      <c r="J42" s="222"/>
-      <c r="K42" s="222"/>
-      <c r="L42" s="222"/>
-      <c r="M42" s="222"/>
-      <c r="N42" s="222"/>
-      <c r="O42" s="222"/>
-      <c r="P42" s="222"/>
-      <c r="Q42" s="222"/>
-      <c r="R42" s="222"/>
-      <c r="S42" s="222"/>
-      <c r="T42" s="222"/>
-      <c r="U42" s="222"/>
-      <c r="V42" s="222"/>
-      <c r="W42" s="222"/>
-      <c r="X42" s="222"/>
+      <c r="B42" s="225"/>
+      <c r="C42" s="225"/>
+      <c r="D42" s="225"/>
+      <c r="E42" s="225"/>
+      <c r="F42" s="225"/>
+      <c r="G42" s="225"/>
+      <c r="H42" s="225"/>
+      <c r="I42" s="225"/>
+      <c r="J42" s="225"/>
+      <c r="K42" s="225"/>
+      <c r="L42" s="225"/>
+      <c r="M42" s="225"/>
+      <c r="N42" s="225"/>
+      <c r="O42" s="225"/>
+      <c r="P42" s="225"/>
+      <c r="Q42" s="225"/>
+      <c r="R42" s="225"/>
+      <c r="S42" s="225"/>
+      <c r="T42" s="225"/>
+      <c r="U42" s="225"/>
+      <c r="V42" s="225"/>
+      <c r="W42" s="225"/>
+      <c r="X42" s="225"/>
       <c r="Y42" s="94"/>
       <c r="Z42" s="95"/>
       <c r="AA42" s="95"/>
@@ -6605,36 +6600,36 @@
       <c r="AX42" s="190"/>
       <c r="AY42" s="98"/>
       <c r="AZ42" s="99" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52" ht="21" customHeight="1">
+      <c r="A43" s="226" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="43" spans="1:52" ht="21" customHeight="1">
-      <c r="A43" s="319" t="s">
-        <v>86</v>
-      </c>
-      <c r="B43" s="222"/>
-      <c r="C43" s="222"/>
-      <c r="D43" s="222"/>
-      <c r="E43" s="222"/>
-      <c r="F43" s="222"/>
-      <c r="G43" s="222"/>
-      <c r="H43" s="222"/>
-      <c r="I43" s="222"/>
-      <c r="J43" s="222"/>
-      <c r="K43" s="222"/>
-      <c r="L43" s="222"/>
-      <c r="M43" s="222"/>
-      <c r="N43" s="222"/>
-      <c r="O43" s="222"/>
-      <c r="P43" s="222"/>
-      <c r="Q43" s="222"/>
-      <c r="R43" s="222"/>
-      <c r="S43" s="222"/>
-      <c r="T43" s="222"/>
-      <c r="U43" s="222"/>
-      <c r="V43" s="222"/>
-      <c r="W43" s="222"/>
-      <c r="X43" s="222"/>
+      <c r="B43" s="225"/>
+      <c r="C43" s="225"/>
+      <c r="D43" s="225"/>
+      <c r="E43" s="225"/>
+      <c r="F43" s="225"/>
+      <c r="G43" s="225"/>
+      <c r="H43" s="225"/>
+      <c r="I43" s="225"/>
+      <c r="J43" s="225"/>
+      <c r="K43" s="225"/>
+      <c r="L43" s="225"/>
+      <c r="M43" s="225"/>
+      <c r="N43" s="225"/>
+      <c r="O43" s="225"/>
+      <c r="P43" s="225"/>
+      <c r="Q43" s="225"/>
+      <c r="R43" s="225"/>
+      <c r="S43" s="225"/>
+      <c r="T43" s="225"/>
+      <c r="U43" s="225"/>
+      <c r="V43" s="225"/>
+      <c r="W43" s="225"/>
+      <c r="X43" s="225"/>
       <c r="Y43" s="100"/>
       <c r="Z43" s="95"/>
       <c r="AA43" s="95"/>
@@ -6737,12 +6732,12 @@
       <c r="P45" s="99"/>
       <c r="Q45" s="123"/>
       <c r="R45" s="124" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
-      <c r="S45" s="320"/>
-      <c r="T45" s="228"/>
+      <c r="S45" s="227"/>
+      <c r="T45" s="219"/>
       <c r="U45" s="125" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V45" s="126"/>
       <c r="W45" s="127"/>
@@ -6781,32 +6776,32 @@
       <c r="B46" s="132"/>
       <c r="C46" s="118"/>
       <c r="D46" s="133" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
-      <c r="E46" s="307"/>
-      <c r="F46" s="222"/>
-      <c r="G46" s="222"/>
-      <c r="H46" s="222"/>
+      <c r="E46" s="228"/>
+      <c r="F46" s="225"/>
+      <c r="G46" s="225"/>
+      <c r="H46" s="225"/>
       <c r="I46" s="134"/>
       <c r="J46" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="K46" s="200" t="s">
-        <v>89</v>
+      <c r="K46" s="318" t="s">
+        <v>88</v>
       </c>
-      <c r="L46" s="193"/>
+      <c r="L46" s="204"/>
       <c r="M46" s="136"/>
       <c r="N46" s="137" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O46" s="138"/>
       <c r="P46" s="99"/>
       <c r="Q46" s="139"/>
       <c r="R46" s="140"/>
-      <c r="S46" s="204"/>
-      <c r="T46" s="205"/>
+      <c r="S46" s="321"/>
+      <c r="T46" s="247"/>
       <c r="U46" s="141" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V46" s="142"/>
       <c r="W46" s="143"/>
@@ -6845,30 +6840,30 @@
       <c r="B47" s="132"/>
       <c r="C47" s="118"/>
       <c r="D47" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="228"/>
+      <c r="F47" s="225"/>
+      <c r="G47" s="225"/>
+      <c r="H47" s="225"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="135"/>
+      <c r="K47" s="319" t="s">
         <v>92</v>
       </c>
-      <c r="E47" s="307"/>
-      <c r="F47" s="222"/>
-      <c r="G47" s="222"/>
-      <c r="H47" s="222"/>
-      <c r="I47" s="99"/>
-      <c r="J47" s="135"/>
-      <c r="K47" s="201" t="s">
-        <v>93</v>
-      </c>
-      <c r="L47" s="202"/>
+      <c r="L47" s="269"/>
       <c r="M47" s="136"/>
       <c r="N47" s="137" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O47" s="138"/>
       <c r="P47" s="146"/>
       <c r="Q47" s="99"/>
       <c r="R47" s="99"/>
-      <c r="S47" s="206"/>
-      <c r="T47" s="207"/>
+      <c r="S47" s="322"/>
+      <c r="T47" s="250"/>
       <c r="U47" s="147" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V47" s="148"/>
       <c r="W47" s="149"/>
@@ -6913,13 +6908,13 @@
       <c r="H48" s="151"/>
       <c r="I48" s="99"/>
       <c r="J48" s="152"/>
-      <c r="K48" s="200" t="s">
-        <v>93</v>
+      <c r="K48" s="318" t="s">
+        <v>92</v>
       </c>
-      <c r="L48" s="193"/>
+      <c r="L48" s="204"/>
       <c r="M48" s="153"/>
       <c r="N48" s="154" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O48" s="155"/>
       <c r="P48" s="146"/>
@@ -6964,28 +6959,28 @@
       <c r="A49" s="157"/>
       <c r="B49" s="158"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="308"/>
-      <c r="E49" s="220"/>
-      <c r="F49" s="220"/>
-      <c r="G49" s="220"/>
-      <c r="H49" s="220"/>
-      <c r="I49" s="220"/>
-      <c r="J49" s="220"/>
-      <c r="K49" s="220"/>
-      <c r="L49" s="220"/>
-      <c r="M49" s="220"/>
-      <c r="N49" s="220"/>
-      <c r="O49" s="220"/>
-      <c r="P49" s="220"/>
-      <c r="Q49" s="220"/>
-      <c r="R49" s="220"/>
-      <c r="S49" s="220"/>
+      <c r="D49" s="237"/>
+      <c r="E49" s="238"/>
+      <c r="F49" s="238"/>
+      <c r="G49" s="238"/>
+      <c r="H49" s="238"/>
+      <c r="I49" s="238"/>
+      <c r="J49" s="238"/>
+      <c r="K49" s="238"/>
+      <c r="L49" s="238"/>
+      <c r="M49" s="238"/>
+      <c r="N49" s="238"/>
+      <c r="O49" s="238"/>
+      <c r="P49" s="238"/>
+      <c r="Q49" s="238"/>
+      <c r="R49" s="238"/>
+      <c r="S49" s="238"/>
       <c r="T49" s="159"/>
       <c r="U49" s="160" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
-      <c r="V49" s="245"/>
-      <c r="W49" s="245"/>
+      <c r="V49" s="279"/>
+      <c r="W49" s="279"/>
       <c r="X49" s="161"/>
       <c r="Y49" s="161"/>
       <c r="Z49" s="161"/>
@@ -7019,35 +7014,35 @@
     <row r="50" spans="1:52" ht="28.5" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="310" t="s">
+      <c r="C50" s="233" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="205" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="305" t="s">
+      <c r="E50" s="204"/>
+      <c r="F50" s="236"/>
+      <c r="G50" s="204"/>
+      <c r="H50" s="163"/>
+      <c r="I50" s="164"/>
+      <c r="J50" s="233" t="s">
         <v>98</v>
       </c>
-      <c r="E50" s="193"/>
-      <c r="F50" s="311"/>
-      <c r="G50" s="193"/>
-      <c r="H50" s="163"/>
-      <c r="I50" s="164"/>
-      <c r="J50" s="310" t="s">
+      <c r="K50" s="320" t="s">
         <v>99</v>
       </c>
-      <c r="K50" s="203" t="s">
-        <v>100</v>
-      </c>
-      <c r="L50" s="193"/>
+      <c r="L50" s="204"/>
       <c r="M50" s="165"/>
       <c r="N50" s="163"/>
       <c r="O50" s="1"/>
       <c r="P50" s="164"/>
-      <c r="Q50" s="246" t="s">
-        <v>117</v>
+      <c r="Q50" s="242" t="s">
+        <v>116</v>
       </c>
-      <c r="R50" s="230"/>
-      <c r="S50" s="193"/>
-      <c r="T50" s="247"/>
-      <c r="U50" s="248"/>
+      <c r="R50" s="231"/>
+      <c r="S50" s="204"/>
+      <c r="T50" s="280"/>
+      <c r="U50" s="281"/>
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
       <c r="X50" s="8"/>
@@ -7083,33 +7078,33 @@
     <row r="51" spans="1:52" ht="28.5" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="263"/>
-      <c r="D51" s="305" t="s">
-        <v>101</v>
+      <c r="C51" s="234"/>
+      <c r="D51" s="205" t="s">
+        <v>100</v>
       </c>
-      <c r="E51" s="193"/>
-      <c r="F51" s="306"/>
-      <c r="G51" s="193"/>
+      <c r="E51" s="204"/>
+      <c r="F51" s="203"/>
+      <c r="G51" s="204"/>
       <c r="H51" s="163"/>
       <c r="I51" s="164"/>
-      <c r="J51" s="263"/>
-      <c r="K51" s="249">
+      <c r="J51" s="234"/>
+      <c r="K51" s="282">
         <v>30</v>
       </c>
-      <c r="L51" s="193"/>
+      <c r="L51" s="204"/>
       <c r="M51" s="168"/>
       <c r="N51" s="163"/>
       <c r="O51" s="169" t="s">
+        <v>101</v>
+      </c>
+      <c r="P51" s="170"/>
+      <c r="Q51" s="242" t="s">
         <v>102</v>
       </c>
-      <c r="P51" s="170"/>
-      <c r="Q51" s="246" t="s">
-        <v>103</v>
-      </c>
-      <c r="R51" s="230"/>
-      <c r="S51" s="193"/>
-      <c r="T51" s="247"/>
-      <c r="U51" s="193"/>
+      <c r="R51" s="231"/>
+      <c r="S51" s="204"/>
+      <c r="T51" s="280"/>
+      <c r="U51" s="204"/>
       <c r="V51" s="171"/>
       <c r="W51" s="1"/>
       <c r="X51" s="8"/>
@@ -7145,31 +7140,31 @@
     <row r="52" spans="1:52" ht="28.5" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="5"/>
-      <c r="C52" s="263"/>
-      <c r="D52" s="305" t="s">
+      <c r="C52" s="234"/>
+      <c r="D52" s="205" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="204"/>
+      <c r="F52" s="203"/>
+      <c r="G52" s="204"/>
+      <c r="H52" s="163"/>
+      <c r="I52" s="164"/>
+      <c r="J52" s="234"/>
+      <c r="K52" s="241" t="s">
         <v>104</v>
       </c>
-      <c r="E52" s="193"/>
-      <c r="F52" s="306"/>
-      <c r="G52" s="193"/>
-      <c r="H52" s="163"/>
-      <c r="I52" s="164"/>
-      <c r="J52" s="263"/>
-      <c r="K52" s="234" t="s">
-        <v>105</v>
-      </c>
-      <c r="L52" s="193"/>
+      <c r="L52" s="204"/>
       <c r="M52" s="165"/>
       <c r="N52" s="163"/>
       <c r="O52" s="1"/>
       <c r="P52" s="170"/>
-      <c r="Q52" s="246" t="s">
-        <v>106</v>
+      <c r="Q52" s="242" t="s">
+        <v>105</v>
       </c>
-      <c r="R52" s="230"/>
-      <c r="S52" s="193"/>
-      <c r="T52" s="192"/>
-      <c r="U52" s="193"/>
+      <c r="R52" s="231"/>
+      <c r="S52" s="204"/>
+      <c r="T52" s="315"/>
+      <c r="U52" s="204"/>
       <c r="V52" s="171"/>
       <c r="W52" s="1"/>
       <c r="X52" s="8"/>
@@ -7205,24 +7200,24 @@
     <row r="53" spans="1:52" ht="28.5" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="5"/>
-      <c r="C53" s="263"/>
+      <c r="C53" s="234"/>
       <c r="D53" s="162" t="s">
+        <v>106</v>
+      </c>
+      <c r="E53" s="172"/>
+      <c r="F53" s="203"/>
+      <c r="G53" s="204"/>
+      <c r="H53" s="163"/>
+      <c r="I53" s="164"/>
+      <c r="J53" s="234"/>
+      <c r="K53" s="241" t="s">
         <v>107</v>
       </c>
-      <c r="E53" s="172"/>
-      <c r="F53" s="306"/>
-      <c r="G53" s="193"/>
-      <c r="H53" s="163"/>
-      <c r="I53" s="164"/>
-      <c r="J53" s="263"/>
-      <c r="K53" s="234" t="s">
-        <v>108</v>
-      </c>
-      <c r="L53" s="193"/>
+      <c r="L53" s="204"/>
       <c r="M53" s="165"/>
       <c r="N53" s="163"/>
       <c r="O53" s="173" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P53" s="170"/>
       <c r="Q53" s="1"/>
@@ -7265,20 +7260,20 @@
     <row r="54" spans="1:52" ht="28.5" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="5"/>
-      <c r="C54" s="263"/>
-      <c r="D54" s="305" t="s">
+      <c r="C54" s="234"/>
+      <c r="D54" s="205" t="s">
+        <v>109</v>
+      </c>
+      <c r="E54" s="204"/>
+      <c r="F54" s="203"/>
+      <c r="G54" s="204"/>
+      <c r="H54" s="163"/>
+      <c r="I54" s="164"/>
+      <c r="J54" s="234"/>
+      <c r="K54" s="299" t="s">
         <v>110</v>
       </c>
-      <c r="E54" s="193"/>
-      <c r="F54" s="306"/>
-      <c r="G54" s="193"/>
-      <c r="H54" s="163"/>
-      <c r="I54" s="164"/>
-      <c r="J54" s="263"/>
-      <c r="K54" s="235" t="s">
-        <v>111</v>
-      </c>
-      <c r="L54" s="193"/>
+      <c r="L54" s="204"/>
       <c r="M54" s="165"/>
       <c r="N54" s="163"/>
       <c r="O54" s="1"/>
@@ -7323,31 +7318,31 @@
     <row r="55" spans="1:52" ht="28.5" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="263"/>
-      <c r="D55" s="305" t="s">
+      <c r="C55" s="234"/>
+      <c r="D55" s="205" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="204"/>
+      <c r="F55" s="203"/>
+      <c r="G55" s="204"/>
+      <c r="H55" s="163"/>
+      <c r="I55" s="164"/>
+      <c r="J55" s="234"/>
+      <c r="K55" s="300" t="s">
         <v>112</v>
       </c>
-      <c r="E55" s="193"/>
-      <c r="F55" s="306"/>
-      <c r="G55" s="193"/>
-      <c r="H55" s="163"/>
-      <c r="I55" s="164"/>
-      <c r="J55" s="263"/>
-      <c r="K55" s="236" t="s">
-        <v>113</v>
-      </c>
-      <c r="L55" s="193"/>
+      <c r="L55" s="204"/>
       <c r="M55" s="165"/>
       <c r="N55" s="163"/>
       <c r="O55" s="1"/>
       <c r="P55" s="170"/>
-      <c r="Q55" s="237" t="s">
-        <v>114</v>
+      <c r="Q55" s="301" t="s">
+        <v>113</v>
       </c>
-      <c r="R55" s="230"/>
-      <c r="S55" s="193"/>
-      <c r="T55" s="238"/>
-      <c r="U55" s="193"/>
+      <c r="R55" s="231"/>
+      <c r="S55" s="204"/>
+      <c r="T55" s="302"/>
+      <c r="U55" s="204"/>
       <c r="V55" s="6"/>
       <c r="W55" s="1"/>
       <c r="X55" s="8"/>
@@ -7383,22 +7378,22 @@
     <row r="56" spans="1:52" ht="28.5" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="5"/>
-      <c r="C56" s="263"/>
-      <c r="D56" s="305" t="s">
-        <v>115</v>
+      <c r="C56" s="234"/>
+      <c r="D56" s="205" t="s">
+        <v>114</v>
       </c>
-      <c r="E56" s="193"/>
-      <c r="F56" s="306"/>
-      <c r="G56" s="193"/>
+      <c r="E56" s="204"/>
+      <c r="F56" s="203"/>
+      <c r="G56" s="204"/>
       <c r="H56" s="163"/>
       <c r="I56" s="164"/>
-      <c r="J56" s="263"/>
-      <c r="K56" s="239">
+      <c r="J56" s="234"/>
+      <c r="K56" s="303">
         <v>30</v>
       </c>
-      <c r="L56" s="193"/>
-      <c r="M56" s="240"/>
-      <c r="N56" s="193"/>
+      <c r="L56" s="204"/>
+      <c r="M56" s="304"/>
+      <c r="N56" s="204"/>
       <c r="O56" s="164"/>
       <c r="P56" s="170"/>
       <c r="Q56" s="174"/>
@@ -7441,22 +7436,22 @@
     <row r="57" spans="1:52" ht="28.5" customHeight="1">
       <c r="A57" s="176"/>
       <c r="B57" s="5"/>
-      <c r="C57" s="264"/>
-      <c r="D57" s="232" t="s">
-        <v>116</v>
+      <c r="C57" s="235"/>
+      <c r="D57" s="229" t="s">
+        <v>115</v>
       </c>
-      <c r="E57" s="193"/>
-      <c r="F57" s="233"/>
-      <c r="G57" s="230"/>
-      <c r="H57" s="193"/>
+      <c r="E57" s="204"/>
+      <c r="F57" s="230"/>
+      <c r="G57" s="231"/>
+      <c r="H57" s="204"/>
       <c r="I57" s="177"/>
-      <c r="J57" s="264"/>
-      <c r="K57" s="232" t="s">
-        <v>116</v>
+      <c r="J57" s="235"/>
+      <c r="K57" s="229" t="s">
+        <v>115</v>
       </c>
-      <c r="L57" s="193"/>
-      <c r="M57" s="233"/>
-      <c r="N57" s="193"/>
+      <c r="L57" s="204"/>
+      <c r="M57" s="230"/>
+      <c r="N57" s="204"/>
       <c r="O57" s="177"/>
       <c r="P57" s="178"/>
       <c r="Q57" s="179"/>
@@ -7502,9 +7497,9 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="309"/>
-      <c r="G58" s="230"/>
-      <c r="H58" s="193"/>
+      <c r="F58" s="232"/>
+      <c r="G58" s="231"/>
+      <c r="H58" s="204"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -58042,16 +58037,166 @@
     </row>
   </sheetData>
   <mergeCells count="194">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="AF34:AJ34"/>
+    <mergeCell ref="AK34:AO34"/>
+    <mergeCell ref="AP34:AT34"/>
+    <mergeCell ref="AU34:AY34"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:X32"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="S20:X20"/>
+    <mergeCell ref="S21:X21"/>
+    <mergeCell ref="S22:X22"/>
+    <mergeCell ref="S23:X23"/>
+    <mergeCell ref="T24:X24"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="Q55:S55"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:X29"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="M10:O13"/>
+    <mergeCell ref="P10:R13"/>
+    <mergeCell ref="S10:S13"/>
+    <mergeCell ref="T10:X13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="E33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:X33"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="M14:O17"/>
+    <mergeCell ref="P14:R17"/>
+    <mergeCell ref="S14:S17"/>
+    <mergeCell ref="T14:X17"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="S4:W4"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="M7:O9"/>
+    <mergeCell ref="P7:R9"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="T7:X9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="S18:X18"/>
+    <mergeCell ref="S19:X19"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="D49:S49"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="C50:C57"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="J50:J57"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="D52:E52"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="A14:B14"/>
@@ -58076,166 +58221,16 @@
     <mergeCell ref="A43:X43"/>
     <mergeCell ref="S45:T45"/>
     <mergeCell ref="E46:H46"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="C50:C57"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="J50:J57"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="D49:S49"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="Q52:S52"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="S18:X18"/>
-    <mergeCell ref="S19:X19"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="A2:X2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="S4:W4"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="M7:O9"/>
-    <mergeCell ref="P7:R9"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="T7:X9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="M10:O13"/>
-    <mergeCell ref="P10:R13"/>
-    <mergeCell ref="S10:S13"/>
-    <mergeCell ref="T10:X13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="E33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:X33"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="M14:O17"/>
-    <mergeCell ref="P14:R17"/>
-    <mergeCell ref="S14:S17"/>
-    <mergeCell ref="T14:X17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="S20:X20"/>
-    <mergeCell ref="S21:X21"/>
-    <mergeCell ref="S22:X22"/>
-    <mergeCell ref="S23:X23"/>
-    <mergeCell ref="T24:X24"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="Q55:S55"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:X29"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="AF34:AJ34"/>
-    <mergeCell ref="AK34:AO34"/>
-    <mergeCell ref="AP34:AT34"/>
-    <mergeCell ref="AU34:AY34"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:X32"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
   </mergeCells>
   <phoneticPr fontId="73" type="noConversion"/>
   <dataValidations count="2">
